--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="303">
   <si>
     <t>Main Topic</t>
   </si>
@@ -2211,6 +2211,37 @@
   </si>
   <si>
     <t>While performing select statement, non-repeatable reads my occur when read locks are not acquired. Non-repeatable reads may occur at the need of effected transaction by a commit conflict, must roll back is relaxed</t>
+  </si>
+  <si>
+    <t>Spring Security</t>
+  </si>
+  <si>
+    <t>Spring Security Definitions</t>
+  </si>
+  <si>
+    <t>To handle authentication and autherization in spring based web applications</t>
+  </si>
+  <si>
+    <t>Examples/Material Links</t>
+  </si>
+  <si>
+    <t>Spring Security Hello World example</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>images\3_Spring\1_Spring_Security\1_Spring_Security_Hello_World.docx</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2389,7 +2420,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2400,29 +2431,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2437,12 +2450,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2451,11 +2458,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2752,10 +2793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2765,57 +2806,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1"/>
@@ -2828,8 +2869,25 @@
         <v>2</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="Core!A1" display="Spring Core"/>
+    <hyperlink ref="A3" location="'Java Based Conf'!A1" display="Java based configurations"/>
+    <hyperlink ref="A4" location="JDBC!A1" display="Spring JDBS/DAO"/>
+    <hyperlink ref="A5" location="AOP!A1" display="Spring AOP"/>
+    <hyperlink ref="A6" location="ORM!A1" display="Spring ORM"/>
+    <hyperlink ref="A7" location="MVC!A1" display="Spring MVC"/>
+    <hyperlink ref="A8" location="Transaction!A1" display="Spring Transaction"/>
+    <hyperlink ref="A9" location="ActiveMQ!A1" display="Spring + ActiveMQ"/>
+    <hyperlink ref="A11" location="Security!A1" display="Spring Security"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2840,7 +2898,20 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="65.7109375" customWidth="1"/>
+    <col min="2" max="2" width="114.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A9" display="Topics"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2861,9 +2932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2880,106 +2949,106 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="21"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="90">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="16"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="16"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="7" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3002,8 +3071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3021,13 +3090,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="21"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3035,13 +3104,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3049,15 +3118,15 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="330">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3065,133 +3134,133 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="11"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="105">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3199,268 +3268,268 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="120">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="45">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="150">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="255">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="60">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="11"/>
-      <c r="B46" s="13" t="s">
+      <c r="A46" s="23"/>
+      <c r="B46" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60">
-      <c r="A47" s="11"/>
-      <c r="B47" s="13" t="s">
+      <c r="A47" s="23"/>
+      <c r="B47" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="11"/>
-      <c r="B49" s="13" t="s">
+      <c r="A49" s="23"/>
+      <c r="B49" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="90">
-      <c r="A50" s="11"/>
-      <c r="B50" s="13" t="s">
+      <c r="A50" s="23"/>
+      <c r="B50" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="60">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="11"/>
-      <c r="B52" s="13" t="s">
+      <c r="A52" s="23"/>
+      <c r="B52" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="30">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="60">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="195">
-      <c r="A60" s="16"/>
-      <c r="B60" s="13" t="s">
+      <c r="A60" s="18"/>
+      <c r="B60" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="180">
-      <c r="A61" s="17"/>
-      <c r="B61" s="13" t="s">
+      <c r="A61" s="19"/>
+      <c r="B61" s="7" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3484,11 +3553,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:B28"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3496,201 +3563,206 @@
     <col min="2" max="2" width="125.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="21"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="7" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="7" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="7" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="7" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="7" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="7" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="7" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3698,17 +3770,18 @@
   <mergeCells count="1">
     <mergeCell ref="A4:B4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:B4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3716,17 +3789,22 @@
     <col min="2" max="2" width="120.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3734,17 +3812,18 @@
   <mergeCells count="1">
     <mergeCell ref="A3:B3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A6" display="Topics"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:B24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3752,14 +3831,19 @@
     <col min="2" max="2" width="130.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:2" ht="90">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="6" t="s">
         <v>189</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3767,162 +3851,162 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="105">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="135">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="7" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="7" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="7" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="7" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="7" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="7" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="7" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3930,16 +4014,19 @@
   <mergeCells count="1">
     <mergeCell ref="A3:B3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:B8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3949,41 +4036,46 @@
     <col min="3" max="3" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="11" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="11" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3991,7 +4083,7 @@
       <c r="A8" t="s">
         <v>241</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="12" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4004,6 +4096,7 @@
     <hyperlink ref="B5" r:id="rId2"/>
     <hyperlink ref="B6" r:id="rId3"/>
     <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4011,11 +4104,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:B34"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4023,241 +4114,246 @@
     <col min="2" max="2" width="119.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:2" ht="60">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="7" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="26"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="11"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="7" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="7" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="7" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="7" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="7" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="11"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="7" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="7" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="7" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="7" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="105">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="7" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="7" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="7" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="7" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="7" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="7" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="11"/>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="7" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="11"/>
-      <c r="B33" s="13" t="s">
+      <c r="A33" s="23"/>
+      <c r="B33" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="7" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4270,19 +4366,75 @@
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A20:A21"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A8" display="Topics"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="62.85546875" customWidth="1"/>
+    <col min="2" max="2" width="118.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="21"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="21"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A11" display="Topics"/>
+    <hyperlink ref="B1" location="Security!A2" display="Up"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="ActiveMQ" sheetId="10" r:id="rId10"/>
     <sheet name="Camel" sheetId="11" r:id="rId11"/>
     <sheet name="Java Based Conf" sheetId="12" r:id="rId12"/>
+    <sheet name="Boot" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="316">
   <si>
     <t>Main Topic</t>
   </si>
@@ -2222,9 +2223,6 @@
     <t>To handle authentication and autherization in spring based web applications</t>
   </si>
   <si>
-    <t>Examples/Material Links</t>
-  </si>
-  <si>
     <t>Spring Security Hello World example</t>
   </si>
   <si>
@@ -2242,6 +2240,48 @@
       </rPr>
       <t>images\3_Spring\1_Spring_Security\1_Spring_Security_Hello_World.docx</t>
     </r>
+  </si>
+  <si>
+    <t>Password hashing</t>
+  </si>
+  <si>
+    <t>for Logout</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>Material Links</t>
+  </si>
+  <si>
+    <t>http://www.mkyong.com/tutorials/spring-security-tutorials/</t>
+  </si>
+  <si>
+    <t>http://howtodoinjava.com/spring/spring-security/spring-3-security-siteminder-pre-authentication-example/</t>
+  </si>
+  <si>
+    <t>Spring security all examples</t>
+  </si>
+  <si>
+    <t>Siteminder pre-authentication example</t>
+  </si>
+  <si>
+    <t>Spring Security reference documentation</t>
+  </si>
+  <si>
+    <t>http://docs.spring.io/spring-security/site/docs/3.0.x/reference/springsecurity.html</t>
+  </si>
+  <si>
+    <t>Security pre authentication</t>
+  </si>
+  <si>
+    <t>http://javadiscover.blogspot.in/2015/05/spring-security-pre-authentication.html</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+  </si>
+  <si>
+    <t>Spring Boot Definitions</t>
   </si>
 </sst>
 </file>
@@ -2793,10 +2833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2874,6 +2914,11 @@
         <v>297</v>
       </c>
     </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="Core!A1" display="Spring Core"/>
@@ -2885,6 +2930,7 @@
     <hyperlink ref="A8" location="Transaction!A1" display="Spring Transaction"/>
     <hyperlink ref="A9" location="ActiveMQ!A1" display="Spring + ActiveMQ"/>
     <hyperlink ref="A11" location="Security!A1" display="Spring Security"/>
+    <hyperlink ref="A12" location="Boot!A1" display="Spring Boot"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2920,9 +2966,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="57.140625" customWidth="1"/>
+    <col min="2" max="2" width="128.5703125" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2932,7 +2982,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3062,6 +3114,61 @@
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
     <hyperlink ref="B1" location="'Java Based Conf'!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="61.5703125" customWidth="1"/>
+    <col min="2" max="2" width="122.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="21"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" s="21"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Boot!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A12" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4375,9 +4482,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
@@ -4396,45 +4503,101 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="21"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="B5" s="21"/>
+      <c r="A5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="15"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="21"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10" t="s">
         <v>301</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="B14" s="21"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="B10" s="21"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>297</v>
-      </c>
-      <c r="B11" t="s">
-        <v>299</v>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
+  <mergeCells count="3">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A11" display="Topics"/>
     <hyperlink ref="B1" location="Security!A2" display="Up"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="317">
   <si>
     <t>Main Topic</t>
   </si>
@@ -1033,9 +1033,6 @@
     <t>Spring java based configuration</t>
   </si>
   <si>
-    <t>16th chapter. Read this.</t>
-  </si>
-  <si>
     <t>Default scope of inner beans</t>
   </si>
   <si>
@@ -2282,6 +2279,12 @@
   </si>
   <si>
     <t>Spring Boot Definitions</t>
+  </si>
+  <si>
+    <t>Spring + Camel</t>
+  </si>
+  <si>
+    <t>Refer Java Based Conf tab</t>
   </si>
 </sst>
 </file>
@@ -2460,7 +2463,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2537,6 +2540,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2833,10 +2839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2911,12 +2917,17 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="15" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2931,6 +2942,7 @@
     <hyperlink ref="A9" location="ActiveMQ!A1" display="Spring + ActiveMQ"/>
     <hyperlink ref="A11" location="Security!A1" display="Spring Security"/>
     <hyperlink ref="A12" location="Boot!A1" display="Spring Boot"/>
+    <hyperlink ref="A13" location="Camel!A1" display="Spring + Camel"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2964,16 +2976,32 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="57.140625" customWidth="1"/>
     <col min="2" max="2" width="128.5703125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Camel!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A13" display="Topics"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2982,9 +3010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3008,100 +3034,100 @@
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
       <c r="A6" s="23"/>
       <c r="B6" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
       <c r="A8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="90">
       <c r="A9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
       <c r="A11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" s="18"/>
       <c r="B13" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
       <c r="A16" s="18"/>
       <c r="B16" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3144,19 +3170,19 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B3" s="21"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B10" s="21"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B17" s="21"/>
     </row>
@@ -3178,8 +3204,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3576,68 +3603,68 @@
       <c r="A53" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>103</v>
+      <c r="B53" s="27" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30">
       <c r="A56" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="30">
       <c r="A57" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="60">
       <c r="A58" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
       <c r="A59" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="195">
       <c r="A60" s="18"/>
       <c r="B60" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="180">
       <c r="A61" s="19"/>
       <c r="B61" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3653,6 +3680,7 @@
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="B1" location="Core!A2" display="Up"/>
+    <hyperlink ref="B53" location="'Java Based Conf'!A2" display="Refer Java Based Conf tab"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3677,200 +3705,200 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="21"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
       <c r="A12" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3903,16 +3931,16 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3951,10 +3979,10 @@
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105">
@@ -3962,159 +3990,159 @@
         <v>34</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="135">
       <c r="A6" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
       <c r="A17" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
       <c r="A24" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4156,42 +4184,42 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>239</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="75">
       <c r="A8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4234,234 +4262,234 @@
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
       <c r="A5" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="23"/>
       <c r="B11" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
       <c r="A12" s="23"/>
       <c r="B12" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B13" s="26"/>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="23"/>
       <c r="B15" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
       <c r="A16" s="23"/>
       <c r="B16" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
       <c r="A21" s="23"/>
       <c r="B21" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="105">
       <c r="A25" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
       <c r="A32" s="23"/>
       <c r="B32" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
       <c r="A33" s="23"/>
       <c r="B33" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
       <c r="A34" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4505,40 +4533,40 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>310</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>312</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4546,40 +4574,40 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B9" s="21"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" t="s">
         <v>300</v>
-      </c>
-      <c r="B10" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B14" s="21"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="322">
   <si>
     <t>Main Topic</t>
   </si>
@@ -2285,6 +2285,81 @@
   </si>
   <si>
     <t>Refer Java Based Conf tab</t>
+  </si>
+  <si>
+    <t>If we want to get labels in UI(html/jsp etc) using &lt;spring:message code="key1"/&gt; tag. We have to give key1 in properties file. How to configure properties file</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If single file:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;bean id="msgResource" class="org.springframework.context.support.ReloadableResourceBundleMessageSource"&gt;
+ &lt;property name="basename" value="classpath:resources/ApplicationResources"/&gt;
+  &lt;/bean&gt;
+&lt;bean id="localeResolver" class="com.operative.dashboard.web.common.I18nLocaleResolver"&gt;
+ &lt;property name="defaultLocale" value="en" /&gt;
+  &lt;/bean&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If more than one file:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;bean id="messageSource" class="org.springframework.context.support.ReloadableResourceBundleMessageSource"&gt;
+   &lt;property name="basenames"&gt;
+     &lt;list&gt;
+    &lt;value&gt;/WEB-INF/messages/locales&lt;/value&gt;
+    &lt;value&gt;/WEB-INF/messages/messages&lt;/value&gt;
+    &lt;value&gt;/WEB-INF/messages/errorMessages&lt;/value&gt;
+     &lt;/list&gt;
+   &lt;/property&gt;
+    &lt;property name="defaultEncoding" value="UTF-8"/&gt;
+    &lt;property name="cacheSeconds" value="30" /&gt;
+&lt;/bean&gt;
+&lt;bean id="localeResolver" class="com.operative.dashboard.web.common.I18nLocaleResolver"&gt;
+ &lt;property name="defaultLocale" value="en" /&gt;
+  &lt;/bean&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>use properties for variables in spring config xml file</t>
+  </si>
+  <si>
+    <t>&lt;context:property-placeholder location="classpath:jdbc.properties" /&gt;</t>
   </si>
 </sst>
 </file>
@@ -2463,7 +2538,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2514,6 +2589,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2540,9 +2621,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3010,7 +3088,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3027,13 +3107,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="23"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>117</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3041,7 +3121,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="23"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="7" t="s">
         <v>119</v>
       </c>
@@ -3087,7 +3167,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="20" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -3095,7 +3175,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="18"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="7" t="s">
         <v>132</v>
       </c>
@@ -3109,7 +3189,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="20" t="s">
         <v>135</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -3117,7 +3197,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="18"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="7" t="s">
         <v>137</v>
       </c>
@@ -3169,22 +3249,22 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="23"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="23"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3202,11 +3282,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3224,13 +3304,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="23"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3238,7 +3318,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3260,7 +3340,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3268,7 +3348,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -3546,7 +3626,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="25" t="s">
         <v>91</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -3554,19 +3634,19 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="23"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60">
-      <c r="A47" s="23"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="25" t="s">
         <v>95</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -3574,19 +3654,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="23"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="90">
-      <c r="A50" s="23"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="60">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="25" t="s">
         <v>99</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -3594,7 +3674,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="23"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="7" t="s">
         <v>101</v>
       </c>
@@ -3603,7 +3683,7 @@
       <c r="A53" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="18" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3648,7 +3728,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="20" t="s">
         <v>113</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -3656,15 +3736,23 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="195">
-      <c r="A60" s="18"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="180">
-      <c r="A61" s="19"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="7" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3704,10 +3792,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="23"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -3930,10 +4018,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="23"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -3972,10 +4060,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="23"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -4158,10 +4246,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4177,10 +4265,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="23"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -4220,6 +4308,19 @@
       </c>
       <c r="B8" s="12" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="105">
+      <c r="A9" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="225">
+      <c r="B10" s="12" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4234,6 +4335,7 @@
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -4255,10 +4357,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="23"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
@@ -4309,7 +4411,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="25" t="s">
         <v>254</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -4317,25 +4419,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="23"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="7" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="25" t="s">
         <v>259</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -4343,13 +4445,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="7" t="s">
         <v>262</v>
       </c>
@@ -4379,7 +4481,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="25" t="s">
         <v>269</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -4387,7 +4489,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="23"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="7" t="s">
         <v>271</v>
       </c>
@@ -4465,7 +4567,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="25" t="s">
         <v>290</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -4473,13 +4575,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="23"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="7" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="23"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="7" t="s">
         <v>293</v>
       </c>
@@ -4532,10 +4634,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4573,10 +4675,10 @@
       <c r="B7" s="15"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="23"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -4587,10 +4689,10 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="23"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
@@ -4631,12 +4733,27 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="2" max="2" width="129.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="Camel" sheetId="11" r:id="rId11"/>
     <sheet name="Java Based Conf" sheetId="12" r:id="rId12"/>
     <sheet name="Boot" sheetId="13" r:id="rId13"/>
+    <sheet name="Annotations" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="330">
   <si>
     <t>Main Topic</t>
   </si>
@@ -2360,6 +2361,43 @@
   </si>
   <si>
     <t>&lt;context:property-placeholder location="classpath:jdbc.properties" /&gt;</t>
+  </si>
+  <si>
+    <t>Spring REST</t>
+  </si>
+  <si>
+    <t>Spring Annotations</t>
+  </si>
+  <si>
+    <t>Materials/images</t>
+  </si>
+  <si>
+    <t>Definitions</t>
+  </si>
+  <si>
+    <t>Spring @Component, @Service, @Repository and @Controller annotations are used for automatic bean detection using classpath scan in Spring framework. @Component is a generic annotation. Difference of @Service, @Repository, @Controller with @Component is they are special cases of @Component and used for particular purposes. The difference is just classification only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Component, @Controller, @Repository, @Service</t>
+  </si>
+  <si>
+    <t>Difference between above 4 annotations</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>images/3_Spring/n_annotations_differences.pdf</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2538,7 +2576,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2593,6 +2631,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2917,10 +2958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2986,11 +3027,8 @@
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
+      <c r="A10" s="15" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3006,6 +3044,11 @@
     <row r="13" spans="1:2">
       <c r="A13" s="15" t="s">
         <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="15" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -3021,6 +3064,8 @@
     <hyperlink ref="A11" location="Security!A1" display="Spring Security"/>
     <hyperlink ref="A12" location="Boot!A1" display="Spring Boot"/>
     <hyperlink ref="A13" location="Camel!A1" display="Spring + Camel"/>
+    <hyperlink ref="A14" location="REST!A1" display="Spring REST"/>
+    <hyperlink ref="A10" location="Annotations!A1" display="Spring Annotations"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3089,7 +3134,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3107,13 +3152,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>117</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3121,7 +3166,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="7" t="s">
         <v>119</v>
       </c>
@@ -3167,7 +3212,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -3175,7 +3220,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="7" t="s">
         <v>132</v>
       </c>
@@ -3189,7 +3234,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>135</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -3197,7 +3242,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="7" t="s">
         <v>137</v>
       </c>
@@ -3231,7 +3276,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3249,22 +3294,22 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="24"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="24"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3277,6 +3322,79 @@
     <hyperlink ref="A1" location="Topics!A12" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="63.5703125" customWidth="1"/>
+    <col min="2" max="2" width="120.5703125" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="24"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" s="24"/>
+    </row>
+    <row r="7" spans="1:2" ht="45">
+      <c r="A7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A10" display="Topics"/>
+    <hyperlink ref="B1" location="Annotations!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3304,13 +3422,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3318,7 +3436,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3340,7 +3458,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3348,7 +3466,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -3626,7 +3744,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -3634,19 +3752,19 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="25"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60">
-      <c r="A47" s="25"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="26" t="s">
         <v>95</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -3654,19 +3772,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="25"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="90">
-      <c r="A50" s="25"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="60">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -3674,7 +3792,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="25"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="7" t="s">
         <v>101</v>
       </c>
@@ -3728,7 +3846,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="21" t="s">
         <v>113</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -3736,13 +3854,13 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="195">
-      <c r="A60" s="20"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="180">
-      <c r="A61" s="21"/>
+      <c r="A61" s="22"/>
       <c r="B61" s="7" t="s">
         <v>116</v>
       </c>
@@ -3792,10 +3910,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -4018,10 +4136,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="24"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -4060,10 +4178,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="24"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -4265,10 +4383,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="24"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -4357,10 +4475,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="24"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
@@ -4411,7 +4529,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="26" t="s">
         <v>254</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -4419,25 +4537,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="7" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="29"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>259</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -4445,13 +4563,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="7" t="s">
         <v>262</v>
       </c>
@@ -4481,7 +4599,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>269</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -4489,7 +4607,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="25"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="7" t="s">
         <v>271</v>
       </c>
@@ -4567,7 +4685,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="26" t="s">
         <v>290</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -4575,13 +4693,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="25"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="7" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="25"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="7" t="s">
         <v>293</v>
       </c>
@@ -4634,10 +4752,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4675,10 +4793,10 @@
       <c r="B7" s="15"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="24"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -4689,10 +4807,10 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="24"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
@@ -4735,8 +4853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4754,6 +4873,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A14" display="Topics"/>
+    <hyperlink ref="B1" location="REST!A2" display="Up"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="341">
   <si>
     <t>Main Topic</t>
   </si>
@@ -2398,6 +2398,138 @@
       </rPr>
       <t>images/3_Spring/n_annotations_differences.pdf</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> @RequestParam</t>
+  </si>
+  <si>
+    <t>To get request params in spring application</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @PathParam</t>
+  </si>
+  <si>
+    <t>To get parameter in path. 
+For example: 
+@GET
+ @Path("definitions/{topic}")
+ public abstract List&lt;Definitions&gt; getDefinitions(@PathParam("topic") String topic);</t>
+  </si>
+  <si>
+    <t>ModelAndView’s model value is not displayed in JSP via EL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In Spring MVC development, developer try to set a value into a model, and display the value in JSP via EL, e.g ${msg}, but it just outputs the result as it is – ${msg}, not the “value” stored in the model. The EL is just not working in JSP, why?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer: Actually it’s caused by the old JSP 1.2 descriptor.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you are using the old JSP 1.2 descriptor, defined by DTD ,for example
+web.xml: 
+&lt;!DOCTYPE web-app PUBLIC
+ "-//Sun Microsystems, Inc.//DTD Web Application 2.3//EN"
+ "http://java.sun.com/dtd/web-app_2_3.dtd" &gt;
+&lt;web-app&gt; //… &lt;/web-app&gt;
+The EL is disabled or ignored by default, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>you have to enable it manually</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, so that it will outputs the value store in the “msg” model.
+&lt;%@ taglib prefix="c" uri="http://java.sun.com/jsp/jstl/core" %&gt;
+&lt;html&gt;
+&lt;head&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;%@ page isELIgnored="false" %&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/head&gt;
+&lt;body&gt;
+           ${msg}
+&lt;/body&gt;
+&lt;/html&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you are using the standard JSP 2.0 descriptor, defined by w3c schema ,for example
+web.xml:
+&lt;web-app id="WebApp_ID" version="2.4" 
+ xmlns="http://java.sun.com/xml/ns/j2ee" 
+ xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" 
+ xsi:schemaLocation="http://java.sun.com/xml/ns/j2ee 
+ http://java.sun.com/xml/ns/j2ee/web-app_2_4.xsd"&gt;
+//...
+&lt;/web-app&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The EL is enabled by default, and you should see the value stored in the “msg” model, which is “hello world”.</t>
+    </r>
+  </si>
+  <si>
+    <t>how to inject an HttpServletRequest into a request-scoped bean?</t>
+  </si>
+  <si>
+    <t>private @Autowired HttpServletRequest request;</t>
+  </si>
+  <si>
+    <t>HttpServletRequest curRequest = ((ServletRequestAttributes) RequestContextHolder.currentRequestAttributes()).getRequest();</t>
   </si>
 </sst>
 </file>
@@ -2576,7 +2708,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2660,9 +2792,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3327,11 +3463,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3384,10 +3520,41 @@
         <v>329</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="75">
+      <c r="A10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="31"/>
+      <c r="B12" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A10" display="Topics"/>
@@ -4364,10 +4531,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4429,7 +4596,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="26" t="s">
         <v>317</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -4437,13 +4604,36 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="225">
+      <c r="A10" s="26"/>
       <c r="B10" s="12" t="s">
         <v>319</v>
       </c>
     </row>
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="240">
+      <c r="A12" s="29"/>
+      <c r="B12" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="150">
+      <c r="A13" s="29"/>
+      <c r="B13" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
@@ -4549,10 +4739,10 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="30"/>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="26" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -3097,7 +3097,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3410,9 +3410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3465,7 +3465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11:A12"/>
     </sheetView>

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="Java Based Conf" sheetId="12" r:id="rId12"/>
     <sheet name="Boot" sheetId="13" r:id="rId13"/>
     <sheet name="Annotations" sheetId="14" r:id="rId14"/>
+    <sheet name="Data" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="342">
   <si>
     <t>Main Topic</t>
   </si>
@@ -2530,6 +2531,9 @@
   </si>
   <si>
     <t>HttpServletRequest curRequest = ((ServletRequestAttributes) RequestContextHolder.currentRequestAttributes()).getRequest();</t>
+  </si>
+  <si>
+    <t>Spring Data</t>
   </si>
 </sst>
 </file>
@@ -3094,10 +3098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3185,6 +3189,11 @@
     <row r="14" spans="1:2">
       <c r="A14" s="15" t="s">
         <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="15" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3202,6 +3211,7 @@
     <hyperlink ref="A13" location="Camel!A1" display="Spring + Camel"/>
     <hyperlink ref="A14" location="REST!A1" display="Spring REST"/>
     <hyperlink ref="A10" location="Annotations!A1" display="Spring Annotations"/>
+    <hyperlink ref="A15" location="Data!A1" display="Spring Data"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3410,7 +3420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -3467,7 +3477,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:A12"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3562,6 +3572,38 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="68.85546875" customWidth="1"/>
+    <col min="2" max="2" width="115.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A15" display="Topics"/>
+    <hyperlink ref="B1" location="Data!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="344">
   <si>
     <t>Main Topic</t>
   </si>
@@ -2534,6 +2534,20 @@
   </si>
   <si>
     <t>Spring Data</t>
+  </si>
+  <si>
+    <t>Injecting value from properties file to String instance variable in class</t>
+  </si>
+  <si>
+    <t>&lt;beans profile="e1"&gt;
+        &lt;bean class="org.springframework.beans.factory.config.PropertyPlaceholderConfigurer"&gt;
+            &lt;property name="locations"&gt;
+                &lt;list&gt;
+                    &lt;value&gt;classpath:camel_e1.properties&lt;/value&gt;
+                &lt;/list&gt;
+            &lt;/property&gt;
+        &lt;/bean&gt;
+&lt;/beans&gt;</t>
   </si>
 </sst>
 </file>
@@ -2637,7 +2651,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2695,15 +2709,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2712,7 +2717,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2772,10 +2777,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2803,6 +2808,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3101,7 +3109,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3358,7 +3366,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -3366,7 +3374,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="7" t="s">
         <v>132</v>
       </c>
@@ -3380,7 +3388,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="22" t="s">
         <v>135</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -3388,7 +3396,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="7" t="s">
         <v>137</v>
       </c>
@@ -3579,9 +3587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3609,11 +3617,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4055,7 +4063,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="32" t="s">
         <v>113</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -4063,13 +4071,13 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="195">
-      <c r="A60" s="21"/>
+      <c r="A60" s="32"/>
       <c r="B60" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="180">
-      <c r="A61" s="22"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="7" t="s">
         <v>116</v>
       </c>
@@ -4080,6 +4088,14 @@
       </c>
       <c r="B62" s="7" t="s">
         <v>321</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="135">
+      <c r="A63" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4098,6 +4114,7 @@
     <hyperlink ref="B53" location="'Java Based Conf'!A2" display="Refer Java Based Conf tab"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="344">
   <si>
     <t>Main Topic</t>
   </si>
@@ -2651,7 +2651,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2709,6 +2709,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2717,7 +2741,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2780,7 +2804,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2807,9 +2832,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3306,13 +3337,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>117</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3320,7 +3351,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="7" t="s">
         <v>119</v>
       </c>
@@ -3366,7 +3397,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="32" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -3374,7 +3405,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="22"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="7" t="s">
         <v>132</v>
       </c>
@@ -3388,7 +3419,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="32" t="s">
         <v>135</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -3396,7 +3427,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="22"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="7" t="s">
         <v>137</v>
       </c>
@@ -3448,22 +3479,22 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="25"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="25"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3503,10 +3534,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -3517,10 +3548,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="25"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" t="s">
@@ -3555,7 +3586,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="33" t="s">
         <v>338</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -3563,7 +3594,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="31"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="12" t="s">
         <v>340</v>
       </c>
@@ -3620,8 +3651,8 @@
   <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3630,7 +3661,7 @@
     <col min="2" max="2" width="123.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -3638,14 +3669,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="23" t="s">
+    <row r="2" spans="1:2" s="22" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="35"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="35"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3653,7 +3691,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3675,7 +3713,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3683,7 +3721,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -3961,7 +3999,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="27" t="s">
         <v>91</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -3969,19 +4007,19 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="26"/>
+      <c r="A46" s="27"/>
       <c r="B46" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60">
-      <c r="A47" s="26"/>
+      <c r="A47" s="27"/>
       <c r="B47" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="27" t="s">
         <v>95</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -3989,19 +4027,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="26"/>
+      <c r="A49" s="27"/>
       <c r="B49" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="90">
-      <c r="A50" s="26"/>
+      <c r="A50" s="27"/>
       <c r="B50" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="60">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="27" t="s">
         <v>99</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -4009,7 +4047,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="26"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="7" t="s">
         <v>101</v>
       </c>
@@ -4063,7 +4101,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="23" t="s">
         <v>113</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -4071,13 +4109,13 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="195">
-      <c r="A60" s="32"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="180">
-      <c r="A61" s="32"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="7" t="s">
         <v>116</v>
       </c>
@@ -4099,7 +4137,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:A10"/>
@@ -4136,10 +4175,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -4362,10 +4401,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="25"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -4404,10 +4443,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="25"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -4609,10 +4648,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="25"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -4655,7 +4694,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>317</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -4663,13 +4702,13 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="225">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="12" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>334</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -4677,13 +4716,13 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="240">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="12" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="150">
-      <c r="A13" s="29"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="12" t="s">
         <v>337</v>
       </c>
@@ -4724,10 +4763,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="25"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
@@ -4778,7 +4817,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -4786,25 +4825,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="26"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="7" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="31"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="27" t="s">
         <v>259</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -4812,13 +4851,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="26"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="26"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="7" t="s">
         <v>262</v>
       </c>
@@ -4848,7 +4887,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="27" t="s">
         <v>269</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -4856,7 +4895,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="26"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="7" t="s">
         <v>271</v>
       </c>
@@ -4934,7 +4973,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="27" t="s">
         <v>290</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -4942,13 +4981,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="26"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="7" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="26"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="7" t="s">
         <v>293</v>
       </c>
@@ -5001,10 +5040,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -5042,10 +5081,10 @@
       <c r="B7" s="15"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="25"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -5056,10 +5095,10 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="25"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="357">
   <si>
     <t>Main Topic</t>
-  </si>
-  <si>
-    <t>Sub Topic</t>
   </si>
   <si>
     <r>
@@ -1024,12 +1021,6 @@
   <si>
     <t>You can use @Resource annotation on fields or setter methods and it works the same as in Java EE 5. The @Resource annotation takes a 'name' attribute which will be interpreted as the bean name to be injected. You can say, it follows by-name autowiring semantics.
 If no 'name' is specified explicitly, the default name is derived from the field name or setter method. In case of a field, it takes the field name; in case of a setter method, it takes the bean property name</t>
-  </si>
-  <si>
-    <t>public class TextEditor { private SpellChecker spellChecker; 
-@Resource(name= "spellChecker") public void setSpellChecker( SpellChecker spellChecker ){ this.spellChecker = spellChecker; }
-----------------
-|</t>
   </si>
   <si>
     <t>Spring java based configuration</t>
@@ -2536,9 +2527,6 @@
     <t>Spring Data</t>
   </si>
   <si>
-    <t>Injecting value from properties file to String instance variable in class</t>
-  </si>
-  <si>
     <t>&lt;beans profile="e1"&gt;
         &lt;bean class="org.springframework.beans.factory.config.PropertyPlaceholderConfigurer"&gt;
             &lt;property name="locations"&gt;
@@ -2548,6 +2536,73 @@
             &lt;/property&gt;
         &lt;/bean&gt;
 &lt;/beans&gt;</t>
+  </si>
+  <si>
+    <t>public class TextEditor { private SpellChecker spellChecker; 
+@Resource(name= "spellChecker") public void setSpellChecker( SpellChecker spellChecker ){ this.spellChecker = spellChecker; }</t>
+  </si>
+  <si>
+    <t>For injection repositoryFactory bean into static method</t>
+  </si>
+  <si>
+    <t>&lt;bean class="org.springframework.beans.factory.config.MethodInvokingFactoryBean"&gt;
+    &lt;!-- Next value is the full qualified name of the static setter including method name --&gt;
+    &lt;property name="staticMethod" value="com.operative.im.exception.handler.ExceptionHandler.setRepositoryFactory" /&gt;
+    &lt;property name="arguments"&gt;
+      &lt;list&gt;
+        &lt;ref bean="repositoryFactory" /&gt;
+      &lt;/list&gt;
+    &lt;/property&gt;
+  &lt;/bean&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @PropertySource</t>
+  </si>
+  <si>
+    <t>Spring 3.1 introduced a new annotation @PropertySource to declare a property source to the Spring Environment. That is to use property values configured in external files like *.properties, *.txt etc in application. Spring 4.0 has updated this @PropertySource  annotation by adding one new property to work with some failure cases. That new property is “ignoreResourceNotFound”.
+It is always better to store the configuration informations in a properties file instead of maintaining it in the Java file.</t>
+  </si>
+  <si>
+    <t>Injecting value from properties file to String instance variable in class using Spring Expression Language (SpEL) : ${first.name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Configuration
+@PropertySource("classpath:default.properties")
+public class RestAPIURLConfig { … }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Configuration
+@PropertySource(value="classpath:default.properties")
+public class RestAPIURLConfig { … }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Configuration
+@PropertySource(value={"file://D:/SpringExamples/default.properties"})
+public class RestAPIURLConfig {}</t>
+  </si>
+  <si>
+    <t>How to use @PropertySource Annotation - To define a single properties file
+(When We define property files using “classpath” as shown in above examples, it searches that file at project classpath and resolve all values)</t>
+  </si>
+  <si>
+    <t>How to use @PropertySource Annotation - To define multiple properties file</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Configuration
+@PropertySource(value={"classpath:default.properties","classpath:config.properties"})
+public class RestAPIURLConfig {}</t>
+  </si>
+  <si>
+    <t>Note on defining multiple properties files</t>
+  </si>
+  <si>
+    <t>When we define multiple property files using @PropertySource annotation, then order of those files is very important. For instance, take above example. If we define same property(key-value) pair in both default.properties and config.properties files, then config.properties overrides default.properties value.</t>
+  </si>
+  <si>
+    <t>http://javapapers.com/spring/spring-properties-with-propertysource-annotation/</t>
+  </si>
+  <si>
+    <t>More on Spring @PropertySource annotation</t>
   </si>
 </sst>
 </file>
@@ -2741,7 +2796,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2786,9 +2841,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2801,18 +2853,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2826,6 +2888,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2835,12 +2903,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3137,10 +3207,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3149,90 +3220,91 @@
     <col min="2" max="2" width="86.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="23"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="21"/>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="15" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="15" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="15" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="15" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3251,6 +3323,7 @@
     <hyperlink ref="A14" location="REST!A1" display="Spring REST"/>
     <hyperlink ref="A10" location="Annotations!A1" display="Spring Annotations"/>
     <hyperlink ref="A15" location="Data!A1" display="Spring Data"/>
+    <hyperlink ref="B1" location="Topics!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3259,9 +3332,12 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3269,14 +3345,18 @@
     <col min="2" max="2" width="114.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A9" display="Topics"/>
+    <hyperlink ref="B1" location="ActiveMQ!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3299,10 +3379,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3319,7 +3399,8 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3330,114 +3411,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="25"/>
+      <c r="A4" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="34"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="120">
+      <c r="A6" s="30"/>
+      <c r="B6" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="27"/>
-      <c r="B6" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
       <c r="A8" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="90">
       <c r="A9" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
       <c r="A11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="32" t="s">
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="37"/>
+      <c r="B13" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="32"/>
-      <c r="B13" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="32" t="s">
+    <row r="16" spans="1:2" ht="285">
+      <c r="A16" s="37"/>
+      <c r="B16" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="32"/>
-      <c r="B16" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3472,29 +3553,29 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="B3" s="25"/>
+      <c r="A3" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="34"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="B10" s="25"/>
+      <c r="A10" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" s="34"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="B17" s="25"/>
+      <c r="A17" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3512,105 +3593,159 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.5703125" customWidth="1"/>
+    <col min="1" max="1" width="63.5703125" style="12" customWidth="1"/>
     <col min="2" max="2" width="120.5703125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="34"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6" s="34"/>
+    </row>
+    <row r="7" spans="1:2" ht="45">
+      <c r="A7" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="25"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="B6" s="25"/>
-    </row>
-    <row r="7" spans="1:2" ht="45">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B9" s="12" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" ht="75">
+      <c r="A10" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B10" s="12" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="75">
-      <c r="A10" t="s">
-        <v>332</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>333</v>
-      </c>
-    </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="39"/>
+      <c r="B12" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="12" t="s">
-        <v>340</v>
+    </row>
+    <row r="13" spans="1:2" ht="60">
+      <c r="A13" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="39"/>
+      <c r="B15" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="39"/>
+      <c r="B16" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="45">
+      <c r="A18" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A10" display="Topics"/>
     <hyperlink ref="B1" location="Annotations!A2" display="Up"/>
+    <hyperlink ref="B19" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3620,7 +3755,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3631,10 +3766,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3648,11 +3783,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3663,476 +3798,484 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="22" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" s="35"/>
+    </row>
+    <row r="2" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A4" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="35"/>
+      <c r="A4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="27"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="32"/>
+      <c r="B6" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90">
       <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="330">
       <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="45">
+      <c r="A9" s="29" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="26" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="30"/>
+      <c r="B10" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="27"/>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
       <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
       <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
       <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="105">
       <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
       <c r="A19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
       <c r="A20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
       <c r="A21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60">
       <c r="A22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
       <c r="A23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90">
       <c r="A24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75">
       <c r="A29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
       <c r="A30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="105">
       <c r="A31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
       <c r="A32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
       <c r="A33" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="120">
       <c r="A34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="45">
       <c r="A35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="150">
       <c r="A36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="255">
       <c r="A37" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="60">
       <c r="A40" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30">
       <c r="A41" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="A42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
       <c r="A43" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
       <c r="A44" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="7" t="s">
+    </row>
+    <row r="45" spans="1:2" ht="30">
+      <c r="A45" s="30" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="27" t="s">
+      <c r="B45" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="7" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="45">
+      <c r="A46" s="30"/>
+      <c r="B46" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="27"/>
-      <c r="B46" s="7" t="s">
+    <row r="47" spans="1:2" ht="60">
+      <c r="A47" s="30"/>
+      <c r="B47" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="60">
-      <c r="A47" s="27"/>
-      <c r="B47" s="7" t="s">
+    <row r="48" spans="1:2" ht="45">
+      <c r="A48" s="30" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="27" t="s">
+      <c r="B48" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="7" t="s">
+    </row>
+    <row r="49" spans="1:2" ht="30">
+      <c r="A49" s="30"/>
+      <c r="B49" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="27"/>
-      <c r="B49" s="7" t="s">
+    <row r="50" spans="1:2" ht="90">
+      <c r="A50" s="30"/>
+      <c r="B50" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="90">
-      <c r="A50" s="27"/>
-      <c r="B50" s="7" t="s">
+    <row r="51" spans="1:2" ht="60">
+      <c r="A51" s="30" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="60">
-      <c r="A51" s="27" t="s">
+      <c r="B51" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="27"/>
+    </row>
+    <row r="52" spans="1:2" ht="30">
+      <c r="A52" s="30"/>
       <c r="B52" s="7" t="s">
-        <v>101</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>316</v>
+        <v>100</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30">
       <c r="A56" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="30">
       <c r="A57" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="60">
       <c r="A58" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30">
+      <c r="A59" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B59" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="23" t="s">
+    <row r="60" spans="1:2" ht="195">
+      <c r="A60" s="28"/>
+      <c r="B60" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="7" t="s">
+    </row>
+    <row r="61" spans="1:2" ht="180">
+      <c r="A61" s="28"/>
+      <c r="B61" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="195">
-      <c r="A60" s="23"/>
-      <c r="B60" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="180">
-      <c r="A61" s="23"/>
-      <c r="B61" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="19" t="s">
-        <v>320</v>
+      <c r="A62" s="18" t="s">
+        <v>318</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="135">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="135">
+      <c r="A64" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B64" s="12" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4161,7 +4304,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4171,205 +4317,208 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="25"/>
+      <c r="A4" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="34"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
       <c r="A12" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4378,6 +4527,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
+    <hyperlink ref="B1" location="JDBC!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4387,7 +4537,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4397,21 +4550,24 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" s="25"/>
+      <c r="A3" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="34"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4420,6 +4576,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A6" display="Topics"/>
+    <hyperlink ref="B1" location="ORM!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4429,7 +4586,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4439,181 +4599,184 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="25"/>
+      <c r="A3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="34"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105">
       <c r="A5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="135">
       <c r="A6" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
       <c r="A17" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
       <c r="A24" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4622,6 +4785,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
+    <hyperlink ref="B1" location="AOP!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4631,8 +4795,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A13"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4644,87 +4809,90 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="25"/>
+      <c r="A3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="34"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="75">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="225">
+      <c r="A10" s="30"/>
+      <c r="B10" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="225">
-      <c r="A10" s="27"/>
-      <c r="B10" s="12" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="240">
+      <c r="A12" s="35"/>
+      <c r="B12" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="B11" s="12" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="150">
+      <c r="A13" s="35"/>
+      <c r="B13" s="12" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="240">
-      <c r="A12" s="30"/>
-      <c r="B12" s="12" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="150">
-      <c r="A13" s="30"/>
-      <c r="B13" s="12" t="s">
-        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -4739,6 +4907,7 @@
     <hyperlink ref="B6" r:id="rId3"/>
     <hyperlink ref="B7" r:id="rId4"/>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
+    <hyperlink ref="B1" location="MVC!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -4749,7 +4918,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4759,245 +4931,248 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="25"/>
+      <c r="A3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="34"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
       <c r="A5" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="27" t="s">
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11" s="30"/>
+      <c r="B11" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="7" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="60">
+      <c r="A12" s="30"/>
+      <c r="B12" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="27"/>
-      <c r="B11" s="7" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="36" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="27"/>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="36"/>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="30" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="31" t="s">
+      <c r="B14" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B13" s="31"/>
-    </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="27" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="30"/>
+      <c r="B15" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B14" s="7" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="60">
+      <c r="A16" s="30"/>
+      <c r="B16" s="7" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="27"/>
-      <c r="B15" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="27"/>
-      <c r="B16" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="27" t="s">
+    <row r="21" spans="1:2" ht="75">
+      <c r="A21" s="30"/>
+      <c r="B21" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="27"/>
-      <c r="B21" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="105">
       <c r="A25" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="27" t="s">
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="30"/>
+      <c r="B32" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B31" s="7" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="30"/>
+      <c r="B33" s="7" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="27"/>
-      <c r="B32" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="27"/>
-      <c r="B33" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
       <c r="A34" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -5011,6 +5186,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A8" display="Topics"/>
+    <hyperlink ref="B1" location="Transaction!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5033,89 +5209,89 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" s="25"/>
+      <c r="A2" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="15"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="B9" s="25"/>
+      <c r="A9" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" s="34"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="B14" s="25"/>
+      <c r="A14" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" s="34"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" t="s">
         <v>296</v>
-      </c>
-      <c r="B15" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5154,10 +5330,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="361">
   <si>
     <t>Main Topic</t>
   </si>
@@ -2566,43 +2566,80 @@
     <t>Injecting value from properties file to String instance variable in class using Spring Expression Language (SpEL) : ${first.name}</t>
   </si>
   <si>
+    <t>How to use @PropertySource Annotation - To define a single properties file
+(When We define property files using “classpath” as shown in above examples, it searches that file at project classpath and resolve all values)</t>
+  </si>
+  <si>
+    <t>How to use @PropertySource Annotation - To define multiple properties file</t>
+  </si>
+  <si>
+    <t>Note on defining multiple properties files</t>
+  </si>
+  <si>
+    <t>When we define multiple property files using @PropertySource annotation, then order of those files is very important. For instance, take above example. If we define same property(key-value) pair in both default.properties and config.properties files, then config.properties overrides default.properties value.</t>
+  </si>
+  <si>
+    <t>http://javapapers.com/spring/spring-properties-with-propertysource-annotation/</t>
+  </si>
+  <si>
+    <t>More on Spring @PropertySource annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Configuration
+@PropertySource(value={"classpath:default.properties","classpath:config.properties"})
+public class RestAPIURLConfig { 
+    @Value("${restapi.url}")
+    private String restAPIUrl;
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Configuration
+@PropertySource(value={"file://D:/SpringExamples/default.properties"})
+public class RestAPIURLConfig {
+   @Value("${restapi.url}")
+    private String restAPIUrl;
+}</t>
+  </si>
+  <si>
     <t xml:space="preserve"> @Configuration
 @PropertySource("classpath:default.properties")
-public class RestAPIURLConfig { … }</t>
+public class RestAPIURLConfig { 
+  @Value("${restapi.url}")
+    private String restAPIUrl;
+}</t>
   </si>
   <si>
     <t xml:space="preserve"> @Configuration
 @PropertySource(value="classpath:default.properties")
-public class RestAPIURLConfig { … }</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @Configuration
-@PropertySource(value={"file://D:/SpringExamples/default.properties"})
-public class RestAPIURLConfig {}</t>
-  </si>
-  <si>
-    <t>How to use @PropertySource Annotation - To define a single properties file
-(When We define property files using “classpath” as shown in above examples, it searches that file at project classpath and resolve all values)</t>
-  </si>
-  <si>
-    <t>How to use @PropertySource Annotation - To define multiple properties file</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @Configuration
-@PropertySource(value={"classpath:default.properties","classpath:config.properties"})
-public class RestAPIURLConfig {}</t>
-  </si>
-  <si>
-    <t>Note on defining multiple properties files</t>
-  </si>
-  <si>
-    <t>When we define multiple property files using @PropertySource annotation, then order of those files is very important. For instance, take above example. If we define same property(key-value) pair in both default.properties and config.properties files, then config.properties overrides default.properties value.</t>
-  </si>
-  <si>
-    <t>http://javapapers.com/spring/spring-properties-with-propertysource-annotation/</t>
-  </si>
-  <si>
-    <t>More on Spring @PropertySource annotation</t>
+public class RestAPIURLConfig { 
+  @Value("${restapi.url}")
+    private String restAPIUrl;
+}</t>
+  </si>
+  <si>
+    <t>Spring + Junit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d_Definitions_unit_test.xlsx</t>
+    </r>
+  </si>
+  <si>
+    <t>Spring @PropertySource Examples</t>
+  </si>
+  <si>
+    <t>https://www.mkyong.com/spring/spring-propertysources-example/</t>
   </si>
 </sst>
 </file>
@@ -2796,7 +2833,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2867,6 +2904,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2903,13 +2952,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3207,11 +3250,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3305,6 +3348,14 @@
     <row r="15" spans="1:3">
       <c r="A15" s="15" t="s">
         <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3418,13 +3469,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="38"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="33" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3432,7 +3483,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="30"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="7" t="s">
         <v>117</v>
       </c>
@@ -3478,7 +3529,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="41" t="s">
         <v>128</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -3486,7 +3537,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="37"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="7" t="s">
         <v>130</v>
       </c>
@@ -3500,7 +3551,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="41" t="s">
         <v>133</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -3508,7 +3559,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="37"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="7" t="s">
         <v>135</v>
       </c>
@@ -3560,22 +3611,22 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="38"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="38"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3593,11 +3644,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3607,7 +3658,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3615,10 +3666,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -3629,10 +3680,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="38"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="12" t="s">
@@ -3667,7 +3718,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="42" t="s">
         <v>336</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -3675,7 +3726,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="39"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="12" t="s">
         <v>338</v>
       </c>
@@ -3688,48 +3739,56 @@
         <v>345</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="1:2" ht="90">
+      <c r="A14" s="42" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="39"/>
-      <c r="B15" s="12" t="s">
+      <c r="B14" s="27" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="90">
+      <c r="A15" s="42"/>
+      <c r="B15" s="27" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="90">
+      <c r="A16" s="42"/>
+      <c r="B16" s="27" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="90">
+      <c r="A17" s="12" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="39"/>
-      <c r="B16" s="12" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="45">
-      <c r="A17" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>352</v>
+      <c r="B17" s="27" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45">
       <c r="A18" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>355</v>
+        <v>352</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3743,9 +3802,10 @@
     <hyperlink ref="A1" location="Topics!A10" display="Topics"/>
     <hyperlink ref="B1" location="Annotations!A2" display="Up"/>
     <hyperlink ref="B19" r:id="rId1"/>
+    <hyperlink ref="B20" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3805,20 +3865,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="31"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3826,7 +3886,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -3848,7 +3908,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3856,7 +3916,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="30"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
@@ -4134,7 +4194,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="34" t="s">
         <v>90</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -4142,19 +4202,19 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="30"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60">
-      <c r="A47" s="30"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="34" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -4162,19 +4222,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="30"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="90">
-      <c r="A50" s="30"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="60">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="34" t="s">
         <v>98</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -4182,7 +4242,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="30">
-      <c r="A52" s="30"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="7" t="s">
         <v>341</v>
       </c>
@@ -4236,7 +4296,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="32" t="s">
         <v>111</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -4244,13 +4304,13 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="195">
-      <c r="A60" s="28"/>
+      <c r="A60" s="32"/>
       <c r="B60" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="180">
-      <c r="A61" s="28"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="7" t="s">
         <v>114</v>
       </c>
@@ -4324,10 +4384,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="38"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -4557,10 +4617,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="38"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -4606,10 +4666,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="38"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -4816,10 +4876,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="38"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -4862,7 +4922,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="34" t="s">
         <v>315</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -4870,13 +4930,13 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="225">
-      <c r="A10" s="30"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="12" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="39" t="s">
         <v>332</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -4884,13 +4944,13 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="240">
-      <c r="A12" s="35"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="12" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="150">
-      <c r="A13" s="35"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="12" t="s">
         <v>335</v>
       </c>
@@ -4938,10 +4998,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="38"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
@@ -4992,7 +5052,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="34" t="s">
         <v>252</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -5000,25 +5060,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="30"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="30"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="40"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="34" t="s">
         <v>257</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -5026,13 +5086,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="30"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="7" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="30"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="7" t="s">
         <v>260</v>
       </c>
@@ -5062,7 +5122,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="34" t="s">
         <v>267</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -5070,7 +5130,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="30"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="7" t="s">
         <v>269</v>
       </c>
@@ -5148,7 +5208,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="34" t="s">
         <v>288</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -5156,13 +5216,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="30"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="7" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="30"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="7" t="s">
         <v>291</v>
       </c>
@@ -5216,10 +5276,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -5257,10 +5317,10 @@
       <c r="B7" s="15"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="38"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -5271,10 +5331,10 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="37" t="s">
         <v>295</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="38"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="982" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="379">
   <si>
     <t>Main Topic</t>
   </si>
@@ -1153,34 +1153,6 @@
   </si>
   <si>
     <t>AnnotationConfigApplicationContext</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. can load &amp; provide them to Spring container using AnnotationConfigApplicationContext as follows:
-public static void main(String[] args) { 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ApplicationContext ctx =new AnnotationConfigApplicationContext(HelloWorldConfig.class);</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> //config class created above
-HelloWorld helloWorld = ctx.getBean(HelloWorld.class); helloWorld.setMessage("Hello World!"); helloWorld.getMessage(); }</t>
-    </r>
   </si>
   <si>
     <t>Loading multiple config classes</t>
@@ -2367,9 +2339,6 @@
     <t>Definitions</t>
   </si>
   <si>
-    <t>Spring @Component, @Service, @Repository and @Controller annotations are used for automatic bean detection using classpath scan in Spring framework. @Component is a generic annotation. Difference of @Service, @Repository, @Controller with @Component is they are special cases of @Component and used for particular purposes. The difference is just classification only.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> @Component, @Controller, @Repository, @Service</t>
   </si>
   <si>
@@ -2593,12 +2562,32 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve"> @Configuration
-@PropertySource(value={"file://D:/SpringExamples/default.properties"})
-public class RestAPIURLConfig {
-   @Value("${restapi.url}")
-    private String restAPIUrl;
-}</t>
+    <t>Spring + Junit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d_Definitions_unit_test.xlsx</t>
+    </r>
+  </si>
+  <si>
+    <t>Spring @PropertySource Examples</t>
+  </si>
+  <si>
+    <t>https://www.mkyong.com/spring/spring-propertysources-example/</t>
+  </si>
+  <si>
+    <t>Spring @Component, @Controller, @Repository and @Service annotations are used for automatic bean detection using classpath scan in Spring framework. @Component is a generic annotation. Difference of @Service, @Repository, @Controller with @Component is they are special cases of @Component and used for particular purposes. The difference is just classification only.</t>
   </si>
   <si>
     <t xml:space="preserve"> @Configuration
@@ -2606,6 +2595,11 @@
 public class RestAPIURLConfig { 
   @Value("${restapi.url}")
     private String restAPIUrl;
+//To resolve ${} in @Value
+ @Bean
+ public static PropertySourcesPlaceholderConfigurer propertyConfigInDev() {
+  return new PropertySourcesPlaceholderConfigurer();
+ }
 }</t>
   </si>
   <si>
@@ -2614,14 +2608,19 @@
 public class RestAPIURLConfig { 
   @Value("${restapi.url}")
     private String restAPIUrl;
+//To resolve ${} in @Value
+ @Bean
+ public static PropertySourcesPlaceholderConfigurer propertyConfigInDev() {
+  return new PropertySourcesPlaceholderConfigurer();
+ }
 }</t>
   </si>
   <si>
-    <t>Spring + Junit</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Refer </t>
+    <t>To resolve ${} in @Values, you must register a static PropertySourcesPlaceholderConfigurer in either XML or annotation configuration file</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">why </t>
     </r>
     <r>
       <rPr>
@@ -2632,14 +2631,164 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>d_Definitions_unit_test.xlsx</t>
-    </r>
-  </si>
-  <si>
-    <t>Spring @PropertySource Examples</t>
-  </si>
-  <si>
-    <t>https://www.mkyong.com/spring/spring-propertysources-example/</t>
+      <t>static PropertySourcesPlaceHolderConfigurer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> @Configuration
+@PropertySource(value={"file://D:/SpringExamples/default.properties"})
+public class RestAPIURLConfig {
+   @Value("${restapi.url}")
+    private String restAPIUrl;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//To resolve ${} in @Value
+ @Bean
+ public static PropertySourcesPlaceholderConfigurer propertyConfigInDev() {
+  return new PropertySourcesPlaceholderConfigurer();
+ }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>How to use @PropertySource Annotation - To define multiple properties file - Java 8 onwards</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Configuration
+@PropertySources({
+ @PropertySource("classpath:config.properties"),
+ @PropertySource("classpath:db.properties")
+})
+public class AppConfig {
+ //...
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">load and instantiate bean objects &amp; provide them to Spring container using AnnotationConfigApplicationContext as follows:
+public static void main(String[] args) { 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ApplicationContext ctx =new AnnotationConfigApplicationContext(HelloWorldConfig.class);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //config class created above
+HelloWorld helloWorld = ctx.getBean(HelloWorld.class); helloWorld.setMessage("Hello World!"); helloWorld.getMessage(); }</t>
+    </r>
+  </si>
+  <si>
+    <t>SPRING INJECTION WITH @RESOURCE, @AUTOWIRED AND @INJECT</t>
+  </si>
+  <si>
+    <t>Refer images/3_Spring/o_resource_inject_autowire.docx</t>
+  </si>
+  <si>
+    <t>For spring boot application - we need to add this parent entry in pom.xml</t>
+  </si>
+  <si>
+    <t>&lt;parent&gt;
+  &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
+  &lt;artifactId&gt;spring-boot-starter-parent&lt;/artifactId&gt;
+  &lt;version&gt;1.3.1.RELEASE&lt;/version&gt;
+ &lt;/parent&gt;</t>
+  </si>
+  <si>
+    <t>This dependency has to be added to &lt;dependecies&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+   &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
+   &lt;artifactId&gt;spring-boot-starter-web&lt;/artifactId&gt;
+  &lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>In the main class we need to this annotation</t>
+  </si>
+  <si>
+    <t>org.springframework.boot.autoconfigure.SpringBootApplication;</t>
+  </si>
+  <si>
+    <t>Put this code in main method</t>
+  </si>
+  <si>
+    <t>org.springframework.boot.SpringApplication.run(App.class, args);</t>
+  </si>
+  <si>
+    <t>main class after above 2 steps</t>
+  </si>
+  <si>
+    <t>import org.springframework.boot.SpringApplication;
+import org.springframework.boot.autoconfigure.SpringBootApplication;
+@SpringBootApplication
+public class App {
+ public static void main(String[] args) {
+  SpringApplication.run(App.class, args);
+ }
+}</t>
+  </si>
+  <si>
+    <t>Spring hello world example</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>images\3_Spring\2_Spring_Boot\1_Hello_World_Example.docx</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2833,7 +2982,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2916,6 +3065,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2954,6 +3115,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3254,13 +3418,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="86.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.25" customWidth="1"/>
+    <col min="2" max="2" width="86.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3322,40 +3486,40 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="23" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3392,8 +3556,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="65.7109375" customWidth="1"/>
-    <col min="2" max="2" width="114.85546875" customWidth="1"/>
+    <col min="1" max="1" width="65.75" customWidth="1"/>
+    <col min="2" max="2" width="114.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3424,8 +3588,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="57.140625" customWidth="1"/>
-    <col min="2" max="2" width="128.5703125" customWidth="1"/>
+    <col min="1" max="1" width="57.125" customWidth="1"/>
+    <col min="2" max="2" width="128.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3449,15 +3613,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:A16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" customWidth="1"/>
-    <col min="2" max="2" width="126.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.75" customWidth="1"/>
+    <col min="2" max="2" width="116.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3469,13 +3633,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="42"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="37" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3483,7 +3647,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="34"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="7" t="s">
         <v>117</v>
       </c>
@@ -3493,83 +3657,83 @@
         <v>118</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>119</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
       <c r="A8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="90">
       <c r="A9" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
       <c r="A11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="7" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="45" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="41" t="s">
+      <c r="B12" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="45"/>
+      <c r="B13" s="7" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="41"/>
-      <c r="B13" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="7" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="45" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="41" t="s">
+      <c r="B15" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="7" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="270">
+      <c r="A16" s="45"/>
+      <c r="B16" s="7" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="41"/>
-      <c r="B16" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3589,17 +3753,17 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="61.5703125" customWidth="1"/>
-    <col min="2" max="2" width="122.85546875" customWidth="1"/>
+    <col min="1" max="1" width="56.875" customWidth="1"/>
+    <col min="2" max="2" width="106.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3610,51 +3774,100 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="B3" s="38"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="37" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="B10" s="38"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="B17" s="38"/>
+      <c r="B2" s="42"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="42"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="B16" s="42"/>
+    </row>
+    <row r="17" spans="1:2" ht="75">
+      <c r="A17" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60">
+      <c r="A18" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="120">
+      <c r="A21" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>378</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Boot!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A12" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="120.5703125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="52.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="110.875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3666,10 +3879,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="B2" s="38"/>
+      <c r="A2" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -3680,115 +3893,139 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="B6" s="38"/>
+      <c r="A6" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="42"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
       <c r="A10" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="30" t="s">
         <v>336</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="42"/>
-      <c r="B12" s="12" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
       <c r="A13" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="180">
+      <c r="A14" s="47" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="90">
-      <c r="A14" s="42" t="s">
+      <c r="B14" s="30" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="180">
+      <c r="A15" s="47"/>
+      <c r="B15" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="180">
+      <c r="A16" s="47"/>
+      <c r="B16" s="30" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="23" customFormat="1">
+      <c r="A17" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="90">
+      <c r="A18" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="23" customFormat="1" ht="120">
+      <c r="A19" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B20" s="30" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="90">
-      <c r="A15" s="42"/>
-      <c r="B15" s="27" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="90">
-      <c r="A16" s="42"/>
-      <c r="B16" s="27" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="90">
-      <c r="A17" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="45">
-      <c r="A18" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>360</v>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3801,8 +4038,8 @@
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A10" display="Topics"/>
     <hyperlink ref="B1" location="Annotations!A2" display="Up"/>
-    <hyperlink ref="B19" r:id="rId1"/>
-    <hyperlink ref="B20" r:id="rId2"/>
+    <hyperlink ref="B21" r:id="rId1"/>
+    <hyperlink ref="B22" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3815,13 +4052,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="68.85546875" customWidth="1"/>
-    <col min="2" max="2" width="115.5703125" customWidth="1"/>
+    <col min="1" max="1" width="68.875" customWidth="1"/>
+    <col min="2" max="2" width="115.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3846,14 +4083,14 @@
   <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="57" customWidth="1"/>
-    <col min="2" max="2" width="123.28515625" customWidth="1"/>
+    <col min="2" max="2" width="123.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -3865,20 +4102,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="31"/>
+      <c r="A2" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="35"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3886,12 +4123,12 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="90">
+    <row r="7" spans="1:2" ht="75">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -3899,7 +4136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="330">
+    <row r="8" spans="1:2" ht="225">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -3908,7 +4145,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3916,7 +4153,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="34"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
@@ -3937,7 +4174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="45">
+    <row r="13" spans="1:2" ht="30">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -3945,7 +4182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="60">
+    <row r="14" spans="1:2" ht="30">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -3961,7 +4198,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="105">
+    <row r="16" spans="1:2" ht="90">
       <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
@@ -3985,7 +4222,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="60">
+    <row r="19" spans="1:2" ht="45">
       <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
@@ -4009,7 +4246,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="60">
+    <row r="22" spans="1:2" ht="45">
       <c r="A22" s="6" t="s">
         <v>44</v>
       </c>
@@ -4025,7 +4262,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="90">
+    <row r="24" spans="1:2" ht="75">
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
@@ -4041,7 +4278,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30">
+    <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
         <v>52</v>
       </c>
@@ -4105,7 +4342,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="120">
+    <row r="34" spans="1:2" ht="90">
       <c r="A34" s="6" t="s">
         <v>68</v>
       </c>
@@ -4121,7 +4358,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="150">
+    <row r="36" spans="1:2" ht="135">
       <c r="A36" s="6" t="s">
         <v>72</v>
       </c>
@@ -4129,7 +4366,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="255">
+    <row r="37" spans="1:2" ht="240">
       <c r="A37" s="6" t="s">
         <v>74</v>
       </c>
@@ -4161,7 +4398,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30">
+    <row r="41" spans="1:2">
       <c r="A41" s="6" t="s">
         <v>82</v>
       </c>
@@ -4194,27 +4431,27 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="38" t="s">
         <v>90</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="34"/>
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="38"/>
       <c r="B46" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60">
-      <c r="A47" s="34"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="34" t="s">
+    <row r="48" spans="1:2" ht="30">
+      <c r="A48" s="38" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -4222,19 +4459,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="34"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="90">
-      <c r="A50" s="34"/>
+    <row r="50" spans="1:2" ht="60">
+      <c r="A50" s="38"/>
       <c r="B50" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="60">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="38" t="s">
         <v>98</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -4242,9 +4479,9 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="30">
-      <c r="A52" s="34"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4252,7 +4489,7 @@
         <v>100</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4287,7 +4524,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="60">
+    <row r="58" spans="1:2" ht="45">
       <c r="A58" s="6" t="s">
         <v>109</v>
       </c>
@@ -4296,7 +4533,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="36" t="s">
         <v>111</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -4304,39 +4541,39 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="195">
-      <c r="A60" s="32"/>
+      <c r="A60" s="36"/>
       <c r="B60" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="180">
-      <c r="A61" s="32"/>
+      <c r="A61" s="36"/>
       <c r="B61" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="135">
       <c r="A63" s="25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="135">
       <c r="A64" s="22" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -4371,8 +4608,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="59.140625" customWidth="1"/>
-    <col min="2" max="2" width="125.28515625" customWidth="1"/>
+    <col min="1" max="1" width="59.125" customWidth="1"/>
+    <col min="2" max="2" width="125.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4384,97 +4621,97 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="38"/>
+      <c r="A4" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="42"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
       <c r="A12" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4482,103 +4719,103 @@
         <v>104</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4604,8 +4841,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="62.42578125" customWidth="1"/>
-    <col min="2" max="2" width="120.7109375" customWidth="1"/>
+    <col min="1" max="1" width="62.375" customWidth="1"/>
+    <col min="2" max="2" width="120.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4617,17 +4854,17 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" s="38"/>
+      <c r="A3" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4653,8 +4890,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" customWidth="1"/>
-    <col min="2" max="2" width="130.5703125" customWidth="1"/>
+    <col min="1" max="1" width="55.375" customWidth="1"/>
+    <col min="2" max="2" width="130.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4666,177 +4903,177 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="105">
+    </row>
+    <row r="5" spans="1:2" ht="90">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="135">
       <c r="A6" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="7" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="8" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
       <c r="A24" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4862,9 +5099,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1"/>
-    <col min="2" max="2" width="125.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="58.25" customWidth="1"/>
+    <col min="2" max="2" width="125.75" customWidth="1"/>
+    <col min="3" max="3" width="6.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4876,83 +5113,83 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B7" s="11" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="60">
+      <c r="A8" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="75">
-      <c r="A8" t="s">
+      <c r="B8" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="B9" s="12" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="225">
+      <c r="A10" s="38"/>
+      <c r="B10" s="12" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="225">
-      <c r="A10" s="34"/>
-      <c r="B10" s="12" t="s">
-        <v>317</v>
-      </c>
-    </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="240">
+      <c r="A12" s="43"/>
+      <c r="B12" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="B11" s="12" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="150">
+      <c r="A13" s="43"/>
+      <c r="B13" s="12" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="240">
-      <c r="A12" s="39"/>
-      <c r="B12" s="12" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="150">
-      <c r="A13" s="39"/>
-      <c r="B13" s="12" t="s">
-        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -4985,8 +5222,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.85546875" customWidth="1"/>
-    <col min="2" max="2" width="119.7109375" customWidth="1"/>
+    <col min="1" max="1" width="64.875" customWidth="1"/>
+    <col min="2" max="2" width="119.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4998,241 +5235,241 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="38"/>
-    </row>
-    <row r="4" spans="1:2" ht="60">
+      <c r="B3" s="42"/>
+    </row>
+    <row r="4" spans="1:2" ht="45">
       <c r="A4" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="30">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="7" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="45">
+      <c r="A9" s="8" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="38" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="34" t="s">
+      <c r="B10" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B10" s="7" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="38"/>
+      <c r="B11" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="34"/>
-      <c r="B11" s="7" t="s">
+    <row r="12" spans="1:2" ht="60">
+      <c r="A12" s="38"/>
+      <c r="B12" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="34"/>
-      <c r="B12" s="7" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="44" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="40" t="s">
+      <c r="B13" s="44"/>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="B13" s="40"/>
-    </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="34" t="s">
+      <c r="B14" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B14" s="7" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="38"/>
+      <c r="B15" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="34"/>
-      <c r="B15" s="7" t="s">
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="38"/>
+      <c r="B16" s="7" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="34"/>
-      <c r="B16" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="38" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="34" t="s">
+      <c r="B20" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B20" s="7" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="75">
+      <c r="A21" s="38"/>
+      <c r="B21" s="7" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="34"/>
-      <c r="B21" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="105">
       <c r="A25" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B30" s="7" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="38" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="34" t="s">
+      <c r="B31" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B31" s="7" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="38"/>
+      <c r="B32" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="34"/>
-      <c r="B32" s="7" t="s">
+    <row r="33" spans="1:2" ht="30">
+      <c r="A33" s="38"/>
+      <c r="B33" s="7" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="34"/>
-      <c r="B33" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
       <c r="A34" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -5263,8 +5500,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="62.85546875" customWidth="1"/>
-    <col min="2" max="2" width="118.7109375" customWidth="1"/>
+    <col min="1" max="1" width="62.875" customWidth="1"/>
+    <col min="2" max="2" width="118.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5276,82 +5513,82 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="38"/>
+      <c r="A2" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>307</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>309</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="15"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="B9" s="38"/>
+      <c r="A9" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="42"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" t="s">
         <v>297</v>
       </c>
-      <c r="B10" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="B14" s="38"/>
+      <c r="A14" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" s="42"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -5384,8 +5621,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" customWidth="1"/>
-    <col min="2" max="2" width="129.28515625" customWidth="1"/>
+    <col min="1" max="1" width="54.375" customWidth="1"/>
+    <col min="2" max="2" width="129.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="396">
   <si>
     <t>Main Topic</t>
   </si>
@@ -2762,32 +2762,133 @@
     <t>main class after above 2 steps</t>
   </si>
   <si>
-    <t>import org.springframework.boot.SpringApplication;
+    <t>Spring hello world example</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>images\3_Spring\2_Spring_Boot\1_Hello_World_Example.docx</t>
+    </r>
+  </si>
+  <si>
+    <t>Pluralsight</t>
+  </si>
+  <si>
+    <t>Creating your first spring boot application</t>
+  </si>
+  <si>
+    <t>Material links</t>
+  </si>
+  <si>
+    <t>pluralsight</t>
+  </si>
+  <si>
+    <t>Getting started with Spring Data JPA - Bunker</t>
+  </si>
+  <si>
+    <t>Getting started with Spring Data REST - Bunker</t>
+  </si>
+  <si>
+    <t>Spring Security Fundamentals - Hansen</t>
+  </si>
+  <si>
+    <t>How spring boot works</t>
+  </si>
+  <si>
+    <t>1. main method is starting point of the application
+2. once we run main method, spring application initializes Spring Context and initializers
+3. Deploy the application in Tomcat (default container for spring boot) server. We can change configuration to change server to Jetty. We dont need web.xml in spring boot applications</t>
+  </si>
+  <si>
+    <t>public static void main(String… args)</t>
+  </si>
+  <si>
+    <t>Starts Java and then the application</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @SpringBootApplication</t>
+  </si>
+  <si>
+    <t>A convinience annotation that wraps commonly used spring annotations with spring boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Configutation
+@EnableAutoConfiguration
+@ComponentScan</t>
+  </si>
+  <si>
+    <t>1. Spring configuration on start up
+2. Auto Configures framework
+3. Scans project for spring components</t>
+  </si>
+  <si>
+    <t>SpringApplication.run(…)</t>
+  </si>
+  <si>
+    <t>Starts spring, creates spring context, applies annotations, and setup container</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import org.springframework.boot.SpringApplication;
 import org.springframework.boot.autoconfigure.SpringBootApplication;
-@SpringBootApplication
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@SpringBootApplication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 public class App {
  public static void main(String[] args) {
-  SpringApplication.run(App.class, args);
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SpringApplication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.run(App.class, args);
  }
 }</t>
-  </si>
-  <si>
-    <t>Spring hello world example</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">refer </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>images\3_Spring\2_Spring_Boot\1_Hello_World_Example.docx</t>
     </r>
   </si>
 </sst>
@@ -2982,7 +3083,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3073,6 +3174,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3418,7 +3522,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3633,13 +3737,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="43"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3647,7 +3751,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="7" t="s">
         <v>117</v>
       </c>
@@ -3693,7 +3797,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="46" t="s">
         <v>127</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -3701,7 +3805,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="45"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="7" t="s">
         <v>129</v>
       </c>
@@ -3715,7 +3819,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>132</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -3723,7 +3827,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="270">
-      <c r="A16" s="45"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="7" t="s">
         <v>134</v>
       </c>
@@ -3753,11 +3857,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3775,22 +3879,30 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="43"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="43"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="B16" s="42"/>
+      <c r="B16" s="43"/>
     </row>
     <row r="17" spans="1:2" ht="75">
       <c r="A17" s="23" t="s">
@@ -3828,16 +3940,56 @@
       <c r="A21" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>376</v>
+      <c r="B21" s="34" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>377</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>378</v>
+    </row>
+    <row r="23" spans="1:2" ht="60">
+      <c r="A23" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -3879,10 +4031,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -3893,10 +4045,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="43"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="12" t="s">
@@ -3931,7 +4083,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="47" t="s">
         <v>334</v>
       </c>
       <c r="B11" s="30" t="s">
@@ -3939,7 +4091,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="46"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="30" t="s">
         <v>336</v>
       </c>
@@ -3953,7 +4105,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="48" t="s">
         <v>345</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -3961,13 +4113,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="47"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="30" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="47"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="30" t="s">
         <v>361</v>
       </c>
@@ -4048,17 +4200,17 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="68.875" customWidth="1"/>
-    <col min="2" max="2" width="115.625" customWidth="1"/>
+    <col min="1" max="1" width="51.75" customWidth="1"/>
+    <col min="2" max="2" width="111.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4069,7 +4221,29 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="43"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="23" t="s">
+        <v>383</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A15" display="Topics"/>
     <hyperlink ref="B1" location="Data!A2" display="Up"/>
@@ -4102,20 +4276,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="40" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4123,7 +4297,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="40"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4145,7 +4319,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4153,7 +4327,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
@@ -4431,7 +4605,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="39" t="s">
         <v>90</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -4439,19 +4613,19 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="38"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60">
-      <c r="A47" s="38"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="39" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -4459,19 +4633,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="38"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="38"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="60">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="39" t="s">
         <v>98</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -4479,7 +4653,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="30">
-      <c r="A52" s="38"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="7" t="s">
         <v>339</v>
       </c>
@@ -4533,7 +4707,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="37" t="s">
         <v>111</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -4541,13 +4715,13 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="195">
-      <c r="A60" s="36"/>
+      <c r="A60" s="37"/>
       <c r="B60" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="180">
-      <c r="A61" s="36"/>
+      <c r="A61" s="37"/>
       <c r="B61" s="7" t="s">
         <v>114</v>
       </c>
@@ -4621,10 +4795,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="43"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -4854,10 +5028,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="43"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -4903,10 +5077,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="43"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -5113,10 +5287,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="43"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -5159,7 +5333,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>314</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -5167,13 +5341,13 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="225">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="12" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>330</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -5181,13 +5355,13 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="240">
-      <c r="A12" s="43"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="12" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="150">
-      <c r="A13" s="43"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="12" t="s">
         <v>333</v>
       </c>
@@ -5235,10 +5409,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="43"/>
     </row>
     <row r="4" spans="1:2" ht="45">
       <c r="A4" s="8" t="s">
@@ -5289,7 +5463,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="39" t="s">
         <v>251</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -5297,25 +5471,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="44"/>
+      <c r="B13" s="45"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="39" t="s">
         <v>256</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -5323,13 +5497,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="38"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="38"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="7" t="s">
         <v>259</v>
       </c>
@@ -5359,7 +5533,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="39" t="s">
         <v>266</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -5367,7 +5541,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="38"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="7" t="s">
         <v>268</v>
       </c>
@@ -5445,7 +5619,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="39" t="s">
         <v>287</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -5453,13 +5627,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="38"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="38"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="7" t="s">
         <v>290</v>
       </c>
@@ -5491,17 +5665,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="62.875" customWidth="1"/>
-    <col min="2" max="2" width="118.75" customWidth="1"/>
+    <col min="1" max="1" width="41.375" customWidth="1"/>
+    <col min="2" max="2" width="121.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5513,97 +5687,105 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="42"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>302</v>
+      <c r="B2" s="43"/>
+    </row>
+    <row r="3" spans="1:2" s="23" customFormat="1">
+      <c r="A3" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>308</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="15" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="15"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="41" t="s">
+    <row r="8" spans="1:2">
+      <c r="B8" s="15"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="B9" s="42"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B10" s="43"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>296</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="41" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="B14" s="42"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>293</v>
-      </c>
-      <c r="B15" t="s">
-        <v>295</v>
-      </c>
+      <c r="B15" s="43"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>293</v>
+      </c>
+      <c r="B16" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>299</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A11" display="Topics"/>
     <hyperlink ref="B1" location="Security!A2" display="Up"/>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="398">
   <si>
     <t>Main Topic</t>
   </si>
@@ -2890,6 +2890,12 @@
  }
 }</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">static content (like html, properties etc files) will go to these locations </t>
+  </si>
+  <si>
+    <t>1. src/main/resources -&gt; public folder</t>
   </si>
 </sst>
 </file>
@@ -3083,7 +3089,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3174,6 +3180,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3522,7 +3531,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3737,13 +3746,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="44"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3751,7 +3760,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="39"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="7" t="s">
         <v>117</v>
       </c>
@@ -3797,7 +3806,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>127</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -3805,7 +3814,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="7" t="s">
         <v>129</v>
       </c>
@@ -3819,7 +3828,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>132</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -3827,7 +3836,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="270">
-      <c r="A16" s="46"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="7" t="s">
         <v>134</v>
       </c>
@@ -3857,11 +3866,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3879,10 +3888,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -3893,16 +3902,16 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="44"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>311</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="44"/>
     </row>
     <row r="17" spans="1:2" ht="75">
       <c r="A17" s="23" t="s">
@@ -3990,6 +3999,14 @@
       </c>
       <c r="B27" s="34" t="s">
         <v>394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -4031,10 +4048,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -4045,10 +4062,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="44"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="12" t="s">
@@ -4083,7 +4100,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="48" t="s">
         <v>334</v>
       </c>
       <c r="B11" s="30" t="s">
@@ -4091,7 +4108,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="30" t="s">
         <v>336</v>
       </c>
@@ -4105,7 +4122,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="49" t="s">
         <v>345</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -4113,13 +4130,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="48"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="30" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="48"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="30" t="s">
         <v>361</v>
       </c>
@@ -4222,10 +4239,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -4276,20 +4293,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4297,7 +4314,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4319,7 +4336,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4327,7 +4344,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="39"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
@@ -4605,7 +4622,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="40" t="s">
         <v>90</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -4613,19 +4630,19 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="39"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60">
-      <c r="A47" s="39"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="40" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -4633,19 +4650,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="39"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="39"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="60">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="40" t="s">
         <v>98</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -4653,7 +4670,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="30">
-      <c r="A52" s="39"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="7" t="s">
         <v>339</v>
       </c>
@@ -4707,7 +4724,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="37" t="s">
+      <c r="A59" s="38" t="s">
         <v>111</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -4715,13 +4732,13 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="195">
-      <c r="A60" s="37"/>
+      <c r="A60" s="38"/>
       <c r="B60" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="180">
-      <c r="A61" s="37"/>
+      <c r="A61" s="38"/>
       <c r="B61" s="7" t="s">
         <v>114</v>
       </c>
@@ -4795,10 +4812,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="44"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -5028,10 +5045,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="44"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -5077,10 +5094,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="44"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -5287,10 +5304,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="44"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -5333,7 +5350,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="40" t="s">
         <v>314</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -5341,13 +5358,13 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="225">
-      <c r="A10" s="39"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="12" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>330</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -5355,13 +5372,13 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="240">
-      <c r="A12" s="44"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="12" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="150">
-      <c r="A13" s="44"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="12" t="s">
         <v>333</v>
       </c>
@@ -5409,10 +5426,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="44"/>
     </row>
     <row r="4" spans="1:2" ht="45">
       <c r="A4" s="8" t="s">
@@ -5463,7 +5480,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="40" t="s">
         <v>251</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -5471,25 +5488,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="39"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="46"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="40" t="s">
         <v>256</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -5497,13 +5514,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="39"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="39"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="7" t="s">
         <v>259</v>
       </c>
@@ -5533,7 +5550,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="40" t="s">
         <v>266</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -5541,7 +5558,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="39"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="7" t="s">
         <v>268</v>
       </c>
@@ -5619,7 +5636,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="40" t="s">
         <v>287</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -5627,13 +5644,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="39"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="39"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="7" t="s">
         <v>290</v>
       </c>
@@ -5687,10 +5704,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1">
       <c r="A3" s="23" t="s">
@@ -5736,10 +5753,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="44"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -5750,10 +5767,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="44"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="424">
   <si>
     <t>Main Topic</t>
   </si>
@@ -2897,12 +2897,162 @@
   <si>
     <t>1. src/main/resources -&gt; public folder</t>
   </si>
+  <si>
+    <t>SpringBootPractice</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/SpringBootPractice.git</t>
+  </si>
+  <si>
+    <t>1. If we want to customize default spring boot configuration then we can do it using application.properties file
+2. This file should be at classpath (for mavenized project generally location will be src/main/resources)
+3. When application starts up spring boot load up and configures based on settings in application.properties file</t>
+  </si>
+  <si>
+    <t>4. application.properties file can be in YAML format also instead of standard properties format. Spring boot will accept YAML if we have snake-yaml dependency in our classpath</t>
+  </si>
+  <si>
+    <t>Environmental configuration</t>
+  </si>
+  <si>
+    <t>Properties configuration</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. If we want to customize environmetal settings (like configuration will be different between Dev to SIT, SIT to UAT etc). To make these kind of customizations based on environment we have to use environmental configurations
+2. in this case file name will be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">application-{profile}.properties </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ex: application-dev.properties)</t>
+    </r>
+  </si>
+  <si>
+    <t>There are many properties that can go to application.properties file. Some of them</t>
+  </si>
+  <si>
+    <t>logging.level.org.springframework.web=DEBUG</t>
+  </si>
+  <si>
+    <t>To change the logging level of application</t>
+  </si>
+  <si>
+    <t>1. logging.level.org.springframework.web=DEBUG
+2. server.port=9091</t>
+  </si>
+  <si>
+    <t>server.port=9091</t>
+  </si>
+  <si>
+    <t>To change the port number of embedded server</t>
+  </si>
+  <si>
+    <t>Steps to add environment specific properties files</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Add 2 properties files (application-dev.properties, application-test.properties) along with application.proerties in src/main/resources
+2. Add VM argument </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-Dspring.profiles.active=test
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Run the application</t>
+    </r>
+  </si>
+  <si>
+    <t>properties we can configure in spring boot application.properties file</t>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring-boot/docs/current/reference/html/common-application-properties.html</t>
+  </si>
+  <si>
+    <t>1. we need to add following 2 dependencies</t>
+  </si>
+  <si>
+    <t>Integrating Spring Data JPA to integrate database.</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+   &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
+   &lt;artifactId&gt;spring-boot-starter-data-jpa&lt;/artifactId&gt;
+  &lt;/dependency&gt;
+  &lt;dependency&gt;
+   &lt;groupId&gt;com.h2database&lt;/groupId&gt;
+   &lt;artifactId&gt;h2&lt;/artifactId&gt;
+  &lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>2 more properties in application.properties</t>
+  </si>
+  <si>
+    <t>spring.h2.console.enabled=true
+spring.h2.console.path=/h2</t>
+  </si>
+  <si>
+    <t>spring.h2.console.enabled=true</t>
+  </si>
+  <si>
+    <t>To enable H2 console if we are using H2 DB</t>
+  </si>
+  <si>
+    <t>spring.h2.console.path=/h2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Url to be used to open H2 console after starting spring boot application:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://localhost:8080/h2</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2967,6 +3117,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3089,7 +3245,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3184,12 +3340,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3231,6 +3381,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3746,13 +3899,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="42"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="37" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3760,7 +3913,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="40"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="7" t="s">
         <v>117</v>
       </c>
@@ -3806,7 +3959,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="45" t="s">
         <v>127</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -3814,7 +3967,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="47"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="7" t="s">
         <v>129</v>
       </c>
@@ -3828,7 +3981,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="45" t="s">
         <v>132</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -3836,7 +3989,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="270">
-      <c r="A16" s="47"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="7" t="s">
         <v>134</v>
       </c>
@@ -3866,21 +4019,21 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.875" customWidth="1"/>
-    <col min="2" max="2" width="106.625" customWidth="1"/>
+    <col min="1" max="1" width="56.875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="106.625" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3888,139 +4041,251 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="33" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="33" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="42"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="42"/>
+    </row>
+    <row r="14" spans="1:2" ht="75">
+      <c r="A14" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60">
+      <c r="A15" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="B16" s="44"/>
-    </row>
-    <row r="17" spans="1:2" ht="75">
-      <c r="A17" s="23" t="s">
-        <v>367</v>
+      <c r="A16" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="33" t="s">
+        <v>373</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="60">
-      <c r="A18" s="23" t="s">
-        <v>369</v>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="120">
+      <c r="A18" s="33" t="s">
+        <v>375</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="120">
-      <c r="A21" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>395</v>
+      <c r="A19" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60">
+      <c r="A20" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="23" t="s">
-        <v>376</v>
+      <c r="A22" s="33" t="s">
+        <v>389</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45">
+      <c r="A23" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>388</v>
+      <c r="A24" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>390</v>
+      <c r="A25" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="34" t="s">
-        <v>391</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>397</v>
+      <c r="A26" s="47" t="s">
+        <v>403</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="47"/>
+      <c r="B27" s="33" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45">
+      <c r="A28" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="45">
+      <c r="A32" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="120">
+      <c r="A35" s="48"/>
+      <c r="B35" s="33" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30">
+      <c r="A36" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A34:A35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Boot!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A12" display="Topics"/>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B33" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4048,10 +4313,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -4062,10 +4327,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="42"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="12" t="s">
@@ -4100,7 +4365,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="46" t="s">
         <v>334</v>
       </c>
       <c r="B11" s="30" t="s">
@@ -4108,7 +4373,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="48"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="30" t="s">
         <v>336</v>
       </c>
@@ -4122,7 +4387,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="47" t="s">
         <v>345</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -4130,13 +4395,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="49"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="30" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="49"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="30" t="s">
         <v>361</v>
       </c>
@@ -4239,10 +4504,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -4293,20 +4558,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="35"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4314,7 +4579,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="42"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4336,7 +4601,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4344,7 +4609,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="40"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
@@ -4622,7 +4887,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="38" t="s">
         <v>90</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -4630,19 +4895,19 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="40"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60">
-      <c r="A47" s="40"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="38" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -4650,19 +4915,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="40"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="40"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="60">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="38" t="s">
         <v>98</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -4670,7 +4935,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="30">
-      <c r="A52" s="40"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="7" t="s">
         <v>339</v>
       </c>
@@ -4724,7 +4989,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="36" t="s">
         <v>111</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -4732,13 +4997,13 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="195">
-      <c r="A60" s="38"/>
+      <c r="A60" s="36"/>
       <c r="B60" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="180">
-      <c r="A61" s="38"/>
+      <c r="A61" s="36"/>
       <c r="B61" s="7" t="s">
         <v>114</v>
       </c>
@@ -4812,10 +5077,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="42"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -5045,10 +5310,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -5094,10 +5359,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -5304,10 +5569,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -5350,7 +5615,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="38" t="s">
         <v>314</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -5358,13 +5623,13 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="225">
-      <c r="A10" s="40"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="12" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="43" t="s">
         <v>330</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -5372,13 +5637,13 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="240">
-      <c r="A12" s="45"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="12" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="150">
-      <c r="A13" s="45"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="12" t="s">
         <v>333</v>
       </c>
@@ -5426,10 +5691,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:2" ht="45">
       <c r="A4" s="8" t="s">
@@ -5480,7 +5745,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="38" t="s">
         <v>251</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -5488,25 +5753,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="40"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="40"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="46"/>
+      <c r="B13" s="44"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="38" t="s">
         <v>256</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -5514,13 +5779,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="40"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="40"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="7" t="s">
         <v>259</v>
       </c>
@@ -5550,7 +5815,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="38" t="s">
         <v>266</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -5558,7 +5823,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="40"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="7" t="s">
         <v>268</v>
       </c>
@@ -5636,7 +5901,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="38" t="s">
         <v>287</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -5644,13 +5909,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="40"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="40"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="7" t="s">
         <v>290</v>
       </c>
@@ -5704,10 +5969,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1">
       <c r="A3" s="23" t="s">
@@ -5753,10 +6018,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="42"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -5767,10 +6032,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="42"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="982" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="441">
   <si>
     <t>Main Topic</t>
   </si>
@@ -2822,11 +2822,6 @@
     <t>A convinience annotation that wraps commonly used spring annotations with spring boot</t>
   </si>
   <si>
-    <t xml:space="preserve"> @Configutation
-@EnableAutoConfiguration
-@ComponentScan</t>
-  </si>
-  <si>
     <t>1. Spring configuration on start up
 2. Auto Configures framework
 3. Scans project for spring components</t>
@@ -3046,6 +3041,134 @@
       </rPr>
       <t>http://localhost:8080/h2</t>
     </r>
+  </si>
+  <si>
+    <t>Note on using data JPA</t>
+  </si>
+  <si>
+    <t>1. We need to give data source configuration in application.properties
+2. data source pooling configuration in application.properties
+3. when spring-boot-starter-data-jpa dependency added spring bool will add tomcat-jdbc for data source pooling. This is default pooling strategy in spring boot applications.</t>
+  </si>
+  <si>
+    <t>Example properties in application.properties for H2 DB</t>
+  </si>
+  <si>
+    <t>spring.datasource.url=jdbc:h2:file:E:/Backup/JavaPrep/practiceProjects/Spring/SpringBootPractice/src/main/resources/springBoot;MV_STORE=FALSE
+spring.datasource.username=springBoot
+spring.datasource.password=springBoot
+spring.datasource.driver-class-name=org.h2.Driver
+hibernate.dialect=org.hibernate.dialect.H2Dialect</t>
+  </si>
+  <si>
+    <t>Spring boot data source pooling properties in application.properties file</t>
+  </si>
+  <si>
+    <t>spring.datasource.max-active=10
+spring.datasource.max-idle=8
+spring.datasource.max-wait=1000
+spring.datasource.min-evictable-idle-time-millis=1000
+spring.datasource.min-idle=8
+spring.datasource.time-between-eviction-runs-millis=1</t>
+  </si>
+  <si>
+    <t>Defining DataSource using java configuration in spring boot application</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ConfigurationProperties</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Configuration
+@EnableAutoConfiguration
+@ComponentScan</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tells spring DataSourceBuilder to use connection and pooling properties located in the application.properties file where properties begin </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spring.datasource</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> prefix. </t>
+    </r>
+  </si>
+  <si>
+    <t>If we are configuring multiple data source then we have define default data source. We can do so by declaring this annotation</t>
+  </si>
+  <si>
+    <t>org.springframework.context.annotation.Primary</t>
+  </si>
+  <si>
+    <t>import javax.sql.DataSource;
+import org.springframework.boot.autoconfigure.jdbc.DataSourceBuilder;
+import org.springframework.boot.context.properties.ConfigurationProperties;
+import org.springframework.context.annotation.Bean;
+import org.springframework.context.annotation.Configuration;
+import org.springframework.context.annotation.Primary
+@Configuration
+public class PersistanceConfiguration {
+ @Bean
+ @ConfigurationProperties(prefix = "spring.datasource")
+ @Primary 
+public DataSource dataSource() {
+  return DataSourceBuilder.create().build();
+ }
+}</t>
+  </si>
+  <si>
+    <t>Example of java configuration</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spring.boot.java.config</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> package in SpringBootPractice project</t>
+    </r>
+  </si>
+  <si>
+    <t>If we want to perform any operations in beans like copy properties then we can use this class</t>
+  </si>
+  <si>
+    <t>org.springframework.beans.BeanUtils
+Description fro src code:  Static convenience methods for JavaBeans: for instantiating beans, checking bean property types, copying bean properties, etc. Mainly for use within the framework, but to some degree also useful for application classes.</t>
+  </si>
+  <si>
+    <t>Spring Boot + Junit</t>
   </si>
 </sst>
 </file>
@@ -3245,7 +3368,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3340,6 +3463,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3377,13 +3509,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3680,11 +3812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3785,6 +3917,14 @@
         <v>352</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>353</v>
       </c>
     </row>
@@ -3899,13 +4039,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="45"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="40" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3913,7 +4053,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="38"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="7" t="s">
         <v>117</v>
       </c>
@@ -3959,7 +4099,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="48" t="s">
         <v>127</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -3967,7 +4107,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="45"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="7" t="s">
         <v>129</v>
       </c>
@@ -3981,7 +4121,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="48" t="s">
         <v>132</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -3989,7 +4129,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="270">
-      <c r="A16" s="45"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="7" t="s">
         <v>134</v>
       </c>
@@ -4019,11 +4159,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4041,10 +4181,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="33" t="s">
@@ -4055,24 +4195,24 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="45"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>398</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>399</v>
-      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="B13" s="42"/>
+      <c r="B13" s="45"/>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" s="33" t="s">
@@ -4111,7 +4251,7 @@
         <v>375</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4147,128 +4287,188 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="45">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>391</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>393</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>397</v>
-      </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="47" t="s">
-        <v>403</v>
+      <c r="A26" s="49" t="s">
+        <v>402</v>
       </c>
       <c r="B26" s="33" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="49"/>
+      <c r="B27" s="33" t="s">
         <v>400</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="47"/>
-      <c r="B27" s="33" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
       <c r="A28" s="33" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="B30" s="33" t="s">
         <v>406</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="B31" s="33" t="s">
         <v>409</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
       <c r="A32" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="B32" s="33" t="s">
         <v>411</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="B33" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="B33" s="28" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="B34" s="33" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="48" t="s">
+    <row r="35" spans="1:2" ht="120">
+      <c r="A35" s="50"/>
+      <c r="B35" s="33" t="s">
         <v>416</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="120">
-      <c r="A35" s="48"/>
-      <c r="B35" s="33" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="B36" s="33" t="s">
         <v>418</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>420</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
       <c r="A38" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="B38" s="33" t="s">
         <v>422</v>
       </c>
-      <c r="B38" s="33" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="60">
+      <c r="A39" s="34" t="s">
         <v>423</v>
       </c>
+      <c r="B39" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="105">
+      <c r="A40" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="90">
+      <c r="A41" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="225">
+      <c r="A42" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4313,10 +4513,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -4327,10 +4527,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="12" t="s">
@@ -4365,7 +4565,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="51" t="s">
         <v>334</v>
       </c>
       <c r="B11" s="30" t="s">
@@ -4373,7 +4573,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="46"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="30" t="s">
         <v>336</v>
       </c>
@@ -4387,7 +4587,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>345</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -4395,13 +4595,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="47"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="30" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="47"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="30" t="s">
         <v>361</v>
       </c>
@@ -4504,10 +4704,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -4536,17 +4736,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="57" customWidth="1"/>
-    <col min="2" max="2" width="123.25" customWidth="1"/>
+    <col min="1" max="1" width="54.125" customWidth="1"/>
+    <col min="2" max="2" width="108.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -4558,20 +4758,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="38"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="42" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4579,12 +4779,12 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="40"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75">
+    <row r="7" spans="1:2" ht="90">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -4592,7 +4792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="225">
+    <row r="8" spans="1:2" ht="330">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -4601,7 +4801,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4609,7 +4809,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="38"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
@@ -4638,7 +4838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30">
+    <row r="14" spans="1:2" ht="45">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -4654,7 +4854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="90">
+    <row r="16" spans="1:2" ht="105">
       <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
@@ -4678,7 +4878,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="45">
+    <row r="19" spans="1:2" ht="60">
       <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
@@ -4718,7 +4918,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="75">
+    <row r="24" spans="1:2" ht="90">
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
@@ -4734,7 +4934,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" ht="30">
       <c r="A26" s="6" t="s">
         <v>52</v>
       </c>
@@ -4798,7 +4998,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="90">
+    <row r="34" spans="1:2" ht="105">
       <c r="A34" s="6" t="s">
         <v>68</v>
       </c>
@@ -4814,7 +5014,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="135">
+    <row r="36" spans="1:2" ht="150">
       <c r="A36" s="6" t="s">
         <v>72</v>
       </c>
@@ -4887,27 +5087,27 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="41" t="s">
         <v>90</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="38"/>
+    <row r="46" spans="1:2" ht="45">
+      <c r="A46" s="41"/>
       <c r="B46" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60">
-      <c r="A47" s="38"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="41" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -4915,19 +5115,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="38"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="38"/>
+    <row r="50" spans="1:2" ht="90">
+      <c r="A50" s="41"/>
       <c r="B50" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="60">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="41" t="s">
         <v>98</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -4935,7 +5135,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="30">
-      <c r="A52" s="38"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="7" t="s">
         <v>339</v>
       </c>
@@ -4980,7 +5180,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="45">
+    <row r="58" spans="1:2" ht="60">
       <c r="A58" s="6" t="s">
         <v>109</v>
       </c>
@@ -4989,7 +5189,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="39" t="s">
         <v>111</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -4997,13 +5197,13 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="195">
-      <c r="A60" s="36"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="180">
-      <c r="A61" s="36"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="7" t="s">
         <v>114</v>
       </c>
@@ -5030,6 +5230,14 @@
       </c>
       <c r="B64" s="12" t="s">
         <v>341</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="45">
+      <c r="A65" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -5077,10 +5285,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="45"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -5310,10 +5518,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="45"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -5359,10 +5567,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="45"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -5569,10 +5777,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="45"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -5615,7 +5823,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="41" t="s">
         <v>314</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -5623,13 +5831,13 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="225">
-      <c r="A10" s="38"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="12" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="46" t="s">
         <v>330</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -5637,13 +5845,13 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="240">
-      <c r="A12" s="43"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="12" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="150">
-      <c r="A13" s="43"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="12" t="s">
         <v>333</v>
       </c>
@@ -5691,10 +5899,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="45"/>
     </row>
     <row r="4" spans="1:2" ht="45">
       <c r="A4" s="8" t="s">
@@ -5745,7 +5953,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="41" t="s">
         <v>251</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -5753,25 +5961,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="38"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="38"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="44"/>
+      <c r="B13" s="47"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="41" t="s">
         <v>256</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -5779,13 +5987,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="38"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="38"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="7" t="s">
         <v>259</v>
       </c>
@@ -5815,7 +6023,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="41" t="s">
         <v>266</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -5823,7 +6031,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="38"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="7" t="s">
         <v>268</v>
       </c>
@@ -5901,7 +6109,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="41" t="s">
         <v>287</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -5909,13 +6117,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="38"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="38"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="7" t="s">
         <v>290</v>
       </c>
@@ -5969,10 +6177,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1">
       <c r="A3" s="23" t="s">
@@ -6018,10 +6226,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="45"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -6032,10 +6240,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="42"/>
+      <c r="B15" s="45"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="500">
   <si>
     <t>Main Topic</t>
   </si>
@@ -3169,6 +3169,448 @@
   </si>
   <si>
     <t>Spring Boot + Junit</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>InternalResourceViewResolver</t>
+  </si>
+  <si>
+    <t>The InternalResourceViewResolver maps the jsp and html files in the WebContent/WEB-INF/ folder. It allows us to set properties such as prefix or suffix to the view name to generate the final view page URL. It is configured as shown below in spring config xml file:</t>
+  </si>
+  <si>
+    <t>&lt;bean class="org.springframework.web.servlet.view.InternalResourceViewResolver"&gt;
+        &lt;property name="prefix"&gt;            &lt;value&gt;/WEB-INF/&lt;/value&gt;        &lt;/property&gt;
+        &lt;property name="suffix"&gt;            &lt;value&gt;.jsp&lt;/value&gt;        &lt;/property&gt;
+&lt;/bean&gt;</t>
+  </si>
+  <si>
+    <t>When the Controller returns the "helloworld" view, the InternalResourceViewResolver will create the url of the view making use of the prefix and suffix properties that are set to it, and will map the "helloworld" view name to the correct "helloworld" view</t>
+  </si>
+  <si>
+    <t>XmlViewResolver</t>
+  </si>
+  <si>
+    <t>XmlViewResolver is an implementation of ViewResolver that accepts a configuration file written in XML, where the view implementation and the url of the jsp file are set. Below is the configuration file, views.xml</t>
+  </si>
+  <si>
+    <t>views.xml:
+&lt;beans xmlns="http://www.springframework.org/schema/beans"   xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"
+xsi:schemaLocation="http://www.springframework.org/schema/beans http://www.springframework.org/schema/beans/spring-beans-3.0.xsd"&gt;
+    &lt;bean id="helloWorld" class="org.springframework.web.servlet.view.JstlView"&gt;
+        &lt;property name="url" value="/WEB-INF/helloWorld.jsp" /&gt;
+    &lt;/bean&gt;
+&lt;/beans&gt;</t>
+  </si>
+  <si>
+    <t>The resolver is defined in spring configuration xml. It provides a property to configure, which is the location property, and there the path of the configuration file is set</t>
+  </si>
+  <si>
+    <t>&lt;bean class="org.springframework.web.servlet.view.XmlViewResolver"&gt;
+        &lt;property name="location"&gt;            &lt;value&gt;/WEB-INF/views.xml&lt;/value&gt;        &lt;/property&gt;
+    &lt;/bean&gt;</t>
+  </si>
+  <si>
+    <t>Now, when the Controller returns the "helloworld" view, the XmlViewResolver will make use of the views.xml file to get the view class and the url of the view that will be mapped to the name "helloworld"</t>
+  </si>
+  <si>
+    <t>ResourceBundleViewResolver</t>
+  </si>
+  <si>
+    <t>The ResourceBundleViewResolver uses bean definitions in a ResourceBundle, that is specified by the bundle basename. The bundle is typically defined in a properties file, located in the classpath. Below is the views.properties file</t>
+  </si>
+  <si>
+    <t>views.properties:
+ helloworld.(class)=org.springframework.web.servlet.view.JstlView
+helloworld.url=/WEB-INF/helloworld.jsp</t>
+  </si>
+  <si>
+    <t>The ResourceBundleViewResolver is defined in mvc-dispatcher-servlet.xml, and in its definition the basename property is set to view.properties file</t>
+  </si>
+  <si>
+    <t>&lt;bean class="org.springframework.web.servlet.view.ResourceBundleViewResolver"&gt;
+        &lt;property name="basename" value="views" /&gt;
+    &lt;/bean&gt;</t>
+  </si>
+  <si>
+    <t>So, in this case, when the Controller returns the "helloworld" view, the ResourceBundleViewResolver will make use of the views.properties file to get the view class and the url of the view that will be mapped to the name "helloworld"</t>
+  </si>
+  <si>
+    <t>Configure multiple View Resolvers together</t>
+  </si>
+  <si>
+    <t>In order to set multiple Resolvers together in the same configuration file, you can set the order property in all definitions, so that the order that they are used will be defined, as shown below:</t>
+  </si>
+  <si>
+    <t>&lt;bean class="org.springframework.web.servlet.view.InternalResourceViewResolver"&gt;
+        &lt;property name="prefix"&gt;            &lt;value&gt;/WEB-INF/&lt;/value&gt;        &lt;/property&gt;
+        &lt;property name="suffix"&gt;            &lt;value&gt;.jsp&lt;/value&gt;        &lt;/property&gt;
+        &lt;property name="order" value="2" /&gt;
+    &lt;/bean&gt;
+    &lt;bean class="org.springframework.web.servlet.view.XmlViewResolver"&gt;
+        &lt;property name="location"&gt;            &lt;value&gt;/WEB-INF/views.xml&lt;/value&gt;        &lt;/property&gt;
+        &lt;property name="order" value="1" /&gt;
+    &lt;/bean&gt;
+    &lt;bean class="org.springframework.web.servlet.view.ResourceBundleViewResolver"&gt;
+        &lt;property name="basename" value="views" /&gt;        &lt;property name="order" value="0" /&gt;    &lt;/bean&gt;</t>
+  </si>
+  <si>
+    <t>Note that the InternalResourceViewResolver has the lowest priority, because it can map any request to the correct view, so if set before other resolvers the other resolvers will never be used.</t>
+  </si>
+  <si>
+    <t>Spring Web MVC Framework</t>
+  </si>
+  <si>
+    <t>http://docs.spring.io/spring/docs/current/spring-framework-reference/html/mvc.html</t>
+  </si>
+  <si>
+    <t>View Resolvers in Spring MVC</t>
+  </si>
+  <si>
+    <t>HadlerMapping in spring mvn</t>
+  </si>
+  <si>
+    <t>1. org.springframework.web.servlet.handler.BeanNameUrlHandlerMapping
+2. org.springframework.web.servlet.mvc.support.ControllerClassNameHandlerMapping</t>
+  </si>
+  <si>
+    <t>ControllerClassNameHandlerMapping</t>
+  </si>
+  <si>
+    <t>In Spring MVC, ControllerClassNameHandlerMapping use convention to map requested URL to Controller (convention over configuration). 
+It takes the Class name, remove the ‘Controller’ suffix if exists and return the remaining text, lower-cased and with a leading “/”</t>
+  </si>
+  <si>
+    <t>By default, Spring MVC is using the BeanNameUrlHandlerMapping handler mapping</t>
+  </si>
+  <si>
+    <t>&lt;beans ...&gt;
+  &lt;bean name="/welcome.htm"      class="com.mkyong.common.controller.WelcomeController" /&gt;
+  &lt;bean name="/helloGuest.htm"   class="com.mkyong.common.controller.HelloGuestController" /&gt;
+&lt;/beans&gt;</t>
+  </si>
+  <si>
+    <t>To enable the ControllerClassNameHandlerMapping, declare it in the bean configuration file, and now the controller’s bean’s name is no longer required</t>
+  </si>
+  <si>
+    <t>&lt;beans ...&gt;
+  &lt;bean   class="org.springframework.web.servlet.mvc.support.ControllerClassNameHandlerMapping" /&gt;
+  &lt;bean class="com.mkyong.common.controller.WelcomeController" /&gt;
+  &lt;bean class="com.mkyong.common.controller.HelloGuestController" /&gt;
+&lt;/beans&gt;</t>
+  </si>
+  <si>
+    <t>Now, Spring MVC is mapping the requested URL by following conventions</t>
+  </si>
+  <si>
+    <t>WelcomeController -&gt; /welcome*
+HelloGuestController -&gt; /helloguest*</t>
+  </si>
+  <si>
+    <t>/welcome.htm –&gt; WelcomeController.
+/welcomeHome.htm –&gt; WelcomeController.
+/helloguest.htm –&gt; HelloGuestController.
+/helloguest12345.htm –&gt; HelloGuestController.
+/helloGuest.htm, failed to map /helloguest*, the “g” case is not match</t>
+  </si>
+  <si>
+    <t>Case sensitive</t>
+  </si>
+  <si>
+    <t>To solve the case sensitive issue stated above, declared the “caseSensitive” property and set it to true
+&lt;beans ...&gt;
+  &lt;bean class="org.springframework.web.servlet.mvc.support.ControllerClassNameHandlerMapping" &gt;
+       &lt;property name="caseSensitive" value="true" /&gt;
+  &lt;/bean&gt;
+  &lt;bean class="com.mkyong.common.controller.WelcomeController" /&gt;
+  &lt;bean class="com.mkyong.common.controller.HelloGuestController" /&gt;
+&lt;/beans&gt;</t>
+  </si>
+  <si>
+    <t>Now, Spring MVC is mapping the requested URL by the following conventions</t>
+  </si>
+  <si>
+    <t>WelcomeController -&gt; /welcome*
+HelloGuestController -&gt; /helloGuest*</t>
+  </si>
+  <si>
+    <t>/helloGuest.htm –&gt; HelloGuestController.
+/helloguest.htm, failed to map “/helloGuest*”, the “G” case is not match</t>
+  </si>
+  <si>
+    <t>pathPrefix</t>
+  </si>
+  <si>
+    <t>Additionally, you can specify a prefix to maps the requested URL, declared a “pathPrefix” property.
+&lt;beans ...&gt;
+  &lt;bean class="org.springframework.web.servlet.mvc.support.ControllerClassNameHandlerMapping" &gt;
+  &lt;property name="caseSensitive" value="true" /&gt;
+  &lt;property name="pathPrefix" value="/customer" /&gt;
+  &lt;/bean&gt;
+  &lt;bean class="com.mkyong.common.controller.WelcomeController" /&gt;
+  &lt;bean class="com.mkyong.common.controller.HelloGuestController" /&gt;
+&lt;/beans&gt;</t>
+  </si>
+  <si>
+    <t>WelcomeController -&gt; /customer/welcome*
+HelloGuestController -&gt; /customer/helloGuest*</t>
+  </si>
+  <si>
+    <t>/customer/welcome.htm –&gt; WelcomeController.
+/customer/helloGuest.htm –&gt; HelloGuestController.
+/welcome.htm, failed.
+/helloGuest.htm, failed</t>
+  </si>
+  <si>
+    <t>Spring 3 MVC + RSS Feed Example</t>
+  </si>
+  <si>
+    <t>https://www.mkyong.com/spring-mvc/spring-3-mvc-and-rss-feed-example/</t>
+  </si>
+  <si>
+    <t>Spring MVC file upload example</t>
+  </si>
+  <si>
+    <t>https://www.mkyong.com/spring-mvc/spring-mvc-file-upload-example/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>InternalResourceViewResolver:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Convenient subclass of UrlBasedViewResolver that supports InternalResourceView (in effect, Servlets and JSPs) and subclasses such as JstlView and TilesView. You can specify the view class for all views generated by this resolver by using setViewClass(..)
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XmlViewResolver:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Implementation of ViewResolver that accepts a configuration file written in XML with the same DTD as Spring’s XML bean factories. The default configuration file is /WEB-INF/views.xml
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ResourceBundleViewResolver:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Implementation of ViewResolver that uses bean definitions in a ResourceBundle, specified by the bundle base name. Typically you define the bundle in a properties file, located in the classpath. The default file name is views.properties.
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AbstractCachingViewResolver:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Abstract view resolver that caches views. Often views need preparation before they can be used; extending this view resolver provides caching</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UrlBasedViewResolver:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Simple implementation of the ViewResolver interface that effects the direct resolution of logical view names to URLs, without an explicit mapping definition. This is appropriate if your logical names match the names of your view resources in a straightforward manner, without the need for arbitrary mappings
+6. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VelocityViewResolver/FreeMarkerViewResolver:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Convenient subclass of UrlBasedViewResolver that supports VelocityView (in effect, Velocity templates) or FreeMarkerView ,respectively, and custom subclasses of them
+7. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ContentNegotiatingViewResolver:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Implementation of the ViewResolver interface that resolves a view based on the request file name or Accept header.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. context:include-filter
+2. context:exclude-filter</t>
+  </si>
+  <si>
+    <t>&lt;context:component-scan&gt; has 2 other tags. These 2 tags are used to Filter Spring components in auto scanning</t>
+  </si>
+  <si>
+    <t>See following example to use Spring “filtering” to scan and register components’ name which matched defined “regex”, even the class is not annotated with @Component:
+package com.mkyong.customer.dao;
+public class CustomerDAO
+{
+ @Override public String toString() {  return "Hello , This is CustomerDAO"; }
+}</t>
+  </si>
+  <si>
+    <t>package com.mkyong.customer.services;
+import org.springframework.beans.factory.annotation.Autowired;
+import com.mkyong.customer.dao.CustomerDAO;
+public class CustomerService
+{
+ @Autowired CustomerDAO customerDAO;
+ @Override public String toString() {  return "CustomerService [customerDAO=" + customerDAO + "]"; }
+}</t>
+  </si>
+  <si>
+    <t>spring xml file:
+&lt;context:component-scan base-package="com.mkyong" &gt;
+  &lt;context:include-filter type="regex"                expression="com.mkyong.customer.dao.*DAO.*" /&gt;
+  &lt;context:include-filter type="regex"                expression="com.mkyong.customer.services.*Service.*" /&gt;
+ &lt;/context:component-scan&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Filter component – include
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> In this XML filtering, all files’s name contains DAO or Service (*DAO.*, *Services.*) word will be detect and register in Spring container</t>
+    </r>
+  </si>
+  <si>
+    <t>Filter component – exclude: we can also exclude specified components, to avoid Spring to detect and register it in Spring container.</t>
+  </si>
+  <si>
+    <t>Exclude those files annotated with @Service:
+&lt;context:component-scan base-package="com.mkyong.customer" &gt;
+ &lt;context:exclude-filter type="annotation"
+  expression="org.springframework.stereotype.Service" /&gt;
+&lt;/context:component-scan&gt;</t>
+  </si>
+  <si>
+    <t>Exclude those files name contains DAO word:
+&lt;context:component-scan base-package="com.mkyong" &gt;
+ &lt;context:exclude-filter type="regex"
+  expression="com.mkyong.customer.dao.*DAO.*" /&gt;
+&lt;/context:component-scan&gt;</t>
   </si>
 </sst>
 </file>
@@ -3368,7 +3810,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3472,6 +3914,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3499,6 +3950,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3507,12 +3964,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3814,9 +4265,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4039,13 +4490,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="48"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="43" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -4053,7 +4504,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="41"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="7" t="s">
         <v>117</v>
       </c>
@@ -4099,7 +4550,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="53" t="s">
         <v>127</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -4107,7 +4558,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="48"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="7" t="s">
         <v>129</v>
       </c>
@@ -4121,7 +4572,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="53" t="s">
         <v>132</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -4129,7 +4580,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="270">
-      <c r="A16" s="48"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="7" t="s">
         <v>134</v>
       </c>
@@ -4181,10 +4632,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="33" t="s">
@@ -4195,10 +4646,10 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="48"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="33" t="s">
@@ -4209,10 +4660,10 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="48"/>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" s="33" t="s">
@@ -4494,7 +4945,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -4513,10 +4964,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -4527,10 +4978,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="12" t="s">
@@ -4565,7 +5016,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="54" t="s">
         <v>334</v>
       </c>
       <c r="B11" s="30" t="s">
@@ -4573,7 +5024,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="51"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="30" t="s">
         <v>336</v>
       </c>
@@ -4704,10 +5155,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -4736,11 +5187,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70:A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4758,20 +5209,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="41"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4779,7 +5230,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4801,7 +5252,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="43" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4809,7 +5260,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="41"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
@@ -5087,7 +5538,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="44" t="s">
         <v>90</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -5095,19 +5546,19 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="41"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60">
-      <c r="A47" s="41"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="44" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -5115,19 +5566,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="41"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="90">
-      <c r="A50" s="41"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="60">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="44" t="s">
         <v>98</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -5135,7 +5586,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="30">
-      <c r="A52" s="41"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="7" t="s">
         <v>339</v>
       </c>
@@ -5189,7 +5640,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="39" t="s">
+      <c r="A59" s="42" t="s">
         <v>111</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -5197,13 +5648,13 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="195">
-      <c r="A60" s="39"/>
+      <c r="A60" s="42"/>
       <c r="B60" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="180">
-      <c r="A61" s="39"/>
+      <c r="A61" s="42"/>
       <c r="B61" s="7" t="s">
         <v>114</v>
       </c>
@@ -5240,8 +5691,52 @@
         <v>439</v>
       </c>
     </row>
+    <row r="66" spans="1:2" ht="30">
+      <c r="A66" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="105">
+      <c r="A67" s="51" t="s">
+        <v>496</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="120">
+      <c r="A68" s="51"/>
+      <c r="B68" s="39" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="75">
+      <c r="A69" s="51"/>
+      <c r="B69" s="39" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="75">
+      <c r="A70" s="51" t="s">
+        <v>497</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="75">
+      <c r="A71" s="51"/>
+      <c r="B71" s="39" t="s">
+        <v>499</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A71"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A4:B4"/>
@@ -5285,10 +5780,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="48"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -5518,10 +6013,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="48"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -5567,10 +6062,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="48"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -5754,124 +6249,389 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.25" customWidth="1"/>
-    <col min="2" max="2" width="125.75" customWidth="1"/>
+    <col min="1" max="1" width="58.25" style="37" customWidth="1"/>
+    <col min="2" max="2" width="105.875" customWidth="1"/>
     <col min="3" max="3" width="6.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="45"/>
-    </row>
-    <row r="4" spans="1:2">
+    <row r="2" spans="1:2" s="23" customFormat="1">
+      <c r="A2" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="48"/>
+    </row>
+    <row r="3" spans="1:2" s="23" customFormat="1">
+      <c r="A3" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="23" customFormat="1">
       <c r="A4" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="23" customFormat="1">
       <c r="A5" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="23" customFormat="1">
       <c r="A7" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="60">
-      <c r="A8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="23" customFormat="1">
+      <c r="A8" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="23" customFormat="1">
+      <c r="A9" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="23" customFormat="1">
+      <c r="A10" s="47" t="s">
+        <v>441</v>
+      </c>
+      <c r="B10" s="48"/>
+    </row>
+    <row r="11" spans="1:2" s="23" customFormat="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:2" s="23" customFormat="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="B13" s="48"/>
+    </row>
+    <row r="14" spans="1:2" ht="75">
+      <c r="A14" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B14" s="12" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="41" t="s">
+    <row r="15" spans="1:2" ht="105">
+      <c r="A15" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B15" s="12" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="225">
-      <c r="A10" s="41"/>
-      <c r="B10" s="12" t="s">
+    <row r="16" spans="1:2" ht="225">
+      <c r="A16" s="44"/>
+      <c r="B16" s="12" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="46" t="s">
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B17" s="12" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="240">
-      <c r="A12" s="46"/>
-      <c r="B12" s="12" t="s">
+    <row r="18" spans="1:2" ht="240">
+      <c r="A18" s="51"/>
+      <c r="B18" s="12" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="150">
-      <c r="A13" s="46"/>
-      <c r="B13" s="12" t="s">
+    <row r="19" spans="1:2" ht="150">
+      <c r="A19" s="51"/>
+      <c r="B19" s="12" t="s">
         <v>333</v>
       </c>
     </row>
+    <row r="20" spans="1:2" ht="135">
+      <c r="A20" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="23" customFormat="1" ht="105">
+      <c r="A21" s="49"/>
+      <c r="B21" s="37" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="60">
+      <c r="A23" s="49"/>
+      <c r="B23" s="37" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="49"/>
+      <c r="B24" s="37" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="49" t="s">
+        <v>446</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="120">
+      <c r="A26" s="49"/>
+      <c r="B26" s="37" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="49"/>
+      <c r="B27" s="37" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45">
+      <c r="A28" s="49"/>
+      <c r="B28" s="37" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="49"/>
+      <c r="B29" s="37" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30">
+      <c r="A30" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45">
+      <c r="A31" s="50"/>
+      <c r="B31" s="37" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="50"/>
+      <c r="B32" s="37" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="50"/>
+      <c r="B33" s="37" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="50"/>
+      <c r="B34" s="37" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="165">
+      <c r="A36" s="49"/>
+      <c r="B36" s="37" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="49"/>
+      <c r="B37" s="37" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="45">
+      <c r="A39" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="60">
+      <c r="A40" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="75">
+      <c r="A41" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="49" t="s">
+        <v>473</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="75">
+      <c r="A43" s="49"/>
+      <c r="B43" s="37" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="120">
+      <c r="A44" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30">
+      <c r="A45" s="49" t="s">
+        <v>478</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="49"/>
+      <c r="B46" s="37" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="135">
+      <c r="A47" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30">
+      <c r="A48" s="49" t="s">
+        <v>478</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="60">
+      <c r="A49" s="49"/>
+      <c r="B49" s="37" t="s">
+        <v>484</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A13"/>
+  <mergeCells count="13">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
     <hyperlink ref="B1" location="MVC!A2" display="Up"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -5899,10 +6659,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="48"/>
     </row>
     <row r="4" spans="1:2" ht="45">
       <c r="A4" s="8" t="s">
@@ -5953,7 +6713,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="44" t="s">
         <v>251</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -5961,25 +6721,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="41"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="41"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="52"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="44" t="s">
         <v>256</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -5987,13 +6747,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="41"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="41"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="7" t="s">
         <v>259</v>
       </c>
@@ -6023,7 +6783,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="44" t="s">
         <v>266</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -6031,7 +6791,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="41"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="7" t="s">
         <v>268</v>
       </c>
@@ -6109,7 +6869,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="44" t="s">
         <v>287</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -6117,13 +6877,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="41"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="41"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="7" t="s">
         <v>290</v>
       </c>
@@ -6177,10 +6937,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1">
       <c r="A3" s="23" t="s">
@@ -6226,10 +6986,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="48"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -6240,10 +7000,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -3923,6 +3923,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3955,9 +3958,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4267,7 +4267,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:B18"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4472,7 +4472,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4490,13 +4490,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="49"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -4504,7 +4504,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="7" t="s">
         <v>117</v>
       </c>
@@ -4632,10 +4632,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="33" t="s">
@@ -4646,10 +4646,10 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="B9" s="48"/>
+      <c r="B9" s="49"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="33" t="s">
@@ -4660,10 +4660,10 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="B13" s="48"/>
+      <c r="B13" s="49"/>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" s="33" t="s">
@@ -4762,7 +4762,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="50" t="s">
         <v>402</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -4770,7 +4770,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="49"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="33" t="s">
         <v>400</v>
       </c>
@@ -4824,7 +4824,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="51" t="s">
         <v>415</v>
       </c>
       <c r="B34" s="33" t="s">
@@ -4832,7 +4832,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="120">
-      <c r="A35" s="50"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="33" t="s">
         <v>416</v>
       </c>
@@ -4944,9 +4944,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4964,10 +4964,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -4978,10 +4978,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="49"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="12" t="s">
@@ -5038,7 +5038,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="50" t="s">
         <v>345</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -5046,13 +5046,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="49"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="30" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="49"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="30" t="s">
         <v>361</v>
       </c>
@@ -5155,10 +5155,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -5189,9 +5189,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70:A71"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5209,20 +5209,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="42"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5230,7 +5230,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -5252,7 +5252,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5260,7 +5260,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="44"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
@@ -5538,7 +5538,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="45" t="s">
         <v>90</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -5546,19 +5546,19 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="44"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60">
-      <c r="A47" s="44"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="44" t="s">
+      <c r="A48" s="45" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -5566,19 +5566,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="44"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="90">
-      <c r="A50" s="44"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="60">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="45" t="s">
         <v>98</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -5586,7 +5586,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="30">
-      <c r="A52" s="44"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="7" t="s">
         <v>339</v>
       </c>
@@ -5640,7 +5640,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="42" t="s">
+      <c r="A59" s="43" t="s">
         <v>111</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -5648,13 +5648,13 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="195">
-      <c r="A60" s="42"/>
+      <c r="A60" s="43"/>
       <c r="B60" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="180">
-      <c r="A61" s="42"/>
+      <c r="A61" s="43"/>
       <c r="B61" s="7" t="s">
         <v>114</v>
       </c>
@@ -5700,7 +5700,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="105">
-      <c r="A67" s="51" t="s">
+      <c r="A67" s="40" t="s">
         <v>496</v>
       </c>
       <c r="B67" s="39" t="s">
@@ -5708,19 +5708,19 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="120">
-      <c r="A68" s="51"/>
+      <c r="A68" s="40"/>
       <c r="B68" s="39" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="75">
-      <c r="A69" s="51"/>
+      <c r="A69" s="40"/>
       <c r="B69" s="39" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="75">
-      <c r="A70" s="51" t="s">
+      <c r="A70" s="40" t="s">
         <v>497</v>
       </c>
       <c r="B70" s="39" t="s">
@@ -5728,7 +5728,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="75">
-      <c r="A71" s="51"/>
+      <c r="A71" s="40"/>
       <c r="B71" s="39" t="s">
         <v>499</v>
       </c>
@@ -5780,10 +5780,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="49"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -6013,10 +6013,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -6062,10 +6062,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -6272,10 +6272,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="23" customFormat="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1">
       <c r="A3" s="8" t="s">
@@ -6334,10 +6334,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" s="23" customFormat="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="48" t="s">
         <v>441</v>
       </c>
-      <c r="B10" s="48"/>
+      <c r="B10" s="49"/>
     </row>
     <row r="11" spans="1:2" s="23" customFormat="1">
       <c r="A11" s="8"/>
@@ -6348,10 +6348,10 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="B13" s="48"/>
+      <c r="B13" s="49"/>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" s="37" t="s">
@@ -6362,7 +6362,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="105">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="45" t="s">
         <v>314</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -6370,13 +6370,13 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="225">
-      <c r="A16" s="44"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="12" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="40" t="s">
         <v>330</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -6384,19 +6384,19 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="240">
-      <c r="A18" s="51"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="12" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="150">
-      <c r="A19" s="51"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="12" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="135">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="50" t="s">
         <v>464</v>
       </c>
       <c r="B20" s="37" t="s">
@@ -6404,13 +6404,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" s="23" customFormat="1" ht="105">
-      <c r="A21" s="49"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="37" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="50" t="s">
         <v>442</v>
       </c>
       <c r="B22" s="37" t="s">
@@ -6418,19 +6418,19 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="49"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="37" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="49"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="50" t="s">
         <v>446</v>
       </c>
       <c r="B25" s="37" t="s">
@@ -6438,31 +6438,31 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="120">
-      <c r="A26" s="49"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="37" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="49"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="37" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="49"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="37" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="49"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="37" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="51" t="s">
         <v>452</v>
       </c>
       <c r="B30" s="37" t="s">
@@ -6470,31 +6470,31 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="50"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="37" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="50"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="37" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="50"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="37" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="50"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="37" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="50" t="s">
         <v>458</v>
       </c>
       <c r="B35" s="37" t="s">
@@ -6502,13 +6502,13 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="165">
-      <c r="A36" s="49"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="37" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="49"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="37" t="s">
         <v>461</v>
       </c>
@@ -6546,7 +6546,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="50" t="s">
         <v>473</v>
       </c>
       <c r="B42" s="37" t="s">
@@ -6554,7 +6554,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="49"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="37" t="s">
         <v>475</v>
       </c>
@@ -6568,7 +6568,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="50" t="s">
         <v>478</v>
       </c>
       <c r="B45" s="37" t="s">
@@ -6576,7 +6576,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="49"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="37" t="s">
         <v>480</v>
       </c>
@@ -6590,7 +6590,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="50" t="s">
         <v>478</v>
       </c>
       <c r="B48" s="37" t="s">
@@ -6598,18 +6598,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="60">
-      <c r="A49" s="49"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="37" t="s">
         <v>484</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A20:A21"/>
@@ -6618,6 +6613,11 @@
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
@@ -6659,10 +6659,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:2" ht="45">
       <c r="A4" s="8" t="s">
@@ -6713,7 +6713,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>251</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -6721,13 +6721,13 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="44"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="44"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="7" t="s">
         <v>254</v>
       </c>
@@ -6739,7 +6739,7 @@
       <c r="B13" s="52"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="45" t="s">
         <v>256</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -6747,13 +6747,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="44"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="44"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="7" t="s">
         <v>259</v>
       </c>
@@ -6783,7 +6783,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="45" t="s">
         <v>266</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -6791,7 +6791,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="44"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="7" t="s">
         <v>268</v>
       </c>
@@ -6869,7 +6869,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="45" t="s">
         <v>287</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -6877,13 +6877,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="44"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="44"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="7" t="s">
         <v>290</v>
       </c>
@@ -6937,10 +6937,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1">
       <c r="A3" s="23" t="s">
@@ -6986,10 +6986,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="B10" s="48"/>
+      <c r="B10" s="49"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -7000,10 +7000,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="49"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="501">
   <si>
     <t>Main Topic</t>
   </si>
@@ -3611,6 +3611,9 @@
  &lt;context:exclude-filter type="regex"
   expression="com.mkyong.customer.dao.*DAO.*" /&gt;
 &lt;/context:component-scan&gt;</t>
+  </si>
+  <si>
+    <t>Spring Boot: Efficient Development, Configuration, and Deployment</t>
   </si>
 </sst>
 </file>
@@ -3810,7 +3813,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3919,6 +3922,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4267,7 +4273,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4490,13 +4496,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="50"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="45" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -4504,7 +4510,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="7" t="s">
         <v>117</v>
       </c>
@@ -4550,7 +4556,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="54" t="s">
         <v>127</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -4558,7 +4564,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="53"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="7" t="s">
         <v>129</v>
       </c>
@@ -4572,7 +4578,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="54" t="s">
         <v>132</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -4580,7 +4586,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="270">
-      <c r="A16" s="53"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="7" t="s">
         <v>134</v>
       </c>
@@ -4612,9 +4618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4632,10 +4638,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="33" t="s">
@@ -4645,11 +4651,19 @@
         <v>379</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>500</v>
+      </c>
+    </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="50"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="33" t="s">
@@ -4660,10 +4674,10 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="49" t="s">
         <v>311</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="50"/>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" s="33" t="s">
@@ -4762,7 +4776,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="51" t="s">
         <v>402</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -4770,7 +4784,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="50"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="33" t="s">
         <v>400</v>
       </c>
@@ -4824,7 +4838,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="52" t="s">
         <v>415</v>
       </c>
       <c r="B34" s="33" t="s">
@@ -4832,7 +4846,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="120">
-      <c r="A35" s="51"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="33" t="s">
         <v>416</v>
       </c>
@@ -4944,9 +4958,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4964,10 +4978,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -4978,10 +4992,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="50"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="12" t="s">
@@ -5016,7 +5030,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="55" t="s">
         <v>334</v>
       </c>
       <c r="B11" s="30" t="s">
@@ -5024,7 +5038,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="54"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="30" t="s">
         <v>336</v>
       </c>
@@ -5038,7 +5052,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="51" t="s">
         <v>345</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -5046,13 +5060,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="50"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="30" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="30" t="s">
         <v>361</v>
       </c>
@@ -5155,10 +5169,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -5209,20 +5223,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="43"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5230,7 +5244,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="47"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -5252,7 +5266,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5260,7 +5274,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
@@ -5538,7 +5552,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="46" t="s">
         <v>90</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -5546,19 +5560,19 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="45"/>
+      <c r="A46" s="46"/>
       <c r="B46" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60">
-      <c r="A47" s="45"/>
+      <c r="A47" s="46"/>
       <c r="B47" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="46" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -5566,19 +5580,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="45"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="90">
-      <c r="A50" s="45"/>
+      <c r="A50" s="46"/>
       <c r="B50" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="60">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="46" t="s">
         <v>98</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -5586,7 +5600,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="30">
-      <c r="A52" s="45"/>
+      <c r="A52" s="46"/>
       <c r="B52" s="7" t="s">
         <v>339</v>
       </c>
@@ -5640,7 +5654,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="44" t="s">
         <v>111</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -5648,13 +5662,13 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="195">
-      <c r="A60" s="43"/>
+      <c r="A60" s="44"/>
       <c r="B60" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="180">
-      <c r="A61" s="43"/>
+      <c r="A61" s="44"/>
       <c r="B61" s="7" t="s">
         <v>114</v>
       </c>
@@ -5700,7 +5714,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="105">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="41" t="s">
         <v>496</v>
       </c>
       <c r="B67" s="39" t="s">
@@ -5708,19 +5722,19 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="120">
-      <c r="A68" s="40"/>
+      <c r="A68" s="41"/>
       <c r="B68" s="39" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="75">
-      <c r="A69" s="40"/>
+      <c r="A69" s="41"/>
       <c r="B69" s="39" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="75">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="41" t="s">
         <v>497</v>
       </c>
       <c r="B70" s="39" t="s">
@@ -5728,7 +5742,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="75">
-      <c r="A71" s="40"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="39" t="s">
         <v>499</v>
       </c>
@@ -5780,10 +5794,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="50"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -6013,10 +6027,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="50"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -6062,10 +6076,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="50"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -6272,10 +6286,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="23" customFormat="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1">
       <c r="A3" s="8" t="s">
@@ -6334,10 +6348,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" s="23" customFormat="1">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="49" t="s">
         <v>441</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="50"/>
     </row>
     <row r="11" spans="1:2" s="23" customFormat="1">
       <c r="A11" s="8"/>
@@ -6348,10 +6362,10 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="50"/>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" s="37" t="s">
@@ -6362,7 +6376,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="105">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>314</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -6370,13 +6384,13 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="225">
-      <c r="A16" s="45"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="12" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="41" t="s">
         <v>330</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -6384,19 +6398,19 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="240">
-      <c r="A18" s="40"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="12" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="150">
-      <c r="A19" s="40"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="12" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="135">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="51" t="s">
         <v>464</v>
       </c>
       <c r="B20" s="37" t="s">
@@ -6404,13 +6418,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" s="23" customFormat="1" ht="105">
-      <c r="A21" s="50"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="37" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="51" t="s">
         <v>442</v>
       </c>
       <c r="B22" s="37" t="s">
@@ -6418,19 +6432,19 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="50"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="37" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="51" t="s">
         <v>446</v>
       </c>
       <c r="B25" s="37" t="s">
@@ -6438,31 +6452,31 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="120">
-      <c r="A26" s="50"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="37" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="50"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="37" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="50"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="37" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="50"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="37" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="52" t="s">
         <v>452</v>
       </c>
       <c r="B30" s="37" t="s">
@@ -6470,31 +6484,31 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="51"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="37" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="51"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="37" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="51"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="37" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="51"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="37" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="51" t="s">
         <v>458</v>
       </c>
       <c r="B35" s="37" t="s">
@@ -6502,13 +6516,13 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="165">
-      <c r="A36" s="50"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="37" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="50"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="37" t="s">
         <v>461</v>
       </c>
@@ -6546,7 +6560,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="51" t="s">
         <v>473</v>
       </c>
       <c r="B42" s="37" t="s">
@@ -6554,7 +6568,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="50"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="37" t="s">
         <v>475</v>
       </c>
@@ -6568,7 +6582,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="51" t="s">
         <v>478</v>
       </c>
       <c r="B45" s="37" t="s">
@@ -6576,7 +6590,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="50"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="37" t="s">
         <v>480</v>
       </c>
@@ -6590,7 +6604,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="50" t="s">
+      <c r="A48" s="51" t="s">
         <v>478</v>
       </c>
       <c r="B48" s="37" t="s">
@@ -6598,13 +6612,18 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="60">
-      <c r="A49" s="50"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="37" t="s">
         <v>484</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A20:A21"/>
@@ -6613,11 +6632,6 @@
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
@@ -6659,10 +6673,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="50"/>
     </row>
     <row r="4" spans="1:2" ht="45">
       <c r="A4" s="8" t="s">
@@ -6713,7 +6727,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="46" t="s">
         <v>251</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -6721,25 +6735,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="52"/>
+      <c r="B13" s="53"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="46" t="s">
         <v>256</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -6747,13 +6761,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="45"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="45"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="7" t="s">
         <v>259</v>
       </c>
@@ -6783,7 +6797,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="46" t="s">
         <v>266</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -6791,7 +6805,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="45"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="7" t="s">
         <v>268</v>
       </c>
@@ -6869,7 +6883,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="46" t="s">
         <v>287</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -6877,13 +6891,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="45"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="45"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="7" t="s">
         <v>290</v>
       </c>
@@ -6937,10 +6951,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1">
       <c r="A3" s="23" t="s">
@@ -6986,10 +7000,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="50"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -7000,10 +7014,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="49"/>
+      <c r="B15" s="50"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="503">
   <si>
     <t>Main Topic</t>
   </si>
@@ -3614,6 +3614,12 @@
   </si>
   <si>
     <t>Spring Boot: Efficient Development, Configuration, and Deployment</t>
+  </si>
+  <si>
+    <t>Plural sight</t>
+  </si>
+  <si>
+    <t>Spring Fundamentals</t>
   </si>
 </sst>
 </file>
@@ -4619,8 +4625,8 @@
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5201,10 +5207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -5228,542 +5234,559 @@
       </c>
       <c r="B2" s="43"/>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A4" s="42" t="s">
+    <row r="3" spans="1:2" s="23" customFormat="1">
+      <c r="A3" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="23" customFormat="1"/>
+    <row r="5" spans="1:2" s="23" customFormat="1"/>
+    <row r="6" spans="1:2" s="23" customFormat="1"/>
+    <row r="7" spans="1:2" s="23" customFormat="1"/>
+    <row r="8" spans="1:2" s="23" customFormat="1"/>
+    <row r="9" spans="1:2" s="23" customFormat="1"/>
+    <row r="10" spans="1:2" s="23" customFormat="1"/>
+    <row r="11" spans="1:2" s="23" customFormat="1"/>
+    <row r="12" spans="1:2" s="23" customFormat="1"/>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A14" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="43"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="47" t="s">
+      <c r="B14" s="43"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="48"/>
-      <c r="B6" s="1" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="48"/>
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="90">
-      <c r="A7" s="4" t="s">
+    <row r="17" spans="1:2" ht="90">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="330">
-      <c r="A8" s="4" t="s">
+    <row r="18" spans="1:2" ht="330">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="45" t="s">
+    <row r="19" spans="1:2" ht="45">
+      <c r="A19" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="46"/>
-      <c r="B10" s="1" t="s">
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="46"/>
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="6" t="s">
+    <row r="21" spans="1:2" ht="90">
+      <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="6" t="s">
+    <row r="22" spans="1:2" ht="60">
+      <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="6" t="s">
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="6" t="s">
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="105">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="45">
-      <c r="A21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="90">
-      <c r="A24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="105">
+      <c r="A26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="60">
+      <c r="A27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="60">
+      <c r="A29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45">
+      <c r="A30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45">
+      <c r="A31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="45">
+      <c r="A32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="60">
+      <c r="A33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="90">
+      <c r="A34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="6" t="s">
+    <row r="36" spans="1:2" ht="30">
+      <c r="A36" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="8" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="75">
-      <c r="A29" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="30">
-      <c r="A30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="105">
-      <c r="A34" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="45">
-      <c r="A35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="150">
-      <c r="A36" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="240">
-      <c r="A37" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="75">
+      <c r="A39" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="105">
+      <c r="A41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="60">
+      <c r="A42" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="105">
+      <c r="A44" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="45">
+      <c r="A45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="150">
+      <c r="A46" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="240">
+      <c r="A47" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B48" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="6" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B49" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="60">
-      <c r="A40" s="6" t="s">
+    <row r="50" spans="1:2" ht="60">
+      <c r="A50" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B50" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="6" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B51" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="6" t="s">
+    <row r="52" spans="1:2" ht="30">
+      <c r="A52" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B52" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30">
-      <c r="A43" s="6" t="s">
+    <row r="53" spans="1:2" ht="30">
+      <c r="A53" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="6" t="s">
+    <row r="54" spans="1:2" ht="30">
+      <c r="A54" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B54" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="46" t="s">
+    <row r="55" spans="1:2" ht="30">
+      <c r="A55" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B55" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="46"/>
-      <c r="B46" s="7" t="s">
+    <row r="56" spans="1:2" ht="45">
+      <c r="A56" s="46"/>
+      <c r="B56" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="60">
-      <c r="A47" s="46"/>
-      <c r="B47" s="7" t="s">
+    <row r="57" spans="1:2" ht="60">
+      <c r="A57" s="46"/>
+      <c r="B57" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="46" t="s">
+    <row r="58" spans="1:2" ht="30">
+      <c r="A58" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B58" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="46"/>
-      <c r="B49" s="7" t="s">
+    <row r="59" spans="1:2" ht="30">
+      <c r="A59" s="46"/>
+      <c r="B59" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="90">
-      <c r="A50" s="46"/>
-      <c r="B50" s="7" t="s">
+    <row r="60" spans="1:2" ht="90">
+      <c r="A60" s="46"/>
+      <c r="B60" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="60">
-      <c r="A51" s="46" t="s">
+    <row r="61" spans="1:2" ht="60">
+      <c r="A61" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B61" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30">
-      <c r="A52" s="46"/>
-      <c r="B52" s="7" t="s">
+    <row r="62" spans="1:2" ht="30">
+      <c r="A62" s="46"/>
+      <c r="B62" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="6" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B63" s="17" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="6" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B64" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="6" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B65" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="30">
-      <c r="A56" s="6" t="s">
+    <row r="66" spans="1:2" ht="30">
+      <c r="A66" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B66" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30">
-      <c r="A57" s="6" t="s">
+    <row r="67" spans="1:2" ht="30">
+      <c r="A67" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B67" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="60">
-      <c r="A58" s="6" t="s">
+    <row r="68" spans="1:2" ht="60">
+      <c r="A68" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B68" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="44" t="s">
+    <row r="69" spans="1:2" ht="30">
+      <c r="A69" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B69" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="195">
-      <c r="A60" s="44"/>
-      <c r="B60" s="7" t="s">
+    <row r="70" spans="1:2" ht="195">
+      <c r="A70" s="44"/>
+      <c r="B70" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="180">
-      <c r="A61" s="44"/>
-      <c r="B61" s="7" t="s">
+    <row r="71" spans="1:2" ht="180">
+      <c r="A71" s="44"/>
+      <c r="B71" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="18" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B72" s="7" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="135">
-      <c r="A63" s="25" t="s">
+    <row r="73" spans="1:2" ht="135">
+      <c r="A73" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B73" s="12" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="135">
-      <c r="A64" s="22" t="s">
+    <row r="74" spans="1:2" ht="135">
+      <c r="A74" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B74" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="35" t="s">
+    <row r="75" spans="1:2" ht="45">
+      <c r="A75" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B75" s="36" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="38" t="s">
+    <row r="76" spans="1:2" ht="30">
+      <c r="A76" s="38" t="s">
         <v>492</v>
       </c>
-      <c r="B66" s="39" t="s">
+      <c r="B76" s="39" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="105">
-      <c r="A67" s="41" t="s">
+    <row r="77" spans="1:2" ht="105">
+      <c r="A77" s="41" t="s">
         <v>496</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B77" s="39" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="120">
-      <c r="A68" s="41"/>
-      <c r="B68" s="39" t="s">
+    <row r="78" spans="1:2" ht="120">
+      <c r="A78" s="41"/>
+      <c r="B78" s="39" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="75">
-      <c r="A69" s="41"/>
-      <c r="B69" s="39" t="s">
+    <row r="79" spans="1:2" ht="75">
+      <c r="A79" s="41"/>
+      <c r="B79" s="39" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="75">
-      <c r="A70" s="41" t="s">
+    <row r="80" spans="1:2" ht="75">
+      <c r="A80" s="41" t="s">
         <v>497</v>
       </c>
-      <c r="B70" s="39" t="s">
+      <c r="B80" s="39" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="75">
-      <c r="A71" s="41"/>
-      <c r="B71" s="39" t="s">
+    <row r="81" spans="1:2" ht="75">
+      <c r="A81" s="41"/>
+      <c r="B81" s="39" t="s">
         <v>499</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A80:A81"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="B1" location="Core!A2" display="Up"/>
-    <hyperlink ref="B53" location="'Java Based Conf'!A2" display="Refer Java Based Conf tab"/>
+    <hyperlink ref="B63" location="'Java Based Conf'!A2" display="Refer Java Based Conf tab"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="513">
   <si>
     <t>Main Topic</t>
   </si>
@@ -3620,6 +3620,98 @@
   </si>
   <si>
     <t>Spring Fundamentals</t>
+  </si>
+  <si>
+    <t>ResourceBundleMessageSource</t>
+  </si>
+  <si>
+    <t>In Spring, you can use ResourceBundleMessageSource to resolve text messages from properties file, base on the selected locales</t>
+  </si>
+  <si>
+    <t>Example refer:</t>
+  </si>
+  <si>
+    <r>
+      <t>1. SpringCorePractice repository in github
+2. refere resource.bundle.message.source.App.java
+3. refer resource.bundle.message.source.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>locale.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>messages_en_US.properties, messages_zh_CN.properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src/main/reources</t>
+    </r>
+  </si>
+  <si>
+    <t>In above example: context.getMessage()</t>
+  </si>
+  <si>
+    <t>the second argument is message parameters, you have to pass it as object array. You can just pass a null if no parameter values available
+Ex: context.getMessage("customer.name",null, Locale.US);</t>
+  </si>
+  <si>
+    <t>In the avove example:</t>
+  </si>
+  <si>
+    <t>The Locale.US will retrieve the messages from ‘messages_en_US.properties‘, while Locale.SIMPLIFIED_CHINESE will retrieve the messages from ‘messages_zh_CN.properties‘.</t>
+  </si>
+  <si>
+    <t>1. SpringCorePractice repository in github
+2. refer inject.message.source.MessageSourceService.java
+3. refer src/main/reources -&gt; inject.message.source -&gt; locale.xml, messages_en_US.properties, messages_zh_CN.properties
+4. refer inject.message.source.App.java</t>
+  </si>
+  <si>
+    <t>Access/set MessageSource in a bean
+Note: To Chine language in console -&gt; Right click on App -&gt; Run As -&gt; Run configurations -&gt; Common -&gt; Encoding -&gt; Other -&gt; Select "UTF-8"</t>
   </si>
 </sst>
 </file>
@@ -3819,7 +3911,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3931,6 +4023,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4279,7 +4377,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4502,13 +4600,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="52"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="47" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -4516,7 +4614,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="46"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="7" t="s">
         <v>117</v>
       </c>
@@ -4562,7 +4660,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="56" t="s">
         <v>127</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -4570,7 +4668,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="54"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="7" t="s">
         <v>129</v>
       </c>
@@ -4584,7 +4682,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="56" t="s">
         <v>132</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -4592,7 +4690,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="270">
-      <c r="A16" s="54"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="7" t="s">
         <v>134</v>
       </c>
@@ -4624,9 +4722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:A27"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4644,10 +4742,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="33" t="s">
@@ -4666,10 +4764,10 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="52"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="33" t="s">
@@ -4680,10 +4778,10 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="52"/>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" s="33" t="s">
@@ -4782,7 +4880,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="53" t="s">
         <v>402</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -4790,7 +4888,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="51"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="33" t="s">
         <v>400</v>
       </c>
@@ -4844,7 +4942,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="54" t="s">
         <v>415</v>
       </c>
       <c r="B34" s="33" t="s">
@@ -4852,7 +4950,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="120">
-      <c r="A35" s="52"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="33" t="s">
         <v>416</v>
       </c>
@@ -4984,10 +5082,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -4998,10 +5096,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="52"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="12" t="s">
@@ -5036,7 +5134,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="57" t="s">
         <v>334</v>
       </c>
       <c r="B11" s="30" t="s">
@@ -5044,7 +5142,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="30" t="s">
         <v>336</v>
       </c>
@@ -5058,7 +5156,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="53" t="s">
         <v>345</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -5066,13 +5164,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="51"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="30" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="51"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="30" t="s">
         <v>361</v>
       </c>
@@ -5175,10 +5273,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -5207,11 +5305,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5229,10 +5327,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1">
       <c r="A3" s="23" t="s">
@@ -5253,13 +5351,13 @@
     <row r="12" spans="1:2" s="23" customFormat="1"/>
     <row r="13" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="14" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="43"/>
+      <c r="B14" s="45"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -5267,7 +5365,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
@@ -5289,7 +5387,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="47" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -5297,7 +5395,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="46"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
@@ -5575,7 +5673,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="30">
-      <c r="A55" s="46" t="s">
+      <c r="A55" s="48" t="s">
         <v>90</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -5583,19 +5681,19 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="46"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="46"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="48" t="s">
         <v>94</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -5603,19 +5701,19 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="46"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="90">
-      <c r="A60" s="46"/>
+      <c r="A60" s="48"/>
       <c r="B60" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="60">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="48" t="s">
         <v>98</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -5623,7 +5721,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="46"/>
+      <c r="A62" s="48"/>
       <c r="B62" s="7" t="s">
         <v>339</v>
       </c>
@@ -5677,7 +5775,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="44" t="s">
+      <c r="A69" s="46" t="s">
         <v>111</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -5685,13 +5783,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="195">
-      <c r="A70" s="44"/>
+      <c r="A70" s="46"/>
       <c r="B70" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="180">
-      <c r="A71" s="44"/>
+      <c r="A71" s="46"/>
       <c r="B71" s="7" t="s">
         <v>114</v>
       </c>
@@ -5737,7 +5835,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="105">
-      <c r="A77" s="41" t="s">
+      <c r="A77" s="43" t="s">
         <v>496</v>
       </c>
       <c r="B77" s="39" t="s">
@@ -5745,19 +5843,19 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="120">
-      <c r="A78" s="41"/>
+      <c r="A78" s="43"/>
       <c r="B78" s="39" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="75">
-      <c r="A79" s="41"/>
+      <c r="A79" s="43"/>
       <c r="B79" s="39" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="75">
-      <c r="A80" s="41" t="s">
+      <c r="A80" s="43" t="s">
         <v>497</v>
       </c>
       <c r="B80" s="39" t="s">
@@ -5765,9 +5863,49 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="75">
-      <c r="A81" s="41"/>
+      <c r="A81" s="43"/>
       <c r="B81" s="39" t="s">
         <v>499</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="B82" s="42" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="45">
+      <c r="A83" s="41" t="s">
+        <v>505</v>
+      </c>
+      <c r="B83" s="42" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="30">
+      <c r="A84" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="B84" s="42" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30">
+      <c r="A85" s="41" t="s">
+        <v>509</v>
+      </c>
+      <c r="B85" s="42" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="60">
+      <c r="A86" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="B86" s="42" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -5817,10 +5955,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="52"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -6050,10 +6188,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="52"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -6099,10 +6237,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="52"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -6309,10 +6447,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="23" customFormat="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1">
       <c r="A3" s="8" t="s">
@@ -6371,10 +6509,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" s="23" customFormat="1">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="51" t="s">
         <v>441</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="52"/>
     </row>
     <row r="11" spans="1:2" s="23" customFormat="1">
       <c r="A11" s="8"/>
@@ -6385,10 +6523,10 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="52"/>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" s="37" t="s">
@@ -6399,7 +6537,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="105">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="48" t="s">
         <v>314</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -6407,13 +6545,13 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="225">
-      <c r="A16" s="46"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="12" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="43" t="s">
         <v>330</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -6421,19 +6559,19 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="240">
-      <c r="A18" s="41"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="12" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="150">
-      <c r="A19" s="41"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="12" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="135">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="53" t="s">
         <v>464</v>
       </c>
       <c r="B20" s="37" t="s">
@@ -6441,13 +6579,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" s="23" customFormat="1" ht="105">
-      <c r="A21" s="51"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="37" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="53" t="s">
         <v>442</v>
       </c>
       <c r="B22" s="37" t="s">
@@ -6455,19 +6593,19 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="51"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="37" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="51"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="53" t="s">
         <v>446</v>
       </c>
       <c r="B25" s="37" t="s">
@@ -6475,31 +6613,31 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="120">
-      <c r="A26" s="51"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="37" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="51"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="37" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="51"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="37" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="51"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="37" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="54" t="s">
         <v>452</v>
       </c>
       <c r="B30" s="37" t="s">
@@ -6507,31 +6645,31 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="52"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="37" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="52"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="37" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="52"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="37" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="52"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="37" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="53" t="s">
         <v>458</v>
       </c>
       <c r="B35" s="37" t="s">
@@ -6539,13 +6677,13 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="165">
-      <c r="A36" s="51"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="37" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="51"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="37" t="s">
         <v>461</v>
       </c>
@@ -6583,7 +6721,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="53" t="s">
         <v>473</v>
       </c>
       <c r="B42" s="37" t="s">
@@ -6591,7 +6729,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="51"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="37" t="s">
         <v>475</v>
       </c>
@@ -6605,7 +6743,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="53" t="s">
         <v>478</v>
       </c>
       <c r="B45" s="37" t="s">
@@ -6613,7 +6751,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="51"/>
+      <c r="A46" s="53"/>
       <c r="B46" s="37" t="s">
         <v>480</v>
       </c>
@@ -6627,7 +6765,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="53" t="s">
         <v>478</v>
       </c>
       <c r="B48" s="37" t="s">
@@ -6635,18 +6773,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="60">
-      <c r="A49" s="51"/>
+      <c r="A49" s="53"/>
       <c r="B49" s="37" t="s">
         <v>484</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A20:A21"/>
@@ -6655,6 +6788,11 @@
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
@@ -6696,10 +6834,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="52"/>
     </row>
     <row r="4" spans="1:2" ht="45">
       <c r="A4" s="8" t="s">
@@ -6750,7 +6888,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="48" t="s">
         <v>251</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -6758,25 +6896,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="46"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="46"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="53"/>
+      <c r="B13" s="55"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="48" t="s">
         <v>256</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -6784,13 +6922,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="46"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="46"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="7" t="s">
         <v>259</v>
       </c>
@@ -6820,7 +6958,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="48" t="s">
         <v>266</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -6828,7 +6966,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="46"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="7" t="s">
         <v>268</v>
       </c>
@@ -6906,7 +7044,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="48" t="s">
         <v>287</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -6914,13 +7052,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="46"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="46"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="7" t="s">
         <v>290</v>
       </c>
@@ -6974,10 +7112,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1">
       <c r="A3" s="23" t="s">
@@ -7023,10 +7161,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="52"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -7037,10 +7175,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="52"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="517">
   <si>
     <t>Main Topic</t>
   </si>
@@ -3712,6 +3712,20 @@
   <si>
     <t>Access/set MessageSource in a bean
 Note: To Chine language in console -&gt; Right click on App -&gt; Run As -&gt; Run configurations -&gt; Common -&gt; Encoding -&gt; Other -&gt; Select "UTF-8"</t>
+  </si>
+  <si>
+    <t>How to do null or empty or both in Spring for Stirng</t>
+  </si>
+  <si>
+    <t>org.springframework.util.StringUtils.isEmpty(stringValue);</t>
+  </si>
+  <si>
+    <t>public static boolean isEmpty(Object str) {
+  return (str == null || "".equals(str));
+ }</t>
+  </si>
+  <si>
+    <t>implementation of above isEmpty method - from Spring src code</t>
   </si>
 </sst>
 </file>
@@ -3911,7 +3925,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4023,6 +4037,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4600,13 +4620,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="54"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="49" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -4614,7 +4634,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="48"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="7" t="s">
         <v>117</v>
       </c>
@@ -4660,7 +4680,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="58" t="s">
         <v>127</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -4668,7 +4688,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="56"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="7" t="s">
         <v>129</v>
       </c>
@@ -4682,7 +4702,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="58" t="s">
         <v>132</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -4690,7 +4710,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="270">
-      <c r="A16" s="56"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="7" t="s">
         <v>134</v>
       </c>
@@ -4742,10 +4762,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="33" t="s">
@@ -4764,10 +4784,10 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="B9" s="52"/>
+      <c r="B9" s="54"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="33" t="s">
@@ -4778,10 +4798,10 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="53" t="s">
         <v>311</v>
       </c>
-      <c r="B13" s="52"/>
+      <c r="B13" s="54"/>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" s="33" t="s">
@@ -4880,7 +4900,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="55" t="s">
         <v>402</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -4888,7 +4908,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="53"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="33" t="s">
         <v>400</v>
       </c>
@@ -4942,7 +4962,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="56" t="s">
         <v>415</v>
       </c>
       <c r="B34" s="33" t="s">
@@ -4950,7 +4970,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="120">
-      <c r="A35" s="54"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="33" t="s">
         <v>416</v>
       </c>
@@ -5082,10 +5102,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -5096,10 +5116,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="12" t="s">
@@ -5134,7 +5154,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="59" t="s">
         <v>334</v>
       </c>
       <c r="B11" s="30" t="s">
@@ -5142,7 +5162,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="57"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="30" t="s">
         <v>336</v>
       </c>
@@ -5156,7 +5176,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="55" t="s">
         <v>345</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -5164,13 +5184,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="53"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="30" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="53"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="30" t="s">
         <v>361</v>
       </c>
@@ -5273,10 +5293,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -5305,11 +5325,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5327,10 +5347,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1">
       <c r="A3" s="23" t="s">
@@ -5351,13 +5371,13 @@
     <row r="12" spans="1:2" s="23" customFormat="1"/>
     <row r="13" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="14" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="45"/>
+      <c r="B14" s="47"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="51" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -5365,7 +5385,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="50"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
@@ -5387,7 +5407,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="49" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -5395,7 +5415,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="48"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
@@ -5673,7 +5693,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="30">
-      <c r="A55" s="48" t="s">
+      <c r="A55" s="50" t="s">
         <v>90</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -5681,19 +5701,19 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="48"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="48"/>
+      <c r="A57" s="50"/>
       <c r="B57" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30">
-      <c r="A58" s="48" t="s">
+      <c r="A58" s="50" t="s">
         <v>94</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -5701,19 +5721,19 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="48"/>
+      <c r="A59" s="50"/>
       <c r="B59" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="90">
-      <c r="A60" s="48"/>
+      <c r="A60" s="50"/>
       <c r="B60" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="60">
-      <c r="A61" s="48" t="s">
+      <c r="A61" s="50" t="s">
         <v>98</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -5721,7 +5741,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="48"/>
+      <c r="A62" s="50"/>
       <c r="B62" s="7" t="s">
         <v>339</v>
       </c>
@@ -5775,7 +5795,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="46" t="s">
+      <c r="A69" s="48" t="s">
         <v>111</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -5783,13 +5803,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="195">
-      <c r="A70" s="46"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="180">
-      <c r="A71" s="46"/>
+      <c r="A71" s="48"/>
       <c r="B71" s="7" t="s">
         <v>114</v>
       </c>
@@ -5835,7 +5855,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="105">
-      <c r="A77" s="43" t="s">
+      <c r="A77" s="45" t="s">
         <v>496</v>
       </c>
       <c r="B77" s="39" t="s">
@@ -5843,19 +5863,19 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="120">
-      <c r="A78" s="43"/>
+      <c r="A78" s="45"/>
       <c r="B78" s="39" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="75">
-      <c r="A79" s="43"/>
+      <c r="A79" s="45"/>
       <c r="B79" s="39" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="75">
-      <c r="A80" s="43" t="s">
+      <c r="A80" s="45" t="s">
         <v>497</v>
       </c>
       <c r="B80" s="39" t="s">
@@ -5863,7 +5883,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="75">
-      <c r="A81" s="43"/>
+      <c r="A81" s="45"/>
       <c r="B81" s="39" t="s">
         <v>499</v>
       </c>
@@ -5906,6 +5926,22 @@
       </c>
       <c r="B86" s="42" t="s">
         <v>511</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="43" t="s">
+        <v>513</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="45">
+      <c r="A88" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" s="44" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -5955,10 +5991,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="54"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -6188,10 +6224,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="54"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -6237,10 +6273,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="54"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -6447,10 +6483,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="23" customFormat="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1">
       <c r="A3" s="8" t="s">
@@ -6509,10 +6545,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" s="23" customFormat="1">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="53" t="s">
         <v>441</v>
       </c>
-      <c r="B10" s="52"/>
+      <c r="B10" s="54"/>
     </row>
     <row r="11" spans="1:2" s="23" customFormat="1">
       <c r="A11" s="8"/>
@@ -6523,10 +6559,10 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="B13" s="52"/>
+      <c r="B13" s="54"/>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" s="37" t="s">
@@ -6537,7 +6573,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="105">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="50" t="s">
         <v>314</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -6545,13 +6581,13 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="225">
-      <c r="A16" s="48"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="12" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="45" t="s">
         <v>330</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -6559,19 +6595,19 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="240">
-      <c r="A18" s="43"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="12" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="150">
-      <c r="A19" s="43"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="12" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="135">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="55" t="s">
         <v>464</v>
       </c>
       <c r="B20" s="37" t="s">
@@ -6579,13 +6615,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" s="23" customFormat="1" ht="105">
-      <c r="A21" s="53"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="37" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="55" t="s">
         <v>442</v>
       </c>
       <c r="B22" s="37" t="s">
@@ -6593,19 +6629,19 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="53"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="37" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="53"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="55" t="s">
         <v>446</v>
       </c>
       <c r="B25" s="37" t="s">
@@ -6613,31 +6649,31 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="120">
-      <c r="A26" s="53"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="37" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="53"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="37" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="53"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="37" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="53"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="37" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="56" t="s">
         <v>452</v>
       </c>
       <c r="B30" s="37" t="s">
@@ -6645,31 +6681,31 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="54"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="37" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="54"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="37" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="54"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="37" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="54"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="37" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="55" t="s">
         <v>458</v>
       </c>
       <c r="B35" s="37" t="s">
@@ -6677,13 +6713,13 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="165">
-      <c r="A36" s="53"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="37" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="53"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="37" t="s">
         <v>461</v>
       </c>
@@ -6721,7 +6757,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="55" t="s">
         <v>473</v>
       </c>
       <c r="B42" s="37" t="s">
@@ -6729,7 +6765,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="53"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="37" t="s">
         <v>475</v>
       </c>
@@ -6743,7 +6779,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="55" t="s">
         <v>478</v>
       </c>
       <c r="B45" s="37" t="s">
@@ -6751,7 +6787,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="53"/>
+      <c r="A46" s="55"/>
       <c r="B46" s="37" t="s">
         <v>480</v>
       </c>
@@ -6765,7 +6801,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="55" t="s">
         <v>478</v>
       </c>
       <c r="B48" s="37" t="s">
@@ -6773,13 +6809,18 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="60">
-      <c r="A49" s="53"/>
+      <c r="A49" s="55"/>
       <c r="B49" s="37" t="s">
         <v>484</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A20:A21"/>
@@ -6788,11 +6829,6 @@
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
@@ -6834,10 +6870,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="54"/>
     </row>
     <row r="4" spans="1:2" ht="45">
       <c r="A4" s="8" t="s">
@@ -6888,7 +6924,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="50" t="s">
         <v>251</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -6896,25 +6932,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="48"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="48"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="57"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="50" t="s">
         <v>256</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -6922,13 +6958,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="48"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="48"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="7" t="s">
         <v>259</v>
       </c>
@@ -6958,7 +6994,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="50" t="s">
         <v>266</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -6966,7 +7002,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="48"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="7" t="s">
         <v>268</v>
       </c>
@@ -7044,7 +7080,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="50" t="s">
         <v>287</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -7052,13 +7088,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="48"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="48"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="7" t="s">
         <v>290</v>
       </c>
@@ -7112,10 +7148,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1">
       <c r="A3" s="23" t="s">
@@ -7161,10 +7197,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="B10" s="52"/>
+      <c r="B10" s="54"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -7175,10 +7211,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="53" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="52"/>
+      <c r="B15" s="54"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -8,27 +8,28 @@
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
-    <sheet name="Core" sheetId="2" r:id="rId2"/>
-    <sheet name="JDBC" sheetId="3" r:id="rId3"/>
-    <sheet name="ORM" sheetId="4" r:id="rId4"/>
-    <sheet name="AOP" sheetId="5" r:id="rId5"/>
-    <sheet name="MVC" sheetId="6" r:id="rId6"/>
-    <sheet name="Transaction" sheetId="7" r:id="rId7"/>
-    <sheet name="Security" sheetId="8" r:id="rId8"/>
-    <sheet name="REST" sheetId="9" r:id="rId9"/>
-    <sheet name="ActiveMQ" sheetId="10" r:id="rId10"/>
-    <sheet name="Camel" sheetId="11" r:id="rId11"/>
-    <sheet name="Java Based Conf" sheetId="12" r:id="rId12"/>
-    <sheet name="Boot" sheetId="13" r:id="rId13"/>
-    <sheet name="Annotations" sheetId="14" r:id="rId14"/>
-    <sheet name="Data" sheetId="15" r:id="rId15"/>
+    <sheet name="Materials" sheetId="16" r:id="rId2"/>
+    <sheet name="Core" sheetId="2" r:id="rId3"/>
+    <sheet name="JDBC" sheetId="3" r:id="rId4"/>
+    <sheet name="ORM" sheetId="4" r:id="rId5"/>
+    <sheet name="AOP" sheetId="5" r:id="rId6"/>
+    <sheet name="MVC" sheetId="6" r:id="rId7"/>
+    <sheet name="Transaction" sheetId="7" r:id="rId8"/>
+    <sheet name="Security" sheetId="8" r:id="rId9"/>
+    <sheet name="REST" sheetId="9" r:id="rId10"/>
+    <sheet name="ActiveMQ" sheetId="10" r:id="rId11"/>
+    <sheet name="Camel" sheetId="11" r:id="rId12"/>
+    <sheet name="Java Based Conf" sheetId="12" r:id="rId13"/>
+    <sheet name="Boot" sheetId="13" r:id="rId14"/>
+    <sheet name="Annotations" sheetId="14" r:id="rId15"/>
+    <sheet name="Data" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="520">
   <si>
     <t>Main Topic</t>
   </si>
@@ -3726,6 +3727,15 @@
   </si>
   <si>
     <t>implementation of above isEmpty method - from Spring src code</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Architecting Web Applications with Spring</t>
+  </si>
+  <si>
+    <t>Pluralsight - video name</t>
   </si>
 </sst>
 </file>
@@ -4393,11 +4403,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4507,6 +4517,11 @@
       </c>
       <c r="B17" s="23" t="s">
         <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="15" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -4526,6 +4541,7 @@
     <hyperlink ref="A10" location="Annotations!A1" display="Spring Annotations"/>
     <hyperlink ref="A15" location="Data!A1" display="Spring Data"/>
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
+    <hyperlink ref="A18" location="Materials!A1" display="Materials"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4543,6 +4559,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="54.375" customWidth="1"/>
+    <col min="2" max="2" width="129.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A14" display="Topics"/>
+    <hyperlink ref="B1" location="REST!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
     <col min="1" max="1" width="65.75" customWidth="1"/>
     <col min="2" max="2" width="114.875" customWidth="1"/>
   </cols>
@@ -4564,7 +4612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -4596,7 +4644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -4738,7 +4786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B47"/>
   <sheetViews>
@@ -5078,7 +5126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -5269,13 +5317,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5325,11 +5373,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="2" max="2" width="116.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>518</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Materials!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A18" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5967,7 +6055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B28"/>
   <sheetViews>
@@ -6200,7 +6288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -6249,7 +6337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B24"/>
   <sheetViews>
@@ -6458,13 +6546,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6816,11 +6904,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A20:A21"/>
@@ -6829,6 +6912,11 @@
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
@@ -6846,7 +6934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -7124,7 +7212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -7251,36 +7339,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="54.375" customWidth="1"/>
-    <col min="2" max="2" width="129.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Topics!A14" display="Topics"/>
-    <hyperlink ref="B1" location="REST!A2" display="Up"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -3742,7 +3742,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3817,6 +3817,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3935,7 +3943,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4107,6 +4115,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4403,107 +4414,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.25" customWidth="1"/>
-    <col min="2" max="2" width="86.75" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="86.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="60" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="23"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" s="14"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3" s="14"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" s="14"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" s="14"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="21"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" s="14"/>
+      <c r="C6" s="21"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8" s="14"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="B9" s="14"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="15" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="15" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="15" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="15" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="15" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="15" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="23" t="s">
         <v>352</v>
       </c>
@@ -4520,9 +4549,8 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="15" t="s">
-        <v>517</v>
-      </c>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4540,8 +4568,8 @@
     <hyperlink ref="A14" location="REST!A1" display="Spring REST"/>
     <hyperlink ref="A10" location="Annotations!A1" display="Spring Annotations"/>
     <hyperlink ref="A15" location="Data!A1" display="Spring Data"/>
-    <hyperlink ref="B1" location="Topics!A2" display="Up"/>
-    <hyperlink ref="A18" location="Materials!A1" display="Materials"/>
+    <hyperlink ref="C1" location="Topics!A2" display="Up"/>
+    <hyperlink ref="B1" location="Materials!A1" display="Materials"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4559,8 +4587,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.375" customWidth="1"/>
-    <col min="2" max="2" width="129.25" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="2" max="2" width="129.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4591,8 +4619,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="65.75" customWidth="1"/>
-    <col min="2" max="2" width="114.875" customWidth="1"/>
+    <col min="1" max="1" width="65.7109375" customWidth="1"/>
+    <col min="2" max="2" width="114.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4623,8 +4651,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="57.125" customWidth="1"/>
-    <col min="2" max="2" width="128.625" customWidth="1"/>
+    <col min="1" max="1" width="57.140625" customWidth="1"/>
+    <col min="2" max="2" width="128.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4655,8 +4683,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.75" customWidth="1"/>
-    <col min="2" max="2" width="116.625" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="116.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4735,7 +4763,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
+    <row r="13" spans="1:2" ht="45">
       <c r="A13" s="58"/>
       <c r="B13" s="7" t="s">
         <v>129</v>
@@ -4757,7 +4785,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="270">
+    <row r="16" spans="1:2" ht="285">
       <c r="A16" s="58"/>
       <c r="B16" s="7" t="s">
         <v>134</v>
@@ -4797,8 +4825,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.875" style="33" customWidth="1"/>
-    <col min="2" max="2" width="106.625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="106.5703125" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4939,7 +4967,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="30">
       <c r="A25" s="33" t="s">
         <v>395</v>
       </c>
@@ -4993,7 +5021,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="45">
+    <row r="32" spans="1:2" ht="60">
       <c r="A32" s="33" t="s">
         <v>410</v>
       </c>
@@ -5001,7 +5029,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" ht="30">
       <c r="A33" s="33" t="s">
         <v>412</v>
       </c>
@@ -5087,7 +5115,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" ht="30">
       <c r="A44" s="36" t="s">
         <v>434</v>
       </c>
@@ -5137,8 +5165,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="52.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="110.875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="52.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="110.85546875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5169,7 +5197,7 @@
       </c>
       <c r="B6" s="54"/>
     </row>
-    <row r="7" spans="1:2" ht="45">
+    <row r="7" spans="1:2" ht="60">
       <c r="A7" s="12" t="s">
         <v>323</v>
       </c>
@@ -5209,13 +5237,13 @@
         <v>335</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="30">
       <c r="A12" s="59"/>
       <c r="B12" s="30" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="60">
+    <row r="13" spans="1:2" ht="75">
       <c r="A13" s="12" t="s">
         <v>342</v>
       </c>
@@ -5243,7 +5271,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="23" customFormat="1">
+    <row r="17" spans="1:2" s="23" customFormat="1" ht="30">
       <c r="A17" s="30" t="s">
         <v>360</v>
       </c>
@@ -5328,8 +5356,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.75" customWidth="1"/>
-    <col min="2" max="2" width="111.25" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
+    <col min="2" max="2" width="111.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5375,15 +5403,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="116.5" customWidth="1"/>
+    <col min="2" max="2" width="116.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5405,7 +5433,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!A18" display="Topics"/>
+    <hyperlink ref="A1" location="Topics!B1" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5422,8 +5450,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.125" customWidth="1"/>
-    <col min="2" max="2" width="108.75" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" customWidth="1"/>
+    <col min="2" max="2" width="108.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -5478,7 +5506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="90">
+    <row r="17" spans="1:2" ht="135">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -5486,7 +5514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="330">
+    <row r="18" spans="1:2" ht="345">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -5524,7 +5552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30">
+    <row r="23" spans="1:2" ht="45">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
@@ -5532,7 +5560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="45">
+    <row r="24" spans="1:2" ht="60">
       <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
@@ -5540,7 +5568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30">
+    <row r="25" spans="1:2" ht="45">
       <c r="A25" s="6" t="s">
         <v>31</v>
       </c>
@@ -5548,7 +5576,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="105">
+    <row r="26" spans="1:2" ht="120">
       <c r="A26" s="6" t="s">
         <v>33</v>
       </c>
@@ -5596,7 +5624,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="45">
+    <row r="32" spans="1:2" ht="60">
       <c r="A32" s="6" t="s">
         <v>44</v>
       </c>
@@ -5604,7 +5632,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="60">
+    <row r="33" spans="1:2" ht="75">
       <c r="A33" s="6" t="s">
         <v>46</v>
       </c>
@@ -5612,7 +5640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="90">
+    <row r="34" spans="1:2" ht="105">
       <c r="A34" s="6" t="s">
         <v>48</v>
       </c>
@@ -5620,7 +5648,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30">
+    <row r="35" spans="1:2" ht="45">
       <c r="A35" s="6" t="s">
         <v>50</v>
       </c>
@@ -5684,7 +5712,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30">
+    <row r="43" spans="1:2" ht="45">
       <c r="A43" s="8" t="s">
         <v>66</v>
       </c>
@@ -5692,7 +5720,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="105">
+    <row r="44" spans="1:2" ht="120">
       <c r="A44" s="6" t="s">
         <v>68</v>
       </c>
@@ -5708,7 +5736,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="150">
+    <row r="46" spans="1:2" ht="165">
       <c r="A46" s="6" t="s">
         <v>72</v>
       </c>
@@ -5716,7 +5744,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="240">
+    <row r="47" spans="1:2" ht="255">
       <c r="A47" s="6" t="s">
         <v>74</v>
       </c>
@@ -5732,7 +5760,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" ht="30">
       <c r="A49" s="6" t="s">
         <v>78</v>
       </c>
@@ -5748,7 +5776,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" ht="30">
       <c r="A51" s="6" t="s">
         <v>82</v>
       </c>
@@ -5764,7 +5792,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="30">
+    <row r="53" spans="1:2" ht="45">
       <c r="A53" s="6" t="s">
         <v>86</v>
       </c>
@@ -5772,7 +5800,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="30">
+    <row r="54" spans="1:2" ht="45">
       <c r="A54" s="6" t="s">
         <v>88</v>
       </c>
@@ -5780,7 +5808,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="30">
+    <row r="55" spans="1:2" ht="45">
       <c r="A55" s="50" t="s">
         <v>90</v>
       </c>
@@ -5800,7 +5828,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30">
+    <row r="58" spans="1:2" ht="45">
       <c r="A58" s="50" t="s">
         <v>94</v>
       </c>
@@ -5820,7 +5848,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="60">
+    <row r="61" spans="1:2" ht="75">
       <c r="A61" s="50" t="s">
         <v>98</v>
       </c>
@@ -5828,7 +5856,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30">
+    <row r="62" spans="1:2" ht="45">
       <c r="A62" s="50"/>
       <c r="B62" s="7" t="s">
         <v>339</v>
@@ -5890,7 +5918,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="195">
+    <row r="70" spans="1:2" ht="240">
       <c r="A70" s="48"/>
       <c r="B70" s="7" t="s">
         <v>113</v>
@@ -5918,7 +5946,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="135">
+    <row r="74" spans="1:2" ht="150">
       <c r="A74" s="22" t="s">
         <v>340</v>
       </c>
@@ -5926,7 +5954,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="45">
+    <row r="75" spans="1:2" ht="60">
       <c r="A75" s="35" t="s">
         <v>438</v>
       </c>
@@ -5976,7 +6004,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" ht="30">
       <c r="A82" s="41" t="s">
         <v>503</v>
       </c>
@@ -5984,7 +6012,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="45">
+    <row r="83" spans="1:2" ht="60">
       <c r="A83" s="41" t="s">
         <v>505</v>
       </c>
@@ -5992,7 +6020,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="30">
+    <row r="84" spans="1:2" ht="45">
       <c r="A84" s="41" t="s">
         <v>507</v>
       </c>
@@ -6008,7 +6036,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="60">
+    <row r="86" spans="1:2" ht="75">
       <c r="A86" s="41" t="s">
         <v>512</v>
       </c>
@@ -6066,8 +6094,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="59.125" customWidth="1"/>
-    <col min="2" max="2" width="125.25" customWidth="1"/>
+    <col min="1" max="1" width="59.140625" customWidth="1"/>
+    <col min="2" max="2" width="125.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6299,8 +6327,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="62.375" customWidth="1"/>
-    <col min="2" max="2" width="120.75" customWidth="1"/>
+    <col min="1" max="1" width="62.42578125" customWidth="1"/>
+    <col min="2" max="2" width="120.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6348,8 +6376,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.375" customWidth="1"/>
-    <col min="2" max="2" width="130.625" customWidth="1"/>
+    <col min="1" max="1" width="55.42578125" customWidth="1"/>
+    <col min="2" max="2" width="130.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6374,7 +6402,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="90">
+    <row r="5" spans="1:2" ht="105">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
@@ -6470,7 +6498,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="30">
       <c r="A17" s="6" t="s">
         <v>210</v>
       </c>
@@ -6494,7 +6522,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="30">
       <c r="A20" s="8" t="s">
         <v>216</v>
       </c>
@@ -6557,9 +6585,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.25" style="37" customWidth="1"/>
-    <col min="2" max="2" width="105.875" customWidth="1"/>
-    <col min="3" max="3" width="6.125" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="105.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6660,7 +6688,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="105">
+    <row r="15" spans="1:2" ht="120">
       <c r="A15" s="50" t="s">
         <v>314</v>
       </c>
@@ -6668,13 +6696,13 @@
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="225">
+    <row r="16" spans="1:2" ht="240">
       <c r="A16" s="50"/>
       <c r="B16" s="12" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="45">
+    <row r="17" spans="1:2" ht="60">
       <c r="A17" s="45" t="s">
         <v>330</v>
       </c>
@@ -6682,7 +6710,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="240">
+    <row r="18" spans="1:2" ht="255">
       <c r="A18" s="45"/>
       <c r="B18" s="12" t="s">
         <v>332</v>
@@ -6694,7 +6722,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="135">
+    <row r="20" spans="1:2" ht="150">
       <c r="A20" s="55" t="s">
         <v>464</v>
       </c>
@@ -6708,7 +6736,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30">
+    <row r="22" spans="1:2" ht="45">
       <c r="A22" s="55" t="s">
         <v>442</v>
       </c>
@@ -6722,7 +6750,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30">
+    <row r="24" spans="1:2" ht="45">
       <c r="A24" s="55"/>
       <c r="B24" s="37" t="s">
         <v>445</v>
@@ -6736,7 +6764,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="120">
+    <row r="26" spans="1:2" ht="135">
       <c r="A26" s="55"/>
       <c r="B26" s="37" t="s">
         <v>448</v>
@@ -6760,7 +6788,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30">
+    <row r="30" spans="1:2" ht="45">
       <c r="A30" s="56" t="s">
         <v>452</v>
       </c>
@@ -6786,7 +6814,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30">
+    <row r="34" spans="1:2" ht="45">
       <c r="A34" s="56"/>
       <c r="B34" s="37" t="s">
         <v>457</v>
@@ -6820,7 +6848,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="45">
+    <row r="39" spans="1:2" ht="60">
       <c r="A39" s="37" t="s">
         <v>467</v>
       </c>
@@ -6904,6 +6932,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A20:A21"/>
@@ -6912,11 +6945,6 @@
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
@@ -6945,8 +6973,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.875" customWidth="1"/>
-    <col min="2" max="2" width="119.75" customWidth="1"/>
+    <col min="1" max="1" width="64.85546875" customWidth="1"/>
+    <col min="2" max="2" width="119.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6963,7 +6991,7 @@
       </c>
       <c r="B3" s="54"/>
     </row>
-    <row r="4" spans="1:2" ht="45">
+    <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
         <v>239</v>
       </c>
@@ -6971,7 +6999,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="30">
       <c r="A5" s="8" t="s">
         <v>241</v>
       </c>
@@ -7003,7 +7031,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45">
+    <row r="9" spans="1:2" ht="60">
       <c r="A9" s="8" t="s">
         <v>249</v>
       </c>
@@ -7019,7 +7047,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30">
+    <row r="11" spans="1:2" ht="45">
       <c r="A11" s="50"/>
       <c r="B11" s="7" t="s">
         <v>253</v>
@@ -7051,7 +7079,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45">
+    <row r="16" spans="1:2" ht="60">
       <c r="A16" s="50"/>
       <c r="B16" s="7" t="s">
         <v>259</v>
@@ -7167,7 +7195,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" ht="30">
       <c r="A31" s="50" t="s">
         <v>287</v>
       </c>
@@ -7181,7 +7209,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30">
+    <row r="33" spans="1:2" ht="45">
       <c r="A33" s="50"/>
       <c r="B33" s="7" t="s">
         <v>290</v>
@@ -7223,8 +7251,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.375" customWidth="1"/>
-    <col min="2" max="2" width="121.875" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="2" max="2" width="121.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -3943,7 +3943,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4074,6 +4074,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4115,9 +4121,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4416,9 +4419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4432,7 +4435,7 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="46" t="s">
         <v>517</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -4677,8 +4680,8 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4696,13 +4699,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="54"/>
+      <c r="B4" s="56"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="51" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -4710,7 +4713,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="50"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="7" t="s">
         <v>117</v>
       </c>
@@ -4756,7 +4759,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="60" t="s">
         <v>127</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -4764,7 +4767,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="58"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="7" t="s">
         <v>129</v>
       </c>
@@ -4778,7 +4781,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="60" t="s">
         <v>132</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -4786,7 +4789,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="58"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="7" t="s">
         <v>134</v>
       </c>
@@ -4838,10 +4841,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="33" t="s">
@@ -4860,10 +4863,10 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="56"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="33" t="s">
@@ -4874,10 +4877,10 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="55" t="s">
         <v>311</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="56"/>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" s="33" t="s">
@@ -4976,7 +4979,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="57" t="s">
         <v>402</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -4984,7 +4987,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="55"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="33" t="s">
         <v>400</v>
       </c>
@@ -5038,7 +5041,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="58" t="s">
         <v>415</v>
       </c>
       <c r="B34" s="33" t="s">
@@ -5046,7 +5049,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="120">
-      <c r="A35" s="56"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="33" t="s">
         <v>416</v>
       </c>
@@ -5178,10 +5181,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -5192,10 +5195,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="55" t="s">
         <v>322</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="56"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="12" t="s">
@@ -5230,7 +5233,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="61" t="s">
         <v>334</v>
       </c>
       <c r="B11" s="30" t="s">
@@ -5238,7 +5241,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="59"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="30" t="s">
         <v>336</v>
       </c>
@@ -5252,7 +5255,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="57" t="s">
         <v>345</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -5260,13 +5263,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="55"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="30" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="55"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="30" t="s">
         <v>361</v>
       </c>
@@ -5369,10 +5372,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -5443,9 +5446,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5463,10 +5466,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1">
       <c r="A3" s="23" t="s">
@@ -5487,13 +5490,13 @@
     <row r="12" spans="1:2" s="23" customFormat="1"/>
     <row r="13" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="14" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="49"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="53" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -5501,7 +5504,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="52"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
@@ -5523,7 +5526,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="51" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -5531,7 +5534,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="50"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
@@ -5809,7 +5812,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="50" t="s">
+      <c r="A55" s="52" t="s">
         <v>90</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -5817,19 +5820,19 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="50"/>
+      <c r="A56" s="52"/>
       <c r="B56" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="50"/>
+      <c r="A57" s="52"/>
       <c r="B57" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="50" t="s">
+      <c r="A58" s="52" t="s">
         <v>94</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -5837,19 +5840,19 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="50"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="90">
-      <c r="A60" s="50"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="75">
-      <c r="A61" s="50" t="s">
+      <c r="A61" s="52" t="s">
         <v>98</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -5857,7 +5860,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="50"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="7" t="s">
         <v>339</v>
       </c>
@@ -5911,7 +5914,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="48" t="s">
+      <c r="A69" s="50" t="s">
         <v>111</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -5919,13 +5922,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="240">
-      <c r="A70" s="48"/>
+      <c r="A70" s="50"/>
       <c r="B70" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="180">
-      <c r="A71" s="48"/>
+      <c r="A71" s="50"/>
       <c r="B71" s="7" t="s">
         <v>114</v>
       </c>
@@ -5971,7 +5974,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="105">
-      <c r="A77" s="45" t="s">
+      <c r="A77" s="47" t="s">
         <v>496</v>
       </c>
       <c r="B77" s="39" t="s">
@@ -5979,19 +5982,19 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="120">
-      <c r="A78" s="45"/>
+      <c r="A78" s="47"/>
       <c r="B78" s="39" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="75">
-      <c r="A79" s="45"/>
+      <c r="A79" s="47"/>
       <c r="B79" s="39" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="75">
-      <c r="A80" s="45" t="s">
+      <c r="A80" s="47" t="s">
         <v>497</v>
       </c>
       <c r="B80" s="39" t="s">
@@ -5999,7 +6002,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="75">
-      <c r="A81" s="45"/>
+      <c r="A81" s="47"/>
       <c r="B81" s="39" t="s">
         <v>499</v>
       </c>
@@ -6037,7 +6040,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="75">
-      <c r="A86" s="41" t="s">
+      <c r="A86" s="45" t="s">
         <v>512</v>
       </c>
       <c r="B86" s="42" t="s">
@@ -6107,10 +6110,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="54"/>
+      <c r="B4" s="56"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -6340,10 +6343,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="56"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -6389,10 +6392,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="56"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -6599,10 +6602,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="23" customFormat="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1">
       <c r="A3" s="8" t="s">
@@ -6661,10 +6664,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" s="23" customFormat="1">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="55" t="s">
         <v>441</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="56"/>
     </row>
     <row r="11" spans="1:2" s="23" customFormat="1">
       <c r="A11" s="8"/>
@@ -6675,10 +6678,10 @@
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="55" t="s">
         <v>322</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="56"/>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" s="37" t="s">
@@ -6689,7 +6692,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="120">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="52" t="s">
         <v>314</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -6697,13 +6700,13 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="50"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="12" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>330</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -6711,19 +6714,19 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="255">
-      <c r="A18" s="45"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="12" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="150">
-      <c r="A19" s="45"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="12" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="150">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="57" t="s">
         <v>464</v>
       </c>
       <c r="B20" s="37" t="s">
@@ -6731,13 +6734,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" s="23" customFormat="1" ht="105">
-      <c r="A21" s="55"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="37" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="57" t="s">
         <v>442</v>
       </c>
       <c r="B22" s="37" t="s">
@@ -6745,19 +6748,19 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="55"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="37" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="55"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="57" t="s">
         <v>446</v>
       </c>
       <c r="B25" s="37" t="s">
@@ -6765,31 +6768,31 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="135">
-      <c r="A26" s="55"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="37" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="55"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="37" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="55"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="37" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="55"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="37" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="58" t="s">
         <v>452</v>
       </c>
       <c r="B30" s="37" t="s">
@@ -6797,31 +6800,31 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="56"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="37" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="56"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="37" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="56"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="37" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="56"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="37" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="57" t="s">
         <v>458</v>
       </c>
       <c r="B35" s="37" t="s">
@@ -6829,13 +6832,13 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="165">
-      <c r="A36" s="55"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="37" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="55"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="37" t="s">
         <v>461</v>
       </c>
@@ -6873,7 +6876,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="57" t="s">
         <v>473</v>
       </c>
       <c r="B42" s="37" t="s">
@@ -6881,7 +6884,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="55"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="37" t="s">
         <v>475</v>
       </c>
@@ -6895,7 +6898,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="57" t="s">
         <v>478</v>
       </c>
       <c r="B45" s="37" t="s">
@@ -6903,7 +6906,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="55"/>
+      <c r="A46" s="57"/>
       <c r="B46" s="37" t="s">
         <v>480</v>
       </c>
@@ -6917,7 +6920,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="57" t="s">
         <v>478</v>
       </c>
       <c r="B48" s="37" t="s">
@@ -6925,18 +6928,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="60">
-      <c r="A49" s="55"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="37" t="s">
         <v>484</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A20:A21"/>
@@ -6945,6 +6943,11 @@
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
@@ -6986,10 +6989,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="56"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
@@ -7040,7 +7043,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="52" t="s">
         <v>251</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -7048,25 +7051,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="50"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="50"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="57"/>
+      <c r="B13" s="59"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="52" t="s">
         <v>256</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -7074,13 +7077,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="50"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="50"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="7" t="s">
         <v>259</v>
       </c>
@@ -7110,7 +7113,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="52" t="s">
         <v>266</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -7118,7 +7121,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="50"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="7" t="s">
         <v>268</v>
       </c>
@@ -7196,7 +7199,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="52" t="s">
         <v>287</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -7204,13 +7207,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="50"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="50"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="7" t="s">
         <v>290</v>
       </c>
@@ -7264,10 +7267,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1">
       <c r="A3" s="23" t="s">
@@ -7313,10 +7316,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="56"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -7327,10 +7330,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="54"/>
+      <c r="B15" s="56"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="519">
   <si>
     <t>Main Topic</t>
   </si>
@@ -2212,9 +2212,6 @@
   </si>
   <si>
     <t>Examples</t>
-  </si>
-  <si>
-    <t>Material Links</t>
   </si>
   <si>
     <t>http://www.mkyong.com/tutorials/spring-security-tutorials/</t>
@@ -2788,9 +2785,6 @@
     <t>Creating your first spring boot application</t>
   </si>
   <si>
-    <t>Material links</t>
-  </si>
-  <si>
     <t>pluralsight</t>
   </si>
   <si>
@@ -3736,6 +3730,9 @@
   </si>
   <si>
     <t>Pluralsight - video name</t>
+  </si>
+  <si>
+    <t>Spring Architecture</t>
   </si>
 </sst>
 </file>
@@ -4419,9 +4416,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4436,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>12</v>
@@ -4501,7 +4498,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B10" s="15"/>
     </row>
@@ -4513,42 +4510,42 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B12" s="15"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B13" s="15"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B14" s="15"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B15" s="15"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>352</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="23" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4585,7 +4582,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4680,8 +4677,8 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4723,7 +4720,7 @@
         <v>118</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
@@ -4819,11 +4816,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4842,315 +4839,292 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="40" t="s">
-        <v>378</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>500</v>
+        <v>395</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="56"/>
+    </row>
+    <row r="7" spans="1:2" ht="75">
+      <c r="A7" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60">
+      <c r="A8" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="B9" s="56"/>
+      <c r="A9" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="33" t="s">
-        <v>397</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="55" t="s">
-        <v>311</v>
-      </c>
-      <c r="B13" s="56"/>
-    </row>
-    <row r="14" spans="1:2" ht="75">
+        <v>372</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="120">
+      <c r="A11" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60">
+      <c r="A13" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="33" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="60">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="33" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="33" t="s">
-        <v>371</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="36" t="s">
+        <v>429</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="33" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="120">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
       <c r="A18" s="33" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="33" t="s">
-        <v>376</v>
+    <row r="19" spans="1:2" ht="45">
+      <c r="A19" s="57" t="s">
+        <v>400</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="33" t="s">
-        <v>385</v>
-      </c>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="57"/>
       <c r="B20" s="33" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45">
       <c r="A21" s="33" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
       <c r="A22" s="33" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="45">
-      <c r="A23" s="36" t="s">
-        <v>431</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="33" t="s">
+        <v>403</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="33" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60">
       <c r="A25" s="33" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="57" t="s">
-        <v>402</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="57"/>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="58" t="s">
+        <v>413</v>
+      </c>
       <c r="B27" s="33" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="33" t="s">
-        <v>401</v>
-      </c>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="120">
+      <c r="A28" s="58"/>
       <c r="B28" s="33" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="33" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="33" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30">
       <c r="A31" s="33" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="33" t="s">
-        <v>410</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="58" t="s">
-        <v>415</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="120">
-      <c r="A35" s="58"/>
-      <c r="B35" s="33" t="s">
-        <v>416</v>
+      <c r="A32" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="105">
+      <c r="A33" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="90">
+      <c r="A34" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="225">
+      <c r="A35" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
-      <c r="A36" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="60">
-      <c r="A39" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="105">
-      <c r="A40" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="90">
-      <c r="A41" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="B41" s="34" t="s">
+      <c r="A36" s="36" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="225">
-      <c r="A42" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="B42" s="36" t="s">
+      <c r="B36" s="36" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="B38" s="36" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30">
-      <c r="A43" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="36" t="s">
-        <v>436</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
+    <row r="40" spans="1:2">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Boot!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A12" display="Topics"/>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B33" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B26" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5163,7 +5137,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5182,7 +5156,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="55" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B2" s="56"/>
     </row>
@@ -5196,138 +5170,138 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="55" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6" s="56"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>324</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>326</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
       <c r="A10" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>328</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="30" t="s">
         <v>334</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="61"/>
       <c r="B12" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="75">
       <c r="A13" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>342</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
       <c r="A14" s="57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
       <c r="A15" s="57"/>
       <c r="B15" s="30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
       <c r="A16" s="57"/>
       <c r="B16" s="30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="23" customFormat="1" ht="30">
       <c r="A17" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90">
       <c r="A18" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="23" customFormat="1" ht="120">
       <c r="A19" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="B19" s="30" t="s">
         <v>362</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
       <c r="A20" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B20" s="30" t="s">
         <v>347</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>365</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -5350,7 +5324,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5371,29 +5345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
-        <v>380</v>
-      </c>
-      <c r="B2" s="56"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="23" t="s">
-        <v>383</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A15" display="Topics"/>
     <hyperlink ref="B1" location="Data!A2" display="Up"/>
@@ -5404,7 +5356,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5425,18 +5377,211 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="23" t="s">
-        <v>519</v>
-      </c>
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="1:2" s="23" customFormat="1">
+      <c r="A2" s="55" t="s">
         <v>518</v>
       </c>
+      <c r="B2" s="56"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="23" customFormat="1"/>
+    <row r="5" spans="1:2">
+      <c r="A5" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="56"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A9" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="49"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="56"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21" s="56"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>304</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>307</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="B28" s="56"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>381</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A28:B28"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!B1" display="Topics"/>
+    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B15" r:id="rId3"/>
+    <hyperlink ref="B16" r:id="rId4"/>
+    <hyperlink ref="B17" r:id="rId5"/>
+    <hyperlink ref="B18" r:id="rId6"/>
+    <hyperlink ref="B19" r:id="rId7"/>
+    <hyperlink ref="B23" r:id="rId8"/>
+    <hyperlink ref="B24" r:id="rId9"/>
+    <hyperlink ref="B25" r:id="rId10"/>
+    <hyperlink ref="B26" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5444,11 +5589,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5467,619 +5612,603 @@
     </row>
     <row r="2" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="48" t="s">
-        <v>301</v>
+        <v>439</v>
       </c>
       <c r="B2" s="49"/>
     </row>
-    <row r="3" spans="1:2" s="23" customFormat="1">
-      <c r="A3" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="23" customFormat="1"/>
-    <row r="5" spans="1:2" s="23" customFormat="1"/>
-    <row r="6" spans="1:2" s="23" customFormat="1"/>
-    <row r="7" spans="1:2" s="23" customFormat="1"/>
-    <row r="8" spans="1:2" s="23" customFormat="1"/>
-    <row r="9" spans="1:2" s="23" customFormat="1"/>
-    <row r="10" spans="1:2" s="23" customFormat="1"/>
-    <row r="11" spans="1:2" s="23" customFormat="1"/>
-    <row r="12" spans="1:2" s="23" customFormat="1"/>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A14" s="48" t="s">
+    <row r="3" spans="1:2" s="23" customFormat="1"/>
+    <row r="4" spans="1:2" s="23" customFormat="1" ht="15.75" thickBot="1"/>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="49"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="53" t="s">
+      <c r="B5" s="49"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="1" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="135">
-      <c r="A17" s="4" t="s">
+    <row r="8" spans="1:2" ht="135">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="345">
-      <c r="A18" s="4" t="s">
+    <row r="9" spans="1:2" ht="345">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="51" t="s">
+    <row r="10" spans="1:2" ht="45">
+      <c r="A10" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="52"/>
-      <c r="B20" s="1" t="s">
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="52"/>
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="90">
+    <row r="12" spans="1:2" ht="90">
+      <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60">
+      <c r="A15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="120">
+      <c r="A17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60">
+      <c r="A18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60">
+      <c r="A20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45">
       <c r="A21" s="6" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="60">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45">
       <c r="A22" s="6" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="60">
       <c r="A23" s="6" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="60">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="75">
       <c r="A24" s="6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="105">
       <c r="A25" s="6" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="120">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45">
       <c r="A26" s="6" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="60">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
       <c r="A27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="60">
-      <c r="A29" s="9" t="s">
-        <v>38</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="75">
       <c r="A30" s="6" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30">
       <c r="A31" s="6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="60">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="105">
       <c r="A32" s="6" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="75">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="60">
       <c r="A33" s="6" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="105">
-      <c r="A34" s="6" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45">
+      <c r="A34" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="120">
       <c r="A35" s="6" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="45">
       <c r="A36" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="8" t="s">
-        <v>54</v>
+        <v>70</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="165">
+      <c r="A37" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="255">
       <c r="A38" s="6" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="6" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
       <c r="A40" s="6" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="105">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="60">
       <c r="A41" s="6" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="60">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30">
       <c r="A42" s="6" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="8" t="s">
-        <v>66</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="120">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="45">
       <c r="A44" s="6" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
       <c r="A45" s="6" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="165">
-      <c r="A46" s="6" t="s">
-        <v>72</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="45">
+      <c r="A46" s="52" t="s">
+        <v>90</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="255">
-      <c r="A47" s="6" t="s">
-        <v>74</v>
-      </c>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="45">
+      <c r="A47" s="52"/>
       <c r="B47" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="6" t="s">
-        <v>76</v>
-      </c>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="60">
+      <c r="A48" s="52"/>
       <c r="B48" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="6" t="s">
-        <v>78</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45">
+      <c r="A49" s="52" t="s">
+        <v>94</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="6" t="s">
-        <v>80</v>
-      </c>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="52"/>
       <c r="B50" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="30">
-      <c r="A51" s="6" t="s">
-        <v>82</v>
-      </c>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="90">
+      <c r="A51" s="52"/>
       <c r="B51" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="30">
-      <c r="A52" s="6" t="s">
-        <v>84</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="75">
+      <c r="A52" s="52" t="s">
+        <v>98</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="A53" s="52"/>
       <c r="B53" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="45">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="52" t="s">
-        <v>90</v>
+        <v>100</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="52"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="B56" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="52"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30">
+      <c r="A57" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="B57" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="52" t="s">
-        <v>94</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30">
+      <c r="A58" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="52"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="60">
+      <c r="A59" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="B59" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="90">
-      <c r="A60" s="52"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30">
+      <c r="A60" s="50" t="s">
+        <v>111</v>
+      </c>
       <c r="B60" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="75">
-      <c r="A61" s="52" t="s">
-        <v>98</v>
-      </c>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="240">
+      <c r="A61" s="50"/>
       <c r="B61" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="52"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="180">
+      <c r="A62" s="50"/>
       <c r="B62" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="135">
+      <c r="A64" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="150">
+      <c r="A65" s="22" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>106</v>
+      <c r="B65" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="60">
+      <c r="A66" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="30">
-      <c r="A67" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="60">
-      <c r="A68" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="240">
-      <c r="A70" s="50"/>
-      <c r="B70" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="180">
-      <c r="A71" s="50"/>
-      <c r="B71" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="135">
-      <c r="A73" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="150">
-      <c r="A74" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="60">
-      <c r="A75" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="B75" s="36" t="s">
-        <v>439</v>
+      <c r="A67" s="38" t="s">
+        <v>490</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="105">
+      <c r="A68" s="47" t="s">
+        <v>494</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="120">
+      <c r="A69" s="47"/>
+      <c r="B69" s="39" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="75">
+      <c r="A70" s="47"/>
+      <c r="B70" s="39" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="75">
+      <c r="A71" s="47" t="s">
+        <v>495</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="75">
+      <c r="A72" s="47"/>
+      <c r="B72" s="39" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30">
+      <c r="A73" s="41" t="s">
+        <v>501</v>
+      </c>
+      <c r="B73" s="42" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="60">
+      <c r="A74" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="B74" s="42" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="45">
+      <c r="A75" s="41" t="s">
+        <v>505</v>
+      </c>
+      <c r="B75" s="42" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30">
-      <c r="A76" s="38" t="s">
-        <v>492</v>
-      </c>
-      <c r="B76" s="39" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="105">
-      <c r="A77" s="47" t="s">
-        <v>496</v>
-      </c>
-      <c r="B77" s="39" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="120">
-      <c r="A78" s="47"/>
-      <c r="B78" s="39" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="75">
-      <c r="A79" s="47"/>
-      <c r="B79" s="39" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="75">
-      <c r="A80" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="B80" s="39" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="75">
-      <c r="A81" s="47"/>
-      <c r="B81" s="39" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="30">
-      <c r="A82" s="41" t="s">
-        <v>503</v>
-      </c>
-      <c r="B82" s="42" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="60">
-      <c r="A83" s="41" t="s">
-        <v>505</v>
-      </c>
-      <c r="B83" s="42" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="45">
-      <c r="A84" s="41" t="s">
+      <c r="A76" s="41" t="s">
         <v>507</v>
       </c>
-      <c r="B84" s="42" t="s">
+      <c r="B76" s="42" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="41" t="s">
+    <row r="77" spans="1:2" ht="75">
+      <c r="A77" s="45" t="s">
+        <v>510</v>
+      </c>
+      <c r="B77" s="42" t="s">
         <v>509</v>
       </c>
-      <c r="B85" s="42" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="75">
-      <c r="A86" s="45" t="s">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="43" t="s">
+        <v>511</v>
+      </c>
+      <c r="B78" s="44" t="s">
         <v>512</v>
       </c>
-      <c r="B86" s="42" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="43" t="s">
+    </row>
+    <row r="79" spans="1:2" ht="45">
+      <c r="A79" s="43" t="s">
+        <v>514</v>
+      </c>
+      <c r="B79" s="44" t="s">
         <v>513</v>
-      </c>
-      <c r="B87" s="44" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="45">
-      <c r="A88" s="43" t="s">
-        <v>516</v>
-      </c>
-      <c r="B88" s="44" t="s">
-        <v>515</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A71:A72"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A53"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="B1" location="Core!A2" display="Up"/>
-    <hyperlink ref="B63" location="'Java Based Conf'!A2" display="Refer Java Based Conf tab"/>
+    <hyperlink ref="B54" location="'Java Based Conf'!A2" display="Refer Java Based Conf tab"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6092,7 +6221,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6325,7 +6454,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6579,11 +6708,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6603,365 +6732,295 @@
     </row>
     <row r="2" spans="1:2" s="23" customFormat="1">
       <c r="A2" s="55" t="s">
-        <v>301</v>
+        <v>439</v>
       </c>
       <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1">
-      <c r="A3" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>230</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2" s="23" customFormat="1">
-      <c r="A4" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="23" customFormat="1">
-      <c r="A5" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="23" customFormat="1">
-      <c r="A7" s="8" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="56"/>
+    </row>
+    <row r="6" spans="1:2" ht="75">
+      <c r="A6" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="120">
+      <c r="A7" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="240">
+      <c r="A8" s="52"/>
+      <c r="B8" s="12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60">
+      <c r="A9" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="255">
+      <c r="A10" s="47"/>
+      <c r="B10" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="150">
+      <c r="A11" s="47"/>
+      <c r="B11" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="150">
+      <c r="A12" s="57" t="s">
         <v>462</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="23" customFormat="1">
-      <c r="A8" s="23" t="s">
-        <v>485</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="23" customFormat="1">
-      <c r="A9" s="8" t="s">
+      <c r="B12" s="37" t="s">
         <v>487</v>
       </c>
-      <c r="B9" s="15" t="s">
+    </row>
+    <row r="13" spans="1:2" s="23" customFormat="1" ht="105">
+      <c r="A13" s="57"/>
+      <c r="B13" s="37" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="23" customFormat="1">
-      <c r="A10" s="55" t="s">
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="57" t="s">
+        <v>440</v>
+      </c>
+      <c r="B14" s="37" t="s">
         <v>441</v>
       </c>
-      <c r="B10" s="56"/>
-    </row>
-    <row r="11" spans="1:2" s="23" customFormat="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="1:2" s="23" customFormat="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="55" t="s">
-        <v>322</v>
-      </c>
-      <c r="B13" s="56"/>
-    </row>
-    <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="120">
-      <c r="A15" s="52" t="s">
-        <v>314</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="52"/>
-      <c r="B16" s="12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="255">
-      <c r="A18" s="47"/>
-      <c r="B18" s="12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="150">
-      <c r="A19" s="47"/>
-      <c r="B19" s="12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="150">
-      <c r="A20" s="57" t="s">
-        <v>464</v>
-      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60">
+      <c r="A15" s="57"/>
+      <c r="B15" s="37" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="57"/>
+      <c r="B16" s="37" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="135">
+      <c r="A18" s="57"/>
+      <c r="B18" s="37" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="57"/>
+      <c r="B19" s="37" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="57"/>
       <c r="B20" s="37" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="23" customFormat="1" ht="105">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
       <c r="A21" s="57"/>
       <c r="B21" s="37" t="s">
-        <v>490</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="57" t="s">
-        <v>442</v>
+      <c r="A22" s="58" t="s">
+        <v>450</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="57"/>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45">
+      <c r="A23" s="58"/>
       <c r="B23" s="37" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="57"/>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="58"/>
       <c r="B24" s="37" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="57" t="s">
-        <v>446</v>
-      </c>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="58"/>
       <c r="B25" s="37" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="135">
-      <c r="A26" s="57"/>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="58"/>
       <c r="B26" s="37" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="57"/>
+      <c r="A27" s="57" t="s">
+        <v>456</v>
+      </c>
       <c r="B27" s="37" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="45">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="165">
       <c r="A28" s="57"/>
       <c r="B28" s="37" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="57"/>
       <c r="B29" s="37" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="58" t="s">
-        <v>452</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30">
+      <c r="A30" s="37" t="s">
+        <v>463</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="58"/>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="60">
+      <c r="A31" s="37" t="s">
+        <v>465</v>
+      </c>
       <c r="B31" s="37" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="58"/>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="60">
+      <c r="A32" s="37" t="s">
+        <v>467</v>
+      </c>
       <c r="B32" s="37" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="58"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="75">
+      <c r="A33" s="37" t="s">
+        <v>469</v>
+      </c>
       <c r="B33" s="37" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="58"/>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="57" t="s">
+        <v>471</v>
+      </c>
       <c r="B34" s="37" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="57" t="s">
-        <v>458</v>
-      </c>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="75">
+      <c r="A35" s="57"/>
       <c r="B35" s="37" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="165">
-      <c r="A36" s="57"/>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="120">
+      <c r="A36" s="37" t="s">
+        <v>474</v>
+      </c>
       <c r="B36" s="37" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="57"/>
+      <c r="A37" s="57" t="s">
+        <v>476</v>
+      </c>
       <c r="B37" s="37" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="37" t="s">
-        <v>465</v>
-      </c>
+      <c r="A38" s="57"/>
       <c r="B38" s="37" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="60">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="135">
       <c r="A39" s="37" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="60">
-      <c r="A40" s="37" t="s">
-        <v>469</v>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="57" t="s">
+        <v>476</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="75">
-      <c r="A41" s="37" t="s">
-        <v>471</v>
-      </c>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="60">
+      <c r="A41" s="57"/>
       <c r="B41" s="37" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="57" t="s">
-        <v>473</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="57"/>
-      <c r="B43" s="37" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="120">
-      <c r="A44" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="57" t="s">
-        <v>478</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="57"/>
-      <c r="B46" s="37" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="135">
-      <c r="A47" s="37" t="s">
-        <v>481</v>
-      </c>
-      <c r="B47" s="37" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="57" t="s">
-        <v>478</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="60">
-      <c r="A49" s="57"/>
-      <c r="B49" s="37" t="s">
-        <v>484</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
+  <mergeCells count="12">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
     <hyperlink ref="B1" location="MVC!A2" display="Up"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6"/>
-    <hyperlink ref="B9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7249,7 +7308,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7266,52 +7325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="56"/>
-    </row>
-    <row r="3" spans="1:2" s="23" customFormat="1">
-      <c r="A3" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>309</v>
-      </c>
-    </row>
+    <row r="3" spans="1:2" s="23" customFormat="1"/>
     <row r="8" spans="1:2">
       <c r="B8" s="15"/>
     </row>
@@ -7354,20 +7368,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A11" display="Topics"/>
     <hyperlink ref="B1" location="Security!A2" display="Up"/>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="521">
   <si>
     <t>Main Topic</t>
   </si>
@@ -3733,6 +3733,12 @@
   </si>
   <si>
     <t>Spring Architecture</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -3824,7 +3830,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3846,6 +3852,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3940,7 +3952,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4074,14 +4086,20 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4098,12 +4116,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4118,6 +4130,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4416,9 +4431,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4696,13 +4711,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="56"/>
+      <c r="B4" s="48"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="53" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -4710,7 +4725,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="52"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="7" t="s">
         <v>117</v>
       </c>
@@ -4816,17 +4831,17 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="56.85546875" style="33" customWidth="1"/>
-    <col min="2" max="2" width="106.5703125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="129.5703125" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4838,10 +4853,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="33" t="s">
@@ -4852,10 +4867,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="47" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="33" t="s">
@@ -5108,10 +5123,6 @@
       <c r="B38" s="36" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5155,10 +5166,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -5169,10 +5180,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="12" t="s">
@@ -5356,34 +5367,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
     <col min="2" max="2" width="116.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="23" customFormat="1">
-      <c r="A2" s="55" t="s">
+      <c r="C1" s="62" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="23" customFormat="1">
+      <c r="A2" s="47" t="s">
         <v>518</v>
       </c>
-      <c r="B2" s="56"/>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="48"/>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="23" t="s">
         <v>517</v>
       </c>
@@ -5391,22 +5406,25 @@
         <v>516</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="23" customFormat="1"/>
-    <row r="5" spans="1:2">
-      <c r="A5" s="55" t="s">
+    <row r="4" spans="1:3" s="23" customFormat="1"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="56"/>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="48"/>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="33" t="s">
         <v>377</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="23" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="40" t="s">
         <v>377</v>
       </c>
@@ -5414,14 +5432,14 @@
         <v>498</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="48" t="s">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A9" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="49"/>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" s="50"/>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="23" t="s">
         <v>499</v>
       </c>
@@ -5429,13 +5447,13 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="55" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="56"/>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" s="48"/>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
         <v>229</v>
       </c>
@@ -5443,7 +5461,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
         <v>231</v>
       </c>
@@ -5451,7 +5469,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
         <v>233</v>
       </c>
@@ -5459,7 +5477,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="8" t="s">
         <v>235</v>
       </c>
@@ -5492,10 +5510,10 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="B21" s="56"/>
+      <c r="B21" s="48"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="23" t="s">
@@ -5538,10 +5556,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="B28" s="56"/>
+      <c r="B28" s="48"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="23" t="s">
@@ -5561,12 +5579,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A28:B28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -5584,6 +5602,7 @@
     <hyperlink ref="B26" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -5611,21 +5630,21 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>439</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1"/>
     <row r="4" spans="1:2" s="23" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="50"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="55" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -5633,7 +5652,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="54"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -5655,7 +5674,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="53" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -5663,7 +5682,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="52"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -5941,7 +5960,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="54" t="s">
         <v>90</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -5949,19 +5968,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="52"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="52"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="54" t="s">
         <v>94</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -5969,19 +5988,19 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="52"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90">
-      <c r="A51" s="52"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="54" t="s">
         <v>98</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -5989,7 +6008,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="52"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="7" t="s">
         <v>338</v>
       </c>
@@ -6043,7 +6062,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="50" t="s">
+      <c r="A60" s="52" t="s">
         <v>111</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -6051,13 +6070,13 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="240">
-      <c r="A61" s="50"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="180">
-      <c r="A62" s="50"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="7" t="s">
         <v>114</v>
       </c>
@@ -6103,7 +6122,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="105">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="51" t="s">
         <v>494</v>
       </c>
       <c r="B68" s="39" t="s">
@@ -6111,19 +6130,19 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="120">
-      <c r="A69" s="47"/>
+      <c r="A69" s="51"/>
       <c r="B69" s="39" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="75">
-      <c r="A70" s="47"/>
+      <c r="A70" s="51"/>
       <c r="B70" s="39" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="75">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="51" t="s">
         <v>495</v>
       </c>
       <c r="B71" s="39" t="s">
@@ -6131,7 +6150,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="75">
-      <c r="A72" s="47"/>
+      <c r="A72" s="51"/>
       <c r="B72" s="39" t="s">
         <v>497</v>
       </c>
@@ -6239,10 +6258,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="56"/>
+      <c r="B4" s="48"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -6472,10 +6491,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="48"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -6521,10 +6540,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="48"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -6731,10 +6750,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="23" customFormat="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1">
       <c r="A3" s="8"/>
@@ -6745,10 +6764,10 @@
       <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="B5" s="56"/>
+      <c r="B5" s="48"/>
     </row>
     <row r="6" spans="1:2" ht="75">
       <c r="A6" s="37" t="s">
@@ -6759,7 +6778,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="120">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="54" t="s">
         <v>313</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -6767,13 +6786,13 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="240">
-      <c r="A8" s="52"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="12" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="51" t="s">
         <v>329</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -6781,13 +6800,13 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="255">
-      <c r="A10" s="47"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="12" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150">
-      <c r="A11" s="47"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="12" t="s">
         <v>332</v>
       </c>
@@ -7002,11 +7021,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A16"/>
@@ -7014,6 +7028,11 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
@@ -7048,10 +7067,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="48"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
@@ -7102,7 +7121,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="54" t="s">
         <v>251</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -7110,13 +7129,13 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="52"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="52"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="7" t="s">
         <v>254</v>
       </c>
@@ -7128,7 +7147,7 @@
       <c r="B13" s="59"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="54" t="s">
         <v>256</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -7136,13 +7155,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="52"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="52"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="7" t="s">
         <v>259</v>
       </c>
@@ -7172,7 +7191,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="54" t="s">
         <v>266</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -7180,7 +7199,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="52"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="7" t="s">
         <v>268</v>
       </c>
@@ -7258,7 +7277,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="54" t="s">
         <v>287</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -7266,13 +7285,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="52"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="52"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="7" t="s">
         <v>290</v>
       </c>
@@ -7330,10 +7349,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="48"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -7344,10 +7363,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="56"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="528">
   <si>
     <t>Main Topic</t>
   </si>
@@ -2908,32 +2908,6 @@
     <t>Properties configuration</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. If we want to customize environmetal settings (like configuration will be different between Dev to SIT, SIT to UAT etc). To make these kind of customizations based on environment we have to use environmental configurations
-2. in this case file name will be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">application-{profile}.properties </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(ex: application-dev.properties)</t>
-    </r>
-  </si>
-  <si>
     <t>There are many properties that can go to application.properties file. Some of them</t>
   </si>
   <si>
@@ -2954,33 +2928,6 @@
   </si>
   <si>
     <t>Steps to add environment specific properties files</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Add 2 properties files (application-dev.properties, application-test.properties) along with application.proerties in src/main/resources
-2. Add VM argument </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-Dspring.profiles.active=test
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3. Run the application</t>
-    </r>
   </si>
   <si>
     <t>properties we can configure in spring boot application.properties file</t>
@@ -3057,14 +3004,6 @@
   </si>
   <si>
     <t>Spring boot data source pooling properties in application.properties file</t>
-  </si>
-  <si>
-    <t>spring.datasource.max-active=10
-spring.datasource.max-idle=8
-spring.datasource.max-wait=1000
-spring.datasource.min-evictable-idle-time-millis=1000
-spring.datasource.min-idle=8
-spring.datasource.time-between-eviction-runs-millis=1</t>
   </si>
   <si>
     <t>Defining DataSource using java configuration in spring boot application</t>
@@ -3594,20 +3533,6 @@
     <t>Filter component – exclude: we can also exclude specified components, to avoid Spring to detect and register it in Spring container.</t>
   </si>
   <si>
-    <t>Exclude those files annotated with @Service:
-&lt;context:component-scan base-package="com.mkyong.customer" &gt;
- &lt;context:exclude-filter type="annotation"
-  expression="org.springframework.stereotype.Service" /&gt;
-&lt;/context:component-scan&gt;</t>
-  </si>
-  <si>
-    <t>Exclude those files name contains DAO word:
-&lt;context:component-scan base-package="com.mkyong" &gt;
- &lt;context:exclude-filter type="regex"
-  expression="com.mkyong.customer.dao.*DAO.*" /&gt;
-&lt;/context:component-scan&gt;</t>
-  </si>
-  <si>
     <t>Spring Boot: Efficient Development, Configuration, and Deployment</t>
   </si>
   <si>
@@ -3739,6 +3664,169 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exclude those files name contains DAO word:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;context:component-scan base-package="com.mkyong" &gt;
+ &lt;context:exclude-filter type="regex"  expression="com.mkyong.customer.dao.*DAO.*" /&gt;
+&lt;/context:component-scan&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exclude those files annotated with @Service:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;context:component-scan base-package="com.mkyong.customer" &gt;
+ &lt;context:exclude-filter type="annotation" expression="org.springframework.stereotype.Service" /&gt;
+&lt;/context:component-scan&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>How to do null or empty or both in Spring for Collection</t>
+  </si>
+  <si>
+    <t>org.springframework.util.CollectionUtils.isEmpty(Collection&lt;?&gt;);</t>
+  </si>
+  <si>
+    <t>org.springframework.util.CollectionUtils.isEmpty(Map&lt;?,?&gt;);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. If we want to customize environmental settings (like configuration will be different between Dev to SIT, SIT to UAT etc). To make these kind of customizations based on environment we have to use environmental configurations
+2. in this case file name will be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">application-{profile}.properties </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ex: application-dev.properties)</t>
+    </r>
+  </si>
+  <si>
+    <t>spring.datasource.max-active=10
+spring.datasource.max-idle=8
+spring.datasource.min-idle=8
+spring.datasource.max-wait=1000
+spring.datasource.min-evictable-idle-time-millis=1000
+spring.datasource.time-between-eviction-runs-millis=1</t>
+  </si>
+  <si>
+    <t>Spring Boot initializer Tool</t>
+  </si>
+  <si>
+    <t>http://start.spring.io</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Go to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">http://start.spring.io/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Give necessary details
+3. Search for dependencies -&gt; search for dependencies we need for our project
+4. click on "Switch to the full version." link below green Generate Project button
+5. Select all dependencies we need for our project
+6. click on Generate Project button. this will download .zip file
+7. we need to unzip above generated file and import to eclipse</t>
+    </r>
+  </si>
+  <si>
+    <t>To generate project using Spring web initializer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Add 2 properties files (application-dev.properties, application-test.properties) along with application.proerties in src/main/resources
+2. Add VM argument -&gt; Right click on main class -&gt; Run As -&gt; Run configurations -&gt; Arguments tab -&gt; VM Arguments -&gt; give this entry including -D
+-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-Dspring.profiles.active=test
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Run the application</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3952,7 +4040,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4086,6 +4174,18 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4097,6 +4197,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4130,9 +4233,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4433,7 +4533,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4448,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>12</v>
@@ -4557,7 +4657,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="23" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>352</v>
@@ -4711,13 +4811,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="52"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="58" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -4725,7 +4825,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="54"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="7" t="s">
         <v>117</v>
       </c>
@@ -4771,7 +4871,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="65" t="s">
         <v>127</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -4779,7 +4879,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="60"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="7" t="s">
         <v>129</v>
       </c>
@@ -4793,7 +4893,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="65" t="s">
         <v>132</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -4801,7 +4901,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="60"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="7" t="s">
         <v>134</v>
       </c>
@@ -4831,11 +4931,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4853,10 +4953,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="33" t="s">
@@ -4867,10 +4967,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="52"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="33" t="s">
@@ -4946,7 +5046,7 @@
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="36" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>389</v>
@@ -4969,7 +5069,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="62" t="s">
         <v>400</v>
       </c>
       <c r="B19" s="33" t="s">
@@ -4977,7 +5077,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="57"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="33" t="s">
         <v>398</v>
       </c>
@@ -4986,142 +5086,158 @@
       <c r="A21" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>401</v>
+      <c r="B21" s="49" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="33" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>403</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="B24" s="33" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="75">
+      <c r="A25" s="33" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="60">
-      <c r="A25" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>409</v>
+      <c r="B25" s="50" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="63" t="s">
+        <v>411</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="B26" s="28" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="58" t="s">
-        <v>413</v>
-      </c>
-      <c r="B27" s="33" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="120">
+      <c r="A28" s="63"/>
+      <c r="B28" s="33" t="s">
         <v>412</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="58"/>
-      <c r="B28" s="33" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="33" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" s="33" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
       <c r="A32" s="34" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="105">
       <c r="A33" s="34" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="90">
       <c r="A34" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="225">
       <c r="A35" s="36" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="B37" s="36" t="s">
         <v>428</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="36" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>435</v>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="23" customFormat="1">
+      <c r="A39" s="49" t="s">
+        <v>523</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="105">
+      <c r="A40" s="49" t="s">
+        <v>526</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -5136,9 +5252,10 @@
     <hyperlink ref="A1" location="Topics!A12" display="Topics"/>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B26" r:id="rId2"/>
+    <hyperlink ref="B39" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -5166,10 +5283,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -5180,10 +5297,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="52"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="12" t="s">
@@ -5218,7 +5335,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="66" t="s">
         <v>333</v>
       </c>
       <c r="B11" s="30" t="s">
@@ -5226,7 +5343,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="61"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="30" t="s">
         <v>335</v>
       </c>
@@ -5240,7 +5357,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="62" t="s">
         <v>344</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -5248,13 +5365,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="57"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="30" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="57"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="30" t="s">
         <v>360</v>
       </c>
@@ -5369,9 +5486,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5388,30 +5505,30 @@
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="62" t="s">
-        <v>519</v>
+      <c r="C1" s="48" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="23" customFormat="1">
-      <c r="A2" s="47" t="s">
-        <v>518</v>
-      </c>
-      <c r="B2" s="48"/>
+      <c r="A2" s="51" t="s">
+        <v>513</v>
+      </c>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="23" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="23" customFormat="1"/>
     <row r="5" spans="1:3">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="48"/>
+      <c r="B5" s="52"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="33" t="s">
@@ -5421,7 +5538,7 @@
         <v>378</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5429,29 +5546,29 @@
         <v>377</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="54"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="23" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
@@ -5487,33 +5604,33 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="23" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="B21" s="48"/>
+      <c r="B21" s="52"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="23" t="s">
@@ -5556,10 +5673,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="B28" s="48"/>
+      <c r="B28" s="52"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="23" t="s">
@@ -5608,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5630,21 +5747,21 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="49" t="s">
-        <v>439</v>
-      </c>
-      <c r="B2" s="50"/>
+      <c r="A2" s="53" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1"/>
     <row r="4" spans="1:2" s="23" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="50"/>
+      <c r="B5" s="54"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -5652,7 +5769,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="56"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -5674,7 +5791,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="58" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -5682,7 +5799,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="54"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -5960,7 +6077,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="59" t="s">
         <v>90</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -5968,19 +6085,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="54"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="54"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="59" t="s">
         <v>94</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -5988,19 +6105,19 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="54"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90">
-      <c r="A51" s="54"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="59" t="s">
         <v>98</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -6008,7 +6125,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="54"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="7" t="s">
         <v>338</v>
       </c>
@@ -6062,7 +6179,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="52" t="s">
+      <c r="A60" s="57" t="s">
         <v>111</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -6070,13 +6187,13 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="240">
-      <c r="A61" s="52"/>
+      <c r="A61" s="57"/>
       <c r="B61" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="180">
-      <c r="A62" s="52"/>
+      <c r="A62" s="57"/>
       <c r="B62" s="7" t="s">
         <v>114</v>
       </c>
@@ -6107,112 +6224,127 @@
     </row>
     <row r="66" spans="1:2" ht="60">
       <c r="A66" s="35" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="30">
       <c r="A67" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="105">
+      <c r="A68" s="56" t="s">
+        <v>491</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="120">
+      <c r="A69" s="56"/>
+      <c r="B69" s="39" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="75">
+      <c r="A70" s="56"/>
+      <c r="B70" s="39" t="s">
         <v>490</v>
       </c>
-      <c r="B67" s="39" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="105">
-      <c r="A68" s="51" t="s">
-        <v>494</v>
-      </c>
-      <c r="B68" s="39" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="120">
-      <c r="A69" s="51"/>
-      <c r="B69" s="39" t="s">
+    </row>
+    <row r="71" spans="1:2" ht="60">
+      <c r="A71" s="56" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="75">
-      <c r="A70" s="51"/>
-      <c r="B70" s="39" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="75">
-      <c r="A71" s="51" t="s">
-        <v>495</v>
-      </c>
-      <c r="B71" s="39" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="75">
-      <c r="A72" s="51"/>
-      <c r="B72" s="39" t="s">
-        <v>497</v>
+      <c r="B71" s="47" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="60">
+      <c r="A72" s="56"/>
+      <c r="B72" s="47" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30">
       <c r="A73" s="41" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="60">
       <c r="A74" s="41" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B74" s="42" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="45">
       <c r="A75" s="41" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30">
       <c r="A76" s="41" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B76" s="42" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="75">
       <c r="A77" s="45" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B77" s="42" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="43" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B78" s="44" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="45">
       <c r="A79" s="43" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>513</v>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="55" t="s">
+        <v>518</v>
+      </c>
+      <c r="B80" s="47" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="55"/>
+      <c r="B81" s="47" t="s">
+        <v>520</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A80:A81"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A2:B2"/>
@@ -6258,10 +6390,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="52"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -6491,10 +6623,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="52"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -6540,10 +6672,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="52"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -6731,7 +6863,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6750,10 +6882,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="23" customFormat="1">
-      <c r="A2" s="47" t="s">
-        <v>439</v>
-      </c>
-      <c r="B2" s="48"/>
+      <c r="A2" s="51" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1">
       <c r="A3" s="8"/>
@@ -6764,10 +6896,10 @@
       <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="B5" s="48"/>
+      <c r="B5" s="52"/>
     </row>
     <row r="6" spans="1:2" ht="75">
       <c r="A6" s="37" t="s">
@@ -6778,7 +6910,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="120">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="59" t="s">
         <v>313</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -6786,13 +6918,13 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="240">
-      <c r="A8" s="54"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="12" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="56" t="s">
         <v>329</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -6800,227 +6932,232 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="255">
-      <c r="A10" s="51"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="12" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150">
-      <c r="A11" s="51"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="12" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150">
-      <c r="A12" s="57" t="s">
-        <v>462</v>
+      <c r="A12" s="62" t="s">
+        <v>459</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="23" customFormat="1" ht="105">
-      <c r="A13" s="57"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="37" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="62" t="s">
+        <v>437</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60">
+      <c r="A15" s="62"/>
+      <c r="B15" s="37" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="62"/>
+      <c r="B16" s="37" t="s">
         <v>440</v>
       </c>
-      <c r="B14" s="37" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="62" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="57"/>
-      <c r="B15" s="37" t="s">
+      <c r="B17" s="37" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="57"/>
-      <c r="B16" s="37" t="s">
+    <row r="18" spans="1:2" ht="135">
+      <c r="A18" s="62"/>
+      <c r="B18" s="37" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="57" t="s">
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="62"/>
+      <c r="B19" s="37" t="s">
         <v>444</v>
       </c>
-      <c r="B17" s="37" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="62"/>
+      <c r="B20" s="37" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="135">
-      <c r="A18" s="57"/>
-      <c r="B18" s="37" t="s">
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="62"/>
+      <c r="B21" s="37" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="57"/>
-      <c r="B19" s="37" t="s">
+    <row r="22" spans="1:2" ht="45">
+      <c r="A22" s="63" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="57"/>
-      <c r="B20" s="37" t="s">
+      <c r="B22" s="37" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="57"/>
-      <c r="B21" s="37" t="s">
+    <row r="23" spans="1:2" ht="45">
+      <c r="A23" s="63"/>
+      <c r="B23" s="37" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="58" t="s">
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="63"/>
+      <c r="B24" s="37" t="s">
         <v>450</v>
       </c>
-      <c r="B22" s="37" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="63"/>
+      <c r="B25" s="37" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="45">
-      <c r="A23" s="58"/>
-      <c r="B23" s="37" t="s">
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="63"/>
+      <c r="B26" s="37" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="58"/>
-      <c r="B24" s="37" t="s">
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="62" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="58"/>
-      <c r="B25" s="37" t="s">
+      <c r="B27" s="37" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="58"/>
-      <c r="B26" s="37" t="s">
+    <row r="28" spans="1:2" ht="165">
+      <c r="A28" s="62"/>
+      <c r="B28" s="37" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="57" t="s">
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="62"/>
+      <c r="B29" s="37" t="s">
         <v>456</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="165">
-      <c r="A28" s="57"/>
-      <c r="B28" s="37" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="57"/>
-      <c r="B29" s="37" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
       <c r="A30" s="37" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60">
       <c r="A31" s="37" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
       <c r="A32" s="37" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75">
       <c r="A33" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="62" t="s">
+        <v>468</v>
+      </c>
+      <c r="B34" s="37" t="s">
         <v>469</v>
       </c>
-      <c r="B33" s="37" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="75">
+      <c r="A35" s="62"/>
+      <c r="B35" s="37" t="s">
         <v>470</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="57" t="s">
-        <v>471</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="57"/>
-      <c r="B35" s="37" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="120">
       <c r="A36" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="62" t="s">
+        <v>473</v>
+      </c>
+      <c r="B37" s="37" t="s">
         <v>474</v>
       </c>
-      <c r="B36" s="37" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="62"/>
+      <c r="B38" s="37" t="s">
         <v>475</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="57" t="s">
-        <v>476</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="57"/>
-      <c r="B38" s="37" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="135">
       <c r="A39" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="62" t="s">
+        <v>473</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="60">
+      <c r="A41" s="62"/>
+      <c r="B41" s="37" t="s">
         <v>479</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="57" t="s">
-        <v>476</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="57"/>
-      <c r="B41" s="37" t="s">
-        <v>482</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A16"/>
@@ -7028,11 +7165,6 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
@@ -7067,10 +7199,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="52"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
@@ -7121,7 +7253,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="59" t="s">
         <v>251</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -7129,25 +7261,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="54"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="54"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="59"/>
+      <c r="B13" s="64"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="59" t="s">
         <v>256</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -7155,13 +7287,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="54"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="54"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="7" t="s">
         <v>259</v>
       </c>
@@ -7191,7 +7323,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="59" t="s">
         <v>266</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -7199,7 +7331,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="54"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="7" t="s">
         <v>268</v>
       </c>
@@ -7277,7 +7409,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="59" t="s">
         <v>287</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -7285,13 +7417,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="54"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="54"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="7" t="s">
         <v>290</v>
       </c>
@@ -7349,10 +7481,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="B10" s="48"/>
+      <c r="B10" s="52"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -7363,10 +7495,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="52"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -16,20 +16,19 @@
     <sheet name="MVC" sheetId="6" r:id="rId7"/>
     <sheet name="Transaction" sheetId="7" r:id="rId8"/>
     <sheet name="Security" sheetId="8" r:id="rId9"/>
-    <sheet name="REST" sheetId="9" r:id="rId10"/>
-    <sheet name="ActiveMQ" sheetId="10" r:id="rId11"/>
-    <sheet name="Camel" sheetId="11" r:id="rId12"/>
-    <sheet name="Java Based Conf" sheetId="12" r:id="rId13"/>
-    <sheet name="Boot" sheetId="13" r:id="rId14"/>
-    <sheet name="Annotations" sheetId="14" r:id="rId15"/>
-    <sheet name="Data" sheetId="15" r:id="rId16"/>
+    <sheet name="ActiveMQ" sheetId="10" r:id="rId10"/>
+    <sheet name="Camel" sheetId="11" r:id="rId11"/>
+    <sheet name="Java Based Conf" sheetId="12" r:id="rId12"/>
+    <sheet name="Boot" sheetId="13" r:id="rId13"/>
+    <sheet name="Annotations" sheetId="14" r:id="rId14"/>
+    <sheet name="Data" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="558">
   <si>
     <t>Main Topic</t>
   </si>
@@ -197,14 +196,6 @@
   </si>
   <si>
     <t>What are different layers in spring</t>
-  </si>
-  <si>
-    <t>1. Core
-2. DAO
-3. ORM
-4. AOP
-5. JEE
-6. Web</t>
   </si>
   <si>
     <t>Core</t>
@@ -837,9 +828,6 @@
   </si>
   <si>
     <t>@Required</t>
-  </si>
-  <si>
-    <t>The @Required annotation applies to bean property setter methods.</t>
   </si>
   <si>
     <t>@Autowired</t>
@@ -2319,9 +2307,6 @@
     </r>
   </si>
   <si>
-    <t>use properties for variables in spring config xml file</t>
-  </si>
-  <si>
     <t>&lt;context:property-placeholder location="classpath:jdbc.properties" /&gt;</t>
   </si>
   <si>
@@ -3202,9 +3187,6 @@
     <t>View Resolvers in Spring MVC</t>
   </si>
   <si>
-    <t>HadlerMapping in spring mvn</t>
-  </si>
-  <si>
     <t>1. org.springframework.web.servlet.handler.BeanNameUrlHandlerMapping
 2. org.springframework.web.servlet.mvc.support.ControllerClassNameHandlerMapping</t>
   </si>
@@ -3827,6 +3809,169 @@
       </rPr>
       <t>3. Run the application</t>
     </r>
+  </si>
+  <si>
+    <t>Core, DAO, ORM, AOP, JEE, Web</t>
+  </si>
+  <si>
+    <t>The @Required annotation applies to bean property, setter methods.</t>
+  </si>
+  <si>
+    <t>Inject properties file to properties instance variable 
+in bean</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9_Definitions_Web_Services.xlsx</t>
+    </r>
+  </si>
+  <si>
+    <t>HadlerMapping in spring mvc</t>
+  </si>
+  <si>
+    <t>The Spring Boot starters (spring-boot-starter-web in particular) use Tomcat as an embedded container by default. You need to exclude those dependencies and include the Jetty one instead. Spring Boot provides Tomcat and Jetty dependencies bundled together as separate starters to help make this process as easy as possible.</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+    &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
+    &lt;artifactId&gt;spring-boot-starter-web&lt;/artifactId&gt;
+    &lt;exclusions&gt;
+        &lt;exclusion&gt;
+            &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
+            &lt;artifactId&gt;spring-boot-starter-tomcat&lt;/artifactId&gt;
+        &lt;/exclusion&gt;
+    &lt;/exclusions&gt;
+&lt;/dependency&gt;
+&lt;dependency&gt;
+    &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
+    &lt;artifactId&gt;spring-boot-starter-jetty&lt;/artifactId&gt;
+&lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Jetty instead of Tomcat - refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SpringBootPractice - pom.xml</t>
+    </r>
+  </si>
+  <si>
+    <t>multipart.max-file-size</t>
+  </si>
+  <si>
+    <t>1. property in application.properties file in Spring boot application
+2. Used for multipart file upload functionalities
+3. to specify the maximum file size that can be uploaded</t>
+  </si>
+  <si>
+    <t>multipart.max-request-size</t>
+  </si>
+  <si>
+    <t>maximum file that can uploaded in a single request</t>
+  </si>
+  <si>
+    <t>Spring boot dev tools</t>
+  </si>
+  <si>
+    <t>Spring Boot 1.3 will ship with a brand new module called spring-boot-devtools. The aim of this module is to try and improve the development-time experience when working on Spring Boot applications</t>
+  </si>
+  <si>
+    <t>https://spring.io/blog/2015/06/17/devtools-in-spring-boot-1-3</t>
+  </si>
+  <si>
+    <t>&lt;dependencies&gt;
+    &lt;dependency&gt;
+        &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
+        &lt;artifactId&gt;spring-boot-devtools&lt;/artifactId&gt;
+       &lt;version&gt;1.3.3.RELEASE&lt;/version&gt;
+      &lt;optional&gt;true&lt;/optional&gt;
+    &lt;/dependency&gt;
+&lt;/dependencies&gt;</t>
+  </si>
+  <si>
+    <t>Enable auto configuration</t>
+  </si>
+  <si>
+    <t>1. command line argument -&gt; --debug
+2. VM argument -&gt; -Ddebug=true
+3. Environment variable -&gt; DEBUG=true
+4. application.properties -&gt; debug=true</t>
+  </si>
+  <si>
+    <t>While starting spring boot application, spring will do lot of auto configurations. We can exclude some of auto configurations. How to do that?</t>
+  </si>
+  <si>
+    <t>1. Using @org.springframework.boot.autoconfigure.SpringBootApplication(exclude={AutoConfig.class})
+2. Using @org.springframework.boot.autoconfigure.SpringBootApplication(excludeName={"com.something.AutoConfig"})</t>
+  </si>
+  <si>
+    <t>3. using application.properties file
+spring.autoconfigure.exclude=com.something.SomeAutoConfig, com.something.else.OneMoreAutoConfig</t>
+  </si>
+  <si>
+    <t>http://docs.spring.io/spring-boot/docs/current/reference/htmlsingle/#auto-configuration-classes</t>
+  </si>
+  <si>
+    <t>list auto configuration classes while starting spring boot application</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ConditionalOnClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ConditionalOnMissingClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ConditionalOnBean</t>
+  </si>
+  <si>
+    <t>Want to perform something if particular class is in class path</t>
+  </si>
+  <si>
+    <t>1. @ConditionalOnClass
+2. @ConditionalOnMissingClass</t>
+  </si>
+  <si>
+    <t>1. it has 2 attributes - name, value
+2. name - takes array of String. Where each String is full qualified class name
+3. value - take array of class objects.</t>
+  </si>
+  <si>
+    <t>1. it has 1 attribute - name
+2. name - takes arrays of Sting. Where each String is full qualified class name</t>
+  </si>
+  <si>
+    <t>match the configuration if particual bean is present in spring application context</t>
+  </si>
+  <si>
+    <t>1. it has 2 attributes - name, value, type, annotation
+2. name - takes array of String. Where each String is bean name
+3. value - takes array of  bean types class objects.
+4. type - takes array of Strings. Each String is full qualified class name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ConditionalOnMissingBean</t>
+  </si>
+  <si>
+    <t>Inverse to @ConditionalOnBean annotation</t>
   </si>
 </sst>
 </file>
@@ -4040,7 +4185,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4090,9 +4235,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4179,6 +4321,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4539,21 +4693,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="86.7109375" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="60.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>510</v>
+      <c r="B1" s="45" t="s">
+        <v>506</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="23"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="14" t="s">
@@ -4588,7 +4742,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="21"/>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="14" t="s">
@@ -4613,54 +4767,56 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B10" s="15"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B11" s="15"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B12" s="15"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B13" s="15"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="B14" s="15"/>
+      <c r="A14" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="15" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B15" s="15"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>352</v>
+      <c r="A16" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="23" t="s">
-        <v>435</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>352</v>
+      <c r="A17" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4680,7 +4836,6 @@
     <hyperlink ref="A11" location="Security!A1" display="Spring Security"/>
     <hyperlink ref="A12" location="Boot!A1" display="Spring Boot"/>
     <hyperlink ref="A13" location="Camel!A1" display="Spring + Camel"/>
-    <hyperlink ref="A14" location="REST!A1" display="Spring REST"/>
     <hyperlink ref="A10" location="Annotations!A1" display="Spring Annotations"/>
     <hyperlink ref="A15" location="Data!A1" display="Spring Data"/>
     <hyperlink ref="C1" location="Topics!A2" display="Up"/>
@@ -4702,38 +4857,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" customWidth="1"/>
-    <col min="2" max="2" width="129.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Topics!A14" display="Topics"/>
-    <hyperlink ref="B1" location="REST!A2" display="Up"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
     <col min="1" max="1" width="65.7109375" customWidth="1"/>
     <col min="2" max="2" width="114.85546875" customWidth="1"/>
   </cols>
@@ -4755,7 +4878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -4787,7 +4910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -4811,107 +4934,107 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="55"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="120">
+      <c r="A6" s="62"/>
+      <c r="B6" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="59"/>
-      <c r="B6" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
       <c r="A8" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="90">
       <c r="A9" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
       <c r="A11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="65" t="s">
+    <row r="13" spans="1:2" ht="45">
+      <c r="A13" s="68"/>
+      <c r="B13" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="65"/>
-      <c r="B13" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="65" t="s">
+    <row r="16" spans="1:2" ht="285">
+      <c r="A16" s="68"/>
+      <c r="B16" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="65"/>
-      <c r="B16" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4929,23 +5052,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" style="33" customWidth="1"/>
-    <col min="2" max="2" width="129.5703125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="129.5703125" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4953,299 +5076,429 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="51" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="52"/>
+      <c r="A2" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="55"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="55"/>
+    </row>
+    <row r="7" spans="1:2" ht="75">
+      <c r="A7" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60">
+      <c r="A8" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="120">
+      <c r="A11" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60">
+      <c r="A13" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45">
+      <c r="A19" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="65"/>
+      <c r="B20" s="32" t="s">
         <v>395</v>
       </c>
-      <c r="B3" s="28" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="45">
+      <c r="A21" s="32" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="51" t="s">
-        <v>310</v>
-      </c>
-      <c r="B6" s="52"/>
-    </row>
-    <row r="7" spans="1:2" ht="75">
-      <c r="A7" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="60">
-      <c r="A8" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="120">
-      <c r="A11" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="60">
-      <c r="A13" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="36" t="s">
+      <c r="B21" s="48" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="75">
+      <c r="A25" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="66" t="s">
+        <v>408</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="120">
+      <c r="A28" s="66"/>
+      <c r="B28" s="32" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="60">
+      <c r="A32" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="105">
+      <c r="A33" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="90">
+      <c r="A34" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="225">
+      <c r="A35" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30">
+      <c r="A36" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="62" t="s">
-        <v>400</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="62"/>
-      <c r="B20" s="33" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="45">
-      <c r="A21" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="B21" s="49" t="s">
+      <c r="B37" s="35" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="22" customFormat="1">
+      <c r="A39" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="105">
+      <c r="A40" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="B40" s="48" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="33" t="s">
-        <v>401</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="75">
-      <c r="A25" s="33" t="s">
-        <v>407</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="63" t="s">
-        <v>411</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="63"/>
-      <c r="B28" s="33" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="33" t="s">
-        <v>415</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="34" t="s">
-        <v>419</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="105">
-      <c r="A33" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="90">
-      <c r="A34" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="B34" s="49" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="225">
-      <c r="A35" s="36" t="s">
-        <v>424</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30">
-      <c r="A36" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" s="23" customFormat="1">
-      <c r="A39" s="49" t="s">
-        <v>523</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="105">
-      <c r="A40" s="49" t="s">
-        <v>526</v>
-      </c>
-      <c r="B40" s="49" t="s">
-        <v>525</v>
+    <row r="41" spans="1:2" ht="45">
+      <c r="A41" s="66" t="s">
+        <v>531</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="210">
+      <c r="A42" s="66"/>
+      <c r="B42" s="51" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="45">
+      <c r="A43" s="52" t="s">
+        <v>532</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30">
+      <c r="A45" s="69" t="s">
+        <v>536</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="120">
+      <c r="A46" s="69"/>
+      <c r="B46" s="52" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="69"/>
+      <c r="B47" s="27" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="60">
+      <c r="A48" s="53" t="s">
+        <v>540</v>
+      </c>
+      <c r="B48" s="53" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45" customHeight="1">
+      <c r="A49" s="69" t="s">
+        <v>542</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="69"/>
+      <c r="B50" s="53" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30">
+      <c r="A51" s="53" t="s">
+        <v>546</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="22" customFormat="1" ht="30">
+      <c r="A52" s="53" t="s">
+        <v>550</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="45">
+      <c r="A53" s="53" t="s">
+        <v>547</v>
+      </c>
+      <c r="B53" s="53" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30">
+      <c r="A54" s="53" t="s">
+        <v>548</v>
+      </c>
+      <c r="B54" s="53" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="69" t="s">
+        <v>549</v>
+      </c>
+      <c r="B55" s="53" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="60">
+      <c r="A56" s="69"/>
+      <c r="B56" s="53" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="53" t="s">
+        <v>556</v>
+      </c>
+      <c r="B57" s="53" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A45:A47"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A41:A42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Boot!A2" display="Up"/>
@@ -5253,13 +5506,15 @@
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B26" r:id="rId2"/>
     <hyperlink ref="B39" r:id="rId3"/>
+    <hyperlink ref="B47" r:id="rId4"/>
+    <hyperlink ref="B51" r:id="rId5" location="auto-configuration-classes"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -5275,7 +5530,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -5283,153 +5538,153 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="51" t="s">
-        <v>320</v>
-      </c>
-      <c r="B2" s="52"/>
+      <c r="A2" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="55"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="B6" s="52"/>
+      <c r="A6" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" s="55"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>355</v>
+        <v>319</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
       <c r="A10" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="66" t="s">
-        <v>333</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>334</v>
+      <c r="A11" s="69" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="66"/>
-      <c r="B12" s="30" t="s">
-        <v>335</v>
+      <c r="A12" s="69"/>
+      <c r="B12" s="29" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="75">
       <c r="A13" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="180">
+      <c r="A14" s="65" t="s">
         <v>341</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="62" t="s">
-        <v>344</v>
-      </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="180">
+      <c r="A15" s="65"/>
+      <c r="B15" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="180">
+      <c r="A16" s="65"/>
+      <c r="B16" s="29" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="22" customFormat="1" ht="30">
+      <c r="A17" s="29" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="62"/>
-      <c r="B15" s="30" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="62"/>
-      <c r="B16" s="30" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="23" customFormat="1" ht="30">
-      <c r="A17" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>358</v>
+      <c r="B17" s="29" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90">
       <c r="A18" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="23" customFormat="1" ht="120">
-      <c r="A19" s="32" t="s">
-        <v>361</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>362</v>
+        <v>342</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="22" customFormat="1" ht="120">
+      <c r="A19" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
       <c r="A20" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>347</v>
+        <v>343</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>348</v>
+        <v>346</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>354</v>
+      <c r="A22" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>365</v>
+      <c r="A23" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -5450,7 +5705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -5505,193 +5760,193 @@
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="23" customFormat="1">
-      <c r="A2" s="51" t="s">
-        <v>513</v>
-      </c>
-      <c r="B2" s="52"/>
+      <c r="C1" s="47" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="22" customFormat="1">
+      <c r="A2" s="54" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2" s="55"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="23" t="s">
-        <v>512</v>
-      </c>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="22" customFormat="1"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="55"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="23" customFormat="1"/>
-    <row r="5" spans="1:3">
-      <c r="A5" s="51" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="52"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>515</v>
-      </c>
-    </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>493</v>
+      <c r="A7" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="57"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="23" t="s">
-        <v>494</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>495</v>
+      <c r="A10" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="55"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="23" t="s">
-        <v>480</v>
+      <c r="A18" s="22" t="s">
+        <v>476</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="51" t="s">
-        <v>293</v>
-      </c>
-      <c r="B21" s="52"/>
+      <c r="A21" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="B21" s="55"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>379</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="51" t="s">
-        <v>336</v>
-      </c>
-      <c r="B28" s="52"/>
+      <c r="A28" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" s="55"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>380</v>
+      <c r="A29" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>381</v>
+      <c r="A30" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -5728,8 +5983,8 @@
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5746,22 +6001,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="53" t="s">
-        <v>436</v>
-      </c>
-      <c r="B2" s="54"/>
-    </row>
-    <row r="3" spans="1:2" s="23" customFormat="1"/>
-    <row r="4" spans="1:2" s="23" customFormat="1" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="56" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" s="57"/>
+    </row>
+    <row r="3" spans="1:2" s="22" customFormat="1"/>
+    <row r="4" spans="1:2" s="22" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="54"/>
+      <c r="B5" s="57"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -5769,7 +6024,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="61"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -5791,7 +6046,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -5799,547 +6054,547 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="59"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="90">
+    <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>24</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
       <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="60">
       <c r="A15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="120">
       <c r="A17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60">
       <c r="A18" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60">
       <c r="A20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
       <c r="A21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
       <c r="A22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
       <c r="A23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="75">
       <c r="A24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="105">
       <c r="A25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
       <c r="A26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="75">
       <c r="A30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="105">
       <c r="A32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60">
       <c r="A33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
       <c r="A34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="120">
       <c r="A35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="45">
       <c r="A36" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="165">
       <c r="A37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="255">
       <c r="A38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>77</v>
+        <v>525</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
       <c r="A40" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
       <c r="A41" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="A42" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
       <c r="A43" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="45">
       <c r="A44" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
       <c r="A45" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="45">
+      <c r="A46" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="59" t="s">
+    <row r="47" spans="1:2" ht="45">
+      <c r="A47" s="62"/>
+      <c r="B47" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="7" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="60">
+      <c r="A48" s="62"/>
+      <c r="B48" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="59"/>
-      <c r="B47" s="7" t="s">
+    <row r="49" spans="1:2" ht="45">
+      <c r="A49" s="62" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="59"/>
-      <c r="B48" s="7" t="s">
+      <c r="B49" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="59" t="s">
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="62"/>
+      <c r="B50" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="7" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="90">
+      <c r="A51" s="62"/>
+      <c r="B51" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="59"/>
-      <c r="B50" s="7" t="s">
+    <row r="52" spans="1:2" ht="75">
+      <c r="A52" s="62" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="90">
-      <c r="A51" s="59"/>
-      <c r="B51" s="7" t="s">
+      <c r="B52" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="75">
-      <c r="A52" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="59"/>
+      <c r="A53" s="62"/>
       <c r="B53" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="30">
       <c r="A57" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30">
       <c r="A58" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
       <c r="A59" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30">
+      <c r="A60" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B60" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="57" t="s">
+    <row r="61" spans="1:2" ht="240">
+      <c r="A61" s="60"/>
+      <c r="B61" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="7" t="s">
+    </row>
+    <row r="62" spans="1:2" ht="180">
+      <c r="A62" s="60"/>
+      <c r="B62" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="240">
-      <c r="A61" s="57"/>
-      <c r="B61" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="180">
-      <c r="A62" s="57"/>
-      <c r="B62" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="18" t="s">
-        <v>316</v>
+    <row r="63" spans="1:2" ht="30">
+      <c r="A63" s="49" t="s">
+        <v>526</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="135">
-      <c r="A64" s="25" t="s">
-        <v>343</v>
+      <c r="A64" s="24" t="s">
+        <v>340</v>
       </c>
       <c r="B64" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="150">
+      <c r="A65" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="150">
-      <c r="A65" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>340</v>
-      </c>
-    </row>
     <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="35" t="s">
-        <v>433</v>
-      </c>
-      <c r="B66" s="36" t="s">
-        <v>434</v>
+      <c r="A66" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="30">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="105">
+      <c r="A68" s="59" t="s">
         <v>487</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B68" s="38" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="120">
+      <c r="A69" s="59"/>
+      <c r="B69" s="38" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="75">
+      <c r="A70" s="59"/>
+      <c r="B70" s="38" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="105">
-      <c r="A68" s="56" t="s">
-        <v>491</v>
-      </c>
-      <c r="B68" s="39" t="s">
+    <row r="71" spans="1:2" ht="60">
+      <c r="A71" s="59" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="120">
-      <c r="A69" s="56"/>
-      <c r="B69" s="39" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="75">
-      <c r="A70" s="56"/>
-      <c r="B70" s="39" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="56" t="s">
+      <c r="B71" s="46" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="60">
+      <c r="A72" s="59"/>
+      <c r="B72" s="46" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30">
+      <c r="A73" s="40" t="s">
         <v>492</v>
       </c>
-      <c r="B71" s="47" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="60">
-      <c r="A72" s="56"/>
-      <c r="B72" s="47" t="s">
+      <c r="B73" s="41" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="60">
+      <c r="A74" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="45">
+      <c r="A75" s="40" t="s">
+        <v>496</v>
+      </c>
+      <c r="B75" s="41" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30">
+      <c r="A76" s="40" t="s">
+        <v>498</v>
+      </c>
+      <c r="B76" s="41" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="75">
+      <c r="A77" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="B77" s="41" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="42" t="s">
+        <v>502</v>
+      </c>
+      <c r="B78" s="43" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="45">
+      <c r="A79" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="B80" s="46" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="58"/>
+      <c r="B81" s="46" t="s">
         <v>516</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="30">
-      <c r="A73" s="41" t="s">
-        <v>496</v>
-      </c>
-      <c r="B73" s="42" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="60">
-      <c r="A74" s="41" t="s">
-        <v>498</v>
-      </c>
-      <c r="B74" s="42" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="45">
-      <c r="A75" s="41" t="s">
-        <v>500</v>
-      </c>
-      <c r="B75" s="42" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="30">
-      <c r="A76" s="41" t="s">
-        <v>502</v>
-      </c>
-      <c r="B76" s="42" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="75">
-      <c r="A77" s="45" t="s">
-        <v>505</v>
-      </c>
-      <c r="B77" s="42" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="43" t="s">
-        <v>506</v>
-      </c>
-      <c r="B78" s="44" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="45">
-      <c r="A79" s="43" t="s">
-        <v>509</v>
-      </c>
-      <c r="B79" s="44" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="55" t="s">
-        <v>518</v>
-      </c>
-      <c r="B80" s="47" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="55"/>
-      <c r="B81" s="47" t="s">
-        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -6390,201 +6645,201 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="52"/>
+      <c r="A4" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="55"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
       <c r="A12" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6623,17 +6878,17 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="52"/>
+      <c r="A3" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="55"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -6672,177 +6927,177 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="55"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105">
       <c r="A5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="135">
       <c r="A6" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
       <c r="A17" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
       <c r="A24" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -6862,302 +7117,297 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" style="36" customWidth="1"/>
     <col min="2" max="2" width="105.85546875" customWidth="1"/>
     <col min="3" max="3" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="23" customFormat="1">
-      <c r="A2" s="51" t="s">
-        <v>436</v>
-      </c>
-      <c r="B2" s="52"/>
-    </row>
-    <row r="3" spans="1:2" s="23" customFormat="1">
+    <row r="2" spans="1:2" s="22" customFormat="1">
+      <c r="A2" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" s="55"/>
+    </row>
+    <row r="3" spans="1:2" s="22" customFormat="1">
       <c r="A3" s="8"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:2" s="23" customFormat="1">
+    <row r="4" spans="1:2" s="22" customFormat="1">
       <c r="A4" s="8"/>
       <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="B5" s="52"/>
+      <c r="A5" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" s="55"/>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="37" t="s">
-        <v>237</v>
+      <c r="A6" s="36" t="s">
+        <v>235</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="120">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="240">
+      <c r="A8" s="62"/>
+      <c r="B8" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="240">
-      <c r="A8" s="59"/>
-      <c r="B8" s="12" t="s">
-        <v>315</v>
-      </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="59" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="255">
+      <c r="A10" s="59"/>
+      <c r="B10" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="150">
+      <c r="A11" s="59"/>
+      <c r="B11" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="255">
-      <c r="A10" s="56"/>
-      <c r="B10" s="12" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="150">
-      <c r="A11" s="56"/>
-      <c r="B11" s="12" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="12" spans="1:2" ht="150">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="65" t="s">
+        <v>456</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="22" customFormat="1" ht="105">
+      <c r="A13" s="65"/>
+      <c r="B13" s="36" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="65" t="s">
+        <v>434</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60">
+      <c r="A15" s="65"/>
+      <c r="B15" s="36" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="65"/>
+      <c r="B16" s="36" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="65" t="s">
+        <v>438</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="135">
+      <c r="A18" s="65"/>
+      <c r="B18" s="36" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="65"/>
+      <c r="B19" s="36" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="65"/>
+      <c r="B20" s="36" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="65"/>
+      <c r="B21" s="36" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45">
+      <c r="A22" s="66" t="s">
+        <v>444</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45">
+      <c r="A23" s="66"/>
+      <c r="B23" s="36" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="66"/>
+      <c r="B24" s="36" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="66"/>
+      <c r="B25" s="36" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="66"/>
+      <c r="B26" s="36" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="165">
+      <c r="A28" s="65"/>
+      <c r="B28" s="36" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="65"/>
+      <c r="B29" s="36" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30">
+      <c r="A30" s="50" t="s">
+        <v>528</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="60">
+      <c r="A31" s="36" t="s">
+        <v>458</v>
+      </c>
+      <c r="B31" s="36" t="s">
         <v>459</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="23" customFormat="1" ht="105">
-      <c r="A13" s="62"/>
-      <c r="B13" s="37" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="62" t="s">
-        <v>437</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="62"/>
-      <c r="B15" s="37" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="62"/>
-      <c r="B16" s="37" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="62" t="s">
-        <v>441</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="135">
-      <c r="A18" s="62"/>
-      <c r="B18" s="37" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="62"/>
-      <c r="B19" s="37" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="62"/>
-      <c r="B20" s="37" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="62"/>
-      <c r="B21" s="37" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="63" t="s">
-        <v>447</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="45">
-      <c r="A23" s="63"/>
-      <c r="B23" s="37" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="63"/>
-      <c r="B24" s="37" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="63"/>
-      <c r="B25" s="37" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="63"/>
-      <c r="B26" s="37" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="62" t="s">
-        <v>453</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="165">
-      <c r="A28" s="62"/>
-      <c r="B28" s="37" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="62"/>
-      <c r="B29" s="37" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="30">
-      <c r="A30" s="37" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="60">
+      <c r="A32" s="36" t="s">
         <v>460</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B32" s="36" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="37" t="s">
+    <row r="33" spans="1:2" ht="75">
+      <c r="A33" s="36" t="s">
         <v>462</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B33" s="36" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="37" t="s">
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="65" t="s">
         <v>464</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B34" s="36" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="75">
-      <c r="A33" s="37" t="s">
+    <row r="35" spans="1:2" ht="75">
+      <c r="A35" s="65"/>
+      <c r="B35" s="36" t="s">
         <v>466</v>
       </c>
-      <c r="B33" s="37" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="120">
+      <c r="A36" s="36" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="62" t="s">
+      <c r="B36" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="B34" s="37" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="65" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="62"/>
-      <c r="B35" s="37" t="s">
+      <c r="B37" s="36" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="120">
-      <c r="A36" s="37" t="s">
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="65"/>
+      <c r="B38" s="36" t="s">
         <v>471</v>
       </c>
-      <c r="B36" s="37" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="135">
+      <c r="A39" s="36" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="62" t="s">
+      <c r="B39" s="36" t="s">
         <v>473</v>
       </c>
-      <c r="B37" s="37" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="65" t="s">
+        <v>469</v>
+      </c>
+      <c r="B40" s="36" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="62"/>
-      <c r="B38" s="37" t="s">
+    <row r="41" spans="1:2" ht="60">
+      <c r="A41" s="65"/>
+      <c r="B41" s="36" t="s">
         <v>475</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="135">
-      <c r="A39" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="62" t="s">
-        <v>473</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="62"/>
-      <c r="B41" s="37" t="s">
-        <v>479</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A16"/>
@@ -7165,6 +7415,11 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
@@ -7199,241 +7454,241 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="55"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
       <c r="A5" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="59" t="s">
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11" s="62"/>
+      <c r="B11" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B10" s="7" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="60">
+      <c r="A12" s="62"/>
+      <c r="B12" s="7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="59"/>
-      <c r="B11" s="7" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="67" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="59"/>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="67"/>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="62" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="64" t="s">
+      <c r="B14" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="64"/>
-    </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="59" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="62"/>
+      <c r="B15" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B14" s="7" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="60">
+      <c r="A16" s="62"/>
+      <c r="B16" s="7" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="59"/>
-      <c r="B15" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="59"/>
-      <c r="B16" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="59" t="s">
+    <row r="21" spans="1:2" ht="75">
+      <c r="A21" s="62"/>
+      <c r="B21" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="59"/>
-      <c r="B21" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="105">
       <c r="A25" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="59" t="s">
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="62"/>
+      <c r="B32" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B31" s="7" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="62"/>
+      <c r="B33" s="7" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="59"/>
-      <c r="B32" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="59"/>
-      <c r="B33" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
       <c r="A34" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -7476,46 +7731,46 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="23" customFormat="1"/>
+    <row r="3" spans="1:2" s="22" customFormat="1"/>
     <row r="8" spans="1:2">
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="51" t="s">
-        <v>300</v>
-      </c>
-      <c r="B10" s="52"/>
+      <c r="A10" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="55"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="51" t="s">
-        <v>294</v>
-      </c>
-      <c r="B15" s="52"/>
+      <c r="A15" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="55"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" t="s">
         <v>293</v>
-      </c>
-      <c r="B16" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="560">
   <si>
     <t>Main Topic</t>
   </si>
@@ -3972,6 +3972,56 @@
   </si>
   <si>
     <t>Inverse to @ConditionalOnBean annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ConfigurationProperties demo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">refer  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>springboot.configuration.properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> package in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SpringBootPractice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> project</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4185,7 +4235,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4326,6 +4376,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4934,13 +4987,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="56"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>113</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -4948,7 +5001,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="62"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="7" t="s">
         <v>115</v>
       </c>
@@ -4994,7 +5047,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="69" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -5002,7 +5055,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="68"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="7" t="s">
         <v>127</v>
       </c>
@@ -5016,7 +5069,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="69" t="s">
         <v>130</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -5024,7 +5077,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="68"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="7" t="s">
         <v>132</v>
       </c>
@@ -5054,11 +5107,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5076,10 +5129,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
@@ -5090,10 +5143,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="56"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="32" t="s">
@@ -5192,7 +5245,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="66" t="s">
         <v>397</v>
       </c>
       <c r="B19" s="32" t="s">
@@ -5200,7 +5253,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="65"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="32" t="s">
         <v>395</v>
       </c>
@@ -5254,7 +5307,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="67" t="s">
         <v>408</v>
       </c>
       <c r="B27" s="32" t="s">
@@ -5262,7 +5315,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="66"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="32" t="s">
         <v>409</v>
       </c>
@@ -5364,7 +5417,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="67" t="s">
         <v>531</v>
       </c>
       <c r="B41" s="51" t="s">
@@ -5372,7 +5425,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="210">
-      <c r="A42" s="66"/>
+      <c r="A42" s="67"/>
       <c r="B42" s="51" t="s">
         <v>530</v>
       </c>
@@ -5394,7 +5447,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="69" t="s">
+      <c r="A45" s="70" t="s">
         <v>536</v>
       </c>
       <c r="B45" s="52" t="s">
@@ -5402,13 +5455,13 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="120">
-      <c r="A46" s="69"/>
+      <c r="A46" s="70"/>
       <c r="B46" s="52" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="69"/>
+      <c r="A47" s="70"/>
       <c r="B47" s="27" t="s">
         <v>538</v>
       </c>
@@ -5422,7 +5475,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45" customHeight="1">
-      <c r="A49" s="69" t="s">
+      <c r="A49" s="70" t="s">
         <v>542</v>
       </c>
       <c r="B49" s="53" t="s">
@@ -5430,7 +5483,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="69"/>
+      <c r="A50" s="70"/>
       <c r="B50" s="53" t="s">
         <v>544</v>
       </c>
@@ -5468,7 +5521,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="69" t="s">
+      <c r="A55" s="70" t="s">
         <v>549</v>
       </c>
       <c r="B55" s="53" t="s">
@@ -5476,7 +5529,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="69"/>
+      <c r="A56" s="70"/>
       <c r="B56" s="53" t="s">
         <v>555</v>
       </c>
@@ -5487,6 +5540,14 @@
       </c>
       <c r="B57" s="53" t="s">
         <v>557</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="54" t="s">
+        <v>558</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -5538,10 +5599,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -5552,10 +5613,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="56"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="12" t="s">
@@ -5590,7 +5651,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="70" t="s">
         <v>330</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -5598,7 +5659,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="69"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="29" t="s">
         <v>332</v>
       </c>
@@ -5612,7 +5673,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="66" t="s">
         <v>341</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -5620,13 +5681,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="29" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="65"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="29" t="s">
         <v>357</v>
       </c>
@@ -5765,10 +5826,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="22" customFormat="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>509</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="22" t="s">
@@ -5780,10 +5841,10 @@
     </row>
     <row r="4" spans="1:3" s="22" customFormat="1"/>
     <row r="5" spans="1:3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="56"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="32" t="s">
@@ -5806,10 +5867,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="57"/>
+      <c r="B9" s="58"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="22" t="s">
@@ -5820,10 +5881,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="56"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
@@ -5882,10 +5943,10 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="55" t="s">
         <v>291</v>
       </c>
-      <c r="B21" s="55"/>
+      <c r="B21" s="56"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="22" t="s">
@@ -5928,10 +5989,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="B28" s="55"/>
+      <c r="B28" s="56"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="22" t="s">
@@ -6002,21 +6063,21 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>433</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1"/>
     <row r="4" spans="1:2" s="22" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="57"/>
+      <c r="B5" s="58"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6024,7 +6085,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="64"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -6046,7 +6107,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -6054,7 +6115,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="62"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -6332,7 +6393,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="62" t="s">
+      <c r="A46" s="63" t="s">
         <v>88</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -6340,19 +6401,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="62"/>
+      <c r="A47" s="63"/>
       <c r="B47" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="62"/>
+      <c r="A48" s="63"/>
       <c r="B48" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="62" t="s">
+      <c r="A49" s="63" t="s">
         <v>92</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -6360,19 +6421,19 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="62"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90">
-      <c r="A51" s="62"/>
+      <c r="A51" s="63"/>
       <c r="B51" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75">
-      <c r="A52" s="62" t="s">
+      <c r="A52" s="63" t="s">
         <v>96</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -6380,7 +6441,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="62"/>
+      <c r="A53" s="63"/>
       <c r="B53" s="7" t="s">
         <v>335</v>
       </c>
@@ -6434,7 +6495,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="60" t="s">
+      <c r="A60" s="61" t="s">
         <v>109</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -6442,13 +6503,13 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="240">
-      <c r="A61" s="60"/>
+      <c r="A61" s="61"/>
       <c r="B61" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="180">
-      <c r="A62" s="60"/>
+      <c r="A62" s="61"/>
       <c r="B62" s="7" t="s">
         <v>112</v>
       </c>
@@ -6494,7 +6555,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="105">
-      <c r="A68" s="59" t="s">
+      <c r="A68" s="60" t="s">
         <v>487</v>
       </c>
       <c r="B68" s="38" t="s">
@@ -6502,19 +6563,19 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="120">
-      <c r="A69" s="59"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="38" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="75">
-      <c r="A70" s="59"/>
+      <c r="A70" s="60"/>
       <c r="B70" s="38" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="59" t="s">
+      <c r="A71" s="60" t="s">
         <v>488</v>
       </c>
       <c r="B71" s="46" t="s">
@@ -6522,7 +6583,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="60">
-      <c r="A72" s="59"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="46" t="s">
         <v>512</v>
       </c>
@@ -6584,7 +6645,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="58" t="s">
+      <c r="A80" s="59" t="s">
         <v>514</v>
       </c>
       <c r="B80" s="46" t="s">
@@ -6592,7 +6653,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="58"/>
+      <c r="A81" s="59"/>
       <c r="B81" s="46" t="s">
         <v>516</v>
       </c>
@@ -6645,10 +6706,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="56"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -6878,10 +6939,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="56"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -6927,10 +6988,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="56"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -7137,10 +7198,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="22" customFormat="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>433</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1">
       <c r="A3" s="8"/>
@@ -7151,10 +7212,10 @@
       <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>318</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="56"/>
     </row>
     <row r="6" spans="1:2" ht="75">
       <c r="A6" s="36" t="s">
@@ -7165,7 +7226,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="120">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>311</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -7173,13 +7234,13 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="240">
-      <c r="A8" s="62"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="12" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="60" t="s">
         <v>326</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -7187,19 +7248,19 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="255">
-      <c r="A10" s="59"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="12" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150">
-      <c r="A11" s="59"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="12" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="66" t="s">
         <v>456</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -7207,13 +7268,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" s="22" customFormat="1" ht="105">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="36" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="66" t="s">
         <v>434</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -7221,19 +7282,19 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="36" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="65"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="36" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="66" t="s">
         <v>438</v>
       </c>
       <c r="B17" s="36" t="s">
@@ -7241,31 +7302,31 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="135">
-      <c r="A18" s="65"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="36" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="65"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="36" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="65"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="36" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="65"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="36" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="67" t="s">
         <v>444</v>
       </c>
       <c r="B22" s="36" t="s">
@@ -7273,31 +7334,31 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="45">
-      <c r="A23" s="66"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="36" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="66"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="36" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="66"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="36" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="66"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="36" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="66" t="s">
         <v>450</v>
       </c>
       <c r="B27" s="36" t="s">
@@ -7305,13 +7366,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="165">
-      <c r="A28" s="65"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="36" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="65"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="36" t="s">
         <v>453</v>
       </c>
@@ -7349,7 +7410,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="66" t="s">
         <v>464</v>
       </c>
       <c r="B34" s="36" t="s">
@@ -7357,7 +7418,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="65"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="36" t="s">
         <v>466</v>
       </c>
@@ -7371,7 +7432,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="66" t="s">
         <v>469</v>
       </c>
       <c r="B37" s="36" t="s">
@@ -7379,7 +7440,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="65"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="36" t="s">
         <v>471</v>
       </c>
@@ -7393,7 +7454,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="66" t="s">
         <v>469</v>
       </c>
       <c r="B40" s="36" t="s">
@@ -7401,13 +7462,18 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="65"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="36" t="s">
         <v>475</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A16"/>
@@ -7415,11 +7481,6 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
@@ -7454,10 +7515,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="56"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
@@ -7508,7 +7569,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>249</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -7516,25 +7577,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="62"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="62"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="7" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="67"/>
+      <c r="B13" s="68"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="63" t="s">
         <v>254</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -7542,13 +7603,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="62"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="62"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="7" t="s">
         <v>257</v>
       </c>
@@ -7578,7 +7639,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="63" t="s">
         <v>264</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -7586,7 +7647,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="62"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="7" t="s">
         <v>266</v>
       </c>
@@ -7664,7 +7725,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="63" t="s">
         <v>285</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -7672,13 +7733,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="62"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="7" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="62"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="7" t="s">
         <v>288</v>
       </c>
@@ -7736,10 +7797,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="56"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -7750,10 +7811,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="56"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="565">
   <si>
     <t>Main Topic</t>
   </si>
@@ -3990,6 +3990,112 @@
         <scheme val="minor"/>
       </rPr>
       <t>springboot.configuration.properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> package in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SpringBootPractice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> project</t>
+    </r>
+  </si>
+  <si>
+    <t>If we want inject bean properties from application.properties file then we need to use below annotations
+1. @org.springframework.boot.context.properties.ConfigurationProperties
+2. @org.springframework.context.annotation.Configuration</t>
+  </si>
+  <si>
+    <t>If we want to inject String values from properties file other than application.properties</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. we need to use "org.springframework.context.annotation.PropertySource" annotation
+2. refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>springboot.custom.properties.file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> package in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SpringBootPractice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> project</t>
+    </r>
+  </si>
+  <si>
+    <t>Reading Spring boot application properties from yaml file</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>springboot.hello.world.yaml</t>
     </r>
     <r>
       <rPr>
@@ -4235,7 +4341,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4393,6 +4499,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4440,6 +4549,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4738,7 +4850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
@@ -4987,13 +5099,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="56"/>
+      <c r="B4" s="57"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>113</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -5001,7 +5113,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="63"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="7" t="s">
         <v>115</v>
       </c>
@@ -5047,7 +5159,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="70" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -5055,7 +5167,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="69"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="7" t="s">
         <v>127</v>
       </c>
@@ -5069,7 +5181,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="70" t="s">
         <v>130</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -5077,7 +5189,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="69"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="7" t="s">
         <v>132</v>
       </c>
@@ -5107,11 +5219,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5129,10 +5241,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
@@ -5143,10 +5255,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="32" t="s">
@@ -5245,7 +5357,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="67" t="s">
         <v>397</v>
       </c>
       <c r="B19" s="32" t="s">
@@ -5253,7 +5365,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="66"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="32" t="s">
         <v>395</v>
       </c>
@@ -5307,7 +5419,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="68" t="s">
         <v>408</v>
       </c>
       <c r="B27" s="32" t="s">
@@ -5315,7 +5427,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="67"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="32" t="s">
         <v>409</v>
       </c>
@@ -5417,7 +5529,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="68" t="s">
         <v>531</v>
       </c>
       <c r="B41" s="51" t="s">
@@ -5425,7 +5537,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="210">
-      <c r="A42" s="67"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="51" t="s">
         <v>530</v>
       </c>
@@ -5447,7 +5559,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="71" t="s">
         <v>536</v>
       </c>
       <c r="B45" s="52" t="s">
@@ -5455,13 +5567,13 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="120">
-      <c r="A46" s="70"/>
+      <c r="A46" s="71"/>
       <c r="B46" s="52" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="70"/>
+      <c r="A47" s="71"/>
       <c r="B47" s="27" t="s">
         <v>538</v>
       </c>
@@ -5475,7 +5587,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45" customHeight="1">
-      <c r="A49" s="70" t="s">
+      <c r="A49" s="71" t="s">
         <v>542</v>
       </c>
       <c r="B49" s="53" t="s">
@@ -5483,7 +5595,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="70"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="53" t="s">
         <v>544</v>
       </c>
@@ -5521,7 +5633,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="70" t="s">
+      <c r="A55" s="71" t="s">
         <v>549</v>
       </c>
       <c r="B55" s="53" t="s">
@@ -5529,7 +5641,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="70"/>
+      <c r="A56" s="71"/>
       <c r="B56" s="53" t="s">
         <v>555</v>
       </c>
@@ -5542,16 +5654,39 @@
         <v>557</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="54" t="s">
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="72" t="s">
         <v>558</v>
       </c>
-      <c r="B58" s="54" t="s">
+      <c r="B58" s="55" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="72"/>
+      <c r="B59" s="54" t="s">
         <v>559</v>
       </c>
     </row>
+    <row r="60" spans="1:2" ht="30">
+      <c r="A60" s="55" t="s">
+        <v>561</v>
+      </c>
+      <c r="B60" s="55" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="55" t="s">
+        <v>563</v>
+      </c>
+      <c r="B61" s="55" t="s">
+        <v>564</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A58:A59"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A45:A47"/>
@@ -5599,10 +5734,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>317</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -5613,10 +5748,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="12" t="s">
@@ -5651,7 +5786,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="71" t="s">
         <v>330</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -5659,7 +5794,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="70"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="29" t="s">
         <v>332</v>
       </c>
@@ -5673,7 +5808,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="67" t="s">
         <v>341</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -5681,13 +5816,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="66"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="29" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="66"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="29" t="s">
         <v>357</v>
       </c>
@@ -5826,10 +5961,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="22" customFormat="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>509</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="22" t="s">
@@ -5841,10 +5976,10 @@
     </row>
     <row r="4" spans="1:3" s="22" customFormat="1"/>
     <row r="5" spans="1:3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="56" t="s">
         <v>307</v>
       </c>
-      <c r="B5" s="56"/>
+      <c r="B5" s="57"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="32" t="s">
@@ -5867,10 +6002,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="58"/>
+      <c r="B9" s="59"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="22" t="s">
@@ -5881,10 +6016,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="57"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
@@ -5943,10 +6078,10 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="B21" s="56"/>
+      <c r="B21" s="57"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="22" t="s">
@@ -5989,10 +6124,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="B28" s="56"/>
+      <c r="B28" s="57"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="22" t="s">
@@ -6063,21 +6198,21 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>433</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="59"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1"/>
     <row r="4" spans="1:2" s="22" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="59"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6085,7 +6220,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -6107,7 +6242,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -6115,7 +6250,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="63"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -6393,7 +6528,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="64" t="s">
         <v>88</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -6401,19 +6536,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="63"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="63"/>
+      <c r="A48" s="64"/>
       <c r="B48" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="64" t="s">
         <v>92</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -6421,19 +6556,19 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="63"/>
+      <c r="A50" s="64"/>
       <c r="B50" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90">
-      <c r="A51" s="63"/>
+      <c r="A51" s="64"/>
       <c r="B51" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75">
-      <c r="A52" s="63" t="s">
+      <c r="A52" s="64" t="s">
         <v>96</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -6441,7 +6576,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="63"/>
+      <c r="A53" s="64"/>
       <c r="B53" s="7" t="s">
         <v>335</v>
       </c>
@@ -6495,7 +6630,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="61" t="s">
+      <c r="A60" s="62" t="s">
         <v>109</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -6503,13 +6638,13 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="240">
-      <c r="A61" s="61"/>
+      <c r="A61" s="62"/>
       <c r="B61" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="180">
-      <c r="A62" s="61"/>
+      <c r="A62" s="62"/>
       <c r="B62" s="7" t="s">
         <v>112</v>
       </c>
@@ -6555,7 +6690,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="105">
-      <c r="A68" s="60" t="s">
+      <c r="A68" s="61" t="s">
         <v>487</v>
       </c>
       <c r="B68" s="38" t="s">
@@ -6563,19 +6698,19 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="120">
-      <c r="A69" s="60"/>
+      <c r="A69" s="61"/>
       <c r="B69" s="38" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="75">
-      <c r="A70" s="60"/>
+      <c r="A70" s="61"/>
       <c r="B70" s="38" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="60" t="s">
+      <c r="A71" s="61" t="s">
         <v>488</v>
       </c>
       <c r="B71" s="46" t="s">
@@ -6583,7 +6718,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="60">
-      <c r="A72" s="60"/>
+      <c r="A72" s="61"/>
       <c r="B72" s="46" t="s">
         <v>512</v>
       </c>
@@ -6645,7 +6780,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="59" t="s">
+      <c r="A80" s="60" t="s">
         <v>514</v>
       </c>
       <c r="B80" s="46" t="s">
@@ -6653,7 +6788,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="59"/>
+      <c r="A81" s="60"/>
       <c r="B81" s="46" t="s">
         <v>516</v>
       </c>
@@ -6706,10 +6841,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="56"/>
+      <c r="B4" s="57"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -6939,10 +7074,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="57"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -6988,10 +7123,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="57"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -7198,10 +7333,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="22" customFormat="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>433</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1">
       <c r="A3" s="8"/>
@@ -7212,10 +7347,10 @@
       <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="B5" s="56"/>
+      <c r="B5" s="57"/>
     </row>
     <row r="6" spans="1:2" ht="75">
       <c r="A6" s="36" t="s">
@@ -7226,7 +7361,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="120">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>311</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -7234,13 +7369,13 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="240">
-      <c r="A8" s="63"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="12" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="61" t="s">
         <v>326</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -7248,19 +7383,19 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="255">
-      <c r="A10" s="60"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="12" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150">
-      <c r="A11" s="60"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="12" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="67" t="s">
         <v>456</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -7268,13 +7403,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" s="22" customFormat="1" ht="105">
-      <c r="A13" s="66"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="36" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="67" t="s">
         <v>434</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -7282,19 +7417,19 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="66"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="36" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="66"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="36" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="67" t="s">
         <v>438</v>
       </c>
       <c r="B17" s="36" t="s">
@@ -7302,31 +7437,31 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="135">
-      <c r="A18" s="66"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="36" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="66"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="36" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="66"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="36" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="66"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="36" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="68" t="s">
         <v>444</v>
       </c>
       <c r="B22" s="36" t="s">
@@ -7334,31 +7469,31 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="45">
-      <c r="A23" s="67"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="36" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="67"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="36" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="67"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="36" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="67"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="36" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="67" t="s">
         <v>450</v>
       </c>
       <c r="B27" s="36" t="s">
@@ -7366,13 +7501,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="165">
-      <c r="A28" s="66"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="36" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="66"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="36" t="s">
         <v>453</v>
       </c>
@@ -7410,7 +7545,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="67" t="s">
         <v>464</v>
       </c>
       <c r="B34" s="36" t="s">
@@ -7418,7 +7553,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="66"/>
+      <c r="A35" s="67"/>
       <c r="B35" s="36" t="s">
         <v>466</v>
       </c>
@@ -7432,7 +7567,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="67" t="s">
         <v>469</v>
       </c>
       <c r="B37" s="36" t="s">
@@ -7440,7 +7575,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="66"/>
+      <c r="A38" s="67"/>
       <c r="B38" s="36" t="s">
         <v>471</v>
       </c>
@@ -7454,7 +7589,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="67" t="s">
         <v>469</v>
       </c>
       <c r="B40" s="36" t="s">
@@ -7462,18 +7597,13 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="66"/>
+      <c r="A41" s="67"/>
       <c r="B41" s="36" t="s">
         <v>475</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A16"/>
@@ -7481,6 +7611,11 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
@@ -7515,10 +7650,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="57"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
@@ -7569,7 +7704,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>249</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -7577,25 +7712,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="63"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="63"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="7" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="69" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="69"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="64" t="s">
         <v>254</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -7603,13 +7738,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="63"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="63"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="7" t="s">
         <v>257</v>
       </c>
@@ -7639,7 +7774,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="64" t="s">
         <v>264</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -7647,7 +7782,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="63"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="7" t="s">
         <v>266</v>
       </c>
@@ -7725,7 +7860,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="64" t="s">
         <v>285</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -7733,13 +7868,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="63"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="7" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="63"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="7" t="s">
         <v>288</v>
       </c>
@@ -7797,10 +7932,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="57"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -7811,10 +7946,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="56" t="s">
         <v>292</v>
       </c>
-      <c r="B15" s="56"/>
+      <c r="B15" s="57"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -2773,12 +2773,6 @@
     <t>pluralsight</t>
   </si>
   <si>
-    <t>Getting started with Spring Data JPA - Bunker</t>
-  </si>
-  <si>
-    <t>Getting started with Spring Data REST - Bunker</t>
-  </si>
-  <si>
     <t>Spring Security Fundamentals - Hansen</t>
   </si>
   <si>
@@ -3911,12 +3905,6 @@
     <t>Enable auto configuration</t>
   </si>
   <si>
-    <t>1. command line argument -&gt; --debug
-2. VM argument -&gt; -Ddebug=true
-3. Environment variable -&gt; DEBUG=true
-4. application.properties -&gt; debug=true</t>
-  </si>
-  <si>
     <t>While starting spring boot application, spring will do lot of auto configurations. We can exclude some of auto configurations. How to do that?</t>
   </si>
   <si>
@@ -4128,6 +4116,62 @@
       </rPr>
       <t xml:space="preserve"> project</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. command line argument -&gt; --debug
+2. VM argument -&gt; -Ddebug=true
+3. Environment variable -&gt; DEBUG=true
+4. application.properties -&gt; logging.level.=DEBUG (refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>application.properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SpringBootPractice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> project)</t>
+    </r>
+  </si>
+  <si>
+    <t>Getting started with Spring Data JPA by Dan Bunker</t>
+  </si>
+  <si>
+    <t>Getting started with Spring Data REST by Dan Bunker</t>
   </si>
 </sst>
 </file>
@@ -4341,7 +4385,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4502,6 +4546,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4548,10 +4595,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4850,9 +4897,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4867,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>12</v>
@@ -4959,7 +5006,7 @@
         <v>315</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4978,7 +5025,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="22" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>349</v>
@@ -5099,13 +5146,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="58"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>113</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -5113,7 +5160,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="64"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="7" t="s">
         <v>115</v>
       </c>
@@ -5159,7 +5206,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="71" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -5167,7 +5214,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="70"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="7" t="s">
         <v>127</v>
       </c>
@@ -5181,7 +5228,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="71" t="s">
         <v>130</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -5189,7 +5236,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="70"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="7" t="s">
         <v>132</v>
       </c>
@@ -5222,7 +5269,7 @@
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -5241,24 +5288,24 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>308</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="58"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="32" t="s">
@@ -5297,7 +5344,7 @@
         <v>371</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5310,378 +5357,378 @@
     </row>
     <row r="13" spans="1:2" ht="60">
       <c r="A13" s="32" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="32" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="35" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="32" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="32" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="67" t="s">
-        <v>397</v>
+      <c r="A19" s="68" t="s">
+        <v>395</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="67"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="32" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
       <c r="A21" s="32" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="32" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="32" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="75">
       <c r="A25" s="32" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="69" t="s">
+        <v>406</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>405</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="68" t="s">
-        <v>408</v>
-      </c>
-      <c r="B27" s="32" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="120">
+      <c r="A28" s="69"/>
+      <c r="B28" s="32" t="s">
         <v>407</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="68"/>
-      <c r="B28" s="32" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="32" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" s="32" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
       <c r="A32" s="33" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="105">
       <c r="A33" s="33" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="90">
       <c r="A34" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="225">
       <c r="A35" s="35" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="B36" s="35" t="s">
         <v>422</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="35" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="35" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="22" customFormat="1">
       <c r="A39" s="48" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="105">
       <c r="A40" s="48" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="68" t="s">
-        <v>531</v>
+      <c r="A41" s="69" t="s">
+        <v>529</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="210">
-      <c r="A42" s="68"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="51" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
       <c r="A43" s="52" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="52" t="s">
+        <v>532</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30">
+      <c r="A45" s="73" t="s">
         <v>534</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B45" s="52" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="71" t="s">
+    <row r="46" spans="1:2" ht="120">
+      <c r="A46" s="73"/>
+      <c r="B46" s="52" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="73"/>
+      <c r="B47" s="27" t="s">
         <v>536</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="120">
-      <c r="A46" s="71"/>
-      <c r="B46" s="52" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="71"/>
-      <c r="B47" s="27" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
       <c r="A48" s="53" t="s">
+        <v>538</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45" customHeight="1">
+      <c r="A49" s="73" t="s">
+        <v>539</v>
+      </c>
+      <c r="B49" s="53" t="s">
         <v>540</v>
       </c>
-      <c r="B48" s="53" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="73"/>
+      <c r="B50" s="53" t="s">
         <v>541</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="45" customHeight="1">
-      <c r="A49" s="71" t="s">
-        <v>542</v>
-      </c>
-      <c r="B49" s="53" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="71"/>
-      <c r="B50" s="53" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
       <c r="A51" s="53" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="22" customFormat="1" ht="30">
       <c r="A52" s="53" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B52" s="53" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
       <c r="A53" s="53" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B53" s="53" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="53" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B54" s="53" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="71" t="s">
-        <v>549</v>
+      <c r="A55" s="73" t="s">
+        <v>546</v>
       </c>
       <c r="B55" s="53" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="71"/>
+      <c r="A56" s="73"/>
       <c r="B56" s="53" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="53" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B57" s="53" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
       <c r="A58" s="72" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B58" s="55" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="72"/>
       <c r="B59" s="54" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
       <c r="A60" s="55" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B60" s="55" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="55" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B61" s="55" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -5734,10 +5781,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>317</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -5748,10 +5795,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="58"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="12" t="s">
@@ -5786,7 +5833,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="73" t="s">
         <v>330</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -5794,7 +5841,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="71"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="29" t="s">
         <v>332</v>
       </c>
@@ -5808,7 +5855,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="68" t="s">
         <v>341</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -5816,13 +5863,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="67"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="29" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="67"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="29" t="s">
         <v>357</v>
       </c>
@@ -5937,9 +5984,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5957,29 +6004,29 @@
         <v>12</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="22" customFormat="1">
-      <c r="A2" s="56" t="s">
-        <v>509</v>
-      </c>
-      <c r="B2" s="57"/>
+      <c r="A2" s="57" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="22" customFormat="1"/>
     <row r="5" spans="1:3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="B5" s="57"/>
+      <c r="B5" s="58"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="32" t="s">
@@ -5989,7 +6036,7 @@
         <v>375</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5997,29 +6044,29 @@
         <v>374</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="60"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="22" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="57"/>
+      <c r="B12" s="58"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
@@ -6055,40 +6102,40 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="B21" s="57"/>
+      <c r="B21" s="58"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="22" t="s">
         <v>376</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6124,17 +6171,17 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="57" t="s">
         <v>333</v>
       </c>
-      <c r="B28" s="57"/>
+      <c r="B28" s="58"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="22" t="s">
         <v>376</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>377</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6142,7 +6189,7 @@
         <v>376</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>378</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -6198,21 +6245,21 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="58" t="s">
-        <v>433</v>
-      </c>
-      <c r="B2" s="59"/>
+      <c r="A2" s="59" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" s="60"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1"/>
     <row r="4" spans="1:2" s="22" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="60"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6220,7 +6267,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="66"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -6242,7 +6289,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -6250,7 +6297,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="64"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -6260,7 +6307,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
@@ -6476,7 +6523,7 @@
         <v>75</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
@@ -6528,7 +6575,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="65" t="s">
         <v>88</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -6536,19 +6583,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="64"/>
+      <c r="A47" s="65"/>
       <c r="B47" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="64"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="64" t="s">
+      <c r="A49" s="65" t="s">
         <v>92</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -6556,19 +6603,19 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="64"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90">
-      <c r="A51" s="64"/>
+      <c r="A51" s="65"/>
       <c r="B51" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75">
-      <c r="A52" s="64" t="s">
+      <c r="A52" s="65" t="s">
         <v>96</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -6576,7 +6623,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="64"/>
+      <c r="A53" s="65"/>
       <c r="B53" s="7" t="s">
         <v>335</v>
       </c>
@@ -6630,7 +6677,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="62" t="s">
+      <c r="A60" s="63" t="s">
         <v>109</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -6638,20 +6685,20 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="240">
-      <c r="A61" s="62"/>
+      <c r="A61" s="63"/>
       <c r="B61" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="180">
-      <c r="A62" s="62"/>
+      <c r="A62" s="63"/>
       <c r="B62" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="30">
       <c r="A63" s="49" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>314</v>
@@ -6675,122 +6722,122 @@
     </row>
     <row r="66" spans="1:2" ht="60">
       <c r="A66" s="34" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="30">
       <c r="A67" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="105">
+      <c r="A68" s="62" t="s">
+        <v>485</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="120">
+      <c r="A69" s="62"/>
+      <c r="B69" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="B67" s="38" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="105">
-      <c r="A68" s="61" t="s">
-        <v>487</v>
-      </c>
-      <c r="B68" s="38" t="s">
+    </row>
+    <row r="70" spans="1:2" ht="75">
+      <c r="A70" s="62"/>
+      <c r="B70" s="38" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="120">
-      <c r="A69" s="61"/>
-      <c r="B69" s="38" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="75">
-      <c r="A70" s="61"/>
-      <c r="B70" s="38" t="s">
+    <row r="71" spans="1:2" ht="60">
+      <c r="A71" s="62" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="61" t="s">
-        <v>488</v>
-      </c>
       <c r="B71" s="46" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="60">
-      <c r="A72" s="61"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="46" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30">
       <c r="A73" s="40" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B73" s="41" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="60">
       <c r="A74" s="40" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="45">
       <c r="A75" s="40" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B75" s="41" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30">
       <c r="A76" s="40" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="75">
       <c r="A77" s="44" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B77" s="41" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="42" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="45">
       <c r="A79" s="42" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="60" t="s">
+      <c r="A80" s="61" t="s">
+        <v>512</v>
+      </c>
+      <c r="B80" s="46" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="61"/>
+      <c r="B81" s="46" t="s">
         <v>514</v>
-      </c>
-      <c r="B80" s="46" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="60"/>
-      <c r="B81" s="46" t="s">
-        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -6841,10 +6888,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="58"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -7074,10 +7121,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="58"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -7123,10 +7170,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="58"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -7333,10 +7380,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="22" customFormat="1">
-      <c r="A2" s="56" t="s">
-        <v>433</v>
-      </c>
-      <c r="B2" s="57"/>
+      <c r="A2" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1">
       <c r="A3" s="8"/>
@@ -7347,10 +7394,10 @@
       <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="B5" s="57"/>
+      <c r="B5" s="58"/>
     </row>
     <row r="6" spans="1:2" ht="75">
       <c r="A6" s="36" t="s">
@@ -7361,7 +7408,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="120">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>311</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -7369,13 +7416,13 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="240">
-      <c r="A8" s="64"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="12" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>326</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -7383,223 +7430,223 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="255">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="12" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="12" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150">
-      <c r="A12" s="67" t="s">
-        <v>456</v>
+      <c r="A12" s="68" t="s">
+        <v>454</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="22" customFormat="1" ht="105">
-      <c r="A13" s="67"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="36" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="68" t="s">
+        <v>432</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60">
+      <c r="A15" s="68"/>
+      <c r="B15" s="36" t="s">
         <v>434</v>
       </c>
-      <c r="B14" s="36" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="68"/>
+      <c r="B16" s="36" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="67"/>
-      <c r="B15" s="36" t="s">
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="68" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="67"/>
-      <c r="B16" s="36" t="s">
+      <c r="B17" s="36" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="67" t="s">
+    <row r="18" spans="1:2" ht="135">
+      <c r="A18" s="68"/>
+      <c r="B18" s="36" t="s">
         <v>438</v>
       </c>
-      <c r="B17" s="36" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="68"/>
+      <c r="B19" s="36" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="135">
-      <c r="A18" s="67"/>
-      <c r="B18" s="36" t="s">
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="68"/>
+      <c r="B20" s="36" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="67"/>
-      <c r="B19" s="36" t="s">
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="68"/>
+      <c r="B21" s="36" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="67"/>
-      <c r="B20" s="36" t="s">
+    <row r="22" spans="1:2" ht="45">
+      <c r="A22" s="69" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="67"/>
-      <c r="B21" s="36" t="s">
+      <c r="B22" s="36" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="68" t="s">
+    <row r="23" spans="1:2" ht="45">
+      <c r="A23" s="69"/>
+      <c r="B23" s="36" t="s">
         <v>444</v>
       </c>
-      <c r="B22" s="36" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="69"/>
+      <c r="B24" s="36" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="45">
-      <c r="A23" s="68"/>
-      <c r="B23" s="36" t="s">
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="69"/>
+      <c r="B25" s="36" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="68"/>
-      <c r="B24" s="36" t="s">
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="69"/>
+      <c r="B26" s="36" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="68"/>
-      <c r="B25" s="36" t="s">
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="68" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="68"/>
-      <c r="B26" s="36" t="s">
+      <c r="B27" s="36" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="67" t="s">
+    <row r="28" spans="1:2" ht="165">
+      <c r="A28" s="68"/>
+      <c r="B28" s="36" t="s">
         <v>450</v>
       </c>
-      <c r="B27" s="36" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="68"/>
+      <c r="B29" s="36" t="s">
         <v>451</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="165">
-      <c r="A28" s="67"/>
-      <c r="B28" s="36" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="67"/>
-      <c r="B29" s="36" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
       <c r="A30" s="50" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60">
       <c r="A31" s="36" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
       <c r="A32" s="36" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75">
       <c r="A33" s="36" t="s">
+        <v>460</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="68" t="s">
         <v>462</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B34" s="36" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="67" t="s">
+    <row r="35" spans="1:2" ht="75">
+      <c r="A35" s="68"/>
+      <c r="B35" s="36" t="s">
         <v>464</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="67"/>
-      <c r="B35" s="36" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="120">
       <c r="A36" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="68" t="s">
         <v>467</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B37" s="36" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="67" t="s">
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="68"/>
+      <c r="B38" s="36" t="s">
         <v>469</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="67"/>
-      <c r="B38" s="36" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="135">
       <c r="A39" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="68" t="s">
+        <v>467</v>
+      </c>
+      <c r="B40" s="36" t="s">
         <v>472</v>
       </c>
-      <c r="B39" s="36" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="60">
+      <c r="A41" s="68"/>
+      <c r="B41" s="36" t="s">
         <v>473</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="67" t="s">
-        <v>469</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="67"/>
-      <c r="B41" s="36" t="s">
-        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -7650,10 +7697,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="58"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
@@ -7704,7 +7751,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>249</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -7712,25 +7759,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="64"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="64"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="7" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="69"/>
+      <c r="B13" s="70"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="65" t="s">
         <v>254</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -7738,13 +7785,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="64"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="64"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="7" t="s">
         <v>257</v>
       </c>
@@ -7774,7 +7821,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="65" t="s">
         <v>264</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -7782,7 +7829,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="64"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="7" t="s">
         <v>266</v>
       </c>
@@ -7860,7 +7907,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="65" t="s">
         <v>285</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -7868,13 +7915,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="64"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="7" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="64"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="7" t="s">
         <v>288</v>
       </c>
@@ -7932,10 +7979,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="B10" s="57"/>
+      <c r="B10" s="58"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -7946,10 +7993,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="B15" s="57"/>
+      <c r="B15" s="58"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -2873,11 +2873,6 @@
     <t>https://github.com/avinashbabudonthu/SpringBootPractice.git</t>
   </si>
   <si>
-    <t>1. If we want to customize default spring boot configuration then we can do it using application.properties file
-2. This file should be at classpath (for mavenized project generally location will be src/main/resources)
-3. When application starts up spring boot load up and configures based on settings in application.properties file</t>
-  </si>
-  <si>
     <t>4. application.properties file can be in YAML format also instead of standard properties format. Spring boot will accept YAML if we have snake-yaml dependency in our classpath</t>
   </si>
   <si>
@@ -2947,32 +2942,7 @@
     <t>spring.h2.console.path=/h2</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Url to be used to open H2 console after starting spring boot application:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://localhost:8080/h2</t>
-    </r>
-  </si>
-  <si>
     <t>Note on using data JPA</t>
-  </si>
-  <si>
-    <t>1. We need to give data source configuration in application.properties
-2. data source pooling configuration in application.properties
-3. when spring-boot-starter-data-jpa dependency added spring bool will add tomcat-jdbc for data source pooling. This is default pooling strategy in spring boot applications.</t>
-  </si>
-  <si>
-    <t>Example properties in application.properties for H2 DB</t>
   </si>
   <si>
     <t>spring.datasource.url=jdbc:h2:file:E:/Backup/JavaPrep/practiceProjects/Spring/SpringBootPractice/src/main/resources/springBoot;MV_STORE=FALSE
@@ -2994,35 +2964,6 @@
     <t xml:space="preserve"> @Configuration
 @EnableAutoConfiguration
 @ComponentScan</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tells spring DataSourceBuilder to use connection and pooling properties located in the application.properties file where properties begin </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>spring.datasource</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> prefix. </t>
-    </r>
-  </si>
-  <si>
-    <t>If we are configuring multiple data source then we have define default data source. We can do so by declaring this annotation</t>
   </si>
   <si>
     <t>org.springframework.context.annotation.Primary</t>
@@ -3048,32 +2989,6 @@
     <t>Example of java configuration</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">refer </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>spring.boot.java.config</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> package in SpringBootPractice project</t>
-    </r>
-  </si>
-  <si>
     <t>If we want to perform any operations in beans like copy properties then we can use this class</t>
   </si>
   <si>
@@ -3775,34 +3690,6 @@
   </si>
   <si>
     <t>To generate project using Spring web initializer</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Add 2 properties files (application-dev.properties, application-test.properties) along with application.proerties in src/main/resources
-2. Add VM argument -&gt; Right click on main class -&gt; Run As -&gt; Run configurations -&gt; Arguments tab -&gt; VM Arguments -&gt; give this entry including -D
--&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-Dspring.profiles.active=test
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3. Run the application</t>
-    </r>
   </si>
   <si>
     <t>Core, DAO, ORM, AOP, JEE, Web</t>
@@ -4172,6 +4059,250 @@
   </si>
   <si>
     <t>Getting started with Spring Data REST by Dan Bunker</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. If we want to customize default spring boot configuration then we can do it using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>application.properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file
+2. This file should be at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>classpath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (for mavenized project generally location will be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src/main/resources</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+3. When application starts up spring boot load up and configures based on settings in application.properties file</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Add 2 properties files (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>application-dev.properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>application-test.properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) along with application.proerties in src/main/resources
+2. Add VM argument -&gt; Right click on main class -&gt; Run As -&gt; Run configurations -&gt; Arguments tab -&gt; VM Arguments -&gt; give this entry including -D
+-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-Dspring.profiles.active=test
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Run the application</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Url to be used to open H2 console after starting spring boot application:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://localhost:8080/h2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. We need to give data source configuration in application.properties
+2. data source pooling configuration in application.properties
+3. when spring-boot-starter-data-jpa dependency added spring pool will add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tomcat-jdbc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for data source pooling. This is default pooling strategy in spring boot applications.</t>
+    </r>
+  </si>
+  <si>
+    <t>Example properties in application.properties for H2 DB
+spring.datasource.* -&gt; these properties are give by spring boot.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tells spring DataSourceBuilder to use connection and pooling properties located in the application.properties file where properties begin  with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spring.datasource</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> prefix. </t>
+    </r>
+  </si>
+  <si>
+    <t>If we are configuring multiple data source then we have to define default data source. We can do so by declaring this annotation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>springboot.java.config</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> package in SpringBootPractice project</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4385,7 +4516,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4526,6 +4657,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4899,7 +5033,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4914,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>12</v>
@@ -5006,7 +5140,7 @@
         <v>315</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5025,7 +5159,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="22" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>349</v>
@@ -5146,13 +5280,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="58"/>
+      <c r="B4" s="59"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>113</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -5160,7 +5294,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="7" t="s">
         <v>115</v>
       </c>
@@ -5206,7 +5340,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="72" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -5214,7 +5348,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="71"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="7" t="s">
         <v>127</v>
       </c>
@@ -5228,7 +5362,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="72" t="s">
         <v>130</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -5236,7 +5370,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="71"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="7" t="s">
         <v>132</v>
       </c>
@@ -5268,9 +5402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5288,10 +5422,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="59"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
@@ -5302,10 +5436,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="59"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="32" t="s">
@@ -5381,7 +5515,7 @@
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="35" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>384</v>
@@ -5404,331 +5538,331 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="68" t="s">
-        <v>395</v>
-      </c>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="69" t="s">
+        <v>394</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="69"/>
+      <c r="B20" s="32" t="s">
         <v>392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="68"/>
-      <c r="B20" s="32" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
       <c r="A21" s="32" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="B23" s="32" t="s">
         <v>397</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>400</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="75">
       <c r="A25" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>521</v>
+        <v>401</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="B26" s="27" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="70" t="s">
+        <v>405</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="69" t="s">
+    <row r="28" spans="1:2" ht="120">
+      <c r="A28" s="70"/>
+      <c r="B28" s="32" t="s">
         <v>406</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="69"/>
-      <c r="B28" s="32" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>408</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>410</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" s="32" t="s">
-        <v>412</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>413</v>
+        <v>411</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
       <c r="A32" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>415</v>
+        <v>412</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="105">
-      <c r="A33" s="33" t="s">
-        <v>416</v>
+      <c r="A33" s="57" t="s">
+        <v>561</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="90">
       <c r="A34" s="33" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="225">
       <c r="A35" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="B35" s="35" t="s">
         <v>419</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>422</v>
+        <v>416</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>423</v>
+        <v>418</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>427</v>
+        <v>420</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="22" customFormat="1">
       <c r="A39" s="48" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="105">
       <c r="A40" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="45">
+      <c r="A41" s="70" t="s">
+        <v>521</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="210">
+      <c r="A42" s="70"/>
+      <c r="B42" s="51" t="s">
         <v>520</v>
-      </c>
-      <c r="B40" s="48" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="69" t="s">
-        <v>529</v>
-      </c>
-      <c r="B41" s="51" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="210">
-      <c r="A42" s="69"/>
-      <c r="B42" s="51" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
       <c r="A43" s="52" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="52" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="73" t="s">
-        <v>534</v>
+      <c r="A45" s="74" t="s">
+        <v>526</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="120">
-      <c r="A46" s="73"/>
+      <c r="A46" s="74"/>
       <c r="B46" s="52" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="73"/>
+      <c r="A47" s="74"/>
       <c r="B47" s="27" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
       <c r="A48" s="53" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45" customHeight="1">
-      <c r="A49" s="73" t="s">
-        <v>539</v>
+      <c r="A49" s="74" t="s">
+        <v>531</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="73"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="53" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
       <c r="A51" s="53" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="22" customFormat="1" ht="30">
       <c r="A52" s="53" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B52" s="53" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
       <c r="A53" s="53" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B53" s="53" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="53" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B54" s="53" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="73" t="s">
-        <v>546</v>
+      <c r="A55" s="74" t="s">
+        <v>538</v>
       </c>
       <c r="B55" s="53" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="73"/>
+      <c r="A56" s="74"/>
       <c r="B56" s="53" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="53" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B57" s="53" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="72" t="s">
-        <v>555</v>
+      <c r="A58" s="73" t="s">
+        <v>547</v>
       </c>
       <c r="B58" s="55" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="72"/>
+      <c r="A59" s="73"/>
       <c r="B59" s="54" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
       <c r="A60" s="55" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B60" s="55" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="55" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B61" s="55" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -5781,10 +5915,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>317</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="59"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -5795,10 +5929,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="59"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="12" t="s">
@@ -5833,7 +5967,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="74" t="s">
         <v>330</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -5841,7 +5975,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="73"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="29" t="s">
         <v>332</v>
       </c>
@@ -5855,7 +5989,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="69" t="s">
         <v>341</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -5863,13 +5997,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="68"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="29" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="68"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="29" t="s">
         <v>357</v>
       </c>
@@ -5984,9 +6118,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6004,29 +6138,29 @@
         <v>12</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="22" customFormat="1">
-      <c r="A2" s="57" t="s">
-        <v>507</v>
-      </c>
-      <c r="B2" s="58"/>
+      <c r="A2" s="58" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2" s="59"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="22" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="22" customFormat="1"/>
     <row r="5" spans="1:3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="58" t="s">
         <v>307</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="59"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="32" t="s">
@@ -6036,7 +6170,7 @@
         <v>375</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6044,29 +6178,29 @@
         <v>374</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="60"/>
+      <c r="B9" s="61"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="22" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="58"/>
+      <c r="B12" s="59"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
@@ -6102,33 +6236,33 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="B21" s="58"/>
+      <c r="B21" s="59"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="22" t="s">
@@ -6171,17 +6305,17 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="58" t="s">
         <v>333</v>
       </c>
-      <c r="B28" s="58"/>
+      <c r="B28" s="59"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="22" t="s">
         <v>376</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6189,7 +6323,7 @@
         <v>376</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -6245,21 +6379,21 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="59" t="s">
-        <v>431</v>
-      </c>
-      <c r="B2" s="60"/>
+      <c r="A2" s="60" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" s="61"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1"/>
     <row r="4" spans="1:2" s="22" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="60"/>
+      <c r="B5" s="61"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6267,7 +6401,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="67"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -6289,7 +6423,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -6297,7 +6431,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -6307,7 +6441,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
@@ -6523,7 +6657,7 @@
         <v>75</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
@@ -6575,7 +6709,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="66" t="s">
         <v>88</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -6583,19 +6717,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="65"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="65"/>
+      <c r="A48" s="66"/>
       <c r="B48" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="65" t="s">
+      <c r="A49" s="66" t="s">
         <v>92</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -6603,19 +6737,19 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="65"/>
+      <c r="A50" s="66"/>
       <c r="B50" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90">
-      <c r="A51" s="65"/>
+      <c r="A51" s="66"/>
       <c r="B51" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75">
-      <c r="A52" s="65" t="s">
+      <c r="A52" s="66" t="s">
         <v>96</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -6623,7 +6757,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="65"/>
+      <c r="A53" s="66"/>
       <c r="B53" s="7" t="s">
         <v>335</v>
       </c>
@@ -6677,7 +6811,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="63" t="s">
+      <c r="A60" s="64" t="s">
         <v>109</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -6685,20 +6819,20 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="240">
-      <c r="A61" s="63"/>
+      <c r="A61" s="64"/>
       <c r="B61" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="180">
-      <c r="A62" s="63"/>
+      <c r="A62" s="64"/>
       <c r="B62" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="30">
       <c r="A63" s="49" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>314</v>
@@ -6722,122 +6856,122 @@
     </row>
     <row r="66" spans="1:2" ht="60">
       <c r="A66" s="34" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="30">
       <c r="A67" s="37" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="105">
-      <c r="A68" s="62" t="s">
-        <v>485</v>
+      <c r="A68" s="63" t="s">
+        <v>478</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="120">
-      <c r="A69" s="62"/>
+      <c r="A69" s="63"/>
       <c r="B69" s="38" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="75">
-      <c r="A70" s="62"/>
+      <c r="A70" s="63"/>
       <c r="B70" s="38" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="62" t="s">
-        <v>486</v>
+      <c r="A71" s="63" t="s">
+        <v>479</v>
       </c>
       <c r="B71" s="46" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="60">
-      <c r="A72" s="62"/>
+      <c r="A72" s="63"/>
       <c r="B72" s="46" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30">
       <c r="A73" s="40" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B73" s="41" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="60">
       <c r="A74" s="40" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="45">
       <c r="A75" s="40" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B75" s="41" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30">
       <c r="A76" s="40" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="75">
       <c r="A77" s="44" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B77" s="41" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="42" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="45">
       <c r="A79" s="42" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="61" t="s">
-        <v>512</v>
+      <c r="A80" s="62" t="s">
+        <v>505</v>
       </c>
       <c r="B80" s="46" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="61"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="46" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -6888,10 +7022,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="58"/>
+      <c r="B4" s="59"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -7121,10 +7255,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="59"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -7170,10 +7304,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="59"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -7380,10 +7514,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="22" customFormat="1">
-      <c r="A2" s="57" t="s">
-        <v>431</v>
-      </c>
-      <c r="B2" s="58"/>
+      <c r="A2" s="58" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" s="59"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1">
       <c r="A3" s="8"/>
@@ -7394,10 +7528,10 @@
       <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="59"/>
     </row>
     <row r="6" spans="1:2" ht="75">
       <c r="A6" s="36" t="s">
@@ -7408,7 +7542,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="120">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="66" t="s">
         <v>311</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -7416,13 +7550,13 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="240">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="12" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>326</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -7430,227 +7564,232 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="255">
-      <c r="A10" s="62"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="12" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150">
-      <c r="A11" s="62"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="12" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150">
-      <c r="A12" s="68" t="s">
-        <v>454</v>
+      <c r="A12" s="69" t="s">
+        <v>447</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="22" customFormat="1" ht="105">
-      <c r="A13" s="68"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="36" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="69" t="s">
+        <v>425</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60">
+      <c r="A15" s="69"/>
+      <c r="B15" s="36" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="69"/>
+      <c r="B16" s="36" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="69" t="s">
+        <v>429</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="135">
+      <c r="A18" s="69"/>
+      <c r="B18" s="36" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="69"/>
+      <c r="B19" s="36" t="s">
         <v>432</v>
       </c>
-      <c r="B14" s="36" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="69"/>
+      <c r="B20" s="36" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="68"/>
-      <c r="B15" s="36" t="s">
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="69"/>
+      <c r="B21" s="36" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="68"/>
-      <c r="B16" s="36" t="s">
+    <row r="22" spans="1:2" ht="45">
+      <c r="A22" s="70" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="68" t="s">
+      <c r="B22" s="36" t="s">
         <v>436</v>
       </c>
-      <c r="B17" s="36" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="45">
+      <c r="A23" s="70"/>
+      <c r="B23" s="36" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="135">
-      <c r="A18" s="68"/>
-      <c r="B18" s="36" t="s">
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="70"/>
+      <c r="B24" s="36" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="68"/>
-      <c r="B19" s="36" t="s">
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="70"/>
+      <c r="B25" s="36" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="68"/>
-      <c r="B20" s="36" t="s">
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="70"/>
+      <c r="B26" s="36" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="68"/>
-      <c r="B21" s="36" t="s">
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="69" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="69" t="s">
+      <c r="B27" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="B22" s="36" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="165">
+      <c r="A28" s="69"/>
+      <c r="B28" s="36" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="45">
-      <c r="A23" s="69"/>
-      <c r="B23" s="36" t="s">
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="69"/>
+      <c r="B29" s="36" t="s">
         <v>444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="69"/>
-      <c r="B24" s="36" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="69"/>
-      <c r="B25" s="36" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="69"/>
-      <c r="B26" s="36" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="68" t="s">
-        <v>448</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="165">
-      <c r="A28" s="68"/>
-      <c r="B28" s="36" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="68"/>
-      <c r="B29" s="36" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
       <c r="A30" s="50" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60">
       <c r="A31" s="36" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
       <c r="A32" s="36" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75">
       <c r="A33" s="36" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="68" t="s">
-        <v>462</v>
+      <c r="A34" s="69" t="s">
+        <v>455</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="68"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="36" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="120">
       <c r="A36" s="36" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="68" t="s">
-        <v>467</v>
+      <c r="A37" s="69" t="s">
+        <v>460</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="68"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="36" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="135">
       <c r="A39" s="36" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="68" t="s">
-        <v>467</v>
+      <c r="A40" s="69" t="s">
+        <v>460</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="68"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="36" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A16"/>
@@ -7658,11 +7797,6 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
@@ -7697,10 +7831,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="59"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
@@ -7751,7 +7885,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="66" t="s">
         <v>249</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -7759,25 +7893,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="65"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="7" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="70"/>
+      <c r="B13" s="71"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="66" t="s">
         <v>254</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -7785,13 +7919,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="65"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="7" t="s">
         <v>257</v>
       </c>
@@ -7821,7 +7955,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="66" t="s">
         <v>264</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -7829,7 +7963,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="65"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="7" t="s">
         <v>266</v>
       </c>
@@ -7907,7 +8041,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="66" t="s">
         <v>285</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -7915,13 +8049,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="65"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="7" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="65"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="7" t="s">
         <v>288</v>
       </c>
@@ -7979,10 +8113,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="B10" s="58"/>
+      <c r="B10" s="59"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -7993,10 +8127,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="B15" s="58"/>
+      <c r="B15" s="59"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="569">
   <si>
     <t>Main Topic</t>
   </si>
@@ -2476,9 +2476,6 @@
     <t>HttpServletRequest curRequest = ((ServletRequestAttributes) RequestContextHolder.currentRequestAttributes()).getRequest();</t>
   </si>
   <si>
-    <t>Spring Data</t>
-  </si>
-  <si>
     <t>&lt;beans profile="e1"&gt;
         &lt;bean class="org.springframework.beans.factory.config.PropertyPlaceholderConfigurer"&gt;
             &lt;property name="locations"&gt;
@@ -4303,6 +4300,22 @@
       </rPr>
       <t xml:space="preserve"> package in SpringBootPractice project</t>
     </r>
+  </si>
+  <si>
+    <t>Spring Data JPA</t>
+  </si>
+  <si>
+    <t>What is Spring Data JPA?</t>
+  </si>
+  <si>
+    <t>1. Enhances standard JPA with Spring
+2. Simplifies Data access layer</t>
+  </si>
+  <si>
+    <t>Spring with JPA and Hibernate by Bryan Hansen</t>
+  </si>
+  <si>
+    <t>Spring ORM/JPA</t>
   </si>
 </sst>
 </file>
@@ -4516,7 +4529,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4657,6 +4670,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5033,7 +5049,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5048,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>12</v>
@@ -5085,7 +5101,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="14" t="s">
-        <v>6</v>
+        <v>568</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="20"/>
@@ -5140,33 +5156,33 @@
         <v>315</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="15" t="s">
-        <v>333</v>
+        <v>564</v>
       </c>
       <c r="B15" s="15"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>348</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="15"/>
     </row>
   </sheetData>
@@ -5280,13 +5296,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="60"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="66" t="s">
         <v>113</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -5294,7 +5310,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="66"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="7" t="s">
         <v>115</v>
       </c>
@@ -5304,7 +5320,7 @@
         <v>116</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
@@ -5340,7 +5356,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="73" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -5348,7 +5364,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="7" t="s">
         <v>127</v>
       </c>
@@ -5362,7 +5378,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="73" t="s">
         <v>130</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -5370,7 +5386,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="7" t="s">
         <v>132</v>
       </c>
@@ -5402,9 +5418,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5422,447 +5438,447 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="58" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="59"/>
+      <c r="A2" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" s="60"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>391</v>
-      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="60"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>363</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
       <c r="A8" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>365</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>367</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>369</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="120">
       <c r="A11" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>372</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
       <c r="A13" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>378</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>380</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>382</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>385</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="69" t="s">
-        <v>394</v>
+      <c r="A19" s="70" t="s">
+        <v>393</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="69"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
       <c r="A21" s="32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="B23" s="32" t="s">
         <v>396</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>399</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="75">
       <c r="A25" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="B26" s="27" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="71" t="s">
+        <v>404</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="70" t="s">
+    <row r="28" spans="1:2" ht="120">
+      <c r="A28" s="71"/>
+      <c r="B28" s="32" t="s">
         <v>405</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="70"/>
-      <c r="B28" s="32" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>407</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>409</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
       <c r="A32" s="33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="105">
       <c r="A33" s="57" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="90">
       <c r="A34" s="33" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="225">
       <c r="A35" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B38" s="57" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="22" customFormat="1">
       <c r="A39" s="48" t="s">
+        <v>509</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>510</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="105">
       <c r="A40" s="48" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="70" t="s">
-        <v>521</v>
+      <c r="A41" s="71" t="s">
+        <v>520</v>
       </c>
       <c r="B41" s="51" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="210">
+      <c r="A42" s="71"/>
+      <c r="B42" s="51" t="s">
         <v>519</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="210">
-      <c r="A42" s="70"/>
-      <c r="B42" s="51" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
       <c r="A43" s="52" t="s">
+        <v>521</v>
+      </c>
+      <c r="B43" s="52" t="s">
         <v>522</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="52" t="s">
+        <v>523</v>
+      </c>
+      <c r="B44" s="52" t="s">
         <v>524</v>
       </c>
-      <c r="B44" s="52" t="s">
+    </row>
+    <row r="45" spans="1:2" ht="30">
+      <c r="A45" s="75" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="74" t="s">
+      <c r="B45" s="52" t="s">
         <v>526</v>
       </c>
-      <c r="B45" s="52" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="120">
+      <c r="A46" s="75"/>
+      <c r="B46" s="52" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="75"/>
+      <c r="B47" s="27" t="s">
         <v>527</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="120">
-      <c r="A46" s="74"/>
-      <c r="B46" s="52" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="74"/>
-      <c r="B47" s="27" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
       <c r="A48" s="53" t="s">
+        <v>529</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45" customHeight="1">
+      <c r="A49" s="75" t="s">
         <v>530</v>
       </c>
-      <c r="B48" s="56" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="45" customHeight="1">
-      <c r="A49" s="74" t="s">
+      <c r="B49" s="53" t="s">
         <v>531</v>
       </c>
-      <c r="B49" s="53" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="75"/>
+      <c r="B50" s="53" t="s">
         <v>532</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="74"/>
-      <c r="B50" s="53" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
       <c r="A51" s="53" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="22" customFormat="1" ht="30">
       <c r="A52" s="53" t="s">
+        <v>538</v>
+      </c>
+      <c r="B52" s="53" t="s">
         <v>539</v>
-      </c>
-      <c r="B52" s="53" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
       <c r="A53" s="53" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B53" s="53" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="53" t="s">
+        <v>536</v>
+      </c>
+      <c r="B54" s="53" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="75" t="s">
         <v>537</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B55" s="53" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="74" t="s">
-        <v>538</v>
-      </c>
-      <c r="B55" s="53" t="s">
+    <row r="56" spans="1:2" ht="60">
+      <c r="A56" s="75"/>
+      <c r="B56" s="53" t="s">
         <v>543</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="74"/>
-      <c r="B56" s="53" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="53" t="s">
+        <v>544</v>
+      </c>
+      <c r="B57" s="53" t="s">
         <v>545</v>
       </c>
-      <c r="B57" s="53" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="74" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="73" t="s">
+      <c r="B58" s="55" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="74"/>
+      <c r="B59" s="54" t="s">
         <v>547</v>
-      </c>
-      <c r="B58" s="55" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="73"/>
-      <c r="B59" s="54" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
       <c r="A60" s="55" t="s">
+        <v>549</v>
+      </c>
+      <c r="B60" s="55" t="s">
         <v>550</v>
-      </c>
-      <c r="B60" s="55" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="55" t="s">
+        <v>551</v>
+      </c>
+      <c r="B61" s="55" t="s">
         <v>552</v>
-      </c>
-      <c r="B61" s="55" t="s">
-        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -5897,7 +5913,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5915,10 +5931,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>317</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="60"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -5929,17 +5945,17 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="59" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="60"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="12" t="s">
         <v>319</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5967,7 +5983,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="75" t="s">
         <v>330</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -5975,93 +5991,93 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="74"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="29" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="75">
       <c r="A13" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>339</v>
-      </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="69" t="s">
-        <v>341</v>
+      <c r="A14" s="70" t="s">
+        <v>340</v>
       </c>
       <c r="B14" s="29" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="180">
+      <c r="A15" s="70"/>
+      <c r="B15" s="29" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="69"/>
-      <c r="B15" s="29" t="s">
-        <v>354</v>
-      </c>
-    </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="69"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="22" customFormat="1" ht="30">
       <c r="A17" s="29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90">
       <c r="A18" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="22" customFormat="1" ht="120">
       <c r="A19" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>358</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
       <c r="A20" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>343</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="B22" s="27" t="s">
         <v>350</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>361</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -6084,17 +6100,17 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51.7109375" customWidth="1"/>
-    <col min="2" max="2" width="111.28515625" customWidth="1"/>
+    <col min="2" max="2" width="135.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6105,7 +6121,31 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" s="60"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="60"/>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>566</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A15" display="Topics"/>
     <hyperlink ref="B1" location="Data!A2" display="Up"/>
@@ -6116,10 +6156,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -6138,69 +6178,69 @@
         <v>12</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="22" customFormat="1">
-      <c r="A2" s="58" t="s">
-        <v>500</v>
-      </c>
-      <c r="B2" s="59"/>
+      <c r="A2" s="59" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2" s="60"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="22" customFormat="1"/>
     <row r="5" spans="1:3">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="60"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>374</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>375</v>
-      </c>
       <c r="C6" s="22" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="62"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>482</v>
-      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="60"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
@@ -6236,40 +6276,40 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>445</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>467</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="60"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>376</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6305,29 +6345,52 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="58" t="s">
-        <v>333</v>
-      </c>
-      <c r="B28" s="59"/>
+      <c r="A28" s="59" t="s">
+        <v>564</v>
+      </c>
+      <c r="B28" s="60"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>556</v>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="60"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A2:B2"/>
@@ -6379,21 +6442,21 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="60" t="s">
-        <v>424</v>
-      </c>
-      <c r="B2" s="61"/>
+      <c r="A2" s="61" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" s="62"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1"/>
     <row r="4" spans="1:2" s="22" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="62"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6401,7 +6464,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -6423,7 +6486,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="66" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -6431,7 +6494,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="66"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -6441,7 +6504,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
@@ -6657,7 +6720,7 @@
         <v>75</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
@@ -6709,7 +6772,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="67" t="s">
         <v>88</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -6717,19 +6780,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="66"/>
+      <c r="A47" s="67"/>
       <c r="B47" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="66"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="66" t="s">
+      <c r="A49" s="67" t="s">
         <v>92</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -6737,19 +6800,19 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="66"/>
+      <c r="A50" s="67"/>
       <c r="B50" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90">
-      <c r="A51" s="66"/>
+      <c r="A51" s="67"/>
       <c r="B51" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75">
-      <c r="A52" s="66" t="s">
+      <c r="A52" s="67" t="s">
         <v>96</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -6757,9 +6820,9 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="66"/>
+      <c r="A53" s="67"/>
       <c r="B53" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -6811,7 +6874,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="64" t="s">
+      <c r="A60" s="65" t="s">
         <v>109</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -6819,20 +6882,20 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="240">
-      <c r="A61" s="64"/>
+      <c r="A61" s="65"/>
       <c r="B61" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="180">
-      <c r="A62" s="64"/>
+      <c r="A62" s="65"/>
       <c r="B62" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="30">
       <c r="A63" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>314</v>
@@ -6840,138 +6903,138 @@
     </row>
     <row r="64" spans="1:2" ht="135">
       <c r="A64" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="150">
       <c r="A65" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>336</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
       <c r="A66" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="B66" s="35" t="s">
         <v>421</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="30">
       <c r="A67" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="105">
+      <c r="A68" s="64" t="s">
+        <v>477</v>
+      </c>
+      <c r="B68" s="38" t="s">
         <v>474</v>
       </c>
-      <c r="B67" s="38" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="105">
-      <c r="A68" s="63" t="s">
+    </row>
+    <row r="69" spans="1:2" ht="120">
+      <c r="A69" s="64"/>
+      <c r="B69" s="38" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="75">
+      <c r="A70" s="64"/>
+      <c r="B70" s="38" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="60">
+      <c r="A71" s="64" t="s">
         <v>478</v>
       </c>
-      <c r="B68" s="38" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="120">
-      <c r="A69" s="63"/>
-      <c r="B69" s="38" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="75">
-      <c r="A70" s="63"/>
-      <c r="B70" s="38" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="63" t="s">
-        <v>479</v>
-      </c>
       <c r="B71" s="46" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="60">
-      <c r="A72" s="63"/>
+      <c r="A72" s="64"/>
       <c r="B72" s="46" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30">
       <c r="A73" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="B73" s="41" t="s">
         <v>483</v>
-      </c>
-      <c r="B73" s="41" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="60">
       <c r="A74" s="40" t="s">
+        <v>484</v>
+      </c>
+      <c r="B74" s="41" t="s">
         <v>485</v>
-      </c>
-      <c r="B74" s="41" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="45">
       <c r="A75" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="B75" s="41" t="s">
         <v>487</v>
-      </c>
-      <c r="B75" s="41" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30">
       <c r="A76" s="40" t="s">
+        <v>488</v>
+      </c>
+      <c r="B76" s="41" t="s">
         <v>489</v>
-      </c>
-      <c r="B76" s="41" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="75">
       <c r="A77" s="44" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B77" s="41" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="42" t="s">
+        <v>492</v>
+      </c>
+      <c r="B78" s="43" t="s">
         <v>493</v>
-      </c>
-      <c r="B78" s="43" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="45">
       <c r="A79" s="42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="62" t="s">
+      <c r="A80" s="63" t="s">
+        <v>504</v>
+      </c>
+      <c r="B80" s="46" t="s">
         <v>505</v>
       </c>
-      <c r="B80" s="46" t="s">
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="63"/>
+      <c r="B81" s="46" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="62"/>
-      <c r="B81" s="46" t="s">
-        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -7004,7 +7067,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7022,10 +7085,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="60"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -7235,9 +7298,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7255,10 +7318,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="60"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -7304,10 +7367,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="60"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -7514,10 +7577,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="22" customFormat="1">
-      <c r="A2" s="58" t="s">
-        <v>424</v>
-      </c>
-      <c r="B2" s="59"/>
+      <c r="A2" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" s="60"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1">
       <c r="A3" s="8"/>
@@ -7528,10 +7591,10 @@
       <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>318</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="60"/>
     </row>
     <row r="6" spans="1:2" ht="75">
       <c r="A6" s="36" t="s">
@@ -7542,7 +7605,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="120">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="67" t="s">
         <v>311</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -7550,13 +7613,13 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="240">
-      <c r="A8" s="66"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="12" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="64" t="s">
         <v>326</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -7564,223 +7627,223 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="255">
-      <c r="A10" s="63"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="12" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150">
-      <c r="A11" s="63"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="12" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150">
-      <c r="A12" s="69" t="s">
-        <v>447</v>
+      <c r="A12" s="70" t="s">
+        <v>446</v>
       </c>
       <c r="B12" s="36" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="22" customFormat="1" ht="105">
+      <c r="A13" s="70"/>
+      <c r="B13" s="36" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="22" customFormat="1" ht="105">
-      <c r="A13" s="69"/>
-      <c r="B13" s="36" t="s">
-        <v>472</v>
-      </c>
-    </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="70" t="s">
+        <v>424</v>
+      </c>
+      <c r="B14" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="B14" s="36" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="60">
+      <c r="A15" s="70"/>
+      <c r="B15" s="36" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="69"/>
-      <c r="B15" s="36" t="s">
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="70"/>
+      <c r="B16" s="36" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="69"/>
-      <c r="B16" s="36" t="s">
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="70" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="69" t="s">
+      <c r="B17" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="B17" s="36" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="135">
+      <c r="A18" s="70"/>
+      <c r="B18" s="36" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="135">
-      <c r="A18" s="69"/>
-      <c r="B18" s="36" t="s">
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="70"/>
+      <c r="B19" s="36" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="69"/>
-      <c r="B19" s="36" t="s">
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="70"/>
+      <c r="B20" s="36" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="69"/>
-      <c r="B20" s="36" t="s">
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="70"/>
+      <c r="B21" s="36" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="69"/>
-      <c r="B21" s="36" t="s">
+    <row r="22" spans="1:2" ht="45">
+      <c r="A22" s="71" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="70" t="s">
+      <c r="B22" s="36" t="s">
         <v>435</v>
       </c>
-      <c r="B22" s="36" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="45">
+      <c r="A23" s="71"/>
+      <c r="B23" s="36" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="45">
-      <c r="A23" s="70"/>
-      <c r="B23" s="36" t="s">
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="71"/>
+      <c r="B24" s="36" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="70"/>
-      <c r="B24" s="36" t="s">
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="71"/>
+      <c r="B25" s="36" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="70"/>
-      <c r="B25" s="36" t="s">
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="71"/>
+      <c r="B26" s="36" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="70"/>
-      <c r="B26" s="36" t="s">
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="70" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="69" t="s">
+      <c r="B27" s="36" t="s">
         <v>441</v>
       </c>
-      <c r="B27" s="36" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="165">
+      <c r="A28" s="70"/>
+      <c r="B28" s="36" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="165">
-      <c r="A28" s="69"/>
-      <c r="B28" s="36" t="s">
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="70"/>
+      <c r="B29" s="36" t="s">
         <v>443</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="69"/>
-      <c r="B29" s="36" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
       <c r="A30" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60">
       <c r="A31" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="B31" s="36" t="s">
         <v>449</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
       <c r="A32" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="B32" s="36" t="s">
         <v>451</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75">
       <c r="A33" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="B33" s="36" t="s">
         <v>453</v>
       </c>
-      <c r="B33" s="36" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="70" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="69" t="s">
+      <c r="B34" s="36" t="s">
         <v>455</v>
       </c>
-      <c r="B34" s="36" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="75">
+      <c r="A35" s="70"/>
+      <c r="B35" s="36" t="s">
         <v>456</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="69"/>
-      <c r="B35" s="36" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="120">
       <c r="A36" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="B36" s="36" t="s">
         <v>458</v>
       </c>
-      <c r="B36" s="36" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="70" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="69" t="s">
+      <c r="B37" s="36" t="s">
         <v>460</v>
       </c>
-      <c r="B37" s="36" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="70"/>
+      <c r="B38" s="36" t="s">
         <v>461</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="69"/>
-      <c r="B38" s="36" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="135">
       <c r="A39" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="B39" s="36" t="s">
         <v>463</v>
       </c>
-      <c r="B39" s="36" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="70" t="s">
+        <v>459</v>
+      </c>
+      <c r="B40" s="36" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="69" t="s">
-        <v>460</v>
-      </c>
-      <c r="B40" s="36" t="s">
+    <row r="41" spans="1:2" ht="60">
+      <c r="A41" s="70"/>
+      <c r="B41" s="36" t="s">
         <v>465</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="69"/>
-      <c r="B41" s="36" t="s">
-        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -7831,10 +7894,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="60"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
@@ -7885,7 +7948,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="67" t="s">
         <v>249</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -7893,25 +7956,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="66"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="66"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="7" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="71"/>
+      <c r="B13" s="72"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="67" t="s">
         <v>254</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -7919,13 +7982,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="66"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="66"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="7" t="s">
         <v>257</v>
       </c>
@@ -7955,7 +8018,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="67" t="s">
         <v>264</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -7963,7 +8026,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="66"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="7" t="s">
         <v>266</v>
       </c>
@@ -8041,7 +8104,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="67" t="s">
         <v>285</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -8049,13 +8112,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="66"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="7" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="66"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="7" t="s">
         <v>288</v>
       </c>
@@ -8113,10 +8176,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="60"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -8127,10 +8190,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="60"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="595">
   <si>
     <t>Main Topic</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Spring AOP</t>
-  </si>
-  <si>
-    <t>Spring JDBS/DAO</t>
   </si>
   <si>
     <t>Java based configurations</t>
@@ -4316,6 +4313,102 @@
   </si>
   <si>
     <t>Spring ORM/JPA</t>
+  </si>
+  <si>
+    <t>Spring Batch</t>
+  </si>
+  <si>
+    <t>Spring Data Mango</t>
+  </si>
+  <si>
+    <t>Github link</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/SpringDataPractice.git</t>
+  </si>
+  <si>
+    <t>Create mavenized project using</t>
+  </si>
+  <si>
+    <t>maven archetype:generate ------</t>
+  </si>
+  <si>
+    <t>Add spring-data-jpa dependency to pom.xml</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+   &lt;groupId&gt;org.springframework.data&lt;/groupId&gt;
+   &lt;artifactId&gt;spring-data-jpa&lt;/artifactId&gt;
+   &lt;version&gt;1.10.5.RELEASE&lt;/version&gt;
+  &lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>If we are using xml file, we need to add this entry in spring xml configuration file</t>
+  </si>
+  <si>
+    <t>&lt;jpa:repositories base-package="spring.data.jpa.repositories"/&gt;</t>
+  </si>
+  <si>
+    <t>Using this spring will scan the package for repository classes</t>
+  </si>
+  <si>
+    <t>If we are using Spring Boot (or) Java Configurations we need to use this annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @EnableJpaRepositories</t>
+  </si>
+  <si>
+    <t>org.springframework.data.jpa.repository.JpaRepository</t>
+  </si>
+  <si>
+    <t>All Spring data repository interfaces has to extend this interface</t>
+  </si>
+  <si>
+    <t>JpaRepository class hierarchy</t>
+  </si>
+  <si>
+    <t>Refer images\3_Spring\3_Spring_Data\1_Jpa_Repository_call_hierarchy.jpg</t>
+  </si>
+  <si>
+    <t>query parser will match these keywords</t>
+  </si>
+  <si>
+    <t>1. find..By
+2. query..By
+3. read..By
+4. count..By
+5. get..By</t>
+  </si>
+  <si>
+    <t>Spring Data JPA Auditing annotation</t>
+  </si>
+  <si>
+    <t>1. @CreatedBy
+2. @CreatedDate
+3. @LastModifiedBy
+3. @LastModifiedDate</t>
+  </si>
+  <si>
+    <t>Above annotation have to be declared in entity class</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+public class Model{
+@CreatedBy private User user;
+@CreatedDate private DateTime createDate;
+}</t>
+  </si>
+  <si>
+    <t>Auditing implementation in Spring Data JPA</t>
+  </si>
+  <si>
+    <t>Refer images\3_Spring\3_Spring_Data\2_Auding_implementation.jpg</t>
+  </si>
+  <si>
+    <t>Locking implementation in Spring Data JPA</t>
+  </si>
+  <si>
+    <t>Refer images\3_Spring\3_Spring_Data\3_Locking_implementation.jpg</t>
   </si>
 </sst>
 </file>
@@ -4529,7 +4622,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4670,6 +4763,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5045,11 +5150,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5064,30 +5169,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="14" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="1"/>
@@ -5101,7 +5206,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="20"/>
@@ -5129,61 +5234,68 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B10" s="15"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B11" s="15"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B12" s="15"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B13" s="15"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B15" s="15"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>347</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="22"/>
+      <c r="A18" s="22" t="s">
+        <v>568</v>
+      </c>
       <c r="B18" s="15"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="22" t="s">
+        <v>569</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5225,10 +5337,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -5257,10 +5369,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -5289,114 +5401,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="60"/>
+      <c r="A4" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="64"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="120">
+      <c r="A6" s="71"/>
+      <c r="B6" s="7" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="67"/>
-      <c r="B6" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
       <c r="A8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="90">
       <c r="A9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
       <c r="A11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="7" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="77" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="73" t="s">
+      <c r="B12" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="45">
+      <c r="A13" s="77"/>
+      <c r="B13" s="7" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="73"/>
-      <c r="B13" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="7" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="77" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="73" t="s">
+      <c r="B15" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="7" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="285">
+      <c r="A16" s="77"/>
+      <c r="B16" s="7" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="73"/>
-      <c r="B16" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5419,8 +5531,8 @@
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5431,454 +5543,454 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="59" t="s">
-        <v>423</v>
-      </c>
-      <c r="B2" s="60"/>
+      <c r="A2" s="63" t="s">
+        <v>422</v>
+      </c>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>390</v>
-      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="59" t="s">
-        <v>308</v>
-      </c>
-      <c r="B6" s="60"/>
+      <c r="A6" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="64"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>362</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
       <c r="A8" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>364</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>366</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>368</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="120">
       <c r="A11" s="32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>371</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
       <c r="A13" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>377</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>379</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>381</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>384</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>388</v>
-      </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="70" t="s">
-        <v>393</v>
+      <c r="A19" s="74" t="s">
+        <v>392</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="70"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
       <c r="A21" s="32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="32" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="B23" s="32" t="s">
         <v>395</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>398</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="75">
       <c r="A25" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="B26" s="27" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="71" t="s">
+    <row r="28" spans="1:2" ht="120">
+      <c r="A28" s="75"/>
+      <c r="B28" s="32" t="s">
         <v>404</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="71"/>
-      <c r="B28" s="32" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>406</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>408</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
       <c r="A32" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="105">
       <c r="A33" s="57" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="90">
       <c r="A34" s="33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="225">
       <c r="A35" s="35" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B38" s="57" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="22" customFormat="1">
       <c r="A39" s="48" t="s">
+        <v>508</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>509</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="105">
       <c r="A40" s="48" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="71" t="s">
-        <v>520</v>
+      <c r="A41" s="75" t="s">
+        <v>519</v>
       </c>
       <c r="B41" s="51" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="210">
+      <c r="A42" s="75"/>
+      <c r="B42" s="51" t="s">
         <v>518</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="210">
-      <c r="A42" s="71"/>
-      <c r="B42" s="51" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
       <c r="A43" s="52" t="s">
+        <v>520</v>
+      </c>
+      <c r="B43" s="52" t="s">
         <v>521</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="52" t="s">
+        <v>522</v>
+      </c>
+      <c r="B44" s="52" t="s">
         <v>523</v>
       </c>
-      <c r="B44" s="52" t="s">
+    </row>
+    <row r="45" spans="1:2" ht="30">
+      <c r="A45" s="79" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="75" t="s">
+      <c r="B45" s="52" t="s">
         <v>525</v>
       </c>
-      <c r="B45" s="52" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="120">
+      <c r="A46" s="79"/>
+      <c r="B46" s="52" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="79"/>
+      <c r="B47" s="27" t="s">
         <v>526</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="120">
-      <c r="A46" s="75"/>
-      <c r="B46" s="52" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="75"/>
-      <c r="B47" s="27" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
       <c r="A48" s="53" t="s">
+        <v>528</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45" customHeight="1">
+      <c r="A49" s="79" t="s">
         <v>529</v>
       </c>
-      <c r="B48" s="56" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="45" customHeight="1">
-      <c r="A49" s="75" t="s">
+      <c r="B49" s="53" t="s">
         <v>530</v>
       </c>
-      <c r="B49" s="53" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="79"/>
+      <c r="B50" s="53" t="s">
         <v>531</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="75"/>
-      <c r="B50" s="53" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
       <c r="A51" s="53" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="22" customFormat="1" ht="30">
       <c r="A52" s="53" t="s">
+        <v>537</v>
+      </c>
+      <c r="B52" s="53" t="s">
         <v>538</v>
-      </c>
-      <c r="B52" s="53" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
       <c r="A53" s="53" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B53" s="53" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="53" t="s">
+        <v>535</v>
+      </c>
+      <c r="B54" s="53" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="79" t="s">
         <v>536</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B55" s="53" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="75" t="s">
-        <v>537</v>
-      </c>
-      <c r="B55" s="53" t="s">
+    <row r="56" spans="1:2" ht="60">
+      <c r="A56" s="79"/>
+      <c r="B56" s="53" t="s">
         <v>542</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="75"/>
-      <c r="B56" s="53" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="53" t="s">
+        <v>543</v>
+      </c>
+      <c r="B57" s="53" t="s">
         <v>544</v>
       </c>
-      <c r="B57" s="53" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="78" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="74" t="s">
+      <c r="B58" s="55" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="54" t="s">
         <v>546</v>
-      </c>
-      <c r="B58" s="55" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="74"/>
-      <c r="B59" s="54" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
       <c r="A60" s="55" t="s">
+        <v>548</v>
+      </c>
+      <c r="B60" s="55" t="s">
         <v>549</v>
-      </c>
-      <c r="B60" s="55" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="55" t="s">
+        <v>550</v>
+      </c>
+      <c r="B61" s="55" t="s">
         <v>551</v>
-      </c>
-      <c r="B61" s="55" t="s">
-        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -5924,17 +6036,17 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="59" t="s">
-        <v>317</v>
-      </c>
-      <c r="B2" s="60"/>
+      <c r="A2" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -5945,139 +6057,139 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="59" t="s">
-        <v>318</v>
-      </c>
-      <c r="B6" s="60"/>
+      <c r="A6" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" s="64"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>320</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>322</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
       <c r="A10" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>325</v>
-      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="79" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="B11" s="29" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="79"/>
+      <c r="B12" s="29" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="75"/>
-      <c r="B12" s="29" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="75">
       <c r="A13" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>338</v>
-      </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="70" t="s">
-        <v>340</v>
+      <c r="A14" s="74" t="s">
+        <v>339</v>
       </c>
       <c r="B14" s="29" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="180">
+      <c r="A15" s="74"/>
+      <c r="B15" s="29" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="70"/>
-      <c r="B15" s="29" t="s">
-        <v>353</v>
-      </c>
-    </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="70"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="22" customFormat="1" ht="30">
       <c r="A17" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90">
       <c r="A18" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="22" customFormat="1" ht="120">
       <c r="A19" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>357</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
       <c r="A20" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>342</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="B22" s="27" t="s">
         <v>349</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>360</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -6100,55 +6212,159 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" style="59" customWidth="1"/>
     <col min="2" max="2" width="135.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="59" t="s">
-        <v>423</v>
-      </c>
-      <c r="B2" s="60"/>
+      <c r="A2" s="63" t="s">
+        <v>422</v>
+      </c>
+      <c r="B2" s="64"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="59" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="59" t="s">
-        <v>318</v>
-      </c>
-      <c r="B7" s="60"/>
+      <c r="A7" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="64"/>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="59" t="s">
+        <v>564</v>
+      </c>
+      <c r="B8" s="58" t="s">
         <v>565</v>
       </c>
-      <c r="B8" s="58" t="s">
-        <v>566</v>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="59" t="s">
+        <v>572</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="75">
+      <c r="A10" s="59" t="s">
+        <v>574</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" customHeight="1">
+      <c r="A11" s="78" t="s">
+        <v>576</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="78"/>
+      <c r="B12" s="22" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="59" t="s">
+        <v>579</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="60" t="s">
+        <v>582</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="60" t="s">
+        <v>583</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="75">
+      <c r="A16" s="61" t="s">
+        <v>585</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="60">
+      <c r="A17" s="62" t="s">
+        <v>587</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="75">
+      <c r="A18" s="62" t="s">
+        <v>589</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="62" t="s">
+        <v>591</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="62" t="s">
+        <v>593</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A15" display="Topics"/>
     <hyperlink ref="B1" location="Data!A2" display="Up"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6172,220 +6388,220 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C1" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="22" customFormat="1">
-      <c r="A2" s="59" t="s">
-        <v>499</v>
-      </c>
-      <c r="B2" s="60"/>
+      <c r="A2" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="22" customFormat="1"/>
     <row r="5" spans="1:3">
-      <c r="A5" s="59" t="s">
-        <v>307</v>
-      </c>
-      <c r="B5" s="60"/>
+      <c r="A5" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="64"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>374</v>
-      </c>
       <c r="C6" s="22" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="62"/>
+      <c r="A9" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="66"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>480</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>481</v>
-      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="60"/>
+      <c r="B12" s="64"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>227</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>229</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>231</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>444</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>466</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>469</v>
-      </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="59" t="s">
-        <v>291</v>
-      </c>
-      <c r="B21" s="60"/>
+      <c r="A21" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="B21" s="64"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>375</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>302</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>303</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>304</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>306</v>
-      </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="59" t="s">
-        <v>564</v>
-      </c>
-      <c r="B28" s="60"/>
+      <c r="A28" s="63" t="s">
+        <v>563</v>
+      </c>
+      <c r="B28" s="64"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="60"/>
+      <c r="B33" s="64"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -6435,606 +6651,606 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="61" t="s">
-        <v>423</v>
-      </c>
-      <c r="B2" s="62"/>
+      <c r="A2" s="65" t="s">
+        <v>422</v>
+      </c>
+      <c r="B2" s="66"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1"/>
     <row r="4" spans="1:2" s="22" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="62"/>
+      <c r="A5" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="66"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="73"/>
+      <c r="B7" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="69"/>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="135">
       <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="345">
       <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="45">
+      <c r="A10" s="70" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="66" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="71"/>
+      <c r="B11" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="67"/>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
       <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="60">
       <c r="A15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="120">
       <c r="A17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60">
       <c r="A18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60">
       <c r="A20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
       <c r="A21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
       <c r="A22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
       <c r="A23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="75">
       <c r="A24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="105">
       <c r="A25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
       <c r="A26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="75">
       <c r="A30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="105">
       <c r="A32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60">
       <c r="A33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
       <c r="A34" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="120">
       <c r="A35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="45">
       <c r="A36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="165">
       <c r="A37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="255">
       <c r="A38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
       <c r="A40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
       <c r="A41" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="A42" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
       <c r="A43" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="45">
       <c r="A44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
       <c r="A45" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="7" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="45">
+      <c r="A46" s="71" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="67" t="s">
+      <c r="B46" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="7" t="s">
+    </row>
+    <row r="47" spans="1:2" ht="45">
+      <c r="A47" s="71"/>
+      <c r="B47" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="67"/>
-      <c r="B47" s="7" t="s">
+    <row r="48" spans="1:2" ht="60">
+      <c r="A48" s="71"/>
+      <c r="B48" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="67"/>
-      <c r="B48" s="7" t="s">
+    <row r="49" spans="1:2" ht="45">
+      <c r="A49" s="71" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="67" t="s">
+      <c r="B49" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="7" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="71"/>
+      <c r="B50" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="67"/>
-      <c r="B50" s="7" t="s">
+    <row r="51" spans="1:2" ht="90">
+      <c r="A51" s="71"/>
+      <c r="B51" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="90">
-      <c r="A51" s="67"/>
-      <c r="B51" s="7" t="s">
+    <row r="52" spans="1:2" ht="75">
+      <c r="A52" s="71" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="75">
-      <c r="A52" s="67" t="s">
+      <c r="B52" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="67"/>
+      <c r="A53" s="71"/>
       <c r="B53" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="30">
       <c r="A57" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30">
       <c r="A58" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
       <c r="A59" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B59" s="7" t="s">
+    </row>
+    <row r="60" spans="1:2" ht="30">
+      <c r="A60" s="69" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="65" t="s">
+      <c r="B60" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B60" s="7" t="s">
+    </row>
+    <row r="61" spans="1:2" ht="240">
+      <c r="A61" s="69"/>
+      <c r="B61" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="240">
-      <c r="A61" s="65"/>
-      <c r="B61" s="7" t="s">
+    <row r="62" spans="1:2" ht="180">
+      <c r="A62" s="69"/>
+      <c r="B62" s="7" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="180">
-      <c r="A62" s="65"/>
-      <c r="B62" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="30">
       <c r="A63" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="135">
       <c r="A64" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="150">
       <c r="A65" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>335</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
       <c r="A66" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="B66" s="35" t="s">
         <v>420</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="30">
       <c r="A67" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="105">
+      <c r="A68" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="B68" s="38" t="s">
         <v>473</v>
       </c>
-      <c r="B67" s="38" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="105">
-      <c r="A68" s="64" t="s">
+    </row>
+    <row r="69" spans="1:2" ht="120">
+      <c r="A69" s="68"/>
+      <c r="B69" s="38" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="75">
+      <c r="A70" s="68"/>
+      <c r="B70" s="38" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="60">
+      <c r="A71" s="68" t="s">
         <v>477</v>
       </c>
-      <c r="B68" s="38" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="120">
-      <c r="A69" s="64"/>
-      <c r="B69" s="38" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="75">
-      <c r="A70" s="64"/>
-      <c r="B70" s="38" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="64" t="s">
-        <v>478</v>
-      </c>
       <c r="B71" s="46" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="60">
-      <c r="A72" s="64"/>
+      <c r="A72" s="68"/>
       <c r="B72" s="46" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30">
       <c r="A73" s="40" t="s">
+        <v>481</v>
+      </c>
+      <c r="B73" s="41" t="s">
         <v>482</v>
-      </c>
-      <c r="B73" s="41" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="60">
       <c r="A74" s="40" t="s">
+        <v>483</v>
+      </c>
+      <c r="B74" s="41" t="s">
         <v>484</v>
-      </c>
-      <c r="B74" s="41" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="45">
       <c r="A75" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="B75" s="41" t="s">
         <v>486</v>
-      </c>
-      <c r="B75" s="41" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30">
       <c r="A76" s="40" t="s">
+        <v>487</v>
+      </c>
+      <c r="B76" s="41" t="s">
         <v>488</v>
-      </c>
-      <c r="B76" s="41" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="75">
       <c r="A77" s="44" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B77" s="41" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="B78" s="43" t="s">
         <v>492</v>
-      </c>
-      <c r="B78" s="43" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="45">
       <c r="A79" s="42" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="63" t="s">
+      <c r="A80" s="67" t="s">
+        <v>503</v>
+      </c>
+      <c r="B80" s="46" t="s">
         <v>504</v>
       </c>
-      <c r="B80" s="46" t="s">
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="67"/>
+      <c r="B81" s="46" t="s">
         <v>505</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="63"/>
-      <c r="B81" s="46" t="s">
-        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -7078,208 +7294,208 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="60"/>
+      <c r="A4" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="64"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
       <c r="A12" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -7298,7 +7514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -7311,24 +7527,24 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="59" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" s="60"/>
+      <c r="A3" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="64"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -7360,184 +7576,184 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="60"/>
+      <c r="B3" s="64"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105">
       <c r="A5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="135">
       <c r="A6" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
       <c r="A17" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
       <c r="A24" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -7570,17 +7786,17 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" spans="1:2" s="22" customFormat="1">
-      <c r="A2" s="59" t="s">
-        <v>423</v>
-      </c>
-      <c r="B2" s="60"/>
+      <c r="A2" s="63" t="s">
+        <v>422</v>
+      </c>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1">
       <c r="A3" s="8"/>
@@ -7591,268 +7807,263 @@
       <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="59" t="s">
-        <v>318</v>
-      </c>
-      <c r="B5" s="60"/>
+      <c r="A5" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="64"/>
     </row>
     <row r="6" spans="1:2" ht="75">
       <c r="A6" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>236</v>
-      </c>
     </row>
     <row r="7" spans="1:2" ht="120">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="71" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="12" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="240">
+      <c r="A8" s="71"/>
+      <c r="B8" s="12" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="240">
-      <c r="A8" s="67"/>
-      <c r="B8" s="12" t="s">
-        <v>313</v>
-      </c>
-    </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="68" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="B9" s="12" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="255">
+      <c r="A10" s="68"/>
+      <c r="B10" s="12" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="255">
-      <c r="A10" s="64"/>
-      <c r="B10" s="12" t="s">
+    <row r="11" spans="1:2" ht="150">
+      <c r="A11" s="68"/>
+      <c r="B11" s="12" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="150">
-      <c r="A11" s="64"/>
-      <c r="B11" s="12" t="s">
-        <v>329</v>
-      </c>
-    </row>
     <row r="12" spans="1:2" ht="150">
-      <c r="A12" s="70" t="s">
-        <v>446</v>
+      <c r="A12" s="74" t="s">
+        <v>445</v>
       </c>
       <c r="B12" s="36" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="22" customFormat="1" ht="105">
+      <c r="A13" s="74"/>
+      <c r="B13" s="36" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="22" customFormat="1" ht="105">
-      <c r="A13" s="70"/>
-      <c r="B13" s="36" t="s">
-        <v>471</v>
-      </c>
-    </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="74" t="s">
+        <v>423</v>
+      </c>
+      <c r="B14" s="36" t="s">
         <v>424</v>
       </c>
-      <c r="B14" s="36" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="60">
+      <c r="A15" s="74"/>
+      <c r="B15" s="36" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="70"/>
-      <c r="B15" s="36" t="s">
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="74"/>
+      <c r="B16" s="36" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="70"/>
-      <c r="B16" s="36" t="s">
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="74" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="70" t="s">
+      <c r="B17" s="36" t="s">
         <v>428</v>
       </c>
-      <c r="B17" s="36" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="135">
+      <c r="A18" s="74"/>
+      <c r="B18" s="36" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="135">
-      <c r="A18" s="70"/>
-      <c r="B18" s="36" t="s">
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="74"/>
+      <c r="B19" s="36" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="70"/>
-      <c r="B19" s="36" t="s">
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="74"/>
+      <c r="B20" s="36" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="70"/>
-      <c r="B20" s="36" t="s">
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="74"/>
+      <c r="B21" s="36" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="70"/>
-      <c r="B21" s="36" t="s">
+    <row r="22" spans="1:2" ht="45">
+      <c r="A22" s="75" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="71" t="s">
+      <c r="B22" s="36" t="s">
         <v>434</v>
       </c>
-      <c r="B22" s="36" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="45">
+      <c r="A23" s="75"/>
+      <c r="B23" s="36" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="45">
-      <c r="A23" s="71"/>
-      <c r="B23" s="36" t="s">
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="75"/>
+      <c r="B24" s="36" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="71"/>
-      <c r="B24" s="36" t="s">
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="75"/>
+      <c r="B25" s="36" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="71"/>
-      <c r="B25" s="36" t="s">
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="75"/>
+      <c r="B26" s="36" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="71"/>
-      <c r="B26" s="36" t="s">
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="74" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="70" t="s">
+      <c r="B27" s="36" t="s">
         <v>440</v>
       </c>
-      <c r="B27" s="36" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="165">
+      <c r="A28" s="74"/>
+      <c r="B28" s="36" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="165">
-      <c r="A28" s="70"/>
-      <c r="B28" s="36" t="s">
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="74"/>
+      <c r="B29" s="36" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="70"/>
-      <c r="B29" s="36" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
       <c r="A30" s="50" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60">
       <c r="A31" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="B31" s="36" t="s">
         <v>448</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
       <c r="A32" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="B32" s="36" t="s">
         <v>450</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75">
       <c r="A33" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="B33" s="36" t="s">
         <v>452</v>
       </c>
-      <c r="B33" s="36" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="74" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="70" t="s">
+      <c r="B34" s="36" t="s">
         <v>454</v>
       </c>
-      <c r="B34" s="36" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="75">
+      <c r="A35" s="74"/>
+      <c r="B35" s="36" t="s">
         <v>455</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="70"/>
-      <c r="B35" s="36" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="120">
       <c r="A36" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="B36" s="36" t="s">
         <v>457</v>
       </c>
-      <c r="B36" s="36" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="74" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="70" t="s">
+      <c r="B37" s="36" t="s">
         <v>459</v>
       </c>
-      <c r="B37" s="36" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="74"/>
+      <c r="B38" s="36" t="s">
         <v>460</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="70"/>
-      <c r="B38" s="36" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="135">
       <c r="A39" s="36" t="s">
+        <v>461</v>
+      </c>
+      <c r="B39" s="36" t="s">
         <v>462</v>
       </c>
-      <c r="B39" s="36" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="B40" s="36" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="70" t="s">
-        <v>459</v>
-      </c>
-      <c r="B40" s="36" t="s">
+    <row r="41" spans="1:2" ht="60">
+      <c r="A41" s="74"/>
+      <c r="B41" s="36" t="s">
         <v>464</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="70"/>
-      <c r="B41" s="36" t="s">
-        <v>465</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A16"/>
@@ -7860,6 +8071,11 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
@@ -7887,248 +8103,248 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="60"/>
+      <c r="B3" s="64"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
       <c r="A5" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="71" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="67" t="s">
+      <c r="B10" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B10" s="7" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11" s="71"/>
+      <c r="B11" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="67"/>
-      <c r="B11" s="7" t="s">
+    <row r="12" spans="1:2" ht="60">
+      <c r="A12" s="71"/>
+      <c r="B12" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="67"/>
-      <c r="B12" s="7" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="76" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="72" t="s">
+      <c r="B13" s="76"/>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="72"/>
-    </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="67" t="s">
+      <c r="B14" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="7" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="71"/>
+      <c r="B15" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="67"/>
-      <c r="B15" s="7" t="s">
+    <row r="16" spans="1:2" ht="60">
+      <c r="A16" s="71"/>
+      <c r="B16" s="7" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="67"/>
-      <c r="B16" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="71" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="67" t="s">
+      <c r="B20" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B20" s="7" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="75">
+      <c r="A21" s="71"/>
+      <c r="B21" s="7" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="67"/>
-      <c r="B21" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="105">
       <c r="A25" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B30" s="7" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="71" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="67" t="s">
+      <c r="B31" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B31" s="7" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="71"/>
+      <c r="B32" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="67"/>
-      <c r="B32" s="7" t="s">
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="71"/>
+      <c r="B33" s="7" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="67"/>
-      <c r="B33" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
       <c r="A34" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -8165,10 +8381,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1"/>
@@ -8176,41 +8392,41 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="59" t="s">
-        <v>298</v>
-      </c>
-      <c r="B10" s="60"/>
+      <c r="A10" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="64"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" t="s">
         <v>294</v>
       </c>
-      <c r="B11" t="s">
-        <v>295</v>
-      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="59" t="s">
-        <v>292</v>
-      </c>
-      <c r="B15" s="60"/>
+      <c r="A15" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" s="64"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="601">
   <si>
     <t>Main Topic</t>
   </si>
@@ -4409,6 +4409,46 @@
   </si>
   <si>
     <t>Refer images\3_Spring\3_Spring_Data\3_Locking_implementation.jpg</t>
+  </si>
+  <si>
+    <t>Implementing Multi tenant with Spring Data JPA ans Spring Boot</t>
+  </si>
+  <si>
+    <t>uncomment these codes for multi tenant implementation in SpringDataPractice project</t>
+  </si>
+  <si>
+    <t>1. springboot.data.jpa.DataJpaApp -&gt; dataSource()
+2. springboot.data.jpa.DataJpaApp -&gt; customDatasource1()
+3. springboot.data.jpa.controller.EmployeeDataJpaSaveController -&gt; multiTenant(@RequestHeader("X-TenantID") String tenantName)
+4. springboot.data.jpa.controller.GeneralController -&gt; comment all code inside class
+5. uncomment entire springboot.data.jpa.multitenant.MultiTenantConfiguration.java file
+6. uncomment entire springboot.data.jpa.multitenant.MultiTenantDataSource.java file
+7. uncomment entire springboot.data.jpa.multitenant.TenantContext.java file</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Write TeneantContext class. Refer SpringDataPractice -&gt; springboot.data.jpa.multitenant.TenantContext.java
+2. Write a class for lookup key. Refer SpringDataPractice -&gt; springboot.data.jpa.multitenant.MultiTenantDataSource.java
+3. Write a Configration class. Refer SpringDataPractice -&gt; springboot.data.jpa.multitenant.MultiTenantConfiguration.java
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. Note of caution: Never use @javax.transaction.Transactional annotation on Controller class. This should be on repository. This will cause problem while identifying tenant. if tenant not identified correct data source cannot be identified</t>
+    </r>
+  </si>
+  <si>
+    <t>Spring Cloud</t>
+  </si>
+  <si>
+    <t>Java Microservices with Spring Cloud: Developing Services</t>
   </si>
 </sst>
 </file>
@@ -4622,7 +4662,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4763,6 +4803,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5150,11 +5196,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5295,6 +5341,11 @@
     <row r="19" spans="1:2">
       <c r="A19" s="22" t="s">
         <v>569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="22" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -5408,13 +5459,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="64"/>
+      <c r="B4" s="66"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="72" t="s">
         <v>112</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -5422,7 +5473,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="71"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="7" t="s">
         <v>114</v>
       </c>
@@ -5468,7 +5519,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="79" t="s">
         <v>124</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -5476,7 +5527,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="77"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="7" t="s">
         <v>126</v>
       </c>
@@ -5490,7 +5541,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="79" t="s">
         <v>129</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -5498,7 +5549,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="77"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="7" t="s">
         <v>131</v>
       </c>
@@ -5550,10 +5601,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="66"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
@@ -5564,10 +5615,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="66"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="32" t="s">
@@ -5666,7 +5717,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="76" t="s">
         <v>392</v>
       </c>
       <c r="B19" s="57" t="s">
@@ -5674,7 +5725,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="74"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="32" t="s">
         <v>390</v>
       </c>
@@ -5728,7 +5779,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="77" t="s">
         <v>403</v>
       </c>
       <c r="B27" s="32" t="s">
@@ -5736,7 +5787,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="75"/>
+      <c r="A28" s="77"/>
       <c r="B28" s="32" t="s">
         <v>404</v>
       </c>
@@ -5838,7 +5889,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="77" t="s">
         <v>519</v>
       </c>
       <c r="B41" s="51" t="s">
@@ -5846,7 +5897,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="210">
-      <c r="A42" s="75"/>
+      <c r="A42" s="77"/>
       <c r="B42" s="51" t="s">
         <v>518</v>
       </c>
@@ -5868,7 +5919,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="79" t="s">
+      <c r="A45" s="81" t="s">
         <v>524</v>
       </c>
       <c r="B45" s="52" t="s">
@@ -5876,13 +5927,13 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="120">
-      <c r="A46" s="79"/>
+      <c r="A46" s="81"/>
       <c r="B46" s="52" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="79"/>
+      <c r="A47" s="81"/>
       <c r="B47" s="27" t="s">
         <v>526</v>
       </c>
@@ -5896,7 +5947,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45" customHeight="1">
-      <c r="A49" s="79" t="s">
+      <c r="A49" s="81" t="s">
         <v>529</v>
       </c>
       <c r="B49" s="53" t="s">
@@ -5904,7 +5955,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="79"/>
+      <c r="A50" s="81"/>
       <c r="B50" s="53" t="s">
         <v>531</v>
       </c>
@@ -5942,7 +5993,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="79" t="s">
+      <c r="A55" s="81" t="s">
         <v>536</v>
       </c>
       <c r="B55" s="53" t="s">
@@ -5950,7 +6001,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="79"/>
+      <c r="A56" s="81"/>
       <c r="B56" s="53" t="s">
         <v>542</v>
       </c>
@@ -5964,7 +6015,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="78" t="s">
+      <c r="A58" s="80" t="s">
         <v>545</v>
       </c>
       <c r="B58" s="55" t="s">
@@ -5972,7 +6023,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="78"/>
+      <c r="A59" s="80"/>
       <c r="B59" s="54" t="s">
         <v>546</v>
       </c>
@@ -6043,10 +6094,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="66"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -6057,10 +6108,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>317</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="66"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="12" t="s">
@@ -6095,7 +6146,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="81" t="s">
         <v>329</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -6103,7 +6154,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="79"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="29" t="s">
         <v>331</v>
       </c>
@@ -6117,7 +6168,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="76" t="s">
         <v>339</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -6125,13 +6176,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="74"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="29" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="74"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="29" t="s">
         <v>355</v>
       </c>
@@ -6212,11 +6263,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6234,10 +6285,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="66"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="59" t="s">
@@ -6248,10 +6299,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="65" t="s">
         <v>317</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="66"/>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="59" t="s">
@@ -6278,7 +6329,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" customHeight="1">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="80" t="s">
         <v>576</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -6286,7 +6337,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="78"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="22" t="s">
         <v>578</v>
       </c>
@@ -6353,6 +6404,22 @@
       </c>
       <c r="B20" s="62" t="s">
         <v>594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="75">
+      <c r="A21" s="63" t="s">
+        <v>595</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="105">
+      <c r="A22" s="63" t="s">
+        <v>596</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -6367,12 +6434,13 @@
     <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
@@ -6398,10 +6466,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="22" customFormat="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="66"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="22" t="s">
@@ -6413,10 +6481,10 @@
     </row>
     <row r="4" spans="1:3" s="22" customFormat="1"/>
     <row r="5" spans="1:3">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="66"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="32" t="s">
@@ -6439,10 +6507,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="66"/>
+      <c r="B9" s="68"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="22" t="s">
@@ -6453,10 +6521,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="64"/>
+      <c r="B12" s="66"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
@@ -6515,10 +6583,10 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="B21" s="64"/>
+      <c r="B21" s="66"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="22" t="s">
@@ -6561,10 +6629,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="65" t="s">
         <v>563</v>
       </c>
-      <c r="B28" s="64"/>
+      <c r="B28" s="66"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="22" t="s">
@@ -6583,18 +6651,14 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>566</v>
-      </c>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="64"/>
+      <c r="B33" s="66"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="22" t="s">
@@ -6604,8 +6668,23 @@
         <v>566</v>
       </c>
     </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="65" t="s">
+        <v>599</v>
+      </c>
+      <c r="B36" s="66"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>600</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A5:B5"/>
@@ -6658,21 +6737,21 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="67" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="66"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1"/>
     <row r="4" spans="1:2" s="22" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="66"/>
+      <c r="B5" s="68"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="74" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6680,7 +6759,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="73"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -6702,7 +6781,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="72" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -6710,7 +6789,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="71"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -6988,7 +7067,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="71" t="s">
+      <c r="A46" s="73" t="s">
         <v>87</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -6996,19 +7075,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="71"/>
+      <c r="A47" s="73"/>
       <c r="B47" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="71"/>
+      <c r="A48" s="73"/>
       <c r="B48" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="71" t="s">
+      <c r="A49" s="73" t="s">
         <v>91</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -7016,19 +7095,19 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="71"/>
+      <c r="A50" s="73"/>
       <c r="B50" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90">
-      <c r="A51" s="71"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75">
-      <c r="A52" s="71" t="s">
+      <c r="A52" s="73" t="s">
         <v>95</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -7036,7 +7115,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="71"/>
+      <c r="A53" s="73"/>
       <c r="B53" s="7" t="s">
         <v>333</v>
       </c>
@@ -7090,7 +7169,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="69" t="s">
+      <c r="A60" s="71" t="s">
         <v>108</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -7098,13 +7177,13 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="240">
-      <c r="A61" s="69"/>
+      <c r="A61" s="71"/>
       <c r="B61" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="180">
-      <c r="A62" s="69"/>
+      <c r="A62" s="71"/>
       <c r="B62" s="7" t="s">
         <v>111</v>
       </c>
@@ -7150,7 +7229,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="105">
-      <c r="A68" s="68" t="s">
+      <c r="A68" s="70" t="s">
         <v>476</v>
       </c>
       <c r="B68" s="38" t="s">
@@ -7158,19 +7237,19 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="120">
-      <c r="A69" s="68"/>
+      <c r="A69" s="70"/>
       <c r="B69" s="38" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="75">
-      <c r="A70" s="68"/>
+      <c r="A70" s="70"/>
       <c r="B70" s="38" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="68" t="s">
+      <c r="A71" s="70" t="s">
         <v>477</v>
       </c>
       <c r="B71" s="46" t="s">
@@ -7178,7 +7257,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="60">
-      <c r="A72" s="68"/>
+      <c r="A72" s="70"/>
       <c r="B72" s="46" t="s">
         <v>501</v>
       </c>
@@ -7240,7 +7319,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="67" t="s">
+      <c r="A80" s="69" t="s">
         <v>503</v>
       </c>
       <c r="B80" s="46" t="s">
@@ -7248,7 +7327,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="67"/>
+      <c r="A81" s="69"/>
       <c r="B81" s="46" t="s">
         <v>505</v>
       </c>
@@ -7301,10 +7380,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="64"/>
+      <c r="B4" s="66"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -7534,10 +7613,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="64"/>
+      <c r="B3" s="66"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -7583,10 +7662,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="64"/>
+      <c r="B3" s="66"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -7772,9 +7851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7793,10 +7872,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="22" customFormat="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="66"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1">
       <c r="A3" s="8"/>
@@ -7807,10 +7886,10 @@
       <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>317</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="66"/>
     </row>
     <row r="6" spans="1:2" ht="75">
       <c r="A6" s="36" t="s">
@@ -7821,7 +7900,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="120">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="73" t="s">
         <v>310</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -7829,13 +7908,13 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="240">
-      <c r="A8" s="71"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="12" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="70" t="s">
         <v>325</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -7843,19 +7922,19 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="255">
-      <c r="A10" s="68"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="12" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150">
-      <c r="A11" s="68"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="12" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="76" t="s">
         <v>445</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -7863,13 +7942,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" s="22" customFormat="1" ht="105">
-      <c r="A13" s="74"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="36" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="76" t="s">
         <v>423</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -7877,19 +7956,19 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="74"/>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="76"/>
+      <c r="B15" s="64" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="74"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="36" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="76" t="s">
         <v>427</v>
       </c>
       <c r="B17" s="36" t="s">
@@ -7897,31 +7976,31 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="135">
-      <c r="A18" s="74"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="36" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="74"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="36" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="74"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="36" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="74"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="36" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="77" t="s">
         <v>433</v>
       </c>
       <c r="B22" s="36" t="s">
@@ -7929,31 +8008,31 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="45">
-      <c r="A23" s="75"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="36" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="75"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="36" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="75"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="36" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="75"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="36" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="76" t="s">
         <v>439</v>
       </c>
       <c r="B27" s="36" t="s">
@@ -7961,13 +8040,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="165">
-      <c r="A28" s="74"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="36" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="74"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="36" t="s">
         <v>442</v>
       </c>
@@ -8005,7 +8084,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="76" t="s">
         <v>453</v>
       </c>
       <c r="B34" s="36" t="s">
@@ -8013,7 +8092,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="74"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="36" t="s">
         <v>455</v>
       </c>
@@ -8027,7 +8106,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="74" t="s">
+      <c r="A37" s="76" t="s">
         <v>458</v>
       </c>
       <c r="B37" s="36" t="s">
@@ -8035,7 +8114,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="74"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="36" t="s">
         <v>460</v>
       </c>
@@ -8049,7 +8128,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="74" t="s">
+      <c r="A40" s="76" t="s">
         <v>458</v>
       </c>
       <c r="B40" s="36" t="s">
@@ -8057,13 +8136,18 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="74"/>
+      <c r="A41" s="76"/>
       <c r="B41" s="36" t="s">
         <v>464</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A16"/>
@@ -8071,11 +8155,6 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
@@ -8110,10 +8189,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="64"/>
+      <c r="B3" s="66"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
@@ -8164,7 +8243,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="73" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -8172,25 +8251,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="71"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="7" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="71"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="B13" s="76"/>
+      <c r="B13" s="78"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="73" t="s">
         <v>253</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -8198,13 +8277,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="71"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="71"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="7" t="s">
         <v>256</v>
       </c>
@@ -8234,7 +8313,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -8242,7 +8321,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="71"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="7" t="s">
         <v>265</v>
       </c>
@@ -8320,7 +8399,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="73" t="s">
         <v>284</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -8328,13 +8407,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="71"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="71"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="7" t="s">
         <v>287</v>
       </c>
@@ -8392,10 +8471,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="64"/>
+      <c r="B10" s="66"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -8406,10 +8485,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="B15" s="64"/>
+      <c r="B15" s="66"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="604">
   <si>
     <t>Main Topic</t>
   </si>
@@ -4449,6 +4449,19 @@
   </si>
   <si>
     <t>Java Microservices with Spring Cloud: Developing Services</t>
+  </si>
+  <si>
+    <t>WARNING: No mapping found for HTTP request with URI</t>
+  </si>
+  <si>
+    <t>1. This will come if we give &lt;url-pattern&gt; as /*
+2. To resolve this change &lt;url-pattern&gt; from /* to /</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we give 
+1. web.xml: &lt;url-pattern&gt; as /*
+2. spring config xml file: &lt;mvc:default-servlet-handler /&gt;
+Then we will see plain JSP in browser </t>
   </si>
 </sst>
 </file>
@@ -4662,7 +4675,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4803,6 +4816,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5459,13 +5475,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="66"/>
+      <c r="B4" s="67"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>112</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -5473,7 +5489,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="73"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="7" t="s">
         <v>114</v>
       </c>
@@ -5519,7 +5535,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="80" t="s">
         <v>124</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -5527,7 +5543,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="79"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="7" t="s">
         <v>126</v>
       </c>
@@ -5541,7 +5557,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="80" t="s">
         <v>129</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -5549,7 +5565,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="79"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="7" t="s">
         <v>131</v>
       </c>
@@ -5601,10 +5617,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="66"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
@@ -5615,10 +5631,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="66" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="66"/>
+      <c r="B6" s="67"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="32" t="s">
@@ -5717,7 +5733,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="77" t="s">
         <v>392</v>
       </c>
       <c r="B19" s="57" t="s">
@@ -5725,7 +5741,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="76"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="32" t="s">
         <v>390</v>
       </c>
@@ -5779,7 +5795,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="78" t="s">
         <v>403</v>
       </c>
       <c r="B27" s="32" t="s">
@@ -5787,7 +5803,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="77"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="32" t="s">
         <v>404</v>
       </c>
@@ -5889,7 +5905,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="78" t="s">
         <v>519</v>
       </c>
       <c r="B41" s="51" t="s">
@@ -5897,7 +5913,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="210">
-      <c r="A42" s="77"/>
+      <c r="A42" s="78"/>
       <c r="B42" s="51" t="s">
         <v>518</v>
       </c>
@@ -5919,7 +5935,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="81" t="s">
+      <c r="A45" s="82" t="s">
         <v>524</v>
       </c>
       <c r="B45" s="52" t="s">
@@ -5927,13 +5943,13 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="120">
-      <c r="A46" s="81"/>
+      <c r="A46" s="82"/>
       <c r="B46" s="52" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="81"/>
+      <c r="A47" s="82"/>
       <c r="B47" s="27" t="s">
         <v>526</v>
       </c>
@@ -5947,7 +5963,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45" customHeight="1">
-      <c r="A49" s="81" t="s">
+      <c r="A49" s="82" t="s">
         <v>529</v>
       </c>
       <c r="B49" s="53" t="s">
@@ -5955,7 +5971,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="81"/>
+      <c r="A50" s="82"/>
       <c r="B50" s="53" t="s">
         <v>531</v>
       </c>
@@ -5993,7 +6009,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="81" t="s">
+      <c r="A55" s="82" t="s">
         <v>536</v>
       </c>
       <c r="B55" s="53" t="s">
@@ -6001,7 +6017,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="81"/>
+      <c r="A56" s="82"/>
       <c r="B56" s="53" t="s">
         <v>542</v>
       </c>
@@ -6015,7 +6031,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="80" t="s">
+      <c r="A58" s="81" t="s">
         <v>545</v>
       </c>
       <c r="B58" s="55" t="s">
@@ -6023,7 +6039,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="80"/>
+      <c r="A59" s="81"/>
       <c r="B59" s="54" t="s">
         <v>546</v>
       </c>
@@ -6094,10 +6110,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="B2" s="66"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -6108,10 +6124,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="66" t="s">
         <v>317</v>
       </c>
-      <c r="B6" s="66"/>
+      <c r="B6" s="67"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="12" t="s">
@@ -6146,7 +6162,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="82" t="s">
         <v>329</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -6154,7 +6170,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="81"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="29" t="s">
         <v>331</v>
       </c>
@@ -6168,7 +6184,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="77" t="s">
         <v>339</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -6176,13 +6192,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="76"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="29" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="76"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="29" t="s">
         <v>355</v>
       </c>
@@ -6285,10 +6301,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="66"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="59" t="s">
@@ -6299,10 +6315,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="66" t="s">
         <v>317</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="67"/>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="59" t="s">
@@ -6329,7 +6345,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" customHeight="1">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="81" t="s">
         <v>576</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -6337,7 +6353,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="80"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="22" t="s">
         <v>578</v>
       </c>
@@ -6466,10 +6482,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="22" customFormat="1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>498</v>
       </c>
-      <c r="B2" s="66"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="22" t="s">
@@ -6481,10 +6497,10 @@
     </row>
     <row r="4" spans="1:3" s="22" customFormat="1"/>
     <row r="5" spans="1:3">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="66" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="66"/>
+      <c r="B5" s="67"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="32" t="s">
@@ -6507,10 +6523,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="68"/>
+      <c r="B9" s="69"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="22" t="s">
@@ -6521,10 +6537,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="66"/>
+      <c r="B12" s="67"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
@@ -6583,10 +6599,10 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="66" t="s">
         <v>290</v>
       </c>
-      <c r="B21" s="66"/>
+      <c r="B21" s="67"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="22" t="s">
@@ -6629,10 +6645,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="66" t="s">
         <v>563</v>
       </c>
-      <c r="B28" s="66"/>
+      <c r="B28" s="67"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="22" t="s">
@@ -6655,10 +6671,10 @@
       <c r="B31" s="22"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="66"/>
+      <c r="B33" s="67"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="22" t="s">
@@ -6669,10 +6685,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="66" t="s">
         <v>599</v>
       </c>
-      <c r="B36" s="66"/>
+      <c r="B36" s="67"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="22" t="s">
@@ -6737,21 +6753,21 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1"/>
     <row r="4" spans="1:2" s="22" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6759,7 +6775,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="75"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -6781,7 +6797,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -6789,7 +6805,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="73"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -7067,7 +7083,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="73" t="s">
+      <c r="A46" s="74" t="s">
         <v>87</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -7075,19 +7091,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="73"/>
+      <c r="A47" s="74"/>
       <c r="B47" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="73"/>
+      <c r="A48" s="74"/>
       <c r="B48" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="73" t="s">
+      <c r="A49" s="74" t="s">
         <v>91</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -7095,19 +7111,19 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="73"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90">
-      <c r="A51" s="73"/>
+      <c r="A51" s="74"/>
       <c r="B51" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75">
-      <c r="A52" s="73" t="s">
+      <c r="A52" s="74" t="s">
         <v>95</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -7115,7 +7131,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="73"/>
+      <c r="A53" s="74"/>
       <c r="B53" s="7" t="s">
         <v>333</v>
       </c>
@@ -7169,7 +7185,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="71" t="s">
+      <c r="A60" s="72" t="s">
         <v>108</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -7177,13 +7193,13 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="240">
-      <c r="A61" s="71"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="180">
-      <c r="A62" s="71"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="7" t="s">
         <v>111</v>
       </c>
@@ -7229,7 +7245,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="105">
-      <c r="A68" s="70" t="s">
+      <c r="A68" s="71" t="s">
         <v>476</v>
       </c>
       <c r="B68" s="38" t="s">
@@ -7237,19 +7253,19 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="120">
-      <c r="A69" s="70"/>
+      <c r="A69" s="71"/>
       <c r="B69" s="38" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="75">
-      <c r="A70" s="70"/>
+      <c r="A70" s="71"/>
       <c r="B70" s="38" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="70" t="s">
+      <c r="A71" s="71" t="s">
         <v>477</v>
       </c>
       <c r="B71" s="46" t="s">
@@ -7257,7 +7273,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="60">
-      <c r="A72" s="70"/>
+      <c r="A72" s="71"/>
       <c r="B72" s="46" t="s">
         <v>501</v>
       </c>
@@ -7319,7 +7335,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="69" t="s">
+      <c r="A80" s="70" t="s">
         <v>503</v>
       </c>
       <c r="B80" s="46" t="s">
@@ -7327,7 +7343,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="69"/>
+      <c r="A81" s="70"/>
       <c r="B81" s="46" t="s">
         <v>505</v>
       </c>
@@ -7380,10 +7396,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="66"/>
+      <c r="B4" s="67"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -7613,10 +7629,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="66"/>
+      <c r="B3" s="67"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -7662,10 +7678,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="66"/>
+      <c r="B3" s="67"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -7849,11 +7865,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:A16"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7872,10 +7888,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="22" customFormat="1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="66"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1">
       <c r="A3" s="8"/>
@@ -7886,10 +7902,10 @@
       <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="66" t="s">
         <v>317</v>
       </c>
-      <c r="B5" s="66"/>
+      <c r="B5" s="67"/>
     </row>
     <row r="6" spans="1:2" ht="75">
       <c r="A6" s="36" t="s">
@@ -7900,7 +7916,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="120">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="74" t="s">
         <v>310</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -7908,13 +7924,13 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="240">
-      <c r="A8" s="73"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="12" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="71" t="s">
         <v>325</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -7922,19 +7938,19 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="255">
-      <c r="A10" s="70"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="12" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150">
-      <c r="A11" s="70"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="12" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="77" t="s">
         <v>445</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -7942,13 +7958,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" s="22" customFormat="1" ht="105">
-      <c r="A13" s="76"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="36" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="77" t="s">
         <v>423</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -7956,19 +7972,19 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="76"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="64" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="76"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="36" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="77" t="s">
         <v>427</v>
       </c>
       <c r="B17" s="36" t="s">
@@ -7976,31 +7992,31 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="135">
-      <c r="A18" s="76"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="36" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="76"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="36" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="76"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="36" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="76"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="36" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="78" t="s">
         <v>433</v>
       </c>
       <c r="B22" s="36" t="s">
@@ -8008,31 +8024,31 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="45">
-      <c r="A23" s="77"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="36" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="77"/>
+      <c r="A24" s="78"/>
       <c r="B24" s="36" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="77"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="36" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="77"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="36" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="77" t="s">
         <v>439</v>
       </c>
       <c r="B27" s="36" t="s">
@@ -8040,13 +8056,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="165">
-      <c r="A28" s="76"/>
+      <c r="A28" s="77"/>
       <c r="B28" s="36" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="76"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="36" t="s">
         <v>442</v>
       </c>
@@ -8084,7 +8100,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="77" t="s">
         <v>453</v>
       </c>
       <c r="B34" s="36" t="s">
@@ -8092,7 +8108,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="76"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="36" t="s">
         <v>455</v>
       </c>
@@ -8106,7 +8122,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="77" t="s">
         <v>458</v>
       </c>
       <c r="B37" s="36" t="s">
@@ -8114,7 +8130,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="76"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="36" t="s">
         <v>460</v>
       </c>
@@ -8128,7 +8144,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="77" t="s">
         <v>458</v>
       </c>
       <c r="B40" s="36" t="s">
@@ -8136,18 +8152,28 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="76"/>
+      <c r="A41" s="77"/>
       <c r="B41" s="36" t="s">
         <v>464</v>
       </c>
     </row>
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="78" t="s">
+        <v>601</v>
+      </c>
+      <c r="B42" s="65" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="60">
+      <c r="A43" s="78"/>
+      <c r="B43" s="65" t="s">
+        <v>603</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A37:A38"/>
+  <mergeCells count="13">
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A16"/>
@@ -8155,6 +8181,11 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
@@ -8189,10 +8220,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="66"/>
+      <c r="B3" s="67"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
@@ -8243,7 +8274,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="74" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -8251,25 +8282,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="73"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="7" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="73"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="79" t="s">
         <v>252</v>
       </c>
-      <c r="B13" s="78"/>
+      <c r="B13" s="79"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="74" t="s">
         <v>253</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -8277,13 +8308,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="73"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="73"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="7" t="s">
         <v>256</v>
       </c>
@@ -8313,7 +8344,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="74" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -8321,7 +8352,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="73"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="7" t="s">
         <v>265</v>
       </c>
@@ -8399,7 +8430,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="74" t="s">
         <v>284</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -8407,13 +8438,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="73"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="73"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="7" t="s">
         <v>287</v>
       </c>
@@ -8471,10 +8502,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="66" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="66"/>
+      <c r="B10" s="67"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -8485,10 +8516,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="B15" s="66"/>
+      <c r="B15" s="67"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="606">
   <si>
     <t>Main Topic</t>
   </si>
@@ -4462,6 +4462,12 @@
 1. web.xml: &lt;url-pattern&gt; as /*
 2. spring config xml file: &lt;mvc:default-servlet-handler /&gt;
 Then we will see plain JSP in browser </t>
+  </si>
+  <si>
+    <t>Spring Data JPA Multi Tenency implementation</t>
+  </si>
+  <si>
+    <t>http://fizzylogic.nl/2016/01/24/Make-your-Spring-boot-application-multi-tenant-aware-in-2-steps/</t>
   </si>
 </sst>
 </file>
@@ -4675,7 +4681,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4866,6 +4872,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4900,10 +4909,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -5475,13 +5484,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>112</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -5489,7 +5498,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="74"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="7" t="s">
         <v>114</v>
       </c>
@@ -5535,7 +5544,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="81" t="s">
         <v>124</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -5543,7 +5552,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="80"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="7" t="s">
         <v>126</v>
       </c>
@@ -5557,7 +5566,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="81" t="s">
         <v>129</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -5565,7 +5574,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="80"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="7" t="s">
         <v>131</v>
       </c>
@@ -5617,10 +5626,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
@@ -5631,10 +5640,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="68"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="32" t="s">
@@ -5733,7 +5742,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="79" t="s">
         <v>392</v>
       </c>
       <c r="B19" s="57" t="s">
@@ -5741,7 +5750,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="77"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="32" t="s">
         <v>390</v>
       </c>
@@ -5935,7 +5944,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="82" t="s">
+      <c r="A45" s="83" t="s">
         <v>524</v>
       </c>
       <c r="B45" s="52" t="s">
@@ -5943,13 +5952,13 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="120">
-      <c r="A46" s="82"/>
+      <c r="A46" s="83"/>
       <c r="B46" s="52" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="82"/>
+      <c r="A47" s="83"/>
       <c r="B47" s="27" t="s">
         <v>526</v>
       </c>
@@ -5963,7 +5972,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45" customHeight="1">
-      <c r="A49" s="82" t="s">
+      <c r="A49" s="83" t="s">
         <v>529</v>
       </c>
       <c r="B49" s="53" t="s">
@@ -5971,7 +5980,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="82"/>
+      <c r="A50" s="83"/>
       <c r="B50" s="53" t="s">
         <v>531</v>
       </c>
@@ -6009,7 +6018,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="82" t="s">
+      <c r="A55" s="83" t="s">
         <v>536</v>
       </c>
       <c r="B55" s="53" t="s">
@@ -6017,7 +6026,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="82"/>
+      <c r="A56" s="83"/>
       <c r="B56" s="53" t="s">
         <v>542</v>
       </c>
@@ -6031,7 +6040,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="81" t="s">
+      <c r="A58" s="82" t="s">
         <v>545</v>
       </c>
       <c r="B58" s="55" t="s">
@@ -6039,7 +6048,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="81"/>
+      <c r="A59" s="82"/>
       <c r="B59" s="54" t="s">
         <v>546</v>
       </c>
@@ -6110,10 +6119,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>316</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -6124,10 +6133,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>317</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="68"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="12" t="s">
@@ -6162,7 +6171,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="83" t="s">
         <v>329</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -6170,7 +6179,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="82"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="29" t="s">
         <v>331</v>
       </c>
@@ -6184,7 +6193,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="79" t="s">
         <v>339</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -6192,13 +6201,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="77"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="29" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="77"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="29" t="s">
         <v>355</v>
       </c>
@@ -6279,11 +6288,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6301,10 +6310,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="59" t="s">
@@ -6315,10 +6324,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="67" t="s">
         <v>317</v>
       </c>
-      <c r="B7" s="67"/>
+      <c r="B7" s="68"/>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="59" t="s">
@@ -6345,7 +6354,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" customHeight="1">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="82" t="s">
         <v>576</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -6353,7 +6362,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="81"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="22" t="s">
         <v>578</v>
       </c>
@@ -6436,6 +6445,14 @@
       </c>
       <c r="B22" s="63" t="s">
         <v>597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="66" t="s">
+        <v>604</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -6448,9 +6465,10 @@
     <hyperlink ref="A1" location="Topics!A15" display="Topics"/>
     <hyperlink ref="B1" location="Data!A2" display="Up"/>
     <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B23" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6482,10 +6500,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="22" customFormat="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="22" t="s">
@@ -6497,10 +6515,10 @@
     </row>
     <row r="4" spans="1:3" s="22" customFormat="1"/>
     <row r="5" spans="1:3">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="32" t="s">
@@ -6523,10 +6541,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="69"/>
+      <c r="B9" s="70"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="22" t="s">
@@ -6537,10 +6555,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="67"/>
+      <c r="B12" s="68"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
@@ -6599,10 +6617,10 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="B21" s="67"/>
+      <c r="B21" s="68"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="22" t="s">
@@ -6645,10 +6663,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="67" t="s">
         <v>563</v>
       </c>
-      <c r="B28" s="67"/>
+      <c r="B28" s="68"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="22" t="s">
@@ -6671,10 +6689,10 @@
       <c r="B31" s="22"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="67"/>
+      <c r="B33" s="68"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="22" t="s">
@@ -6685,10 +6703,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="67" t="s">
         <v>599</v>
       </c>
-      <c r="B36" s="67"/>
+      <c r="B36" s="68"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="22" t="s">
@@ -6753,21 +6771,21 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1"/>
     <row r="4" spans="1:2" s="22" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="69"/>
+      <c r="B5" s="70"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="76" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6775,7 +6793,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="76"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -6797,7 +6815,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="74" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -6805,7 +6823,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="74"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -7083,7 +7101,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="74" t="s">
+      <c r="A46" s="75" t="s">
         <v>87</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -7091,19 +7109,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="74"/>
+      <c r="A47" s="75"/>
       <c r="B47" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="74"/>
+      <c r="A48" s="75"/>
       <c r="B48" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="74" t="s">
+      <c r="A49" s="75" t="s">
         <v>91</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -7111,19 +7129,19 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="74"/>
+      <c r="A50" s="75"/>
       <c r="B50" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90">
-      <c r="A51" s="74"/>
+      <c r="A51" s="75"/>
       <c r="B51" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75">
-      <c r="A52" s="74" t="s">
+      <c r="A52" s="75" t="s">
         <v>95</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -7131,7 +7149,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="74"/>
+      <c r="A53" s="75"/>
       <c r="B53" s="7" t="s">
         <v>333</v>
       </c>
@@ -7185,7 +7203,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="72" t="s">
+      <c r="A60" s="73" t="s">
         <v>108</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -7193,13 +7211,13 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="240">
-      <c r="A61" s="72"/>
+      <c r="A61" s="73"/>
       <c r="B61" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="180">
-      <c r="A62" s="72"/>
+      <c r="A62" s="73"/>
       <c r="B62" s="7" t="s">
         <v>111</v>
       </c>
@@ -7245,7 +7263,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="105">
-      <c r="A68" s="71" t="s">
+      <c r="A68" s="72" t="s">
         <v>476</v>
       </c>
       <c r="B68" s="38" t="s">
@@ -7253,19 +7271,19 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="120">
-      <c r="A69" s="71"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="38" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="75">
-      <c r="A70" s="71"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="38" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="71" t="s">
+      <c r="A71" s="72" t="s">
         <v>477</v>
       </c>
       <c r="B71" s="46" t="s">
@@ -7273,7 +7291,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="60">
-      <c r="A72" s="71"/>
+      <c r="A72" s="72"/>
       <c r="B72" s="46" t="s">
         <v>501</v>
       </c>
@@ -7335,7 +7353,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="70" t="s">
+      <c r="A80" s="71" t="s">
         <v>503</v>
       </c>
       <c r="B80" s="46" t="s">
@@ -7343,7 +7361,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="70"/>
+      <c r="A81" s="71"/>
       <c r="B81" s="46" t="s">
         <v>505</v>
       </c>
@@ -7396,10 +7414,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -7629,10 +7647,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="67"/>
+      <c r="B3" s="68"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -7678,10 +7696,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="67"/>
+      <c r="B3" s="68"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -7867,9 +7885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42:A43"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7888,10 +7906,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="22" customFormat="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1">
       <c r="A3" s="8"/>
@@ -7902,10 +7920,10 @@
       <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>317</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
     </row>
     <row r="6" spans="1:2" ht="75">
       <c r="A6" s="36" t="s">
@@ -7916,7 +7934,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="120">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="75" t="s">
         <v>310</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -7924,13 +7942,13 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="240">
-      <c r="A8" s="74"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="12" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="72" t="s">
         <v>325</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -7938,19 +7956,19 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="255">
-      <c r="A10" s="71"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="12" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150">
-      <c r="A11" s="71"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="12" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="79" t="s">
         <v>445</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -7958,13 +7976,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" s="22" customFormat="1" ht="105">
-      <c r="A13" s="77"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="36" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="79" t="s">
         <v>423</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -7972,19 +7990,19 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="77"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="64" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="77"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="36" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="79" t="s">
         <v>427</v>
       </c>
       <c r="B17" s="36" t="s">
@@ -7992,25 +8010,25 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="135">
-      <c r="A18" s="77"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="36" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="77"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="36" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="77"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="36" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="77"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="36" t="s">
         <v>432</v>
       </c>
@@ -8048,7 +8066,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="79" t="s">
         <v>439</v>
       </c>
       <c r="B27" s="36" t="s">
@@ -8056,13 +8074,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="165">
-      <c r="A28" s="77"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="36" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="77"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="36" t="s">
         <v>442</v>
       </c>
@@ -8100,7 +8118,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="79" t="s">
         <v>453</v>
       </c>
       <c r="B34" s="36" t="s">
@@ -8108,7 +8126,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="77"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="36" t="s">
         <v>455</v>
       </c>
@@ -8122,7 +8140,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="79" t="s">
         <v>458</v>
       </c>
       <c r="B37" s="36" t="s">
@@ -8130,7 +8148,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="77"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="36" t="s">
         <v>460</v>
       </c>
@@ -8144,7 +8162,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="79" t="s">
         <v>458</v>
       </c>
       <c r="B40" s="36" t="s">
@@ -8152,7 +8170,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="77"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="36" t="s">
         <v>464</v>
       </c>
@@ -8173,6 +8191,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A12:A13"/>
@@ -8181,11 +8204,6 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
@@ -8220,10 +8238,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="67"/>
+      <c r="B3" s="68"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
@@ -8274,7 +8292,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="75" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -8282,25 +8300,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="74"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="7" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="74"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="80" t="s">
         <v>252</v>
       </c>
-      <c r="B13" s="79"/>
+      <c r="B13" s="80"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="75" t="s">
         <v>253</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -8308,13 +8326,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="74"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="74"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="7" t="s">
         <v>256</v>
       </c>
@@ -8344,7 +8362,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="75" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -8352,7 +8370,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="74"/>
+      <c r="A21" s="75"/>
       <c r="B21" s="7" t="s">
         <v>265</v>
       </c>
@@ -8430,7 +8448,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="75" t="s">
         <v>284</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -8438,13 +8456,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="74"/>
+      <c r="A32" s="75"/>
       <c r="B32" s="7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="74"/>
+      <c r="A33" s="75"/>
       <c r="B33" s="7" t="s">
         <v>287</v>
       </c>
@@ -8502,10 +8520,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="67" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="67"/>
+      <c r="B10" s="68"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -8516,10 +8534,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="B15" s="67"/>
+      <c r="B15" s="68"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="Boot" sheetId="13" r:id="rId13"/>
     <sheet name="Annotations" sheetId="14" r:id="rId14"/>
     <sheet name="Data" sheetId="15" r:id="rId15"/>
+    <sheet name="Cloud" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="610">
   <si>
     <t>Main Topic</t>
   </si>
@@ -2439,31 +2440,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">If you are using the standard JSP 2.0 descriptor, defined by w3c schema ,for example
-web.xml:
-&lt;web-app id="WebApp_ID" version="2.4" 
- xmlns="http://java.sun.com/xml/ns/j2ee" 
- xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" 
- xsi:schemaLocation="http://java.sun.com/xml/ns/j2ee 
- http://java.sun.com/xml/ns/j2ee/web-app_2_4.xsd"&gt;
-//...
-&lt;/web-app&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The EL is enabled by default, and you should see the value stored in the “msg” model, which is “hello world”.</t>
-    </r>
-  </si>
-  <si>
     <t>how to inject an HttpServletRequest into a request-scoped bean?</t>
   </si>
   <si>
@@ -4468,6 +4444,41 @@
   </si>
   <si>
     <t>http://fizzylogic.nl/2016/01/24/Make-your-Spring-boot-application-multi-tenant-aware-in-2-steps/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you are using the standard JSP 2.0 descriptor, defined by w3c schema ,for example
+web.xml:
+&lt;web-app id="WebApp_ID" version="2.4"  xmlns="http://java.sun.com/xml/ns/j2ee" 
+ xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" 
+ xsi:schemaLocation="http://java.sun.com/xml/ns/j2ee  http://java.sun.com/xml/ns/j2ee/web-app_2_4.xsd"&gt;
+//...
+&lt;/web-app&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The EL is enabled by default, and you should see the value stored in the “msg” model, which is “hello world”.</t>
+    </r>
+  </si>
+  <si>
+    <t>Spring Cloud released</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> March 2015</t>
+  </si>
+  <si>
+    <t>Spring cloud projects</t>
+  </si>
+  <si>
+    <t>refer E:\Backup\JavaPrep\practiceProjects\images\3_Spring\4_Spring_Cloud\1_Spring_cloud_projects.jpg</t>
   </si>
 </sst>
 </file>
@@ -4681,7 +4692,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4875,6 +4886,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4909,10 +4924,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -5225,7 +5240,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5240,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>11</v>
@@ -5277,7 +5292,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="20"/>
@@ -5332,45 +5347,45 @@
         <v>314</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B15" s="15"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>346</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B18" s="15"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="22" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="22" t="s">
-        <v>599</v>
+      <c r="A20" s="15" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -5390,6 +5405,7 @@
     <hyperlink ref="A15" location="Data!A1" display="Spring Data"/>
     <hyperlink ref="C1" location="Topics!A2" display="Up"/>
     <hyperlink ref="B1" location="Materials!A1" display="Materials"/>
+    <hyperlink ref="A20" location="Cloud!A1" display="Spring Cloud"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5484,13 +5500,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="70"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="76" t="s">
         <v>112</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -5498,7 +5514,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="75"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="7" t="s">
         <v>114</v>
       </c>
@@ -5508,7 +5524,7 @@
         <v>115</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
@@ -5544,7 +5560,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="83" t="s">
         <v>124</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -5552,7 +5568,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="81"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="7" t="s">
         <v>126</v>
       </c>
@@ -5566,7 +5582,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="83" t="s">
         <v>129</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -5574,7 +5590,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="81"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="7" t="s">
         <v>131</v>
       </c>
@@ -5626,447 +5642,447 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
-        <v>422</v>
-      </c>
-      <c r="B2" s="68"/>
+      <c r="A2" s="69" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2" s="70"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>388</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="69" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="68"/>
+      <c r="B6" s="70"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>361</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
       <c r="A8" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>363</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>365</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>367</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="120">
       <c r="A11" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>370</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
       <c r="A13" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>376</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>378</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>380</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>383</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>387</v>
-      </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="79" t="s">
-        <v>392</v>
+      <c r="A19" s="80" t="s">
+        <v>391</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="79"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
       <c r="A21" s="32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="B23" s="32" t="s">
         <v>394</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>397</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="75">
       <c r="A25" s="32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="B26" s="27" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="81" t="s">
+        <v>402</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="78" t="s">
+    <row r="28" spans="1:2" ht="120">
+      <c r="A28" s="81"/>
+      <c r="B28" s="32" t="s">
         <v>403</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="78"/>
-      <c r="B28" s="32" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>405</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>407</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
       <c r="A32" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="105">
       <c r="A33" s="57" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="90">
       <c r="A34" s="33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="225">
       <c r="A35" s="35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="35" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B38" s="57" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="22" customFormat="1">
       <c r="A39" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>508</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="105">
       <c r="A40" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="78" t="s">
-        <v>519</v>
+      <c r="A41" s="81" t="s">
+        <v>518</v>
       </c>
       <c r="B41" s="51" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="210">
+      <c r="A42" s="81"/>
+      <c r="B42" s="51" t="s">
         <v>517</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="210">
-      <c r="A42" s="78"/>
-      <c r="B42" s="51" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
       <c r="A43" s="52" t="s">
+        <v>519</v>
+      </c>
+      <c r="B43" s="52" t="s">
         <v>520</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="52" t="s">
+        <v>521</v>
+      </c>
+      <c r="B44" s="52" t="s">
         <v>522</v>
       </c>
-      <c r="B44" s="52" t="s">
+    </row>
+    <row r="45" spans="1:2" ht="30">
+      <c r="A45" s="85" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="83" t="s">
+      <c r="B45" s="52" t="s">
         <v>524</v>
       </c>
-      <c r="B45" s="52" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="120">
+      <c r="A46" s="85"/>
+      <c r="B46" s="52" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="85"/>
+      <c r="B47" s="27" t="s">
         <v>525</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="120">
-      <c r="A46" s="83"/>
-      <c r="B46" s="52" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="83"/>
-      <c r="B47" s="27" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
       <c r="A48" s="53" t="s">
+        <v>527</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45" customHeight="1">
+      <c r="A49" s="85" t="s">
         <v>528</v>
       </c>
-      <c r="B48" s="56" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="45" customHeight="1">
-      <c r="A49" s="83" t="s">
+      <c r="B49" s="53" t="s">
         <v>529</v>
       </c>
-      <c r="B49" s="53" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="85"/>
+      <c r="B50" s="53" t="s">
         <v>530</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="83"/>
-      <c r="B50" s="53" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
       <c r="A51" s="53" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="22" customFormat="1" ht="30">
       <c r="A52" s="53" t="s">
+        <v>536</v>
+      </c>
+      <c r="B52" s="53" t="s">
         <v>537</v>
-      </c>
-      <c r="B52" s="53" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
       <c r="A53" s="53" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B53" s="53" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="53" t="s">
+        <v>534</v>
+      </c>
+      <c r="B54" s="53" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="85" t="s">
         <v>535</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B55" s="53" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="83" t="s">
-        <v>536</v>
-      </c>
-      <c r="B55" s="53" t="s">
+    <row r="56" spans="1:2" ht="60">
+      <c r="A56" s="85"/>
+      <c r="B56" s="53" t="s">
         <v>541</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="83"/>
-      <c r="B56" s="53" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="53" t="s">
+        <v>542</v>
+      </c>
+      <c r="B57" s="53" t="s">
         <v>543</v>
       </c>
-      <c r="B57" s="53" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="84" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="82" t="s">
+      <c r="B58" s="55" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="84"/>
+      <c r="B59" s="54" t="s">
         <v>545</v>
-      </c>
-      <c r="B58" s="55" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="82"/>
-      <c r="B59" s="54" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
       <c r="A60" s="55" t="s">
+        <v>547</v>
+      </c>
+      <c r="B60" s="55" t="s">
         <v>548</v>
-      </c>
-      <c r="B60" s="55" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="55" t="s">
+        <v>549</v>
+      </c>
+      <c r="B61" s="55" t="s">
         <v>550</v>
-      </c>
-      <c r="B61" s="55" t="s">
-        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -6119,10 +6135,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>316</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="70"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -6133,17 +6149,17 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="69" t="s">
         <v>317</v>
       </c>
-      <c r="B6" s="68"/>
+      <c r="B6" s="70"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="12" t="s">
         <v>318</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6171,101 +6187,101 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="85" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="B11" s="29" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="85"/>
+      <c r="B12" s="29" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="83"/>
-      <c r="B12" s="29" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="75">
       <c r="A13" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="79" t="s">
-        <v>339</v>
+      <c r="A14" s="80" t="s">
+        <v>338</v>
       </c>
       <c r="B14" s="29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="180">
+      <c r="A15" s="80"/>
+      <c r="B15" s="29" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="79"/>
-      <c r="B15" s="29" t="s">
-        <v>352</v>
-      </c>
-    </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="79"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="22" customFormat="1" ht="30">
       <c r="A17" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90">
       <c r="A18" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="22" customFormat="1" ht="120">
       <c r="A19" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>356</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
       <c r="A20" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>341</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="B22" s="27" t="s">
         <v>348</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>359</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -6290,9 +6306,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6310,149 +6326,149 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
-        <v>422</v>
-      </c>
-      <c r="B2" s="68"/>
+      <c r="A2" s="69" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2" s="70"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>570</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>571</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="69" t="s">
         <v>317</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="70"/>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="59" t="s">
+        <v>563</v>
+      </c>
+      <c r="B8" s="58" t="s">
         <v>564</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="59" t="s">
+        <v>571</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>572</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
       <c r="A10" s="59" t="s">
+        <v>573</v>
+      </c>
+      <c r="B10" s="59" t="s">
         <v>574</v>
       </c>
-      <c r="B10" s="59" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="30" customHeight="1">
+      <c r="A11" s="84" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1">
-      <c r="A11" s="82" t="s">
+      <c r="B11" s="22" t="s">
         <v>576</v>
       </c>
-      <c r="B11" s="22" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="84"/>
+      <c r="B12" s="22" t="s">
         <v>577</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="82"/>
-      <c r="B12" s="22" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" s="59" t="s">
+        <v>578</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>579</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="60" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="60" t="s">
+        <v>582</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>583</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75">
       <c r="A16" s="61" t="s">
+        <v>584</v>
+      </c>
+      <c r="B16" s="61" t="s">
         <v>585</v>
-      </c>
-      <c r="B16" s="61" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="62" t="s">
+        <v>586</v>
+      </c>
+      <c r="B17" s="62" t="s">
         <v>587</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75">
       <c r="A18" s="62" t="s">
+        <v>588</v>
+      </c>
+      <c r="B18" s="62" t="s">
         <v>589</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="62" t="s">
+        <v>590</v>
+      </c>
+      <c r="B19" s="62" t="s">
         <v>591</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="62" t="s">
+        <v>592</v>
+      </c>
+      <c r="B20" s="62" t="s">
         <v>593</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
       <c r="A21" s="63" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="105">
       <c r="A22" s="63" t="s">
+        <v>595</v>
+      </c>
+      <c r="B22" s="63" t="s">
         <v>596</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="66" t="s">
+        <v>603</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>604</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -6469,6 +6485,70 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="62.42578125" customWidth="1"/>
+    <col min="2" max="2" width="124.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="69" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2" s="70"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="69" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="70"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>609</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A20" display="Topics"/>
+    <hyperlink ref="B1" location="Cloud!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6496,69 +6576,69 @@
         <v>11</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="22" customFormat="1">
-      <c r="A2" s="67" t="s">
-        <v>498</v>
-      </c>
-      <c r="B2" s="68"/>
+      <c r="A2" s="69" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2" s="70"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="22" customFormat="1"/>
     <row r="5" spans="1:3">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="69" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="70"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>373</v>
-      </c>
       <c r="C6" s="22" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="72"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>479</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>480</v>
-      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="68"/>
+      <c r="B12" s="70"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
@@ -6594,40 +6674,40 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>443</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>465</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>468</v>
-      </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="69" t="s">
         <v>290</v>
       </c>
-      <c r="B21" s="68"/>
+      <c r="B21" s="70"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>374</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6663,25 +6743,25 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="67" t="s">
-        <v>563</v>
-      </c>
-      <c r="B28" s="68"/>
+      <c r="A28" s="69" t="s">
+        <v>562</v>
+      </c>
+      <c r="B28" s="70"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6689,31 +6769,31 @@
       <c r="B31" s="22"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="68"/>
+      <c r="B33" s="70"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="67" t="s">
-        <v>599</v>
-      </c>
-      <c r="B36" s="68"/>
+      <c r="A36" s="69" t="s">
+        <v>598</v>
+      </c>
+      <c r="B36" s="70"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -6771,21 +6851,21 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="69" t="s">
-        <v>422</v>
-      </c>
-      <c r="B2" s="70"/>
+      <c r="A2" s="71" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2" s="72"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1"/>
     <row r="4" spans="1:2" s="22" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="72"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6793,7 +6873,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="77"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -6815,7 +6895,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="76" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -6823,7 +6903,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="75"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -6833,7 +6913,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
@@ -7049,7 +7129,7 @@
         <v>74</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
@@ -7101,7 +7181,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="75" t="s">
+      <c r="A46" s="77" t="s">
         <v>87</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -7109,19 +7189,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="75"/>
+      <c r="A47" s="77"/>
       <c r="B47" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="75"/>
+      <c r="A48" s="77"/>
       <c r="B48" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="75" t="s">
+      <c r="A49" s="77" t="s">
         <v>91</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -7129,19 +7209,19 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="75"/>
+      <c r="A50" s="77"/>
       <c r="B50" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90">
-      <c r="A51" s="75"/>
+      <c r="A51" s="77"/>
       <c r="B51" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75">
-      <c r="A52" s="75" t="s">
+      <c r="A52" s="77" t="s">
         <v>95</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -7149,9 +7229,9 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="75"/>
+      <c r="A53" s="77"/>
       <c r="B53" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -7203,7 +7283,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="73" t="s">
+      <c r="A60" s="75" t="s">
         <v>108</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -7211,20 +7291,20 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="240">
-      <c r="A61" s="73"/>
+      <c r="A61" s="75"/>
       <c r="B61" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="180">
-      <c r="A62" s="73"/>
+      <c r="A62" s="75"/>
       <c r="B62" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="30">
       <c r="A63" s="49" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>313</v>
@@ -7232,138 +7312,138 @@
     </row>
     <row r="64" spans="1:2" ht="135">
       <c r="A64" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="150">
       <c r="A65" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>334</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
       <c r="A66" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="B66" s="35" t="s">
         <v>419</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="30">
       <c r="A67" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="105">
+      <c r="A68" s="74" t="s">
+        <v>475</v>
+      </c>
+      <c r="B68" s="38" t="s">
         <v>472</v>
       </c>
-      <c r="B67" s="38" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="105">
-      <c r="A68" s="72" t="s">
+    </row>
+    <row r="69" spans="1:2" ht="120">
+      <c r="A69" s="74"/>
+      <c r="B69" s="38" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="75">
+      <c r="A70" s="74"/>
+      <c r="B70" s="38" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="60">
+      <c r="A71" s="74" t="s">
         <v>476</v>
       </c>
-      <c r="B68" s="38" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="120">
-      <c r="A69" s="72"/>
-      <c r="B69" s="38" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="75">
-      <c r="A70" s="72"/>
-      <c r="B70" s="38" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="72" t="s">
-        <v>477</v>
-      </c>
       <c r="B71" s="46" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="60">
-      <c r="A72" s="72"/>
+      <c r="A72" s="74"/>
       <c r="B72" s="46" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30">
       <c r="A73" s="40" t="s">
+        <v>480</v>
+      </c>
+      <c r="B73" s="41" t="s">
         <v>481</v>
-      </c>
-      <c r="B73" s="41" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="60">
       <c r="A74" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="B74" s="41" t="s">
         <v>483</v>
-      </c>
-      <c r="B74" s="41" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="45">
       <c r="A75" s="40" t="s">
+        <v>484</v>
+      </c>
+      <c r="B75" s="41" t="s">
         <v>485</v>
-      </c>
-      <c r="B75" s="41" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30">
       <c r="A76" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="B76" s="41" t="s">
         <v>487</v>
-      </c>
-      <c r="B76" s="41" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="75">
       <c r="A77" s="44" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B77" s="41" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="42" t="s">
+        <v>490</v>
+      </c>
+      <c r="B78" s="43" t="s">
         <v>491</v>
-      </c>
-      <c r="B78" s="43" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="45">
       <c r="A79" s="42" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="71" t="s">
+      <c r="A80" s="73" t="s">
+        <v>502</v>
+      </c>
+      <c r="B80" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="B80" s="46" t="s">
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="73"/>
+      <c r="B81" s="46" t="s">
         <v>504</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="71"/>
-      <c r="B81" s="46" t="s">
-        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -7414,10 +7494,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="70"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -7647,10 +7727,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="68"/>
+      <c r="B3" s="70"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -7696,10 +7776,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="68"/>
+      <c r="B3" s="70"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -7886,8 +7966,8 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7906,10 +7986,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="22" customFormat="1">
-      <c r="A2" s="67" t="s">
-        <v>422</v>
-      </c>
-      <c r="B2" s="68"/>
+      <c r="A2" s="69" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2" s="70"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1">
       <c r="A3" s="8"/>
@@ -7920,10 +8000,10 @@
       <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="69" t="s">
         <v>317</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="70"/>
     </row>
     <row r="6" spans="1:2" ht="75">
       <c r="A6" s="36" t="s">
@@ -7934,7 +8014,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="120">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="77" t="s">
         <v>310</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -7942,13 +8022,13 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="240">
-      <c r="A8" s="75"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="12" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="74" t="s">
         <v>325</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -7956,246 +8036,241 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="255">
-      <c r="A10" s="72"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="67" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="150">
-      <c r="A11" s="72"/>
-      <c r="B11" s="12" t="s">
-        <v>328</v>
+    <row r="11" spans="1:2" ht="120">
+      <c r="A11" s="74"/>
+      <c r="B11" s="67" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150">
-      <c r="A12" s="79" t="s">
-        <v>445</v>
+      <c r="A12" s="80" t="s">
+        <v>444</v>
       </c>
       <c r="B12" s="36" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="22" customFormat="1" ht="105">
+      <c r="A13" s="80"/>
+      <c r="B13" s="36" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="22" customFormat="1" ht="105">
-      <c r="A13" s="79"/>
-      <c r="B13" s="36" t="s">
-        <v>470</v>
-      </c>
-    </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="80" t="s">
+        <v>422</v>
+      </c>
+      <c r="B14" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="B14" s="36" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="60">
+      <c r="A15" s="80"/>
+      <c r="B15" s="64" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="79"/>
-      <c r="B15" s="64" t="s">
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="80"/>
+      <c r="B16" s="36" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="79"/>
-      <c r="B16" s="36" t="s">
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="80" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="79" t="s">
+      <c r="B17" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="B17" s="36" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="135">
+      <c r="A18" s="80"/>
+      <c r="B18" s="36" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="135">
-      <c r="A18" s="79"/>
-      <c r="B18" s="36" t="s">
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="80"/>
+      <c r="B19" s="36" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="79"/>
-      <c r="B19" s="36" t="s">
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="80"/>
+      <c r="B20" s="36" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="79"/>
-      <c r="B20" s="36" t="s">
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="80"/>
+      <c r="B21" s="36" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="79"/>
-      <c r="B21" s="36" t="s">
+    <row r="22" spans="1:2" ht="45">
+      <c r="A22" s="81" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="78" t="s">
+      <c r="B22" s="36" t="s">
         <v>433</v>
       </c>
-      <c r="B22" s="36" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="45">
+      <c r="A23" s="81"/>
+      <c r="B23" s="36" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="45">
-      <c r="A23" s="78"/>
-      <c r="B23" s="36" t="s">
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="81"/>
+      <c r="B24" s="36" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="78"/>
-      <c r="B24" s="36" t="s">
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="81"/>
+      <c r="B25" s="36" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="78"/>
-      <c r="B25" s="36" t="s">
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="81"/>
+      <c r="B26" s="36" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="78"/>
-      <c r="B26" s="36" t="s">
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="80" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="79" t="s">
+      <c r="B27" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="B27" s="36" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="165">
+      <c r="A28" s="80"/>
+      <c r="B28" s="36" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="165">
-      <c r="A28" s="79"/>
-      <c r="B28" s="36" t="s">
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="80"/>
+      <c r="B29" s="36" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="79"/>
-      <c r="B29" s="36" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
       <c r="A30" s="50" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60">
       <c r="A31" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="B31" s="36" t="s">
         <v>447</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
       <c r="A32" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="B32" s="36" t="s">
         <v>449</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75">
       <c r="A33" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="B33" s="36" t="s">
         <v>451</v>
       </c>
-      <c r="B33" s="36" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="80" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="79" t="s">
+      <c r="B34" s="36" t="s">
         <v>453</v>
       </c>
-      <c r="B34" s="36" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="75">
+      <c r="A35" s="80"/>
+      <c r="B35" s="36" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="79"/>
-      <c r="B35" s="36" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="120">
       <c r="A36" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="B36" s="36" t="s">
         <v>456</v>
       </c>
-      <c r="B36" s="36" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="80" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="79" t="s">
+      <c r="B37" s="36" t="s">
         <v>458</v>
       </c>
-      <c r="B37" s="36" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="80"/>
+      <c r="B38" s="36" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="79"/>
-      <c r="B38" s="36" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="135">
       <c r="A39" s="36" t="s">
+        <v>460</v>
+      </c>
+      <c r="B39" s="36" t="s">
         <v>461</v>
       </c>
-      <c r="B39" s="36" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="80" t="s">
+        <v>457</v>
+      </c>
+      <c r="B40" s="36" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="79" t="s">
-        <v>458</v>
-      </c>
-      <c r="B40" s="36" t="s">
+    <row r="41" spans="1:2" ht="60">
+      <c r="A41" s="80"/>
+      <c r="B41" s="36" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="79"/>
-      <c r="B41" s="36" t="s">
-        <v>464</v>
-      </c>
-    </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="78" t="s">
+      <c r="A42" s="81" t="s">
+        <v>600</v>
+      </c>
+      <c r="B42" s="65" t="s">
         <v>601</v>
       </c>
-      <c r="B42" s="65" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="60">
+      <c r="A43" s="81"/>
+      <c r="B43" s="65" t="s">
         <v>602</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="78"/>
-      <c r="B43" s="65" t="s">
-        <v>603</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A12:A13"/>
@@ -8204,6 +8279,11 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
@@ -8238,10 +8318,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="68"/>
+      <c r="B3" s="70"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
@@ -8292,7 +8372,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="77" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -8300,25 +8380,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="75"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="7" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="75"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="B13" s="80"/>
+      <c r="B13" s="82"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="77" t="s">
         <v>253</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -8326,13 +8406,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="75"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="75"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="7" t="s">
         <v>256</v>
       </c>
@@ -8362,7 +8442,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="77" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -8370,7 +8450,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="75"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="7" t="s">
         <v>265</v>
       </c>
@@ -8448,7 +8528,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="77" t="s">
         <v>284</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -8456,13 +8536,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="75"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="75"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="7" t="s">
         <v>287</v>
       </c>
@@ -8520,10 +8600,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="69" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="68"/>
+      <c r="B10" s="70"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -8534,10 +8614,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="69" t="s">
         <v>291</v>
       </c>
-      <c r="B15" s="68"/>
+      <c r="B15" s="70"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="614">
   <si>
     <t>Main Topic</t>
   </si>
@@ -4479,6 +4479,26 @@
   </si>
   <si>
     <t>refer E:\Backup\JavaPrep\practiceProjects\images\3_Spring\4_Spring_Cloud\1_Spring_cloud_projects.jpg</t>
+  </si>
+  <si>
+    <t>Add this dependency to pom.xml</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+   &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
+   &lt;artifactId&gt;spring-boot-starter-actuator&lt;/artifactId&gt;
+  &lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>These URLs are available to application by default if we add above dependency</t>
+  </si>
+  <si>
+    <t>1. http://localhost:portNumber/health
+  2. http://localhost:portNumber/beans
+  3. http://localhost:portNumber/env
+  4. http://localhost:portNumber/metrics
+  5. http://localhost:portNumber/mappings
+  6. http://localhost:portNumber/trace</t>
   </si>
 </sst>
 </file>
@@ -4692,7 +4712,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4890,6 +4910,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4924,10 +4947,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -5500,13 +5523,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="71"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="77" t="s">
         <v>112</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -5514,7 +5537,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="77"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="7" t="s">
         <v>114</v>
       </c>
@@ -5560,7 +5583,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="84" t="s">
         <v>124</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -5568,7 +5591,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="83"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="7" t="s">
         <v>126</v>
       </c>
@@ -5582,7 +5605,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="84" t="s">
         <v>129</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -5590,7 +5613,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="83"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="7" t="s">
         <v>131</v>
       </c>
@@ -5620,11 +5643,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5642,10 +5665,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="71"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
@@ -5656,10 +5679,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="70" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="71"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="32" t="s">
@@ -5758,7 +5781,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="82" t="s">
         <v>391</v>
       </c>
       <c r="B19" s="57" t="s">
@@ -5766,7 +5789,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="80"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="32" t="s">
         <v>389</v>
       </c>
@@ -5960,7 +5983,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="85" t="s">
+      <c r="A45" s="86" t="s">
         <v>523</v>
       </c>
       <c r="B45" s="52" t="s">
@@ -5968,13 +5991,13 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="120">
-      <c r="A46" s="85"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="52" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="85"/>
+      <c r="A47" s="86"/>
       <c r="B47" s="27" t="s">
         <v>525</v>
       </c>
@@ -5988,7 +6011,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45" customHeight="1">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="86" t="s">
         <v>528</v>
       </c>
       <c r="B49" s="53" t="s">
@@ -5996,7 +6019,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="85"/>
+      <c r="A50" s="86"/>
       <c r="B50" s="53" t="s">
         <v>530</v>
       </c>
@@ -6034,7 +6057,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="85" t="s">
+      <c r="A55" s="86" t="s">
         <v>535</v>
       </c>
       <c r="B55" s="53" t="s">
@@ -6042,7 +6065,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="85"/>
+      <c r="A56" s="86"/>
       <c r="B56" s="53" t="s">
         <v>541</v>
       </c>
@@ -6056,7 +6079,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="84" t="s">
+      <c r="A58" s="85" t="s">
         <v>544</v>
       </c>
       <c r="B58" s="55" t="s">
@@ -6064,7 +6087,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="84"/>
+      <c r="A59" s="85"/>
       <c r="B59" s="54" t="s">
         <v>545</v>
       </c>
@@ -6083,6 +6106,22 @@
       </c>
       <c r="B61" s="55" t="s">
         <v>550</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="60">
+      <c r="A62" s="69" t="s">
+        <v>610</v>
+      </c>
+      <c r="B62" s="69" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="90">
+      <c r="A63" s="69" t="s">
+        <v>612</v>
+      </c>
+      <c r="B63" s="69" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -6135,10 +6174,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="71"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -6149,10 +6188,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="70" t="s">
         <v>317</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="71"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="12" t="s">
@@ -6187,7 +6226,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="86" t="s">
         <v>328</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -6195,7 +6234,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="85"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="29" t="s">
         <v>330</v>
       </c>
@@ -6209,7 +6248,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="82" t="s">
         <v>338</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -6217,13 +6256,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="80"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="29" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="80"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="29" t="s">
         <v>354</v>
       </c>
@@ -6326,10 +6365,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="71"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="59" t="s">
@@ -6340,10 +6379,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="70" t="s">
         <v>317</v>
       </c>
-      <c r="B7" s="70"/>
+      <c r="B7" s="71"/>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="59" t="s">
@@ -6370,7 +6409,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" customHeight="1">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="85" t="s">
         <v>575</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -6378,7 +6417,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="84"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="22" t="s">
         <v>577</v>
       </c>
@@ -6492,7 +6531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -6512,16 +6551,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="71"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="70" t="s">
         <v>317</v>
       </c>
-      <c r="B7" s="70"/>
+      <c r="B7" s="71"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="22" t="s">
@@ -6580,10 +6619,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="22" customFormat="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>497</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="71"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="22" t="s">
@@ -6595,10 +6634,10 @@
     </row>
     <row r="4" spans="1:3" s="22" customFormat="1"/>
     <row r="5" spans="1:3">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="70" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="71"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="32" t="s">
@@ -6621,10 +6660,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="72"/>
+      <c r="B9" s="73"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="22" t="s">
@@ -6635,10 +6674,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="70"/>
+      <c r="B12" s="71"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
@@ -6697,10 +6736,10 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="70" t="s">
         <v>290</v>
       </c>
-      <c r="B21" s="70"/>
+      <c r="B21" s="71"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="22" t="s">
@@ -6743,10 +6782,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="70" t="s">
         <v>562</v>
       </c>
-      <c r="B28" s="70"/>
+      <c r="B28" s="71"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="22" t="s">
@@ -6769,10 +6808,10 @@
       <c r="B31" s="22"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="70"/>
+      <c r="B33" s="71"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="22" t="s">
@@ -6783,10 +6822,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="70" t="s">
         <v>598</v>
       </c>
-      <c r="B36" s="70"/>
+      <c r="B36" s="71"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="22" t="s">
@@ -6851,21 +6890,21 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="72"/>
+      <c r="B2" s="73"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1"/>
     <row r="4" spans="1:2" s="22" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="72"/>
+      <c r="B5" s="73"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6873,7 +6912,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="79"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -6895,7 +6934,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="77" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -6903,7 +6942,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="77"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -7181,7 +7220,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="77" t="s">
+      <c r="A46" s="78" t="s">
         <v>87</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -7189,19 +7228,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="77"/>
+      <c r="A47" s="78"/>
       <c r="B47" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="77"/>
+      <c r="A48" s="78"/>
       <c r="B48" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="77" t="s">
+      <c r="A49" s="78" t="s">
         <v>91</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -7209,19 +7248,19 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="77"/>
+      <c r="A50" s="78"/>
       <c r="B50" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90">
-      <c r="A51" s="77"/>
+      <c r="A51" s="78"/>
       <c r="B51" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75">
-      <c r="A52" s="77" t="s">
+      <c r="A52" s="78" t="s">
         <v>95</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -7229,7 +7268,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="77"/>
+      <c r="A53" s="78"/>
       <c r="B53" s="7" t="s">
         <v>332</v>
       </c>
@@ -7283,7 +7322,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="75" t="s">
+      <c r="A60" s="76" t="s">
         <v>108</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -7291,13 +7330,13 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="240">
-      <c r="A61" s="75"/>
+      <c r="A61" s="76"/>
       <c r="B61" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="180">
-      <c r="A62" s="75"/>
+      <c r="A62" s="76"/>
       <c r="B62" s="7" t="s">
         <v>111</v>
       </c>
@@ -7343,7 +7382,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="105">
-      <c r="A68" s="74" t="s">
+      <c r="A68" s="75" t="s">
         <v>475</v>
       </c>
       <c r="B68" s="38" t="s">
@@ -7351,19 +7390,19 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="120">
-      <c r="A69" s="74"/>
+      <c r="A69" s="75"/>
       <c r="B69" s="38" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="75">
-      <c r="A70" s="74"/>
+      <c r="A70" s="75"/>
       <c r="B70" s="38" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="74" t="s">
+      <c r="A71" s="75" t="s">
         <v>476</v>
       </c>
       <c r="B71" s="46" t="s">
@@ -7371,7 +7410,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="60">
-      <c r="A72" s="74"/>
+      <c r="A72" s="75"/>
       <c r="B72" s="46" t="s">
         <v>500</v>
       </c>
@@ -7433,7 +7472,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="73" t="s">
+      <c r="A80" s="74" t="s">
         <v>502</v>
       </c>
       <c r="B80" s="46" t="s">
@@ -7441,7 +7480,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="73"/>
+      <c r="A81" s="74"/>
       <c r="B81" s="46" t="s">
         <v>504</v>
       </c>
@@ -7494,10 +7533,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="71"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -7727,10 +7766,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="70"/>
+      <c r="B3" s="71"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -7776,10 +7815,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="70"/>
+      <c r="B3" s="71"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -7986,10 +8025,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="22" customFormat="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="71"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1">
       <c r="A3" s="8"/>
@@ -8000,10 +8039,10 @@
       <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="70" t="s">
         <v>317</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="71"/>
     </row>
     <row r="6" spans="1:2" ht="75">
       <c r="A6" s="36" t="s">
@@ -8014,7 +8053,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="120">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>310</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -8022,13 +8061,13 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="240">
-      <c r="A8" s="77"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="12" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="75" t="s">
         <v>325</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -8036,19 +8075,19 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="255">
-      <c r="A10" s="74"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="67" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="120">
-      <c r="A11" s="74"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="67" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="82" t="s">
         <v>444</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -8056,13 +8095,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" s="22" customFormat="1" ht="105">
-      <c r="A13" s="80"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="36" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="82" t="s">
         <v>422</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -8070,19 +8109,19 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="80"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="64" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="80"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="36" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="82" t="s">
         <v>426</v>
       </c>
       <c r="B17" s="36" t="s">
@@ -8090,25 +8129,25 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="135">
-      <c r="A18" s="80"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="36" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="80"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="36" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="80"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="36" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="80"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="36" t="s">
         <v>431</v>
       </c>
@@ -8146,7 +8185,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="82" t="s">
         <v>438</v>
       </c>
       <c r="B27" s="36" t="s">
@@ -8154,13 +8193,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="165">
-      <c r="A28" s="80"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="36" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="80"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="36" t="s">
         <v>441</v>
       </c>
@@ -8198,7 +8237,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="80" t="s">
+      <c r="A34" s="82" t="s">
         <v>452</v>
       </c>
       <c r="B34" s="36" t="s">
@@ -8206,7 +8245,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="80"/>
+      <c r="A35" s="82"/>
       <c r="B35" s="36" t="s">
         <v>454</v>
       </c>
@@ -8220,7 +8259,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="82" t="s">
         <v>457</v>
       </c>
       <c r="B37" s="36" t="s">
@@ -8228,7 +8267,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="80"/>
+      <c r="A38" s="82"/>
       <c r="B38" s="36" t="s">
         <v>459</v>
       </c>
@@ -8242,7 +8281,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="82" t="s">
         <v>457</v>
       </c>
       <c r="B40" s="36" t="s">
@@ -8250,7 +8289,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="80"/>
+      <c r="A41" s="82"/>
       <c r="B41" s="36" t="s">
         <v>463</v>
       </c>
@@ -8271,6 +8310,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A12:A13"/>
@@ -8279,11 +8323,6 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
@@ -8318,10 +8357,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="70"/>
+      <c r="B3" s="71"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
@@ -8372,7 +8411,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="78" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -8380,25 +8419,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="77"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="7" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="77"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="83" t="s">
         <v>252</v>
       </c>
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="78" t="s">
         <v>253</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -8406,13 +8445,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="77"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="77"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="7" t="s">
         <v>256</v>
       </c>
@@ -8442,7 +8481,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="78" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -8450,7 +8489,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="77"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="7" t="s">
         <v>265</v>
       </c>
@@ -8528,7 +8567,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="78" t="s">
         <v>284</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -8536,13 +8575,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="77"/>
+      <c r="A32" s="78"/>
       <c r="B32" s="7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="77"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="7" t="s">
         <v>287</v>
       </c>
@@ -8600,10 +8639,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="70" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="70"/>
+      <c r="B10" s="71"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -8614,10 +8653,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="70" t="s">
         <v>291</v>
       </c>
-      <c r="B15" s="70"/>
+      <c r="B15" s="71"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="629">
   <si>
     <t>Main Topic</t>
   </si>
@@ -4499,6 +4499,77 @@
   4. http://localhost:portNumber/metrics
   5. http://localhost:portNumber/mappings
   6. http://localhost:portNumber/trace</t>
+  </si>
+  <si>
+    <t>Spring cloud Configuration</t>
+  </si>
+  <si>
+    <t>HTTP access to git or file based configurations</t>
+  </si>
+  <si>
+    <t>Steps to create config server</t>
+  </si>
+  <si>
+    <t>1. choose a config source folder
+2. Add config files to config source folder (file formats depends on our application)
+3. Build Spring Project which acts as config server. This spring project is Spring Boot application. We will make it config server using annotations and settings in application.properties file
+4. Secure the configurations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the meaning of choose a config source </t>
+  </si>
+  <si>
+    <t>We will have 2 options:
+1. Local files
+2. Git based Repository (may point to local git or Github repositories)</t>
+  </si>
+  <si>
+    <t>Local files</t>
+  </si>
+  <si>
+    <t>1. Points to classpath or file system to config values
+2. We can tell config server the location where it can find these config files. We can specify multiple search locations
+3. No audit trail
+4. Supports Labelling 
+5. Support for placeholders in URI
+6. Relies on "native" profile
+7. Suggested for Dev/Test environments only</t>
+  </si>
+  <si>
+    <t>Git based repository</t>
+  </si>
+  <si>
+    <t>1. points to Git Repo
+2. Multiple search locations possible
+3. can have full change history. That means every change we do will be maintained in history which helps us in reverting the new configurations to old configurations if new configurations doesn't work out
+4. Supports labelling
+5. Support for placeholders in URI
+6. Multiple profiles possible
+7. can use local git for Dev/Test. Github web hosting service for production</t>
+  </si>
+  <si>
+    <t>Add/Setting config files</t>
+  </si>
+  <si>
+    <t>1. Native support for YAML, properties files - these are suggestable because these are mapped directly to Spring Boot
+2. Can be any file like txt, json etc
+3. File name contains app name, optionally profile. For example 
+file name is app1.yaml -&gt; application name == app1,
+file name is app1_dev.yaml -&gt; application name == app1, profile == dev</t>
+  </si>
+  <si>
+    <t>4. Nested folders supported. We can create multiple folder based on application features and have config files specific to that feature
+5. All matching files returned</t>
+  </si>
+  <si>
+    <t>Creating config server</t>
+  </si>
+  <si>
+    <t>1. Config server is a Spring Boot project/application
+2. Use start.spring.io or maven -&gt; Create Spring Boot project
+3. add "spring-cloud-config-server", "spring-boot-starter-actuator" dependencies
+4. Add @org.springframework.cloud.config.server.EnableConfigServer annotation to class
+5. create an application.properties (or YAML) with server port, app name and profile</t>
   </si>
 </sst>
 </file>
@@ -4712,7 +4783,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4913,6 +4984,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4947,10 +5021,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4964,6 +5038,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5523,13 +5601,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="71"/>
+      <c r="B4" s="72"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="78" t="s">
         <v>112</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -5537,7 +5615,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="78"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="7" t="s">
         <v>114</v>
       </c>
@@ -5583,7 +5661,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="85" t="s">
         <v>124</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -5591,7 +5669,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="84"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="7" t="s">
         <v>126</v>
       </c>
@@ -5605,7 +5683,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="85" t="s">
         <v>129</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -5613,7 +5691,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="84"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="7" t="s">
         <v>131</v>
       </c>
@@ -5646,8 +5724,8 @@
   <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5665,10 +5743,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="71"/>
+      <c r="B2" s="72"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
@@ -5679,10 +5757,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="71" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="71"/>
+      <c r="B6" s="72"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="32" t="s">
@@ -5843,7 +5921,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="83" t="s">
         <v>402</v>
       </c>
       <c r="B27" s="32" t="s">
@@ -5851,7 +5929,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="81"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="32" t="s">
         <v>403</v>
       </c>
@@ -5953,7 +6031,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="83" t="s">
         <v>518</v>
       </c>
       <c r="B41" s="51" t="s">
@@ -5961,7 +6039,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="210">
-      <c r="A42" s="81"/>
+      <c r="A42" s="83"/>
       <c r="B42" s="51" t="s">
         <v>517</v>
       </c>
@@ -5983,7 +6061,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="86" t="s">
+      <c r="A45" s="87" t="s">
         <v>523</v>
       </c>
       <c r="B45" s="52" t="s">
@@ -5991,13 +6069,13 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="120">
-      <c r="A46" s="86"/>
+      <c r="A46" s="87"/>
       <c r="B46" s="52" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="86"/>
+      <c r="A47" s="87"/>
       <c r="B47" s="27" t="s">
         <v>525</v>
       </c>
@@ -6011,7 +6089,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45" customHeight="1">
-      <c r="A49" s="86" t="s">
+      <c r="A49" s="87" t="s">
         <v>528</v>
       </c>
       <c r="B49" s="53" t="s">
@@ -6019,7 +6097,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="86"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="53" t="s">
         <v>530</v>
       </c>
@@ -6057,7 +6135,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="86" t="s">
+      <c r="A55" s="87" t="s">
         <v>535</v>
       </c>
       <c r="B55" s="53" t="s">
@@ -6065,7 +6143,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="86"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="53" t="s">
         <v>541</v>
       </c>
@@ -6079,7 +6157,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="85" t="s">
+      <c r="A58" s="86" t="s">
         <v>544</v>
       </c>
       <c r="B58" s="55" t="s">
@@ -6087,7 +6165,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="85"/>
+      <c r="A59" s="86"/>
       <c r="B59" s="54" t="s">
         <v>545</v>
       </c>
@@ -6174,10 +6252,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>316</v>
       </c>
-      <c r="B2" s="71"/>
+      <c r="B2" s="72"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -6188,10 +6266,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="71" t="s">
         <v>317</v>
       </c>
-      <c r="B6" s="71"/>
+      <c r="B6" s="72"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="12" t="s">
@@ -6226,7 +6304,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="87" t="s">
         <v>328</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -6234,7 +6312,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="86"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="29" t="s">
         <v>330</v>
       </c>
@@ -6365,10 +6443,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="71"/>
+      <c r="B2" s="72"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="59" t="s">
@@ -6379,10 +6457,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>317</v>
       </c>
-      <c r="B7" s="71"/>
+      <c r="B7" s="72"/>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="59" t="s">
@@ -6409,7 +6487,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" customHeight="1">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="86" t="s">
         <v>575</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -6417,7 +6495,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="85"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="22" t="s">
         <v>577</v>
       </c>
@@ -6529,11 +6607,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6551,16 +6629,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="71"/>
+      <c r="B2" s="72"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>317</v>
       </c>
-      <c r="B7" s="71"/>
+      <c r="B7" s="72"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="22" t="s">
@@ -6578,10 +6656,73 @@
         <v>609</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="75">
+      <c r="A11" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="105">
+      <c r="A13" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="120">
+      <c r="A14" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="75">
+      <c r="A15" s="88" t="s">
+        <v>624</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="88"/>
+      <c r="B16" s="70" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="75">
+      <c r="A17" s="89" t="s">
+        <v>627</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>628</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A20" display="Topics"/>
@@ -6619,10 +6760,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="22" customFormat="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>497</v>
       </c>
-      <c r="B2" s="71"/>
+      <c r="B2" s="72"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="22" t="s">
@@ -6634,10 +6775,10 @@
     </row>
     <row r="4" spans="1:3" s="22" customFormat="1"/>
     <row r="5" spans="1:3">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="71" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="71"/>
+      <c r="B5" s="72"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="32" t="s">
@@ -6660,10 +6801,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="73"/>
+      <c r="B9" s="74"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="22" t="s">
@@ -6674,10 +6815,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="71"/>
+      <c r="B12" s="72"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
@@ -6736,10 +6877,10 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="71" t="s">
         <v>290</v>
       </c>
-      <c r="B21" s="71"/>
+      <c r="B21" s="72"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="22" t="s">
@@ -6782,10 +6923,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="71" t="s">
         <v>562</v>
       </c>
-      <c r="B28" s="71"/>
+      <c r="B28" s="72"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="22" t="s">
@@ -6808,10 +6949,10 @@
       <c r="B31" s="22"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="71"/>
+      <c r="B33" s="72"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="22" t="s">
@@ -6822,10 +6963,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="71" t="s">
         <v>598</v>
       </c>
-      <c r="B36" s="71"/>
+      <c r="B36" s="72"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="22" t="s">
@@ -6890,21 +7031,21 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1"/>
     <row r="4" spans="1:2" s="22" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="73"/>
+      <c r="B5" s="74"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6912,7 +7053,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="80"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -6934,7 +7075,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="78" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -6942,7 +7083,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="78"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -7220,7 +7361,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="78" t="s">
+      <c r="A46" s="79" t="s">
         <v>87</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -7228,19 +7369,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="78"/>
+      <c r="A47" s="79"/>
       <c r="B47" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="78"/>
+      <c r="A48" s="79"/>
       <c r="B48" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="78" t="s">
+      <c r="A49" s="79" t="s">
         <v>91</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -7248,19 +7389,19 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="78"/>
+      <c r="A50" s="79"/>
       <c r="B50" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90">
-      <c r="A51" s="78"/>
+      <c r="A51" s="79"/>
       <c r="B51" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75">
-      <c r="A52" s="78" t="s">
+      <c r="A52" s="79" t="s">
         <v>95</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -7268,7 +7409,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="78"/>
+      <c r="A53" s="79"/>
       <c r="B53" s="7" t="s">
         <v>332</v>
       </c>
@@ -7322,7 +7463,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="76" t="s">
+      <c r="A60" s="77" t="s">
         <v>108</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -7330,13 +7471,13 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="240">
-      <c r="A61" s="76"/>
+      <c r="A61" s="77"/>
       <c r="B61" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="180">
-      <c r="A62" s="76"/>
+      <c r="A62" s="77"/>
       <c r="B62" s="7" t="s">
         <v>111</v>
       </c>
@@ -7382,7 +7523,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="105">
-      <c r="A68" s="75" t="s">
+      <c r="A68" s="76" t="s">
         <v>475</v>
       </c>
       <c r="B68" s="38" t="s">
@@ -7390,19 +7531,19 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="120">
-      <c r="A69" s="75"/>
+      <c r="A69" s="76"/>
       <c r="B69" s="38" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="75">
-      <c r="A70" s="75"/>
+      <c r="A70" s="76"/>
       <c r="B70" s="38" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="75" t="s">
+      <c r="A71" s="76" t="s">
         <v>476</v>
       </c>
       <c r="B71" s="46" t="s">
@@ -7410,7 +7551,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="60">
-      <c r="A72" s="75"/>
+      <c r="A72" s="76"/>
       <c r="B72" s="46" t="s">
         <v>500</v>
       </c>
@@ -7472,7 +7613,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="74" t="s">
+      <c r="A80" s="75" t="s">
         <v>502</v>
       </c>
       <c r="B80" s="46" t="s">
@@ -7480,7 +7621,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="74"/>
+      <c r="A81" s="75"/>
       <c r="B81" s="46" t="s">
         <v>504</v>
       </c>
@@ -7533,10 +7674,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="71"/>
+      <c r="B4" s="72"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -7766,10 +7907,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="71"/>
+      <c r="B3" s="72"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -7815,10 +7956,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="71"/>
+      <c r="B3" s="72"/>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="6" t="s">
@@ -8025,10 +8166,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="22" customFormat="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="71"/>
+      <c r="B2" s="72"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1">
       <c r="A3" s="8"/>
@@ -8039,10 +8180,10 @@
       <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="71" t="s">
         <v>317</v>
       </c>
-      <c r="B5" s="71"/>
+      <c r="B5" s="72"/>
     </row>
     <row r="6" spans="1:2" ht="75">
       <c r="A6" s="36" t="s">
@@ -8053,7 +8194,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="120">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>310</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -8061,13 +8202,13 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="240">
-      <c r="A8" s="78"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="12" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="76" t="s">
         <v>325</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -8075,13 +8216,13 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="255">
-      <c r="A10" s="75"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="67" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="120">
-      <c r="A11" s="75"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="67" t="s">
         <v>605</v>
       </c>
@@ -8153,7 +8294,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="83" t="s">
         <v>432</v>
       </c>
       <c r="B22" s="36" t="s">
@@ -8161,25 +8302,25 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="45">
-      <c r="A23" s="81"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="36" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="81"/>
+      <c r="A24" s="83"/>
       <c r="B24" s="36" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="81"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="36" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="81"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="36" t="s">
         <v>437</v>
       </c>
@@ -8295,7 +8436,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="81" t="s">
+      <c r="A42" s="83" t="s">
         <v>600</v>
       </c>
       <c r="B42" s="65" t="s">
@@ -8303,18 +8444,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="81"/>
+      <c r="A43" s="83"/>
       <c r="B43" s="65" t="s">
         <v>602</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A12:A13"/>
@@ -8323,6 +8459,11 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
@@ -8357,10 +8498,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="71"/>
+      <c r="B3" s="72"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
@@ -8411,7 +8552,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -8419,25 +8560,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="78"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="7" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="78"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="84" t="s">
         <v>252</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="84"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="79" t="s">
         <v>253</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -8445,13 +8586,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="78"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="78"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="7" t="s">
         <v>256</v>
       </c>
@@ -8481,7 +8622,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="79" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -8489,7 +8630,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="78"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="7" t="s">
         <v>265</v>
       </c>
@@ -8567,7 +8708,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="79" t="s">
         <v>284</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -8575,13 +8716,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="78"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="78"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="7" t="s">
         <v>287</v>
       </c>
@@ -8639,10 +8780,10 @@
       <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="71" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="71"/>
+      <c r="B10" s="72"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -8653,10 +8794,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="71" t="s">
         <v>291</v>
       </c>
-      <c r="B15" s="71"/>
+      <c r="B15" s="72"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="647">
   <si>
     <t>Main Topic</t>
   </si>
@@ -2189,15 +2189,6 @@
       </rPr>
       <t>images\3_Spring\1_Spring_Security\1_Spring_Security_Hello_World.docx</t>
     </r>
-  </si>
-  <si>
-    <t>Password hashing</t>
-  </si>
-  <si>
-    <t>for Logout</t>
-  </si>
-  <si>
-    <t>Examples</t>
   </si>
   <si>
     <t>http://www.mkyong.com/tutorials/spring-security-tutorials/</t>
@@ -2378,68 +2369,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">If you are using the old JSP 1.2 descriptor, defined by DTD ,for example
-web.xml: 
-&lt;!DOCTYPE web-app PUBLIC
- "-//Sun Microsystems, Inc.//DTD Web Application 2.3//EN"
- "http://java.sun.com/dtd/web-app_2_3.dtd" &gt;
-&lt;web-app&gt; //… &lt;/web-app&gt;
-The EL is disabled or ignored by default, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>you have to enable it manually</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, so that it will outputs the value store in the “msg” model.
-&lt;%@ taglib prefix="c" uri="http://java.sun.com/jsp/jstl/core" %&gt;
-&lt;html&gt;
-&lt;head&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;%@ page isELIgnored="false" %&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;/head&gt;
-&lt;body&gt;
-           ${msg}
-&lt;/body&gt;
-&lt;/html&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>how to inject an HttpServletRequest into a request-scoped bean?</t>
   </si>
   <si>
@@ -4446,29 +4375,6 @@
     <t>http://fizzylogic.nl/2016/01/24/Make-your-Spring-boot-application-multi-tenant-aware-in-2-steps/</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">If you are using the standard JSP 2.0 descriptor, defined by w3c schema ,for example
-web.xml:
-&lt;web-app id="WebApp_ID" version="2.4"  xmlns="http://java.sun.com/xml/ns/j2ee" 
- xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" 
- xsi:schemaLocation="http://java.sun.com/xml/ns/j2ee  http://java.sun.com/xml/ns/j2ee/web-app_2_4.xsd"&gt;
-//...
-&lt;/web-app&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The EL is enabled by default, and you should see the value stored in the “msg” model, which is “hello world”.</t>
-    </r>
-  </si>
-  <si>
     <t>Spring Cloud released</t>
   </si>
   <si>
@@ -4570,6 +4476,178 @@
 3. add "spring-cloud-config-server", "spring-boot-starter-actuator" dependencies
 4. Add @org.springframework.cloud.config.server.EnableConfigServer annotation to class
 5. create an application.properties (or YAML) with server port, app name and profile</t>
+  </si>
+  <si>
+    <t>AspectJ quick guied - cheat sheet</t>
+  </si>
+  <si>
+    <t>http://www.eclipse.org/aspectj/doc/next/quick5.pdf</t>
+  </si>
+  <si>
+    <t>Spring Security History</t>
+  </si>
+  <si>
+    <t>1. Started as Acegi in 2003
+2. In 2007 brought into spring umbrella as Spring Security
+3. Then onwards Spring Security added as Spring Core technology and under going continuous releases</t>
+  </si>
+  <si>
+    <t>Creating Spring Security application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Create Spring MVC application
+2. </t>
+  </si>
+  <si>
+    <t>What is authentication?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All about determining that who am I? Lot of authentication will be done using LDAP or Active Directory. </t>
+  </si>
+  <si>
+    <t>What is autherization?</t>
+  </si>
+  <si>
+    <t>1. What we can do inside an application. 
+2. Autherization always follows Authentication
+3. First we need to determine who we are and then can determine what we can inside an application</t>
+  </si>
+  <si>
+    <t>1. We need 3 jars - 2 spring security jars, 1 commons-logging jar
+2. spring-security-web
+3. spring-security-config
+4. commons-logging</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+   &lt;groupId&gt;org.springframework.security&lt;/groupId&gt;   &lt;artifactId&gt;spring-security-web&lt;/artifactId&gt;   &lt;version&gt;4.2.1.RELEASE&lt;/version&gt;
+  &lt;/dependency&gt;
+  &lt;dependency&gt;
+   &lt;groupId&gt;org.springframework.security&lt;/groupId&gt;   &lt;artifactId&gt;spring-security-config&lt;/artifactId&gt;   &lt;version&gt;4.2.1.RELEASE&lt;/version&gt;
+  &lt;/dependency&gt;
+  &lt;dependency&gt;
+   &lt;groupId&gt;commons-logging&lt;/groupId&gt;   &lt;artifactId&gt;commons-logging&lt;/artifactId&gt;   &lt;version&gt;1.2&lt;/version&gt;
+  &lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>Enabling Spring Security</t>
+  </si>
+  <si>
+    <t>1. Just like Spring MVC we need to bootstrap our security context. That can be done using below 2 steps:
+a. add org.springframework.web.context.ContextLoaderListener in web.xml as &lt;listener&gt;
+b. add "contextConfigLocation" as context-param in web.xml</t>
+  </si>
+  <si>
+    <t>2. Lastly define Application Entry Point:
+a. add org.springframework.web.filter.DelegatingFilterProxy filter in web.xml
+b. route all requests to this filter using filter-mapping in web.xml</t>
+  </si>
+  <si>
+    <t>Minimal Spring Security Configuration</t>
+  </si>
+  <si>
+    <t>To setup user we must define</t>
+  </si>
+  <si>
+    <t>xmlns that goes in spring-security xml file</t>
+  </si>
+  <si>
+    <t>&lt;beans:beans xmlns="http://www.springframework.org/schema/security"
+ xmlns:beans="http://www.springframework.org/schema/beans" 
+ xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"
+ xsi:schemaLocation="http://www.springframework.org/schema/beans http://www.springframework.org/schema/beans/spring-beans-3.0.xsd
+   http://www.springframework.org/schema/security http://www.springframework.org/schema/security/spring-security.xsd"&gt;</t>
+  </si>
+  <si>
+    <t>1. Simplest configuration can be obtained using http tag:
+&lt;http auto-config="true"&gt;
+  &lt;intercept-url pattern="/**" access="hasRole('ROLE_ADMIN')"/&gt;
+ &lt;/http&gt;</t>
+  </si>
+  <si>
+    <t>&lt;authentication-manager&gt;
+  &lt;authentication-provider&gt;
+   &lt;user-service&gt;
+    &lt;user name="admin" password="admin" authorities="ROLE_ADMIN"/&gt;
+   &lt;/user-service&gt;
+  &lt;/authentication-provider&gt;
+ &lt;/authentication-manager&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you are using the old JSP 1.2 descriptor, defined by DTD ,for example
+web.xml: 
+&lt;!DOCTYPE web-app PUBLIC  "-//Sun Microsystems, Inc.//DTD Web Application 2.3//EN"
+ "http://java.sun.com/dtd/web-app_2_3.dtd" &gt;
+&lt;web-app&gt; //… &lt;/web-app&gt;
+The EL is disabled or ignored by default, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>you have to enable it manually</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, so that it will outputs the value store in the “msg” model.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enable EL in JSP:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;%@ page isELIgnored="false" %&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Solution 2: Change web.xml entry as below:
+web.xml:
+&lt;web-app xmlns="http://java.sun.com/xml/ns/javaee" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"
+ xsi:schemaLocation="http://java.sun.com/xml/ns/javaee http://java.sun.com/xml/ns/javaee/web-app_3_0.xsd"
+     version="3.0"&gt;
+//...
+&lt;/web-app&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The EL is enabled by default, and you should see the value stored in the “msg” model, which is “hello world”.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4783,7 +4861,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4977,13 +5055,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5021,10 +5100,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -5041,7 +5120,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5341,7 +5428,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5356,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>11</v>
@@ -5393,7 +5480,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="14" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="20"/>
@@ -5421,7 +5508,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="15" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B10" s="15"/>
     </row>
@@ -5433,60 +5520,60 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B12" s="15"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B13" s="15"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="22" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="15" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B15" s="15"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="22" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="22" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B18" s="15"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="22" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="15" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -5601,13 +5688,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="72"/>
+      <c r="B4" s="73"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>112</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -5615,7 +5702,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="79"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="7" t="s">
         <v>114</v>
       </c>
@@ -5625,7 +5712,7 @@
         <v>115</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
@@ -5661,7 +5748,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="86" t="s">
         <v>124</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -5669,7 +5756,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="85"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="7" t="s">
         <v>126</v>
       </c>
@@ -5683,7 +5770,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="86" t="s">
         <v>129</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -5691,7 +5778,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="85"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="7" t="s">
         <v>131</v>
       </c>
@@ -5723,9 +5810,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5743,463 +5830,463 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="71" t="s">
-        <v>421</v>
-      </c>
-      <c r="B2" s="72"/>
+      <c r="A2" s="72" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="73"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="71" t="s">
-        <v>307</v>
-      </c>
-      <c r="B6" s="72"/>
+      <c r="A6" s="72" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" s="73"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="32" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
       <c r="A8" s="32" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="32" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="32" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="120">
       <c r="A11" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="32" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
       <c r="A13" s="32" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="32" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="35" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="32" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45">
+      <c r="A19" s="84" t="s">
+        <v>387</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="84"/>
+      <c r="B20" s="32" t="s">
         <v>385</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="B19" s="57" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="82"/>
-      <c r="B20" s="32" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
       <c r="A21" s="32" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="32" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="32" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="32" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="75">
       <c r="A25" s="32" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" s="32" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="83" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
       <c r="A28" s="83"/>
       <c r="B28" s="32" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="32" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="32" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" s="32" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
       <c r="A32" s="33" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="105">
       <c r="A33" s="57" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="90">
       <c r="A34" s="33" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="225">
       <c r="A35" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="B35" s="35" t="s">
         <v>412</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="35" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="35" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="35" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B38" s="57" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="22" customFormat="1">
       <c r="A39" s="48" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="105">
       <c r="A40" s="48" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
       <c r="A41" s="83" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="210">
       <c r="A42" s="83"/>
       <c r="B42" s="51" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
       <c r="A43" s="52" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="52" t="s">
+        <v>517</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30">
+      <c r="A45" s="88" t="s">
+        <v>519</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="120">
+      <c r="A46" s="88"/>
+      <c r="B46" s="52" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="88"/>
+      <c r="B47" s="27" t="s">
         <v>521</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="87" t="s">
-        <v>523</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="120">
-      <c r="A46" s="87"/>
-      <c r="B46" s="52" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="87"/>
-      <c r="B47" s="27" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
       <c r="A48" s="53" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45" customHeight="1">
-      <c r="A49" s="87" t="s">
-        <v>528</v>
+      <c r="A49" s="88" t="s">
+        <v>524</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="87"/>
+      <c r="A50" s="88"/>
       <c r="B50" s="53" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
       <c r="A51" s="53" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="22" customFormat="1" ht="30">
       <c r="A52" s="53" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B52" s="53" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
       <c r="A53" s="53" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B53" s="53" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="53" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B54" s="53" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="87" t="s">
-        <v>535</v>
+      <c r="A55" s="88" t="s">
+        <v>531</v>
       </c>
       <c r="B55" s="53" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="87"/>
+      <c r="A56" s="88"/>
       <c r="B56" s="53" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="53" t="s">
+        <v>538</v>
+      </c>
+      <c r="B57" s="53" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="87" t="s">
+        <v>540</v>
+      </c>
+      <c r="B58" s="55" t="s">
         <v>542</v>
       </c>
-      <c r="B57" s="53" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="86" t="s">
-        <v>544</v>
-      </c>
-      <c r="B58" s="55" t="s">
-        <v>546</v>
-      </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="86"/>
+      <c r="A59" s="87"/>
       <c r="B59" s="54" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
       <c r="A60" s="55" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B60" s="55" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="55" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B61" s="55" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="60">
-      <c r="A62" s="69" t="s">
-        <v>610</v>
-      </c>
-      <c r="B62" s="69" t="s">
-        <v>611</v>
+      <c r="A62" s="68" t="s">
+        <v>605</v>
+      </c>
+      <c r="B62" s="68" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="90">
-      <c r="A63" s="69" t="s">
-        <v>612</v>
-      </c>
-      <c r="B63" s="69" t="s">
-        <v>613</v>
+      <c r="A63" s="68" t="s">
+        <v>607</v>
+      </c>
+      <c r="B63" s="68" t="s">
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -6252,10 +6339,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="71" t="s">
-        <v>316</v>
-      </c>
-      <c r="B2" s="72"/>
+      <c r="A2" s="72" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="73"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -6266,139 +6353,139 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="71" t="s">
-        <v>317</v>
-      </c>
-      <c r="B6" s="72"/>
+      <c r="A6" s="72" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="73"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
       <c r="A10" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="88" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="87" t="s">
-        <v>328</v>
-      </c>
       <c r="B11" s="29" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="87"/>
+      <c r="A12" s="88"/>
       <c r="B12" s="29" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="75">
       <c r="A13" s="12" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="82" t="s">
-        <v>338</v>
+      <c r="A14" s="84" t="s">
+        <v>334</v>
       </c>
       <c r="B14" s="29" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="180">
+      <c r="A15" s="84"/>
+      <c r="B15" s="29" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="180">
+      <c r="A16" s="84"/>
+      <c r="B16" s="29" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="82"/>
-      <c r="B15" s="29" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="82"/>
-      <c r="B16" s="29" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="22" customFormat="1" ht="30">
       <c r="A17" s="29" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90">
       <c r="A18" s="12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="22" customFormat="1" ht="120">
       <c r="A19" s="31" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
       <c r="A20" s="12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="12" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="28" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="30" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -6443,149 +6530,149 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="71" t="s">
-        <v>421</v>
-      </c>
-      <c r="B2" s="72"/>
+      <c r="A2" s="72" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="73"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="59" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="71" t="s">
-        <v>317</v>
-      </c>
-      <c r="B7" s="72"/>
+      <c r="A7" s="72" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="73"/>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="59" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="59" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
       <c r="A10" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" customHeight="1">
+      <c r="A11" s="87" t="s">
+        <v>571</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="87"/>
+      <c r="B12" s="22" t="s">
         <v>573</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1">
-      <c r="A11" s="86" t="s">
-        <v>575</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="86"/>
-      <c r="B12" s="22" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" s="59" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="60" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="60" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75">
       <c r="A16" s="61" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="62" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75">
       <c r="A18" s="62" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="62" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="62" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
       <c r="A21" s="63" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="105">
       <c r="A22" s="63" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="66" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -6629,93 +6716,93 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="71" t="s">
-        <v>421</v>
-      </c>
-      <c r="B2" s="72"/>
+      <c r="A2" s="72" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="73"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="71" t="s">
-        <v>317</v>
-      </c>
-      <c r="B7" s="72"/>
+      <c r="A7" s="72" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="73"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="22" t="s">
-        <v>606</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>607</v>
+        <v>601</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="22" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="22" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="75">
       <c r="A11" s="22" t="s">
-        <v>616</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>617</v>
+        <v>611</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
       <c r="A12" s="22" t="s">
-        <v>618</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>619</v>
+        <v>613</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="105">
       <c r="A13" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="B13" s="70" t="s">
-        <v>621</v>
+        <v>615</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="120">
       <c r="A14" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="75">
+      <c r="A15" s="89" t="s">
+        <v>619</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="89"/>
+      <c r="B16" s="69" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="75">
+      <c r="A17" s="70" t="s">
         <v>622</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B17" s="69" t="s">
         <v>623</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="75">
-      <c r="A15" s="88" t="s">
-        <v>624</v>
-      </c>
-      <c r="B15" s="70" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="88"/>
-      <c r="B16" s="70" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="75">
-      <c r="A17" s="89" t="s">
-        <v>627</v>
-      </c>
-      <c r="B17" s="70" t="s">
-        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -6734,11 +6821,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6756,69 +6843,69 @@
         <v>11</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="22" customFormat="1">
-      <c r="A2" s="71" t="s">
-        <v>497</v>
-      </c>
-      <c r="B2" s="72"/>
+      <c r="A2" s="72" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2" s="73"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="22" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="22" customFormat="1"/>
     <row r="5" spans="1:3">
-      <c r="A5" s="71" t="s">
-        <v>306</v>
-      </c>
-      <c r="B5" s="72"/>
+      <c r="A5" s="72" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="73"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="32" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="39" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="74"/>
+      <c r="B9" s="75"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="22" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="72"/>
+      <c r="B12" s="73"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
@@ -6854,94 +6941,94 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="72" t="s">
         <v>290</v>
       </c>
-      <c r="B21" s="72"/>
+      <c r="B21" s="73"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="22" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="71" t="s">
-        <v>562</v>
-      </c>
-      <c r="B28" s="72"/>
+      <c r="A28" s="72" t="s">
+        <v>558</v>
+      </c>
+      <c r="B28" s="73"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="22" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="22" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6949,43 +7036,58 @@
       <c r="B31" s="22"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="72"/>
+      <c r="B33" s="73"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="22" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="71" t="s">
-        <v>598</v>
-      </c>
-      <c r="B36" s="72"/>
+      <c r="A36" s="72" t="s">
+        <v>594</v>
+      </c>
+      <c r="B36" s="73"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="22" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>599</v>
+        <v>595</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="73"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>625</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -7001,9 +7103,10 @@
     <hyperlink ref="B24" r:id="rId9"/>
     <hyperlink ref="B25" r:id="rId10"/>
     <hyperlink ref="B26" r:id="rId11"/>
+    <hyperlink ref="B40" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -7031,21 +7134,21 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="73" t="s">
-        <v>421</v>
-      </c>
-      <c r="B2" s="74"/>
+      <c r="A2" s="74" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="75"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1"/>
     <row r="4" spans="1:2" s="22" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="74"/>
+      <c r="B5" s="75"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7053,7 +7156,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="81"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -7075,7 +7178,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -7083,7 +7186,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="79"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -7093,7 +7196,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
@@ -7309,7 +7412,7 @@
         <v>74</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
@@ -7361,7 +7464,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="79" t="s">
+      <c r="A46" s="80" t="s">
         <v>87</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -7369,19 +7472,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="79"/>
+      <c r="A47" s="80"/>
       <c r="B47" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="79"/>
+      <c r="A48" s="80"/>
       <c r="B48" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="79" t="s">
+      <c r="A49" s="80" t="s">
         <v>91</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -7389,19 +7492,19 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="79"/>
+      <c r="A50" s="80"/>
       <c r="B50" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90">
-      <c r="A51" s="79"/>
+      <c r="A51" s="80"/>
       <c r="B51" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75">
-      <c r="A52" s="79" t="s">
+      <c r="A52" s="80" t="s">
         <v>95</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -7409,9 +7512,9 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="79"/>
+      <c r="A53" s="80"/>
       <c r="B53" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -7419,7 +7522,7 @@
         <v>97</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -7463,7 +7566,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="77" t="s">
+      <c r="A60" s="78" t="s">
         <v>108</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -7471,159 +7574,159 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="240">
-      <c r="A61" s="77"/>
+      <c r="A61" s="78"/>
       <c r="B61" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="180">
-      <c r="A62" s="77"/>
+      <c r="A62" s="78"/>
       <c r="B62" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="30">
       <c r="A63" s="49" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="135">
       <c r="A64" s="24" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="150">
       <c r="A65" s="21" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
       <c r="A66" s="34" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="30">
       <c r="A67" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="105">
+      <c r="A68" s="77" t="s">
         <v>471</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B68" s="38" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="120">
+      <c r="A69" s="77"/>
+      <c r="B69" s="38" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="75">
+      <c r="A70" s="77"/>
+      <c r="B70" s="38" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="105">
-      <c r="A68" s="76" t="s">
-        <v>475</v>
-      </c>
-      <c r="B68" s="38" t="s">
+    <row r="71" spans="1:2" ht="60">
+      <c r="A71" s="77" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="120">
-      <c r="A69" s="76"/>
-      <c r="B69" s="38" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="75">
-      <c r="A70" s="76"/>
-      <c r="B70" s="38" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="76" t="s">
-        <v>476</v>
-      </c>
       <c r="B71" s="46" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="60">
-      <c r="A72" s="76"/>
+      <c r="A72" s="77"/>
       <c r="B72" s="46" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30">
       <c r="A73" s="40" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B73" s="41" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="60">
       <c r="A74" s="40" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="45">
       <c r="A75" s="40" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B75" s="41" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30">
       <c r="A76" s="40" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="75">
       <c r="A77" s="44" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B77" s="41" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="42" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="45">
       <c r="A79" s="42" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="75" t="s">
-        <v>502</v>
+      <c r="A80" s="76" t="s">
+        <v>498</v>
       </c>
       <c r="B80" s="46" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="75"/>
+      <c r="A81" s="76"/>
       <c r="B81" s="46" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -7674,10 +7777,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="72"/>
+      <c r="B4" s="73"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
@@ -7907,10 +8010,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="73"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
@@ -7934,11 +8037,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7955,183 +8058,193 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="71" t="s">
+    <row r="2" spans="1:2" s="22" customFormat="1">
+      <c r="A2" s="72" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="73"/>
+    </row>
+    <row r="3" spans="1:2" s="22" customFormat="1"/>
+    <row r="4" spans="1:2" s="22" customFormat="1"/>
+    <row r="5" spans="1:2" s="22" customFormat="1"/>
+    <row r="7" spans="1:2">
+      <c r="A7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="72"/>
-    </row>
-    <row r="4" spans="1:2" ht="90">
-      <c r="A4" s="6" t="s">
+      <c r="B7" s="73"/>
+    </row>
+    <row r="8" spans="1:2" ht="90">
+      <c r="A8" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105">
-      <c r="A5" s="6" t="s">
+    <row r="9" spans="1:2" ht="105">
+      <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="135">
-      <c r="A6" s="10" t="s">
+    <row r="10" spans="1:2" ht="135">
+      <c r="A10" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
-        <v>197</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30">
       <c r="A13" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
       <c r="A14" s="8" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="6" t="s">
-        <v>207</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="6" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
       <c r="A24" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>222</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:B3"/>
+  <mergeCells count="2">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
@@ -8145,9 +8258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8166,10 +8279,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="22" customFormat="1">
-      <c r="A2" s="71" t="s">
-        <v>421</v>
-      </c>
-      <c r="B2" s="72"/>
+      <c r="A2" s="72" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="73"/>
     </row>
     <row r="3" spans="1:2" s="22" customFormat="1">
       <c r="A3" s="8"/>
@@ -8180,10 +8293,10 @@
       <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="71" t="s">
-        <v>317</v>
-      </c>
-      <c r="B5" s="72"/>
+      <c r="A5" s="72" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" s="73"/>
     </row>
     <row r="6" spans="1:2" ht="75">
       <c r="A6" s="36" t="s">
@@ -8194,263 +8307,268 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="120">
-      <c r="A7" s="79" t="s">
-        <v>310</v>
+      <c r="A7" s="80" t="s">
+        <v>307</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="240">
-      <c r="A8" s="79"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="12" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="76" t="s">
-        <v>325</v>
+      <c r="A9" s="77" t="s">
+        <v>322</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="255">
-      <c r="A10" s="76"/>
-      <c r="B10" s="67" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="120">
-      <c r="A11" s="76"/>
-      <c r="B11" s="67" t="s">
-        <v>605</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="120">
+      <c r="A10" s="77"/>
+      <c r="B10" s="71" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="135">
+      <c r="A11" s="77"/>
+      <c r="B11" s="71" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150">
-      <c r="A12" s="82" t="s">
-        <v>444</v>
+      <c r="A12" s="84" t="s">
+        <v>440</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="22" customFormat="1" ht="105">
-      <c r="A13" s="82"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="36" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="84" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60">
+      <c r="A15" s="84"/>
+      <c r="B15" s="64" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="84"/>
+      <c r="B16" s="36" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="84" t="s">
         <v>422</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B17" s="36" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="82"/>
-      <c r="B15" s="64" t="s">
+    <row r="18" spans="1:2" ht="135">
+      <c r="A18" s="84"/>
+      <c r="B18" s="36" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="82"/>
-      <c r="B16" s="36" t="s">
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="84"/>
+      <c r="B19" s="36" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="82" t="s">
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="84"/>
+      <c r="B20" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="B17" s="36" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="84"/>
+      <c r="B21" s="36" t="s">
         <v>427</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="135">
-      <c r="A18" s="82"/>
-      <c r="B18" s="36" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="82"/>
-      <c r="B19" s="36" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="82"/>
-      <c r="B20" s="36" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="82"/>
-      <c r="B21" s="36" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
       <c r="A22" s="83" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="45">
       <c r="A23" s="83"/>
       <c r="B23" s="36" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
       <c r="A24" s="83"/>
       <c r="B24" s="36" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
       <c r="A25" s="83"/>
       <c r="B25" s="36" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
       <c r="A26" s="83"/>
       <c r="B26" s="36" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="84" t="s">
+        <v>434</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="165">
+      <c r="A28" s="84"/>
+      <c r="B28" s="36" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="84"/>
+      <c r="B29" s="36" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="82" t="s">
-        <v>438</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="165">
-      <c r="A28" s="82"/>
-      <c r="B28" s="36" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="82"/>
-      <c r="B29" s="36" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
       <c r="A30" s="50" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60">
       <c r="A31" s="36" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
       <c r="A32" s="36" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75">
       <c r="A33" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="84" t="s">
+        <v>448</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="75">
+      <c r="A35" s="84"/>
+      <c r="B35" s="36" t="s">
         <v>450</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="82" t="s">
-        <v>452</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="82"/>
-      <c r="B35" s="36" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="120">
       <c r="A36" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="84" t="s">
+        <v>453</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="84"/>
+      <c r="B38" s="36" t="s">
         <v>455</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="82" t="s">
-        <v>457</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="82"/>
-      <c r="B38" s="36" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="135">
       <c r="A39" s="36" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="82" t="s">
-        <v>457</v>
+      <c r="A40" s="84" t="s">
+        <v>453</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="82"/>
+      <c r="A41" s="84"/>
       <c r="B41" s="36" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="A42" s="83" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B42" s="65" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
       <c r="A43" s="83"/>
       <c r="B43" s="65" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A12:A13"/>
@@ -8459,11 +8577,6 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
@@ -8498,10 +8611,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="73"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="8" t="s">
@@ -8552,7 +8665,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="80" t="s">
         <v>248</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -8560,25 +8673,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="79"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="7" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="79"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="85" t="s">
         <v>252</v>
       </c>
-      <c r="B13" s="84"/>
+      <c r="B13" s="85"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="80" t="s">
         <v>253</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -8586,13 +8699,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="79"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="79"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="7" t="s">
         <v>256</v>
       </c>
@@ -8622,7 +8735,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="80" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -8630,7 +8743,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="79"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="7" t="s">
         <v>265</v>
       </c>
@@ -8708,7 +8821,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="79" t="s">
+      <c r="A31" s="80" t="s">
         <v>284</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -8716,13 +8829,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="79"/>
+      <c r="A32" s="80"/>
       <c r="B32" s="7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="79"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="7" t="s">
         <v>287</v>
       </c>
@@ -8754,17 +8867,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B7"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" customWidth="1"/>
-    <col min="2" max="2" width="121.85546875" customWidth="1"/>
+    <col min="1" max="1" width="53.7109375" customWidth="1"/>
+    <col min="2" max="2" width="133.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8775,52 +8888,125 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="72" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="73"/>
+    </row>
     <row r="3" spans="1:2" s="22" customFormat="1"/>
-    <row r="8" spans="1:2">
-      <c r="B8" s="15"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="71" t="s">
-        <v>297</v>
-      </c>
-      <c r="B10" s="72"/>
+    <row r="6" spans="1:2">
+      <c r="A6" s="72" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="73"/>
+    </row>
+    <row r="7" spans="1:2" s="22" customFormat="1">
+      <c r="A7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="22" customFormat="1" ht="45">
+      <c r="A8" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="71" t="s">
-        <v>291</v>
-      </c>
-      <c r="B15" s="72"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>290</v>
-      </c>
-      <c r="B16" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>296</v>
+      <c r="A11" s="22" t="s">
+        <v>630</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60">
+      <c r="A13" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="165">
+      <c r="A14" s="90"/>
+      <c r="B14" s="71" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="91" t="s">
+        <v>636</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="91"/>
+      <c r="B16" s="71" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="22" customFormat="1" ht="75">
+      <c r="A17" s="92" t="s">
+        <v>641</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60">
+      <c r="A18" s="70" t="s">
+        <v>639</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="105">
+      <c r="A19" s="70" t="s">
+        <v>640</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>644</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A10:B10"/>
+  <mergeCells count="4">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A11" display="Topics"/>

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="693">
   <si>
     <t>Main Topic</t>
   </si>
@@ -80,105 +80,7 @@
     <t>Up</t>
   </si>
   <si>
-    <t>Spring required jar files</t>
-  </si>
-  <si>
-    <t>1. Commons-logging jar file : http://commons.apache.org/logging/</t>
-  </si>
-  <si>
-    <t>2. Spring jar files version wise: http://repo.spring.io/release/org/springframework/spring</t>
-  </si>
-  <si>
-    <t>List of jars needed</t>
-  </si>
-  <si>
-    <t>commons-logging-1.1.1, spring-aop-4.1.6.RELEASE, spring-aspects-4.1.6.RELEASE, spring-beans-4.1.6.RELEASE, spring-context-4.1.6.RELEASE
-spring-context-support-4.1.6.RELEASE, spring-core-4.1.6.RELEASE, spring-expression-4.1.6.RELEASE, spring-instrument-4.1.6.RELEASE
-spring-instrument-tomcat-4.1.6.RELEASE, spring-jdbc-4.1.6.RELEASE, spring-jms-4.1.6.RELEASE, spring-messaging-4.1.6.RELEASE
-spring-orm-4.1.6.RELEASE, spring-oxm-4.1.6.RELEASE, spring-test-4.1.6.RELEASE, spring-tx-4.1.6.RELEASE, spring-web-4.1.6.RELEASE
-spring-webmvc-4.1.6.RELEASE, spring-webmvc-portlet-4.1.6.RELEASE, spring-websocket-4.1.6.RELEASE</t>
-  </si>
-  <si>
     <t>Maven dependencies</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;dependency&gt;&lt;groupId&gt;javax.servlet&lt;/groupId&gt;&lt;artifactId&gt;servlet-api&lt;/artifactId&gt;&lt;version&gt;2.5&lt;/version&gt;&lt;scope&gt;provided&lt;/scope&gt;&lt;/dependency&gt;
-&lt;dependency&gt;&lt;groupId&gt;javax.servlet&lt;/groupId&gt;&lt;artifactId&gt;jstl&lt;/artifactId&gt;&lt;version&gt;1.2&lt;/version&gt;&lt;scope&gt;provided&lt;/scope&gt;&lt;/dependency&gt;
-&lt;dependency&gt;  &lt;groupId&gt;org.springframework&lt;/groupId&gt;   &lt;artifactId&gt;spring-core&lt;/artifactId&gt;   &lt;version&gt;4.0.3.RELEASE&lt;/version&gt;  &lt;/dependency&gt;
-&lt;dependency&gt;  &lt;groupId&gt;org.springframework&lt;/groupId&gt;   &lt;artifactId&gt;spring-web&lt;/artifactId&gt;   &lt;version&gt;4.0.3.RELEASE&lt;/version&gt;  &lt;/dependency&gt;
-&lt;dependency&gt; &lt;groupId&gt;org.springframework&lt;/groupId&gt; &lt;artifactId&gt;spring-webmvc&lt;/artifactId&gt; &lt;version&gt;4.0.2.RELEASE&lt;/version&gt; &lt;/dependency&gt;
-&lt;dependency&gt;   &lt;groupId&gt;org.springframework&lt;/groupId&gt;   &lt;artifactId&gt;spring&lt;/artifactId&gt;   &lt;version&gt;2.5.6&lt;/version&gt;  &lt;/dependency&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;!-- Spring and Transactions --&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;dependency&gt;&lt;groupId&gt;org.springframework&lt;/groupId&gt;   &lt;artifactId&gt;spring-context&lt;/artifactId&gt;   &lt;version&gt;4.0.3.RELEASE&lt;/version&gt; &lt;/dependency&gt;
-&lt;dependency&gt;&lt;groupId&gt;org.springframework&lt;/groupId&gt; &lt;artifactId&gt;spring-tx&lt;/artifactId&gt; &lt;version&gt;4.0.3.RELEASE&lt;/version&gt; &lt;/dependency&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;!-- Spring ORM support --&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;dependency&gt;&lt;groupId&gt;org.springframework&lt;/groupId&gt;&lt;artifactId&gt;spring-orm&lt;/artifactId&gt; &lt;version&gt;4.0.3.RELEASE&lt;/version&gt;&lt;/dependency&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;!-- Logging with SLF4J &amp; LogBack --&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;dependency&gt; &lt;groupId&gt;org.slf4j&lt;/groupId&gt; &lt;artifactId&gt;slf4j-api&lt;/artifactId&gt; &lt;version&gt;1.7.5&lt;/version&gt; &lt;scope&gt;compile&lt;/scope&gt; &lt;/dependency&gt;
-&lt;dependency&gt; &lt;groupId&gt;ch.qos.logback&lt;/groupId&gt; &lt;artifactId&gt;logback-classic&lt;/artifactId&gt; &lt;version&gt;1.0.13&lt;/version&gt; &lt;scope&gt;runtime&lt;/scope&gt;
-  &lt;/dependency&gt;</t>
-    </r>
   </si>
   <si>
     <t>Benefits of Spring</t>
@@ -3408,9 +3310,6 @@
 Ex: context.getMessage("customer.name",null, Locale.US);</t>
   </si>
   <si>
-    <t>In the avove example:</t>
-  </si>
-  <si>
     <t>The Locale.US will retrieve the messages from ‘messages_en_US.properties‘, while Locale.SIMPLIFIED_CHINESE will retrieve the messages from ‘messages_zh_CN.properties‘.</t>
   </si>
   <si>
@@ -4478,9 +4377,6 @@
 5. create an application.properties (or YAML) with server port, app name and profile</t>
   </si>
   <si>
-    <t>AspectJ quick guied - cheat sheet</t>
-  </si>
-  <si>
     <t>http://www.eclipse.org/aspectj/doc/next/quick5.pdf</t>
   </si>
   <si>
@@ -4648,6 +4544,208 @@
       </rPr>
       <t>The EL is enabled by default, and you should see the value stored in the “msg” model, which is “hello world”.</t>
     </r>
+  </si>
+  <si>
+    <t>Spring MVC Annotations</t>
+  </si>
+  <si>
+    <t>Spring Security Annotations</t>
+  </si>
+  <si>
+    <t>web systique</t>
+  </si>
+  <si>
+    <t>http://websystique.com/spring-security-tutorial/</t>
+  </si>
+  <si>
+    <t>http://websystique.com/spring-4-mvc-tutorial/</t>
+  </si>
+  <si>
+    <t>Spring MVC tutorial</t>
+  </si>
+  <si>
+    <t>http://websystique.com/spring-security/spring-security-4-hello-world-annotation-xml-example/</t>
+  </si>
+  <si>
+    <t>http://websystique.com/spring-security/spring-security-4-custom-login-form-annotation-example/</t>
+  </si>
+  <si>
+    <t>Projects with XML</t>
+  </si>
+  <si>
+    <t>Project with Java Config</t>
+  </si>
+  <si>
+    <t>Spring MVC Hello World</t>
+  </si>
+  <si>
+    <t>Hard Disk -&gt; I:\JavaPrep\practiceProjects\Spring\SpringMVCWithXml\SpringMVCHelloWorld</t>
+  </si>
+  <si>
+    <t>Projects with Java Config</t>
+  </si>
+  <si>
+    <t>Hard Disk -&gt; I:\JavaPrep\practiceProjects\Spring\SpringSecurityWithJavaConfig\SpringMVCSecurityHelloWorld</t>
+  </si>
+  <si>
+    <t>Hard Disk -&gt; I:\JavaPrep\practiceProjects\Spring\SpringSecurityWithJavaConfig\SpringMVCSecurityCustomLogin</t>
+  </si>
+  <si>
+    <t>Spring MVC Security Custom Login</t>
+  </si>
+  <si>
+    <t>Spring MVC Security Hello World</t>
+  </si>
+  <si>
+    <t>Spring AOP - Basic Definitions</t>
+  </si>
+  <si>
+    <t>Spring AOP - Pluralsight - Definitions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aspect Oriented Programming (AOP) using Spring AOP and AspectJ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by Eberhard Wolff</t>
+    </r>
+  </si>
+  <si>
+    <t>Spring AOP Reference documentation</t>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring/docs/current/spring-framework-reference/htmlsingle/#aop</t>
+  </si>
+  <si>
+    <t>Quick reference for Spring AOP/AspectJ syntax</t>
+  </si>
+  <si>
+    <t>Projects with xml</t>
+  </si>
+  <si>
+    <t>project with Java config</t>
+  </si>
+  <si>
+    <t>I18N implementation</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\practiceProjects\Spring\SpringCoreWithXml\SpringI18NPractice</t>
+  </si>
+  <si>
+    <t>Spring Dependency injection</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\practiceProjects\Spring\SpringCoreWithJavaConfig\SpringDIPractice</t>
+  </si>
+  <si>
+    <t>projects with java config</t>
+  </si>
+  <si>
+    <t>In the above example:</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\practiceProjects\Spring\SpringCoreWithXml\SpringDIPractice</t>
+  </si>
+  <si>
+    <t>Various classes in Spring Security</t>
+  </si>
+  <si>
+    <t>The most fundamental object is SecurityContextHolder. This is where we store details of the present security context of the application, which includes details of the principal currently using the application. By default the SecurityContextHolder uses a ThreadLocal to store these details, which means that the security context is always available to methods in the same thread of execution, even if the security context is not explicitly passed around as an argument to those methods. Using a ThreadLocal in this way is quite safe if care is taken to clear the thread after the present principal’s request is processed. Of course, Spring Security takes care of this for you automatically so there is no need to worry about it.</t>
+  </si>
+  <si>
+    <t>Some applications aren’t entirely suitable for using a ThreadLocal, because of the specific way they work with threads. For example, a Swing client might want all threads in a Java Virtual Machine to use the same security context. SecurityContextHolder can be configured with a strategy on startup to specify how you would like the context to be stored. For a standalone application you would use the SecurityContextHolder.MODE_GLOBAL strategy. Other applications might want to have threads spawned by the secure thread also assume the same security identity. This is achieved by using SecurityContextHolder.MODE_INHERITABLETHREADLOCAL. You can change the mode from the default SecurityContextHolder.MODE_THREADLOCAL in two ways. The first is to set a system property, the second is to call a static method on SecurityContextHolder. Most applications won’t need to change from the default, but if you do, take a look at the JavaDoc for SecurityContextHolder to learn more.</t>
+  </si>
+  <si>
+    <t>WebSecurityConfigurerAdapter</t>
+  </si>
+  <si>
+    <t>AbstractSecurityWebApplicationInitializer</t>
+  </si>
+  <si>
+    <t>SecurityContextHolder</t>
+  </si>
+  <si>
+    <t>SecurityContext</t>
+  </si>
+  <si>
+    <t>SecurityContext securityContext = SecurityContextHolder.getContext();</t>
+  </si>
+  <si>
+    <t>The object returned by the call to getContext() is an instance of the SecurityContext interface. 
+This is the object that is kept in thread-local storage.</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>Inside the SecurityContextHolder we store details of the principal currently interacting with the application. Spring Security uses an Authentication object to represent this information. You won’t normally need to create an Authentication object yourself, but it is fairly common for users to query the Authentication object. You can use the following code block - from anywhere in your application - to obtain the name of the currently authenticated user, for example:</t>
+  </si>
+  <si>
+    <t>Object principal = SecurityContextHolder.getContext().getAuthentication().getPrincipal();
+if (principal instanceof UserDetails) {
+String username = ((UserDetails)principal).getUsername();
+} else {
+String username = principal.toString();
+}</t>
+  </si>
+  <si>
+    <t>1. SecurityConfig class extends this class
+2. this will create springSecurityFilter chain</t>
+  </si>
+  <si>
+    <t>1. Security initializer class extends this class
+2. registers springSecurityFilter chain with application war file</t>
+  </si>
+  <si>
+    <t>1. org.springframework.security.config.annotation.web.configuration.WebSecurityConfigurerAdapter
+2. org.springframework.security.web.context.AbstractSecurityWebApplicationInitializer
+3. org.springframework.security.core.context.SecurityContextHolder
+4. org.springframework.security.core.context.SecurityContext
+5. org.springframework.security.core.Authentication
+6. org.springframework.security.core.userdetails.UserDetails
+7. org.springframework.security.core.GrantedAuthority
+8. org.springframework.security.core.userdetails.UserDetailsService
+9. org.springframework.security.authentication.AuthenticationManager
+10. org.springframework.security.authentication.AuthenticationProvider</t>
+  </si>
+  <si>
+    <t>GrantedAuthority</t>
+  </si>
+  <si>
+    <t>Besides the principal, another important method provided by Authentication is getAuthorities(). This method provides an array of GrantedAuthority objects. A GrantedAuthority is, not surprisingly, an authority that is granted to the principal. Such authorities are usually "roles", such as ROLE_ADMINISTRATOR or ROLE_HR_SUPERVISOR. These roles are later on configured for web authorization, method authorization and domain object authorization. Other parts of Spring Security are capable of interpreting these authorities, and expect them to be present. GrantedAuthority objects are usually loaded by the UserDetailsService.</t>
+  </si>
+  <si>
+    <t>Usually the GrantedAuthority objects are application-wide permissions. They are not specific to a given domain object. Thus, you wouldn’t likely have a GrantedAuthority to represent a permission to Employee object number 54, because if there are thousands of such authorities you would quickly run out of memory (or, at the very least, cause the application to take a long time to authenticate a user). Of course, Spring Security is expressly designed to handle this common requirement, but you’d instead use the project’s domain object security capabilities for this purpose.</t>
+  </si>
+  <si>
+    <t>Just to recap, the major building blocks of Spring Security that we’ve seen so far are:</t>
+  </si>
+  <si>
+    <t>1. SecurityContextHolder, to provide access to the SecurityContext.
+2. SecurityContext, to hold the Authentication and possibly request-specific security information.
+3. Authentication, to represent the principal in a Spring Security-specific manner.
+4. GrantedAuthority, to reflect the application-wide permissions granted to a principal.
+5. UserDetails, to provide the necessary information to build an Authentication object from your application’s DAOs or other source of security data.
+6. UserDetailsService, to create a UserDetails when passed in a String-based username (or certificate ID or the like).</t>
+  </si>
+  <si>
+    <t>What is authentication in Spring Security?</t>
+  </si>
+  <si>
+    <t>Let’s consider a standard authentication scenario that everyone is familiar with.
+1. A user is prompted to log in with a username and password.
+2. The system (successfully) verifies that the password is correct for the username.
+3. The context information for that user is obtained (their list of roles and so on).
+4. A security context is established for the user
+5. The user proceeds, potentially to perform some operation which is potentially protected by an access control mechanism which checks the required permissions for the operation against the current security context information.</t>
   </si>
 </sst>
 </file>
@@ -4861,7 +4959,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4871,12 +4969,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5066,6 +5158,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5077,6 +5184,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -5093,41 +5206,32 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5424,156 +5528,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" style="20" customWidth="1"/>
     <col min="3" max="3" width="60.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>490</v>
+      <c r="B1" s="43" t="s">
+        <v>483</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="14"/>
+      <c r="A4" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="12"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="14" t="s">
-        <v>562</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="B10" s="15"/>
+      <c r="A10" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="B12" s="15"/>
+      <c r="A12" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B13" s="13"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="B13" s="15"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>510</v>
+      <c r="B14" s="20" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="B15" s="15"/>
+      <c r="A15" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="B15" s="13"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>342</v>
+      <c r="A16" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>342</v>
+      <c r="A17" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="22" t="s">
-        <v>563</v>
-      </c>
-      <c r="B18" s="15"/>
+      <c r="A18" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="B18" s="13"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="22" t="s">
-        <v>564</v>
+      <c r="A19" s="20" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="15" t="s">
-        <v>594</v>
+      <c r="A20" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="68" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="68" t="s">
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -5688,107 +5802,107 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="73"/>
+      <c r="B4" s="76"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="120">
+      <c r="A6" s="85"/>
+      <c r="B6" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60">
+      <c r="A7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60">
+      <c r="A8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="90">
+      <c r="A9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="80"/>
-      <c r="B6" s="7" t="s">
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="60">
-      <c r="A8" s="6" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="90">
+      <c r="A11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="90">
-      <c r="A9" s="6" t="s">
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="6" t="s">
+    <row r="13" spans="1:2" ht="45">
+      <c r="A13" s="92"/>
+      <c r="B13" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="7" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="7" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="92" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="86" t="s">
+      <c r="B15" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="7" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="285">
+      <c r="A16" s="92"/>
+      <c r="B16" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="86"/>
-      <c r="B13" s="7" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="86" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="86"/>
-      <c r="B16" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5817,12 +5931,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="129.5703125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="129.5703125" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -5830,463 +5944,463 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="72" t="s">
-        <v>417</v>
-      </c>
-      <c r="B2" s="73"/>
+      <c r="A2" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" s="76"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="76"/>
+    </row>
+    <row r="7" spans="1:2" ht="75">
+      <c r="A7" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60">
+      <c r="A8" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="120">
+      <c r="A11" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60">
+      <c r="A13" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45">
+      <c r="A19" s="86" t="s">
+        <v>381</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="86"/>
+      <c r="B20" s="30" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45">
+      <c r="A21" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B23" s="30" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="72" t="s">
-        <v>304</v>
-      </c>
-      <c r="B6" s="73"/>
-    </row>
-    <row r="7" spans="1:2" ht="75">
-      <c r="A7" s="32" t="s">
-        <v>356</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="60">
-      <c r="A8" s="32" t="s">
-        <v>358</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="32" t="s">
-        <v>362</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="120">
-      <c r="A11" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="60">
-      <c r="A13" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="32" t="s">
-        <v>378</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="84" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="B24" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="B19" s="57" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="75">
+      <c r="A25" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="87" t="s">
+        <v>392</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="120">
+      <c r="A28" s="87"/>
+      <c r="B28" s="30" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="60">
+      <c r="A32" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="105">
+      <c r="A33" s="55" t="s">
+        <v>547</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="90">
+      <c r="A34" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="225">
+      <c r="A35" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30">
+      <c r="A36" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="B36" s="55" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="B37" s="55" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="B38" s="55" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="84"/>
-      <c r="B20" s="32" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="45">
-      <c r="A21" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="32" t="s">
-        <v>388</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="32" t="s">
-        <v>392</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="75">
-      <c r="A25" s="32" t="s">
-        <v>394</v>
-      </c>
-      <c r="B25" s="57" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="83" t="s">
-        <v>398</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="83"/>
-      <c r="B28" s="32" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="32" t="s">
-        <v>404</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="B32" s="57" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="105">
-      <c r="A33" s="57" t="s">
-        <v>554</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="90">
-      <c r="A34" s="33" t="s">
-        <v>407</v>
-      </c>
-      <c r="B34" s="48" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="225">
-      <c r="A35" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30">
-      <c r="A36" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="B36" s="57" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="B37" s="57" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="B38" s="57" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" s="22" customFormat="1">
-      <c r="A39" s="48" t="s">
-        <v>503</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>504</v>
+    <row r="39" spans="1:2" s="20" customFormat="1">
+      <c r="A39" s="46" t="s">
+        <v>496</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="105">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="46" t="s">
+        <v>499</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="45">
+      <c r="A41" s="87" t="s">
+        <v>507</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="210">
+      <c r="A42" s="87"/>
+      <c r="B42" s="49" t="s">
         <v>506</v>
       </c>
-      <c r="B40" s="48" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="83" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="45">
+      <c r="A43" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="50" t="s">
+        <v>510</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30">
+      <c r="A45" s="93" t="s">
+        <v>512</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="120">
+      <c r="A46" s="93"/>
+      <c r="B46" s="50" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="93"/>
+      <c r="B47" s="25" t="s">
         <v>514</v>
       </c>
-      <c r="B41" s="51" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="210">
-      <c r="A42" s="83"/>
-      <c r="B42" s="51" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="52" t="s">
-        <v>515</v>
-      </c>
-      <c r="B43" s="52" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="60">
+      <c r="A48" s="51" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="52" t="s">
+      <c r="B48" s="54" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45" customHeight="1">
+      <c r="A49" s="93" t="s">
         <v>517</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B49" s="51" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="88" t="s">
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="93"/>
+      <c r="B50" s="51" t="s">
         <v>519</v>
       </c>
-      <c r="B45" s="52" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="30">
+      <c r="A51" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="B51" s="25" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="120">
-      <c r="A46" s="88"/>
-      <c r="B46" s="52" t="s">
+    <row r="52" spans="1:2" s="20" customFormat="1" ht="30">
+      <c r="A52" s="51" t="s">
+        <v>525</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="45">
+      <c r="A53" s="51" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="88"/>
-      <c r="B47" s="27" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="53" t="s">
+      <c r="B53" s="51" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30">
+      <c r="A54" s="51" t="s">
         <v>523</v>
       </c>
-      <c r="B48" s="56" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="45" customHeight="1">
-      <c r="A49" s="88" t="s">
+      <c r="B54" s="51" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="93" t="s">
         <v>524</v>
       </c>
-      <c r="B49" s="53" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="88"/>
-      <c r="B50" s="53" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="30">
-      <c r="A51" s="53" t="s">
-        <v>528</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" s="22" customFormat="1" ht="30">
-      <c r="A52" s="53" t="s">
+      <c r="B55" s="51" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="60">
+      <c r="A56" s="93"/>
+      <c r="B56" s="51" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="51" t="s">
+        <v>531</v>
+      </c>
+      <c r="B57" s="51" t="s">
         <v>532</v>
       </c>
-      <c r="B52" s="53" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="91" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="53" t="s">
-        <v>529</v>
-      </c>
-      <c r="B53" s="53" t="s">
+      <c r="B58" s="53" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="91"/>
+      <c r="B59" s="52" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="53" t="s">
-        <v>530</v>
-      </c>
-      <c r="B54" s="53" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="88" t="s">
-        <v>531</v>
-      </c>
-      <c r="B55" s="53" t="s">
+    <row r="60" spans="1:2" ht="30">
+      <c r="A60" s="53" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="88"/>
-      <c r="B56" s="53" t="s">
+      <c r="B60" s="53" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="53" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="53" t="s">
         <v>538</v>
       </c>
-      <c r="B57" s="53" t="s">
+      <c r="B61" s="53" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="87" t="s">
-        <v>540</v>
-      </c>
-      <c r="B58" s="55" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="87"/>
-      <c r="B59" s="54" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="55" t="s">
-        <v>543</v>
-      </c>
-      <c r="B60" s="55" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="55" t="s">
-        <v>545</v>
-      </c>
-      <c r="B61" s="55" t="s">
-        <v>546</v>
-      </c>
-    </row>
     <row r="62" spans="1:2" ht="60">
-      <c r="A62" s="68" t="s">
-        <v>605</v>
-      </c>
-      <c r="B62" s="68" t="s">
-        <v>606</v>
+      <c r="A62" s="66" t="s">
+        <v>598</v>
+      </c>
+      <c r="B62" s="66" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="90">
-      <c r="A63" s="68" t="s">
-        <v>607</v>
-      </c>
-      <c r="B63" s="68" t="s">
-        <v>608</v>
+      <c r="A63" s="66" t="s">
+        <v>600</v>
+      </c>
+      <c r="B63" s="66" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -6326,12 +6440,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="110.85546875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="52.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="110.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6339,153 +6453,153 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="75" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="76"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="76"/>
+    </row>
+    <row r="7" spans="1:2" ht="60">
+      <c r="A7" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B2" s="73"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="72" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="75">
+      <c r="A10" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="B6" s="73"/>
-    </row>
-    <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="29" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="93" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="93"/>
+      <c r="B12" s="27" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="75">
+      <c r="A13" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="180">
+      <c r="A14" s="86" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="180">
+      <c r="A15" s="86"/>
+      <c r="B15" s="27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="180">
+      <c r="A16" s="86"/>
+      <c r="B16" s="27" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="20" customFormat="1" ht="30">
+      <c r="A17" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="90">
+      <c r="A18" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="20" customFormat="1" ht="120">
+      <c r="A19" s="29" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="88" t="s">
-        <v>324</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="88"/>
-      <c r="B12" s="29" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="75">
-      <c r="A13" s="12" t="s">
+      <c r="B19" s="27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="B13" s="12" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="84" t="s">
-        <v>334</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="84"/>
-      <c r="B15" s="29" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="84"/>
-      <c r="B16" s="29" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="22" customFormat="1" ht="30">
-      <c r="A17" s="29" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="B23" s="28" t="s">
         <v>349</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="90">
-      <c r="A18" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="22" customFormat="1" ht="120">
-      <c r="A19" s="31" t="s">
-        <v>351</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -6517,12 +6631,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" style="59" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" style="57" customWidth="1"/>
     <col min="2" max="2" width="135.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6530,149 +6644,149 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="72" t="s">
-        <v>417</v>
-      </c>
-      <c r="B2" s="73"/>
+      <c r="A2" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" s="76"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="57" t="s">
+        <v>558</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="76"/>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="57" t="s">
+        <v>552</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="75">
+      <c r="A10" s="57" t="s">
+        <v>562</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" customHeight="1">
+      <c r="A11" s="91" t="s">
+        <v>564</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>565</v>
       </c>
-      <c r="B3" s="15" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="91"/>
+      <c r="B12" s="20" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="72" t="s">
-        <v>314</v>
-      </c>
-      <c r="B7" s="73"/>
-    </row>
-    <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="59" t="s">
-        <v>559</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="59" t="s">
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="57" t="s">
         <v>567</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="59" t="s">
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="58" t="s">
+        <v>570</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>569</v>
       </c>
-      <c r="B10" s="59" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1">
-      <c r="A11" s="87" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="58" t="s">
         <v>571</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="87"/>
-      <c r="B12" s="22" t="s">
+    <row r="16" spans="1:2" ht="75">
+      <c r="A16" s="59" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="59" t="s">
+      <c r="B16" s="59" t="s">
         <v>574</v>
       </c>
-      <c r="B13" s="22" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="60">
+      <c r="A17" s="60" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="60" t="s">
+      <c r="B17" s="60" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="75">
+      <c r="A18" s="60" t="s">
         <v>577</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="60" t="s">
+      <c r="B18" s="60" t="s">
         <v>578</v>
       </c>
-      <c r="B15" s="22" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="60" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="75">
-      <c r="A16" s="61" t="s">
+      <c r="B19" s="60" t="s">
         <v>580</v>
       </c>
-      <c r="B16" s="61" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="60" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="62" t="s">
+      <c r="B20" s="60" t="s">
         <v>582</v>
       </c>
-      <c r="B17" s="62" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="75">
+      <c r="A21" s="61" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="75">
-      <c r="A18" s="62" t="s">
+      <c r="B21" s="61" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="105">
+      <c r="A22" s="61" t="s">
         <v>584</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B22" s="61" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="62" t="s">
-        <v>586</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="62" t="s">
-        <v>588</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="63" t="s">
-        <v>590</v>
-      </c>
-      <c r="B21" s="63" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="64" t="s">
+        <v>592</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="105">
-      <c r="A22" s="63" t="s">
-        <v>591</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="66" t="s">
-        <v>599</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -6697,8 +6811,8 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6708,7 +6822,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6716,93 +6830,93 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="72" t="s">
-        <v>417</v>
-      </c>
-      <c r="B2" s="73"/>
+      <c r="A2" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" s="76"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="72" t="s">
-        <v>314</v>
-      </c>
-      <c r="B7" s="73"/>
+      <c r="A7" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="76"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="B8" s="67" t="s">
+      <c r="A8" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="20" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="B9" s="22" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="75">
+      <c r="A11" s="20" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="22" t="s">
+      <c r="B11" s="67" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="105">
+      <c r="A13" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="B13" s="67" t="s">
         <v>609</v>
       </c>
-      <c r="B10" s="22" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="120">
+      <c r="A14" s="20" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="75">
-      <c r="A11" s="22" t="s">
+      <c r="B14" s="67" t="s">
         <v>611</v>
       </c>
-      <c r="B11" s="69" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="75">
+      <c r="A15" s="94" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="22" t="s">
+      <c r="B15" s="67" t="s">
         <v>613</v>
       </c>
-      <c r="B12" s="69" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="94"/>
+      <c r="B16" s="67" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="105">
-      <c r="A13" s="22" t="s">
+    <row r="17" spans="1:2" ht="75">
+      <c r="A17" s="68" t="s">
         <v>615</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B17" s="67" t="s">
         <v>616</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="120">
-      <c r="A14" s="22" t="s">
-        <v>617</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="75">
-      <c r="A15" s="89" t="s">
-        <v>619</v>
-      </c>
-      <c r="B15" s="69" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="89"/>
-      <c r="B16" s="69" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="75">
-      <c r="A17" s="70" t="s">
-        <v>622</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -6821,11 +6935,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6842,281 +6956,310 @@
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="47" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="22" customFormat="1">
-      <c r="A2" s="72" t="s">
-        <v>493</v>
-      </c>
-      <c r="B2" s="73"/>
+      <c r="C1" s="45" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="20" customFormat="1">
+      <c r="A2" s="75" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" s="76"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="22" customFormat="1"/>
+      <c r="A3" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="20" customFormat="1"/>
     <row r="5" spans="1:3">
-      <c r="A5" s="72" t="s">
-        <v>303</v>
-      </c>
-      <c r="B5" s="73"/>
+      <c r="A5" s="75" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="76"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>495</v>
+      <c r="A6" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="39" t="s">
-        <v>367</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>473</v>
+      <c r="A7" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="75"/>
+      <c r="B9" s="78"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="22" t="s">
-        <v>474</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>475</v>
+      <c r="A10" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="73"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="8" t="s">
+      <c r="B12" s="76"/>
+    </row>
+    <row r="13" spans="1:3" s="20" customFormat="1">
+      <c r="A13" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B17" s="9" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>439</v>
-      </c>
-    </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="22" t="s">
-        <v>460</v>
+      <c r="A18" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="72" t="s">
-        <v>290</v>
-      </c>
-      <c r="B21" s="73"/>
+      <c r="A19" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>370</v>
-      </c>
+      <c r="A22" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="B22" s="76"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>297</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>295</v>
+      <c r="A23" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>298</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>296</v>
+        <v>291</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>299</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>300</v>
+        <v>292</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>301</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="72" t="s">
-        <v>558</v>
-      </c>
-      <c r="B28" s="73"/>
+        <v>293</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="20" customFormat="1">
+      <c r="B28" s="13"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>548</v>
-      </c>
+      <c r="A29" s="75" t="s">
+        <v>640</v>
+      </c>
+      <c r="B29" s="76"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
+      <c r="A30" s="68" t="s">
+        <v>641</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="20" customFormat="1"/>
+    <row r="32" spans="1:2">
+      <c r="A32" s="75" t="s">
+        <v>551</v>
+      </c>
+      <c r="B32" s="76"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="73"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="72" t="s">
-        <v>594</v>
-      </c>
-      <c r="B36" s="73"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="72" t="s">
+      <c r="B37" s="76"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="B40" s="76"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="73"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="22" t="s">
-        <v>624</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>625</v>
+      <c r="B43" s="80"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>658</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!B1" display="Topics"/>
-    <hyperlink ref="B13" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
-    <hyperlink ref="B15" r:id="rId3"/>
-    <hyperlink ref="B16" r:id="rId4"/>
-    <hyperlink ref="B17" r:id="rId5"/>
-    <hyperlink ref="B18" r:id="rId6"/>
-    <hyperlink ref="B19" r:id="rId7"/>
-    <hyperlink ref="B23" r:id="rId8"/>
-    <hyperlink ref="B24" r:id="rId9"/>
-    <hyperlink ref="B25" r:id="rId10"/>
-    <hyperlink ref="B26" r:id="rId11"/>
-    <hyperlink ref="B40" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId3"/>
+    <hyperlink ref="B17" r:id="rId4"/>
+    <hyperlink ref="B18" r:id="rId5"/>
+    <hyperlink ref="B19" r:id="rId6"/>
+    <hyperlink ref="B20" r:id="rId7"/>
+    <hyperlink ref="B24" r:id="rId8"/>
+    <hyperlink ref="B25" r:id="rId9"/>
+    <hyperlink ref="B26" r:id="rId10"/>
+    <hyperlink ref="B27" r:id="rId11"/>
+    <hyperlink ref="B30" r:id="rId12"/>
+    <hyperlink ref="B13" r:id="rId13"/>
+    <hyperlink ref="A43:B43" location="AOP!A1" display="Spring AOP"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7133,620 +7276,629 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="74" t="s">
-        <v>417</v>
-      </c>
-      <c r="B2" s="75"/>
-    </row>
-    <row r="3" spans="1:2" s="22" customFormat="1"/>
-    <row r="4" spans="1:2" s="22" customFormat="1" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="74" t="s">
+    <row r="2" spans="1:2" s="17" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="77" t="s">
+        <v>662</v>
+      </c>
+      <c r="B2" s="78"/>
+    </row>
+    <row r="3" spans="1:2" s="20" customFormat="1">
+      <c r="A3" s="20" t="s">
+        <v>664</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="20" customFormat="1">
+      <c r="A4" s="20" t="s">
+        <v>666</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="20" customFormat="1"/>
+    <row r="6" spans="1:2" s="20" customFormat="1"/>
+    <row r="7" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A8" s="77" t="s">
+        <v>663</v>
+      </c>
+      <c r="B8" s="78"/>
+    </row>
+    <row r="9" spans="1:2" s="20" customFormat="1">
+      <c r="A9" s="20" t="s">
+        <v>666</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="20" customFormat="1"/>
+    <row r="11" spans="1:2" s="20" customFormat="1"/>
+    <row r="12" spans="1:2" s="20" customFormat="1"/>
+    <row r="13" spans="1:2" s="20" customFormat="1"/>
+    <row r="14" spans="1:2" s="20" customFormat="1"/>
+    <row r="15" spans="1:2" s="20" customFormat="1"/>
+    <row r="16" spans="1:2" s="20" customFormat="1"/>
+    <row r="17" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1"/>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A18" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="75"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B18" s="78"/>
+    </row>
+    <row r="19" spans="1:2" ht="45">
+      <c r="A19" s="84" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="82"/>
-      <c r="B7" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="135">
-      <c r="A8" s="4" t="s">
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="85"/>
+      <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="345">
-      <c r="A9" s="4" t="s">
+      <c r="B21" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60">
+      <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="79" t="s">
+    <row r="23" spans="1:2" ht="45">
+      <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="80"/>
-      <c r="B11" s="1" t="s">
+    <row r="24" spans="1:2" ht="60">
+      <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="60">
-      <c r="A13" s="6" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="6" t="s">
+    <row r="26" spans="1:2" ht="120">
+      <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="6" t="s">
+    <row r="27" spans="1:2" ht="60">
+      <c r="A27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="7" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="7" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="60">
+      <c r="A29" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="120">
-      <c r="A17" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="7" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="45">
+      <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="60">
-      <c r="A18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="8" t="s">
+    <row r="31" spans="1:2" ht="45">
+      <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="9" t="s">
+    <row r="32" spans="1:2" ht="60">
+      <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45">
-      <c r="A21" s="6" t="s">
+    <row r="33" spans="1:2" ht="75">
+      <c r="A33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="6" t="s">
+    <row r="34" spans="1:2" ht="105">
+      <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="6" t="s">
+    <row r="35" spans="1:2" ht="45">
+      <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="75">
-      <c r="A24" s="6" t="s">
+    <row r="36" spans="1:2" ht="30">
+      <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B36" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="105">
-      <c r="A25" s="6" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="6" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="6" t="s">
+    <row r="39" spans="1:2" ht="75">
+      <c r="A39" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="8" t="s">
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="6" t="s">
+    <row r="41" spans="1:2" ht="105">
+      <c r="A41" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="75">
-      <c r="A30" s="6" t="s">
+    <row r="42" spans="1:2" ht="60">
+      <c r="A42" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="6" t="s">
+    <row r="43" spans="1:2" ht="45">
+      <c r="A43" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="105">
-      <c r="A32" s="6" t="s">
+    <row r="44" spans="1:2" ht="120">
+      <c r="A44" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="60">
-      <c r="A33" s="6" t="s">
+    <row r="45" spans="1:2" ht="45">
+      <c r="A45" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="8" t="s">
+    <row r="46" spans="1:2" ht="165">
+      <c r="A46" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="120">
-      <c r="A35" s="6" t="s">
+    <row r="47" spans="1:2" ht="255">
+      <c r="A47" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="45">
-      <c r="A36" s="6" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B48" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30">
+      <c r="A49" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="165">
-      <c r="A37" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="7" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="60">
+      <c r="A50" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="255">
-      <c r="A38" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="7" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="30">
+      <c r="A51" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="6" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="30">
+      <c r="A52" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="6" t="s">
+    <row r="53" spans="1:2" ht="45">
+      <c r="A53" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B53" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="6" t="s">
+    <row r="54" spans="1:2" ht="45">
+      <c r="A54" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B54" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30">
-      <c r="A43" s="6" t="s">
+    <row r="55" spans="1:2" ht="45">
+      <c r="A55" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B55" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="45">
-      <c r="A44" s="6" t="s">
+    <row r="56" spans="1:2" ht="45">
+      <c r="A56" s="85"/>
+      <c r="B56" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="7" t="s">
+    </row>
+    <row r="57" spans="1:2" ht="60">
+      <c r="A57" s="85"/>
+      <c r="B57" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="6" t="s">
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B58" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="80" t="s">
+    <row r="59" spans="1:2" ht="30">
+      <c r="A59" s="85"/>
+      <c r="B59" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="7" t="s">
+    </row>
+    <row r="60" spans="1:2" ht="90">
+      <c r="A60" s="85"/>
+      <c r="B60" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="80"/>
-      <c r="B47" s="7" t="s">
+    <row r="61" spans="1:2" ht="75">
+      <c r="A61" s="85" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="80"/>
-      <c r="B48" s="7" t="s">
+      <c r="B61" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="80" t="s">
+    <row r="62" spans="1:2" ht="45">
+      <c r="A62" s="85"/>
+      <c r="B62" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B63" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="80"/>
-      <c r="B50" s="7" t="s">
+      <c r="B64" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="90">
-      <c r="A51" s="80"/>
-      <c r="B51" s="7" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="75">
-      <c r="A52" s="80" t="s">
+      <c r="B65" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="7" t="s">
+    </row>
+    <row r="66" spans="1:2" ht="30">
+      <c r="A66" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="80"/>
-      <c r="B53" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="6" t="s">
+    </row>
+    <row r="67" spans="1:2" ht="30">
+      <c r="A67" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B67" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="6" t="s">
+    <row r="68" spans="1:2" ht="60">
+      <c r="A68" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B68" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30">
-      <c r="A57" s="6" t="s">
+    <row r="69" spans="1:2" ht="30">
+      <c r="A69" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B69" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30">
-      <c r="A58" s="6" t="s">
+    <row r="70" spans="1:2" ht="240">
+      <c r="A70" s="83"/>
+      <c r="B70" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="7" t="s">
+    </row>
+    <row r="71" spans="1:2" ht="180">
+      <c r="A71" s="83"/>
+      <c r="B71" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="240">
-      <c r="A61" s="78"/>
-      <c r="B61" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="180">
-      <c r="A62" s="78"/>
-      <c r="B62" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="30">
-      <c r="A63" s="49" t="s">
-        <v>509</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="135">
-      <c r="A64" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="B64" s="12" t="s">
+    <row r="72" spans="1:2" ht="30">
+      <c r="A72" s="47" t="s">
+        <v>502</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="135">
+      <c r="A73" s="22" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="150">
-      <c r="A65" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="30">
-      <c r="A67" s="37" t="s">
-        <v>467</v>
-      </c>
-      <c r="B67" s="38" t="s">
+      <c r="B73" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="150">
+      <c r="A74" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="60">
+      <c r="A75" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30">
+      <c r="A76" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="105">
+      <c r="A77" s="82" t="s">
+        <v>465</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="120">
+      <c r="A78" s="82"/>
+      <c r="B78" s="36" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="75">
+      <c r="A79" s="82"/>
+      <c r="B79" s="36" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="60">
+      <c r="A80" s="82" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="105">
-      <c r="A68" s="77" t="s">
+      <c r="B80" s="44" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="60">
+      <c r="A81" s="82"/>
+      <c r="B81" s="44" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="30">
+      <c r="A82" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="B82" s="39" t="s">
         <v>471</v>
       </c>
-      <c r="B68" s="38" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="120">
-      <c r="A69" s="77"/>
-      <c r="B69" s="38" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="75">
-      <c r="A70" s="77"/>
-      <c r="B70" s="38" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="77" t="s">
+    </row>
+    <row r="83" spans="1:2" ht="60">
+      <c r="A83" s="38" t="s">
         <v>472</v>
       </c>
-      <c r="B71" s="46" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="60">
-      <c r="A72" s="77"/>
-      <c r="B72" s="46" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="30">
-      <c r="A73" s="40" t="s">
+      <c r="B83" s="39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="45">
+      <c r="A84" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="B84" s="39" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30">
+      <c r="A85" s="73" t="s">
+        <v>669</v>
+      </c>
+      <c r="B85" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="B73" s="41" t="s">
+    </row>
+    <row r="86" spans="1:2" ht="75">
+      <c r="A86" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="B86" s="39" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="60">
-      <c r="A74" s="40" t="s">
-        <v>478</v>
-      </c>
-      <c r="B74" s="41" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="40" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="45">
-      <c r="A75" s="40" t="s">
+      <c r="B87" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="B75" s="41" t="s">
+    </row>
+    <row r="88" spans="1:2" ht="45">
+      <c r="A88" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="B88" s="41" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="30">
-      <c r="A76" s="40" t="s">
-        <v>482</v>
-      </c>
-      <c r="B76" s="41" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="75">
-      <c r="A77" s="44" t="s">
-        <v>485</v>
-      </c>
-      <c r="B77" s="41" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="42" t="s">
-        <v>486</v>
-      </c>
-      <c r="B78" s="43" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="45">
-      <c r="A79" s="42" t="s">
-        <v>489</v>
-      </c>
-      <c r="B79" s="43" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="76" t="s">
-        <v>498</v>
-      </c>
-      <c r="B80" s="46" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="76"/>
-      <c r="B81" s="46" t="s">
-        <v>500</v>
+    <row r="89" spans="1:2">
+      <c r="A89" s="81" t="s">
+        <v>491</v>
+      </c>
+      <c r="B89" s="44" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="81"/>
+      <c r="B90" s="44" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A77:A79"/>
     <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A71:A72"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="B1" location="Core!A2" display="Up"/>
-    <hyperlink ref="B54" location="'Java Based Conf'!A2" display="Refer Java Based Conf tab"/>
+    <hyperlink ref="B63" location="'Java Based Conf'!A2" display="Refer Java Based Conf tab"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7777,201 +7929,201 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="76"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="75">
+      <c r="A7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="73"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75">
-      <c r="A7" s="6" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="8" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="6" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="7" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="7" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="7" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="8" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="8" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="6" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="8" t="s">
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="8" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="8" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="8" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -8010,17 +8162,17 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="73"/>
+      <c r="A3" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="76"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>225</v>
+      <c r="A4" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -8037,11 +8189,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8058,197 +8210,239 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="22" customFormat="1">
-      <c r="A2" s="72" t="s">
-        <v>417</v>
-      </c>
-      <c r="B2" s="73"/>
-    </row>
-    <row r="3" spans="1:2" s="22" customFormat="1"/>
-    <row r="4" spans="1:2" s="22" customFormat="1"/>
-    <row r="5" spans="1:2" s="22" customFormat="1"/>
-    <row r="7" spans="1:2">
-      <c r="A7" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="73"/>
-    </row>
-    <row r="8" spans="1:2" ht="90">
-      <c r="A8" s="6" t="s">
+    <row r="2" spans="1:2" s="20" customFormat="1">
+      <c r="A2" s="75" t="s">
+        <v>662</v>
+      </c>
+      <c r="B2" s="76"/>
+    </row>
+    <row r="3" spans="1:2" s="20" customFormat="1"/>
+    <row r="4" spans="1:2" s="20" customFormat="1"/>
+    <row r="5" spans="1:2" s="20" customFormat="1"/>
+    <row r="6" spans="1:2" s="20" customFormat="1"/>
+    <row r="7" spans="1:2" s="20" customFormat="1"/>
+    <row r="8" spans="1:2" s="20" customFormat="1">
+      <c r="A8" s="75" t="s">
+        <v>668</v>
+      </c>
+      <c r="B8" s="76"/>
+    </row>
+    <row r="9" spans="1:2" s="20" customFormat="1"/>
+    <row r="10" spans="1:2" s="20" customFormat="1"/>
+    <row r="11" spans="1:2" s="20" customFormat="1"/>
+    <row r="12" spans="1:2" s="20" customFormat="1"/>
+    <row r="13" spans="1:2" s="20" customFormat="1"/>
+    <row r="14" spans="1:2" s="20" customFormat="1"/>
+    <row r="15" spans="1:2" s="20" customFormat="1"/>
+    <row r="16" spans="1:2" s="20" customFormat="1"/>
+    <row r="18" spans="1:2">
+      <c r="A18" s="75" t="s">
+        <v>656</v>
+      </c>
+      <c r="B18" s="76"/>
+    </row>
+    <row r="19" spans="1:2" ht="90">
+      <c r="A19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="105">
+      <c r="A20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="135">
+      <c r="A21" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="135">
-      <c r="A10" s="10" t="s">
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30">
+      <c r="A36" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>222</v>
+    <row r="41" spans="1:2">
+      <c r="A41" s="75" t="s">
+        <v>657</v>
+      </c>
+      <c r="B41" s="76"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="47" t="s">
+        <v>659</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A7:B7"/>
+  <mergeCells count="4">
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
     <hyperlink ref="B1" location="AOP!A2" display="Up"/>
+    <hyperlink ref="B43" r:id="rId1"/>
+    <hyperlink ref="B42" r:id="rId2" location="aop"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8256,327 +8450,366 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:A11"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" style="34" customWidth="1"/>
     <col min="2" max="2" width="105.85546875" customWidth="1"/>
     <col min="3" max="3" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="22" customFormat="1">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:2" s="20" customFormat="1">
+      <c r="A2" s="75" t="s">
+        <v>647</v>
+      </c>
+      <c r="B2" s="76"/>
+    </row>
+    <row r="3" spans="1:2" s="20" customFormat="1">
+      <c r="A3" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="20" customFormat="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:2" s="20" customFormat="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" s="20" customFormat="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:2" s="20" customFormat="1">
+      <c r="A7" s="75" t="s">
+        <v>648</v>
+      </c>
+      <c r="B7" s="76"/>
+    </row>
+    <row r="8" spans="1:2" s="20" customFormat="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" s="20" customFormat="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:2" s="20" customFormat="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:2" s="20" customFormat="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:2" s="20" customFormat="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" s="76"/>
+    </row>
+    <row r="14" spans="1:2" ht="75">
+      <c r="A14" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="120">
+      <c r="A15" s="85" t="s">
+        <v>301</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="240">
+      <c r="A16" s="85"/>
+      <c r="B16" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="60">
+      <c r="A17" s="82" t="s">
+        <v>316</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="120">
+      <c r="A18" s="82"/>
+      <c r="B18" s="69" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="135">
+      <c r="A19" s="82"/>
+      <c r="B19" s="69" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="150">
+      <c r="A20" s="86" t="s">
+        <v>434</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="20" customFormat="1" ht="105">
+      <c r="A21" s="86"/>
+      <c r="B21" s="34" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45">
+      <c r="A22" s="86" t="s">
+        <v>412</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="60">
+      <c r="A23" s="86"/>
+      <c r="B23" s="62" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="86"/>
+      <c r="B24" s="34" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="86" t="s">
+        <v>416</v>
+      </c>
+      <c r="B25" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="B2" s="73"/>
-    </row>
-    <row r="3" spans="1:2" s="22" customFormat="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="4" spans="1:2" s="22" customFormat="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="72" t="s">
-        <v>314</v>
-      </c>
-      <c r="B5" s="73"/>
-    </row>
-    <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="120">
-      <c r="A7" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="240">
-      <c r="A8" s="80"/>
-      <c r="B8" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="77" t="s">
-        <v>322</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="77"/>
-      <c r="B10" s="71" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="135">
-      <c r="A11" s="77"/>
-      <c r="B11" s="71" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="150">
-      <c r="A12" s="84" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="135">
+      <c r="A26" s="86"/>
+      <c r="B26" s="34" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="86"/>
+      <c r="B27" s="34" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45">
+      <c r="A28" s="86"/>
+      <c r="B28" s="34" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="86"/>
+      <c r="B29" s="34" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45">
+      <c r="A30" s="87" t="s">
+        <v>422</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45">
+      <c r="A31" s="87"/>
+      <c r="B31" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="87"/>
+      <c r="B32" s="34" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="87"/>
+      <c r="B33" s="34" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45">
+      <c r="A34" s="87"/>
+      <c r="B34" s="34" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="86" t="s">
+        <v>428</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="165">
+      <c r="A36" s="86"/>
+      <c r="B36" s="34" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="86"/>
+      <c r="B37" s="34" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="48" t="s">
+        <v>504</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="60">
+      <c r="A39" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="60">
+      <c r="A40" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="75">
+      <c r="A41" s="34" t="s">
         <v>440</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="22" customFormat="1" ht="105">
-      <c r="A13" s="84"/>
-      <c r="B13" s="36" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="84" t="s">
-        <v>418</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="84"/>
-      <c r="B15" s="64" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="84"/>
-      <c r="B16" s="36" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="84" t="s">
-        <v>422</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="135">
-      <c r="A18" s="84"/>
-      <c r="B18" s="36" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="84"/>
-      <c r="B19" s="36" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="84"/>
-      <c r="B20" s="36" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="84"/>
-      <c r="B21" s="36" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="83" t="s">
-        <v>428</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="45">
-      <c r="A23" s="83"/>
-      <c r="B23" s="36" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="83"/>
-      <c r="B24" s="36" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="83"/>
-      <c r="B25" s="36" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="83"/>
-      <c r="B26" s="36" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="84" t="s">
-        <v>434</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="165">
-      <c r="A28" s="84"/>
-      <c r="B28" s="36" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="84"/>
-      <c r="B29" s="36" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="30">
-      <c r="A30" s="50" t="s">
-        <v>511</v>
-      </c>
-      <c r="B30" s="36" t="s">
+      <c r="B41" s="34" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="36" t="s">
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="86" t="s">
         <v>442</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B42" s="34" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="36" t="s">
+    <row r="43" spans="1:2" ht="75">
+      <c r="A43" s="86"/>
+      <c r="B43" s="34" t="s">
         <v>444</v>
       </c>
-      <c r="B32" s="36" t="s">
+    </row>
+    <row r="44" spans="1:2" ht="120">
+      <c r="A44" s="34" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="75">
-      <c r="A33" s="36" t="s">
+      <c r="B44" s="34" t="s">
         <v>446</v>
       </c>
-      <c r="B33" s="36" t="s">
+    </row>
+    <row r="45" spans="1:2" ht="30">
+      <c r="A45" s="86" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="84" t="s">
+      <c r="B45" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="B34" s="36" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="86"/>
+      <c r="B46" s="34" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="84"/>
-      <c r="B35" s="36" t="s">
+    <row r="47" spans="1:2" ht="135">
+      <c r="A47" s="34" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="120">
-      <c r="A36" s="36" t="s">
+      <c r="B47" s="34" t="s">
         <v>451</v>
       </c>
-      <c r="B36" s="36" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="30">
+      <c r="A48" s="86" t="s">
+        <v>447</v>
+      </c>
+      <c r="B48" s="34" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="84" t="s">
+    <row r="49" spans="1:2" ht="60">
+      <c r="A49" s="86"/>
+      <c r="B49" s="34" t="s">
         <v>453</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="84"/>
-      <c r="B38" s="36" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="135">
-      <c r="A39" s="36" t="s">
-        <v>456</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="84" t="s">
-        <v>453</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="84"/>
-      <c r="B41" s="36" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="83" t="s">
-        <v>596</v>
-      </c>
-      <c r="B42" s="65" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="83"/>
-      <c r="B43" s="65" t="s">
-        <v>598</v>
+    </row>
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="87" t="s">
+        <v>589</v>
+      </c>
+      <c r="B50" s="63" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="60">
+      <c r="A51" s="87"/>
+      <c r="B51" s="63" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
+  <mergeCells count="14">
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
@@ -8611,241 +8844,241 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="73"/>
+      <c r="B3" s="76"/>
     </row>
     <row r="4" spans="1:2" ht="60">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30">
-      <c r="A5" s="8" t="s">
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+    <row r="9" spans="1:2" ht="60">
+      <c r="A9" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="8" t="s">
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="85" t="s">
         <v>242</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="8" t="s">
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11" s="85"/>
+      <c r="B11" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B8" s="7" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="60">
+      <c r="A12" s="85"/>
+      <c r="B12" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="8" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="88" t="s">
         <v>246</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B13" s="88"/>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="85" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="80" t="s">
+      <c r="B14" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B10" s="7" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="85"/>
+      <c r="B15" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="80"/>
-      <c r="B11" s="7" t="s">
+    <row r="16" spans="1:2" ht="60">
+      <c r="A16" s="85"/>
+      <c r="B16" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="80"/>
-      <c r="B12" s="7" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="85" t="s">
+      <c r="B17" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B13" s="85"/>
-    </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="80" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="80"/>
-      <c r="B15" s="7" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="80"/>
-      <c r="B16" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="85" t="s">
         <v>257</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
+    <row r="21" spans="1:2" ht="75">
+      <c r="A21" s="85"/>
+      <c r="B21" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B18" s="7" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B19" s="7" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="6" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="80" t="s">
+      <c r="B23" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B20" s="7" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="6" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="80"/>
-      <c r="B21" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="8" t="s">
+    <row r="25" spans="1:2" ht="105">
+      <c r="A25" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="8" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="8" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="105">
-      <c r="A25" s="13" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="8" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="8" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="8" t="s">
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="85" t="s">
         <v>278</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="8" t="s">
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="85"/>
+      <c r="B32" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B29" s="7" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="85"/>
+      <c r="B33" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="8" t="s">
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="80" t="s">
-        <v>284</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="80"/>
-      <c r="B32" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="80"/>
-      <c r="B33" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -8867,21 +9100,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" customWidth="1"/>
+    <col min="1" max="1" width="55" style="70" customWidth="1"/>
     <col min="2" max="2" width="133.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -8889,130 +9122,303 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="72" t="s">
-        <v>417</v>
-      </c>
-      <c r="B2" s="73"/>
-    </row>
-    <row r="3" spans="1:2" s="22" customFormat="1"/>
-    <row r="6" spans="1:2">
-      <c r="A6" s="72" t="s">
-        <v>291</v>
-      </c>
-      <c r="B6" s="73"/>
-    </row>
-    <row r="7" spans="1:2" s="22" customFormat="1">
-      <c r="A7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="22" customFormat="1" ht="45">
-      <c r="A8" s="22" t="s">
+      <c r="A2" s="75" t="s">
+        <v>647</v>
+      </c>
+      <c r="B2" s="76"/>
+    </row>
+    <row r="3" spans="1:2" s="20" customFormat="1"/>
+    <row r="5" spans="1:2">
+      <c r="B5" s="20"/>
+    </row>
+    <row r="6" spans="1:2" s="20" customFormat="1"/>
+    <row r="7" spans="1:2" s="20" customFormat="1">
+      <c r="A7" s="70"/>
+    </row>
+    <row r="8" spans="1:2" s="20" customFormat="1">
+      <c r="A8" s="70"/>
+    </row>
+    <row r="9" spans="1:2" s="20" customFormat="1">
+      <c r="A9" s="70"/>
+    </row>
+    <row r="10" spans="1:2" s="20" customFormat="1">
+      <c r="A10" s="75" t="s">
+        <v>651</v>
+      </c>
+      <c r="B10" s="76"/>
+    </row>
+    <row r="11" spans="1:2" s="20" customFormat="1">
+      <c r="A11" s="90" t="s">
+        <v>655</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="20" customFormat="1">
+      <c r="A12" s="91"/>
+      <c r="B12" s="13" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="20" customFormat="1">
+      <c r="A13" s="91" t="s">
+        <v>654</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="20" customFormat="1">
+      <c r="A14" s="91"/>
+      <c r="B14" s="13" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="20" customFormat="1">
+      <c r="A15" s="70"/>
+    </row>
+    <row r="16" spans="1:2" s="20" customFormat="1">
+      <c r="A16" s="70"/>
+    </row>
+    <row r="17" spans="1:2" s="20" customFormat="1">
+      <c r="A17" s="70"/>
+    </row>
+    <row r="18" spans="1:2" s="20" customFormat="1">
+      <c r="A18" s="70"/>
+    </row>
+    <row r="19" spans="1:2" s="20" customFormat="1">
+      <c r="A19" s="70"/>
+    </row>
+    <row r="20" spans="1:2" s="20" customFormat="1">
+      <c r="A20" s="70"/>
+    </row>
+    <row r="21" spans="1:2" s="20" customFormat="1">
+      <c r="A21" s="70"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="B22" s="76"/>
+    </row>
+    <row r="23" spans="1:2" s="20" customFormat="1">
+      <c r="A23" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="20" customFormat="1" ht="45">
+      <c r="A24" s="70" t="s">
+        <v>618</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="70" t="s">
+        <v>620</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="70" t="s">
+        <v>622</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45">
+      <c r="A28" s="70" t="s">
+        <v>624</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="60">
+      <c r="A29" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="69" t="s">
         <v>626</v>
       </c>
-      <c r="B8" s="71" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="165">
+      <c r="A30" s="87"/>
+      <c r="B30" s="69" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="22" t="s">
+    <row r="31" spans="1:2" ht="45">
+      <c r="A31" s="89" t="s">
         <v>628</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B31" s="69" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="22" t="s">
+    <row r="32" spans="1:2" ht="45">
+      <c r="A32" s="89"/>
+      <c r="B32" s="69" t="s">
         <v>630</v>
       </c>
-      <c r="B11" s="71" t="s">
+    </row>
+    <row r="33" spans="1:2" s="20" customFormat="1" ht="75">
+      <c r="A33" s="71" t="s">
+        <v>633</v>
+      </c>
+      <c r="B33" s="69" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="60">
+      <c r="A34" s="72" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="22" t="s">
+      <c r="B34" s="69" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="105">
+      <c r="A35" s="72" t="s">
         <v>632</v>
       </c>
-      <c r="B12" s="71" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="60">
-      <c r="A13" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="165">
-      <c r="A14" s="90"/>
-      <c r="B14" s="71" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="91" t="s">
+      <c r="B35" s="69" t="s">
         <v>636</v>
       </c>
-      <c r="B15" s="71" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="91"/>
-      <c r="B16" s="71" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="22" customFormat="1" ht="75">
-      <c r="A17" s="92" t="s">
-        <v>641</v>
-      </c>
-      <c r="B17" s="71" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="60">
-      <c r="A18" s="70" t="s">
-        <v>639</v>
-      </c>
-      <c r="B18" s="71" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="105">
-      <c r="A19" s="70" t="s">
-        <v>640</v>
-      </c>
-      <c r="B19" s="71" t="s">
-        <v>644</v>
+    </row>
+    <row r="36" spans="1:2" ht="150">
+      <c r="A36" s="74" t="s">
+        <v>671</v>
+      </c>
+      <c r="B36" s="74" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="20" customFormat="1" ht="30">
+      <c r="A37" s="74" t="s">
+        <v>674</v>
+      </c>
+      <c r="B37" s="74" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="20" customFormat="1" ht="30">
+      <c r="A38" s="74" t="s">
+        <v>675</v>
+      </c>
+      <c r="B38" s="74" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="90">
+      <c r="A39" s="91" t="s">
+        <v>676</v>
+      </c>
+      <c r="B39" s="74" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="120">
+      <c r="A40" s="91"/>
+      <c r="B40" s="74" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="20" customFormat="1" ht="60">
+      <c r="A41" s="93" t="s">
+        <v>680</v>
+      </c>
+      <c r="B41" s="74" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="20" customFormat="1" ht="105">
+      <c r="A42" s="93"/>
+      <c r="B42" s="74" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="93" t="s">
+        <v>677</v>
+      </c>
+      <c r="B43" s="74" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30">
+      <c r="A44" s="93"/>
+      <c r="B44" s="74" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="75">
+      <c r="A45" s="93" t="s">
+        <v>686</v>
+      </c>
+      <c r="B45" s="74" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="60">
+      <c r="A46" s="93"/>
+      <c r="B46" s="74" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="105">
+      <c r="A47" s="74" t="s">
+        <v>689</v>
+      </c>
+      <c r="B47" s="74" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="120">
+      <c r="A48" s="74" t="s">
+        <v>691</v>
+      </c>
+      <c r="B48" s="74" t="s">
+        <v>692</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A6:B6"/>
+  <mergeCells count="11">
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A11" display="Topics"/>
     <hyperlink ref="B1" location="Security!A2" display="Up"/>
+    <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="698">
   <si>
     <t>Main Topic</t>
   </si>
@@ -4746,6 +4746,27 @@
 3. The context information for that user is obtained (their list of roles and so on).
 4. A security context is established for the user
 5. The user proceeds, potentially to perform some operation which is potentially protected by an access control mechanism which checks the required permissions for the operation against the current security context information.</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\practiceProjects\images\3_Spring\6-Spring-AOP\1-quick5.pdf</t>
+  </si>
+  <si>
+    <t>For example If business logic has logging, transaction, exception handling code - How this can be done using spring AOP</t>
+  </si>
+  <si>
+    <t>1. We will write Logging Aspect
+2. We will write Transaction Aspect
+3. We will write Exception Aspect
+4. Business logic will present in the service/dao/respectice method
+5. Above created aspects will be executed before/after/around our business logic method based on our configuration on when to execute these Aspects</t>
+  </si>
+  <si>
+    <t>Developing with AOP</t>
+  </si>
+  <si>
+    <t>1. Impement Business logic
+2. Write Aspects for cross cutting concerens using Spring AOP or AspectJ
+3. Using Spring AOP or AspectJ to weave aspects into the application</t>
   </si>
 </sst>
 </file>
@@ -4959,7 +4980,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4981,9 +5002,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -5173,6 +5191,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5207,13 +5234,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5221,14 +5254,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5538,155 +5565,155 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" style="19" customWidth="1"/>
     <col min="3" max="3" width="60.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>483</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="12"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="12"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>556</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="12"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="67" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="67" t="s">
         <v>640</v>
       </c>
     </row>
@@ -5802,13 +5829,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="76"/>
+      <c r="B4" s="78"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="86" t="s">
         <v>106</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -5816,7 +5843,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="85"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="5" t="s">
         <v>108</v>
       </c>
@@ -5862,7 +5889,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="95" t="s">
         <v>118</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -5870,7 +5897,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="92"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="5" t="s">
         <v>120</v>
       </c>
@@ -5884,7 +5911,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="95" t="s">
         <v>123</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5892,7 +5919,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="92"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="5" t="s">
         <v>125</v>
       </c>
@@ -5931,12 +5958,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" style="30" customWidth="1"/>
-    <col min="2" max="2" width="129.5703125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="129.5703125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -5944,416 +5971,416 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="78"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="77" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="78"/>
     </row>
     <row r="7" spans="1:2" ht="75">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="120">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="32" t="s">
         <v>404</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="89" t="s">
         <v>381</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="54" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="86"/>
-      <c r="B20" s="30" t="s">
+      <c r="A20" s="89"/>
+      <c r="B20" s="29" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="45" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="75">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="54" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="88" t="s">
         <v>392</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="29" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="87"/>
-      <c r="B28" s="30" t="s">
+      <c r="A28" s="88"/>
+      <c r="B28" s="29" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="29" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="29" t="s">
         <v>396</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="54" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="54" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="105">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="54" t="s">
         <v>547</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="30" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="90">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="30" t="s">
         <v>401</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="45" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="225">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="32" t="s">
         <v>402</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="32" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="54" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="32" t="s">
         <v>405</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="54" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="32" t="s">
         <v>407</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="54" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="20" customFormat="1">
-      <c r="A39" s="46" t="s">
+    <row r="39" spans="1:2" s="19" customFormat="1">
+      <c r="A39" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="24" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="105">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="45" t="s">
         <v>499</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="45" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="88" t="s">
         <v>507</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="48" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="210">
-      <c r="A42" s="87"/>
-      <c r="B42" s="49" t="s">
+      <c r="A42" s="88"/>
+      <c r="B42" s="48" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="49" t="s">
         <v>508</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="49" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="49" t="s">
         <v>510</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="49" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="93" t="s">
+      <c r="A45" s="92" t="s">
         <v>512</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="49" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="120">
-      <c r="A46" s="93"/>
-      <c r="B46" s="50" t="s">
+      <c r="A46" s="92"/>
+      <c r="B46" s="49" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="93"/>
-      <c r="B47" s="25" t="s">
+      <c r="A47" s="92"/>
+      <c r="B47" s="24" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="50" t="s">
         <v>516</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="53" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45" customHeight="1">
-      <c r="A49" s="93" t="s">
+      <c r="A49" s="92" t="s">
         <v>517</v>
       </c>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="50" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="93"/>
-      <c r="B50" s="51" t="s">
+      <c r="A50" s="92"/>
+      <c r="B50" s="50" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="50" t="s">
         <v>521</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="24" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="20" customFormat="1" ht="30">
-      <c r="A52" s="51" t="s">
+    <row r="52" spans="1:2" s="19" customFormat="1" ht="30">
+      <c r="A52" s="50" t="s">
         <v>525</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="50" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="50" t="s">
         <v>522</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="50" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="51" t="s">
+      <c r="A54" s="50" t="s">
         <v>523</v>
       </c>
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="50" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="93" t="s">
+      <c r="A55" s="92" t="s">
         <v>524</v>
       </c>
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="50" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="93"/>
-      <c r="B56" s="51" t="s">
+      <c r="A56" s="92"/>
+      <c r="B56" s="50" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="50" t="s">
         <v>531</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="50" t="s">
         <v>532</v>
       </c>
     </row>
@@ -6361,45 +6388,45 @@
       <c r="A58" s="91" t="s">
         <v>533</v>
       </c>
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="52" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="91"/>
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="51" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="53" t="s">
+      <c r="A60" s="52" t="s">
         <v>536</v>
       </c>
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="52" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="53" t="s">
+      <c r="A61" s="52" t="s">
         <v>538</v>
       </c>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="52" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="60">
-      <c r="A62" s="66" t="s">
+      <c r="A62" s="65" t="s">
         <v>598</v>
       </c>
-      <c r="B62" s="66" t="s">
+      <c r="B62" s="65" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="90">
-      <c r="A63" s="66" t="s">
+      <c r="A63" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="B63" s="66" t="s">
+      <c r="B63" s="65" t="s">
         <v>601</v>
       </c>
     </row>
@@ -6440,12 +6467,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="110.85546875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="52.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="110.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6453,152 +6480,152 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="78"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="77" t="s">
         <v>308</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="78"/>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="92" t="s">
         <v>318</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="93"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="92"/>
+      <c r="B12" s="26" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="75">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="89" t="s">
         <v>328</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="86"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="89"/>
+      <c r="B15" s="26" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="86"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="89"/>
+      <c r="B16" s="26" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="20" customFormat="1" ht="30">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:2" s="19" customFormat="1" ht="30">
+      <c r="A17" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="20" customFormat="1" ht="120">
-      <c r="A19" s="29" t="s">
+    <row r="19" spans="1:2" s="19" customFormat="1" ht="120">
+      <c r="A19" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="27" t="s">
         <v>349</v>
       </c>
     </row>
@@ -6631,12 +6658,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" style="57" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" style="56" customWidth="1"/>
     <col min="2" max="2" width="135.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6644,46 +6671,46 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="78"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>558</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="77" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="78"/>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>552</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="55" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>560</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="56" t="s">
         <v>562</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="56" t="s">
         <v>563</v>
       </c>
     </row>
@@ -6691,101 +6718,101 @@
       <c r="A11" s="91" t="s">
         <v>564</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="91"/>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="56" t="s">
         <v>567</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="57" t="s">
         <v>570</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="57" t="s">
         <v>571</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="58" t="s">
         <v>573</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="58" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="59" t="s">
         <v>575</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="59" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="59" t="s">
         <v>577</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="59" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="59" t="s">
         <v>579</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="59" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="59" t="s">
         <v>581</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="59" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="60" t="s">
         <v>583</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="60" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="105">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="60" t="s">
         <v>584</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="60" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="63" t="s">
         <v>592</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>593</v>
       </c>
     </row>
@@ -6822,7 +6849,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6830,92 +6857,92 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="78"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="77" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="78"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>594</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="64" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>596</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>602</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="75">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>604</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="66" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>606</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="66" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="105">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>608</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="66" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="120">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>610</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="66" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="96" t="s">
         <v>612</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="66" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="94"/>
-      <c r="B16" s="67" t="s">
+      <c r="A16" s="96"/>
+      <c r="B16" s="66" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="67" t="s">
         <v>615</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="66" t="s">
         <v>616</v>
       </c>
     </row>
@@ -6956,76 +6983,76 @@
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="20" customFormat="1">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:3" s="19" customFormat="1">
+      <c r="A2" s="77" t="s">
         <v>486</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="78"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="20" customFormat="1"/>
+    <row r="4" spans="1:3" s="19" customFormat="1"/>
     <row r="5" spans="1:3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="77" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="78"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>361</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="78"/>
+      <c r="B9" s="80"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="76"/>
-    </row>
-    <row r="13" spans="1:3" s="20" customFormat="1">
+      <c r="B12" s="78"/>
+    </row>
+    <row r="13" spans="1:3" s="19" customFormat="1">
       <c r="A13" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>643</v>
       </c>
     </row>
@@ -7033,7 +7060,7 @@
       <c r="A14" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7041,7 +7068,7 @@
       <c r="A15" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>223</v>
       </c>
     </row>
@@ -7049,7 +7076,7 @@
       <c r="A16" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>225</v>
       </c>
     </row>
@@ -7057,7 +7084,7 @@
       <c r="A17" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>227</v>
       </c>
     </row>
@@ -7065,15 +7092,15 @@
       <c r="A18" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>455</v>
       </c>
     </row>
@@ -7081,21 +7108,21 @@
       <c r="A20" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="B22" s="76"/>
+      <c r="B22" s="78"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>364</v>
       </c>
     </row>
@@ -7103,7 +7130,7 @@
       <c r="A24" t="s">
         <v>291</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>289</v>
       </c>
     </row>
@@ -7111,7 +7138,7 @@
       <c r="A25" t="s">
         <v>292</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>290</v>
       </c>
     </row>
@@ -7119,7 +7146,7 @@
       <c r="A26" t="s">
         <v>293</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>294</v>
       </c>
     </row>
@@ -7127,93 +7154,93 @@
       <c r="A27" t="s">
         <v>295</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="20" customFormat="1">
-      <c r="B28" s="13"/>
+    <row r="28" spans="1:2" s="19" customFormat="1">
+      <c r="B28" s="12"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="77" t="s">
         <v>640</v>
       </c>
-      <c r="B29" s="76"/>
+      <c r="B29" s="78"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="67" t="s">
         <v>641</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="20" customFormat="1"/>
+    <row r="31" spans="1:2" s="19" customFormat="1"/>
     <row r="32" spans="1:2">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="77" t="s">
         <v>551</v>
       </c>
-      <c r="B32" s="76"/>
+      <c r="B32" s="78"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="76"/>
+      <c r="B37" s="78"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="19" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="77" t="s">
         <v>587</v>
       </c>
-      <c r="B40" s="76"/>
+      <c r="B40" s="78"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="19" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="79" t="s">
+      <c r="A43" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="80"/>
+      <c r="B43" s="82"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="19" t="s">
         <v>658</v>
       </c>
     </row>
@@ -7276,61 +7303,61 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="17" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="77" t="s">
+    <row r="2" spans="1:2" s="16" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="79" t="s">
         <v>662</v>
       </c>
-      <c r="B2" s="78"/>
-    </row>
-    <row r="3" spans="1:2" s="20" customFormat="1">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="80"/>
+    </row>
+    <row r="3" spans="1:2" s="19" customFormat="1">
+      <c r="A3" s="19" t="s">
         <v>664</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="20" customFormat="1">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:2" s="19" customFormat="1">
+      <c r="A4" s="19" t="s">
         <v>666</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="20" customFormat="1"/>
-    <row r="6" spans="1:2" s="20" customFormat="1"/>
-    <row r="7" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A8" s="77" t="s">
+    <row r="5" spans="1:2" s="19" customFormat="1"/>
+    <row r="6" spans="1:2" s="19" customFormat="1"/>
+    <row r="7" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A8" s="79" t="s">
         <v>663</v>
       </c>
-      <c r="B8" s="78"/>
-    </row>
-    <row r="9" spans="1:2" s="20" customFormat="1">
-      <c r="A9" s="20" t="s">
+      <c r="B8" s="80"/>
+    </row>
+    <row r="9" spans="1:2" s="19" customFormat="1">
+      <c r="A9" s="19" t="s">
         <v>666</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="20" customFormat="1"/>
-    <row r="11" spans="1:2" s="20" customFormat="1"/>
-    <row r="12" spans="1:2" s="20" customFormat="1"/>
-    <row r="13" spans="1:2" s="20" customFormat="1"/>
-    <row r="14" spans="1:2" s="20" customFormat="1"/>
-    <row r="15" spans="1:2" s="20" customFormat="1"/>
-    <row r="16" spans="1:2" s="20" customFormat="1"/>
-    <row r="17" spans="1:2" s="20" customFormat="1" ht="15.75" thickBot="1"/>
+    <row r="10" spans="1:2" s="19" customFormat="1"/>
+    <row r="11" spans="1:2" s="19" customFormat="1"/>
+    <row r="12" spans="1:2" s="19" customFormat="1"/>
+    <row r="13" spans="1:2" s="19" customFormat="1"/>
+    <row r="14" spans="1:2" s="19" customFormat="1"/>
+    <row r="15" spans="1:2" s="19" customFormat="1"/>
+    <row r="16" spans="1:2" s="19" customFormat="1"/>
+    <row r="17" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="18" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="78"/>
+      <c r="B18" s="80"/>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="86" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -7338,7 +7365,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="85"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
@@ -7616,7 +7643,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="85" t="s">
+      <c r="A55" s="87" t="s">
         <v>81</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -7624,19 +7651,19 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="85"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="85"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="85" t="s">
+      <c r="A58" s="87" t="s">
         <v>85</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -7644,19 +7671,19 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="85"/>
+      <c r="A59" s="87"/>
       <c r="B59" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="90">
-      <c r="A60" s="85"/>
+      <c r="A60" s="87"/>
       <c r="B60" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="75">
-      <c r="A61" s="85" t="s">
+      <c r="A61" s="87" t="s">
         <v>89</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -7664,7 +7691,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="85"/>
+      <c r="A62" s="87"/>
       <c r="B62" s="5" t="s">
         <v>322</v>
       </c>
@@ -7673,7 +7700,7 @@
       <c r="A63" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="14" t="s">
         <v>300</v>
       </c>
     </row>
@@ -7718,7 +7745,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="83" t="s">
+      <c r="A69" s="85" t="s">
         <v>102</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -7726,19 +7753,19 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="240">
-      <c r="A70" s="83"/>
+      <c r="A70" s="85"/>
       <c r="B70" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="180">
-      <c r="A71" s="83"/>
+      <c r="A71" s="85"/>
       <c r="B71" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="30">
-      <c r="A72" s="47" t="s">
+      <c r="A72" s="46" t="s">
         <v>502</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -7746,138 +7773,138 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="135">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="9" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="150">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="60">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="31" t="s">
         <v>408</v>
       </c>
-      <c r="B75" s="33" t="s">
+      <c r="B75" s="32" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30">
-      <c r="A76" s="35" t="s">
+      <c r="A76" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="35" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="105">
-      <c r="A77" s="82" t="s">
+      <c r="A77" s="84" t="s">
         <v>465</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="35" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="120">
-      <c r="A78" s="82"/>
-      <c r="B78" s="36" t="s">
+      <c r="A78" s="84"/>
+      <c r="B78" s="35" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="75">
-      <c r="A79" s="82"/>
-      <c r="B79" s="36" t="s">
+      <c r="A79" s="84"/>
+      <c r="B79" s="35" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="60">
-      <c r="A80" s="82" t="s">
+      <c r="A80" s="84" t="s">
         <v>466</v>
       </c>
-      <c r="B80" s="44" t="s">
+      <c r="B80" s="43" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="60">
-      <c r="A81" s="82"/>
-      <c r="B81" s="44" t="s">
+      <c r="A81" s="84"/>
+      <c r="B81" s="43" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="30">
-      <c r="A82" s="38" t="s">
+      <c r="A82" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="B82" s="39" t="s">
+      <c r="B82" s="38" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="60">
-      <c r="A83" s="38" t="s">
+      <c r="A83" s="37" t="s">
         <v>472</v>
       </c>
-      <c r="B83" s="39" t="s">
+      <c r="B83" s="38" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="45">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="37" t="s">
         <v>474</v>
       </c>
-      <c r="B84" s="39" t="s">
+      <c r="B84" s="38" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="73" t="s">
+      <c r="A85" s="72" t="s">
         <v>669</v>
       </c>
-      <c r="B85" s="39" t="s">
+      <c r="B85" s="38" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="75">
-      <c r="A86" s="42" t="s">
+      <c r="A86" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="B86" s="39" t="s">
+      <c r="B86" s="38" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="B87" s="41" t="s">
+      <c r="B87" s="40" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="45">
-      <c r="A88" s="40" t="s">
+      <c r="A88" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="40" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="81" t="s">
+      <c r="A89" s="83" t="s">
         <v>491</v>
       </c>
-      <c r="B89" s="44" t="s">
+      <c r="B89" s="43" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="81"/>
-      <c r="B90" s="44" t="s">
+      <c r="A90" s="83"/>
+      <c r="B90" s="43" t="s">
         <v>493</v>
       </c>
     </row>
@@ -7929,10 +7956,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="76"/>
+      <c r="B4" s="78"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
@@ -8162,10 +8189,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="76"/>
+      <c r="B3" s="78"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
@@ -8189,60 +8216,86 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" customWidth="1"/>
+    <col min="1" max="1" width="55.42578125" style="76" customWidth="1"/>
     <col min="2" max="2" width="130.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="20" customFormat="1">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:2" s="19" customFormat="1">
+      <c r="A2" s="77" t="s">
         <v>662</v>
       </c>
-      <c r="B2" s="76"/>
-    </row>
-    <row r="3" spans="1:2" s="20" customFormat="1"/>
-    <row r="4" spans="1:2" s="20" customFormat="1"/>
-    <row r="5" spans="1:2" s="20" customFormat="1"/>
-    <row r="6" spans="1:2" s="20" customFormat="1"/>
-    <row r="7" spans="1:2" s="20" customFormat="1"/>
-    <row r="8" spans="1:2" s="20" customFormat="1">
-      <c r="A8" s="75" t="s">
+      <c r="B2" s="78"/>
+    </row>
+    <row r="3" spans="1:2" s="19" customFormat="1">
+      <c r="A3" s="76"/>
+    </row>
+    <row r="4" spans="1:2" s="19" customFormat="1">
+      <c r="A4" s="76"/>
+    </row>
+    <row r="5" spans="1:2" s="19" customFormat="1">
+      <c r="A5" s="76"/>
+    </row>
+    <row r="6" spans="1:2" s="19" customFormat="1">
+      <c r="A6" s="76"/>
+    </row>
+    <row r="7" spans="1:2" s="19" customFormat="1">
+      <c r="A7" s="76"/>
+    </row>
+    <row r="8" spans="1:2" s="19" customFormat="1">
+      <c r="A8" s="77" t="s">
         <v>668</v>
       </c>
-      <c r="B8" s="76"/>
-    </row>
-    <row r="9" spans="1:2" s="20" customFormat="1"/>
-    <row r="10" spans="1:2" s="20" customFormat="1"/>
-    <row r="11" spans="1:2" s="20" customFormat="1"/>
-    <row r="12" spans="1:2" s="20" customFormat="1"/>
-    <row r="13" spans="1:2" s="20" customFormat="1"/>
-    <row r="14" spans="1:2" s="20" customFormat="1"/>
-    <row r="15" spans="1:2" s="20" customFormat="1"/>
-    <row r="16" spans="1:2" s="20" customFormat="1"/>
+      <c r="B8" s="78"/>
+    </row>
+    <row r="9" spans="1:2" s="19" customFormat="1">
+      <c r="A9" s="76"/>
+    </row>
+    <row r="10" spans="1:2" s="19" customFormat="1">
+      <c r="A10" s="76"/>
+    </row>
+    <row r="11" spans="1:2" s="19" customFormat="1">
+      <c r="A11" s="76"/>
+    </row>
+    <row r="12" spans="1:2" s="19" customFormat="1">
+      <c r="A12" s="76"/>
+    </row>
+    <row r="13" spans="1:2" s="19" customFormat="1">
+      <c r="A13" s="76"/>
+    </row>
+    <row r="14" spans="1:2" s="19" customFormat="1">
+      <c r="A14" s="76"/>
+    </row>
+    <row r="15" spans="1:2" s="19" customFormat="1">
+      <c r="A15" s="76"/>
+    </row>
+    <row r="16" spans="1:2" s="19" customFormat="1">
+      <c r="A16" s="76"/>
+    </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="77" t="s">
         <v>656</v>
       </c>
-      <c r="B18" s="76"/>
+      <c r="B18" s="78"/>
     </row>
     <row r="19" spans="1:2" ht="90">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="75" t="s">
         <v>176</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -8250,7 +8303,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="105">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="75" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -8258,7 +8311,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="135">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="74" t="s">
         <v>179</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -8274,7 +8327,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="75" t="s">
         <v>183</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -8346,7 +8399,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="75" t="s">
         <v>201</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -8378,7 +8431,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="75" t="s">
         <v>209</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -8410,33 +8463,56 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="77" t="s">
         <v>657</v>
       </c>
-      <c r="B41" s="76"/>
+      <c r="B41" s="78"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="46" t="s">
         <v>659</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="92" t="s">
         <v>661</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>617</v>
       </c>
     </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="92"/>
+      <c r="B44" s="19" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="90">
+      <c r="A45" s="76" t="s">
+        <v>694</v>
+      </c>
+      <c r="B45" s="76" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="45">
+      <c r="A46" s="76" t="s">
+        <v>696</v>
+      </c>
+      <c r="B46" s="76" t="s">
+        <v>697</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
@@ -8459,26 +8535,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" style="33" customWidth="1"/>
     <col min="2" max="2" width="105.85546875" customWidth="1"/>
     <col min="3" max="3" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="20" customFormat="1">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:2" s="19" customFormat="1">
+      <c r="A2" s="77" t="s">
         <v>647</v>
       </c>
-      <c r="B2" s="76"/>
-    </row>
-    <row r="3" spans="1:2" s="20" customFormat="1">
+      <c r="B2" s="78"/>
+    </row>
+    <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>649</v>
       </c>
@@ -8486,316 +8562,322 @@
         <v>650</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="20" customFormat="1">
+    <row r="4" spans="1:2" s="19" customFormat="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:2" s="20" customFormat="1">
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:2" s="19" customFormat="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:2" s="20" customFormat="1">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:2" s="19" customFormat="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:2" s="20" customFormat="1">
-      <c r="A7" s="75" t="s">
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" s="19" customFormat="1">
+      <c r="A7" s="77" t="s">
         <v>648</v>
       </c>
-      <c r="B7" s="76"/>
-    </row>
-    <row r="8" spans="1:2" s="20" customFormat="1">
+      <c r="B7" s="78"/>
+    </row>
+    <row r="8" spans="1:2" s="19" customFormat="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:2" s="20" customFormat="1">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2" s="19" customFormat="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:2" s="20" customFormat="1">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2" s="19" customFormat="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:2" s="20" customFormat="1">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2" s="19" customFormat="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:2" s="20" customFormat="1">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:2" s="19" customFormat="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="9"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="77" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="76"/>
+      <c r="B13" s="78"/>
     </row>
     <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="120">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="87" t="s">
         <v>301</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="85"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="87"/>
+      <c r="B16" s="9" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="84" t="s">
         <v>316</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="120">
-      <c r="A18" s="82"/>
-      <c r="B18" s="69" t="s">
+      <c r="A18" s="84"/>
+      <c r="B18" s="68" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="135">
-      <c r="A19" s="82"/>
-      <c r="B19" s="69" t="s">
+      <c r="A19" s="84"/>
+      <c r="B19" s="68" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="150">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="89" t="s">
         <v>434</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="20" customFormat="1" ht="105">
-      <c r="A21" s="86"/>
-      <c r="B21" s="34" t="s">
+    <row r="21" spans="1:2" s="19" customFormat="1" ht="105">
+      <c r="A21" s="89"/>
+      <c r="B21" s="33" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="89" t="s">
         <v>412</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="86"/>
-      <c r="B23" s="62" t="s">
+      <c r="A23" s="89"/>
+      <c r="B23" s="61" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="86"/>
-      <c r="B24" s="34" t="s">
+      <c r="A24" s="89"/>
+      <c r="B24" s="33" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="89" t="s">
         <v>416</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="135">
-      <c r="A26" s="86"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="89"/>
+      <c r="B26" s="33" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="86"/>
-      <c r="B27" s="34" t="s">
+      <c r="A27" s="89"/>
+      <c r="B27" s="33" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="86"/>
-      <c r="B28" s="34" t="s">
+      <c r="A28" s="89"/>
+      <c r="B28" s="33" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="86"/>
-      <c r="B29" s="34" t="s">
+      <c r="A29" s="89"/>
+      <c r="B29" s="33" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="88" t="s">
         <v>422</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="87"/>
-      <c r="B31" s="34" t="s">
+      <c r="A31" s="88"/>
+      <c r="B31" s="33" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="87"/>
-      <c r="B32" s="34" t="s">
+      <c r="A32" s="88"/>
+      <c r="B32" s="33" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="87"/>
-      <c r="B33" s="34" t="s">
+      <c r="A33" s="88"/>
+      <c r="B33" s="33" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="87"/>
-      <c r="B34" s="34" t="s">
+      <c r="A34" s="88"/>
+      <c r="B34" s="33" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="89" t="s">
         <v>428</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="33" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="165">
-      <c r="A36" s="86"/>
-      <c r="B36" s="34" t="s">
+      <c r="A36" s="89"/>
+      <c r="B36" s="33" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="86"/>
-      <c r="B37" s="34" t="s">
+      <c r="A37" s="89"/>
+      <c r="B37" s="33" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="47" t="s">
         <v>504</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="33" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="60">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="33" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="60">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="33" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="75">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="33" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="86" t="s">
+      <c r="A42" s="89" t="s">
         <v>442</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="33" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="86"/>
-      <c r="B43" s="34" t="s">
+      <c r="A43" s="89"/>
+      <c r="B43" s="33" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="120">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="33" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="86" t="s">
+      <c r="A45" s="89" t="s">
         <v>447</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="33" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="86"/>
-      <c r="B46" s="34" t="s">
+      <c r="A46" s="89"/>
+      <c r="B46" s="33" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="135">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="33" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="86" t="s">
+      <c r="A48" s="89" t="s">
         <v>447</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="33" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="60">
-      <c r="A49" s="86"/>
-      <c r="B49" s="34" t="s">
+      <c r="A49" s="89"/>
+      <c r="B49" s="33" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="87" t="s">
+      <c r="A50" s="88" t="s">
         <v>589</v>
       </c>
-      <c r="B50" s="63" t="s">
+      <c r="B50" s="62" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="60">
-      <c r="A51" s="87"/>
-      <c r="B51" s="63" t="s">
+      <c r="A51" s="88"/>
+      <c r="B51" s="62" t="s">
         <v>591</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A20:A21"/>
@@ -8804,12 +8886,6 @@
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
@@ -8844,10 +8920,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="76"/>
+      <c r="B3" s="78"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="6" t="s">
@@ -8898,7 +8974,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="87" t="s">
         <v>242</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -8906,25 +8982,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="85"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="85"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="90" t="s">
         <v>246</v>
       </c>
-      <c r="B13" s="88"/>
+      <c r="B13" s="90"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="87" t="s">
         <v>247</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -8932,13 +9008,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="85"/>
+      <c r="A15" s="87"/>
       <c r="B15" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="85"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="5" t="s">
         <v>250</v>
       </c>
@@ -8968,7 +9044,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="87" t="s">
         <v>257</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -8976,7 +9052,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="85"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="5" t="s">
         <v>259</v>
       </c>
@@ -9006,7 +9082,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="105">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>266</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -9054,7 +9130,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="85" t="s">
+      <c r="A31" s="87" t="s">
         <v>278</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -9062,13 +9138,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="85"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="85"/>
+      <c r="A33" s="87"/>
       <c r="B33" s="5" t="s">
         <v>281</v>
       </c>
@@ -9102,19 +9178,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55" style="70" customWidth="1"/>
+    <col min="1" max="1" width="55" style="69" customWidth="1"/>
     <col min="2" max="2" width="133.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -9122,104 +9198,104 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>647</v>
       </c>
-      <c r="B2" s="76"/>
-    </row>
-    <row r="3" spans="1:2" s="20" customFormat="1"/>
+      <c r="B2" s="78"/>
+    </row>
+    <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="5" spans="1:2">
-      <c r="B5" s="20"/>
-    </row>
-    <row r="6" spans="1:2" s="20" customFormat="1"/>
-    <row r="7" spans="1:2" s="20" customFormat="1">
-      <c r="A7" s="70"/>
-    </row>
-    <row r="8" spans="1:2" s="20" customFormat="1">
-      <c r="A8" s="70"/>
-    </row>
-    <row r="9" spans="1:2" s="20" customFormat="1">
-      <c r="A9" s="70"/>
-    </row>
-    <row r="10" spans="1:2" s="20" customFormat="1">
-      <c r="A10" s="75" t="s">
+      <c r="B5" s="19"/>
+    </row>
+    <row r="6" spans="1:2" s="19" customFormat="1"/>
+    <row r="7" spans="1:2" s="19" customFormat="1">
+      <c r="A7" s="69"/>
+    </row>
+    <row r="8" spans="1:2" s="19" customFormat="1">
+      <c r="A8" s="69"/>
+    </row>
+    <row r="9" spans="1:2" s="19" customFormat="1">
+      <c r="A9" s="69"/>
+    </row>
+    <row r="10" spans="1:2" s="19" customFormat="1">
+      <c r="A10" s="77" t="s">
         <v>651</v>
       </c>
-      <c r="B10" s="76"/>
-    </row>
-    <row r="11" spans="1:2" s="20" customFormat="1">
-      <c r="A11" s="90" t="s">
+      <c r="B10" s="78"/>
+    </row>
+    <row r="11" spans="1:2" s="19" customFormat="1">
+      <c r="A11" s="94" t="s">
         <v>655</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="20" customFormat="1">
+    <row r="12" spans="1:2" s="19" customFormat="1">
       <c r="A12" s="91"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="20" customFormat="1">
+    <row r="13" spans="1:2" s="19" customFormat="1">
       <c r="A13" s="91" t="s">
         <v>654</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="20" customFormat="1">
+    <row r="14" spans="1:2" s="19" customFormat="1">
       <c r="A14" s="91"/>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="20" customFormat="1">
-      <c r="A15" s="70"/>
-    </row>
-    <row r="16" spans="1:2" s="20" customFormat="1">
-      <c r="A16" s="70"/>
-    </row>
-    <row r="17" spans="1:2" s="20" customFormat="1">
-      <c r="A17" s="70"/>
-    </row>
-    <row r="18" spans="1:2" s="20" customFormat="1">
-      <c r="A18" s="70"/>
-    </row>
-    <row r="19" spans="1:2" s="20" customFormat="1">
-      <c r="A19" s="70"/>
-    </row>
-    <row r="20" spans="1:2" s="20" customFormat="1">
-      <c r="A20" s="70"/>
-    </row>
-    <row r="21" spans="1:2" s="20" customFormat="1">
-      <c r="A21" s="70"/>
+    <row r="15" spans="1:2" s="19" customFormat="1">
+      <c r="A15" s="69"/>
+    </row>
+    <row r="16" spans="1:2" s="19" customFormat="1">
+      <c r="A16" s="69"/>
+    </row>
+    <row r="17" spans="1:2" s="19" customFormat="1">
+      <c r="A17" s="69"/>
+    </row>
+    <row r="18" spans="1:2" s="19" customFormat="1">
+      <c r="A18" s="69"/>
+    </row>
+    <row r="19" spans="1:2" s="19" customFormat="1">
+      <c r="A19" s="69"/>
+    </row>
+    <row r="20" spans="1:2" s="19" customFormat="1">
+      <c r="A20" s="69"/>
+    </row>
+    <row r="21" spans="1:2" s="19" customFormat="1">
+      <c r="A21" s="69"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="76"/>
-    </row>
-    <row r="23" spans="1:2" s="20" customFormat="1">
-      <c r="A23" s="70" t="s">
+      <c r="B22" s="78"/>
+    </row>
+    <row r="23" spans="1:2" s="19" customFormat="1">
+      <c r="A23" s="69" t="s">
         <v>287</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="20" customFormat="1" ht="45">
-      <c r="A24" s="70" t="s">
+    <row r="24" spans="1:2" s="19" customFormat="1" ht="45">
+      <c r="A24" s="69" t="s">
         <v>618</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="68" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="69" t="s">
         <v>284</v>
       </c>
       <c r="B25" t="s">
@@ -9227,102 +9303,102 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="69" t="s">
         <v>620</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="68" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="69" t="s">
         <v>622</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="68" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="69" t="s">
         <v>624</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="68" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="60">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="68" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="165">
-      <c r="A30" s="87"/>
-      <c r="B30" s="69" t="s">
+      <c r="A30" s="88"/>
+      <c r="B30" s="68" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="93" t="s">
         <v>628</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="68" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
-      <c r="A32" s="89"/>
-      <c r="B32" s="69" t="s">
+      <c r="A32" s="93"/>
+      <c r="B32" s="68" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="20" customFormat="1" ht="75">
-      <c r="A33" s="71" t="s">
+    <row r="33" spans="1:2" s="19" customFormat="1" ht="75">
+      <c r="A33" s="70" t="s">
         <v>633</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="68" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="60">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="71" t="s">
         <v>631</v>
       </c>
-      <c r="B34" s="69" t="s">
+      <c r="B34" s="68" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="71" t="s">
         <v>632</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="68" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="150">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="73" t="s">
         <v>671</v>
       </c>
-      <c r="B36" s="74" t="s">
+      <c r="B36" s="73" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="20" customFormat="1" ht="30">
-      <c r="A37" s="74" t="s">
+    <row r="37" spans="1:2" s="19" customFormat="1" ht="30">
+      <c r="A37" s="73" t="s">
         <v>674</v>
       </c>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="73" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="20" customFormat="1" ht="30">
-      <c r="A38" s="74" t="s">
+    <row r="38" spans="1:2" s="19" customFormat="1" ht="30">
+      <c r="A38" s="73" t="s">
         <v>675</v>
       </c>
-      <c r="B38" s="74" t="s">
+      <c r="B38" s="73" t="s">
         <v>684</v>
       </c>
     </row>
@@ -9330,87 +9406,87 @@
       <c r="A39" s="91" t="s">
         <v>676</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="73" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="120">
       <c r="A40" s="91"/>
-      <c r="B40" s="74" t="s">
+      <c r="B40" s="73" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="20" customFormat="1" ht="60">
-      <c r="A41" s="93" t="s">
+    <row r="41" spans="1:2" s="19" customFormat="1" ht="60">
+      <c r="A41" s="92" t="s">
         <v>680</v>
       </c>
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="73" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="20" customFormat="1" ht="105">
-      <c r="A42" s="93"/>
-      <c r="B42" s="74" t="s">
+    <row r="42" spans="1:2" s="19" customFormat="1" ht="105">
+      <c r="A42" s="92"/>
+      <c r="B42" s="73" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="93" t="s">
+      <c r="A43" s="92" t="s">
         <v>677</v>
       </c>
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="73" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="93"/>
-      <c r="B44" s="74" t="s">
+      <c r="A44" s="92"/>
+      <c r="B44" s="73" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="75">
-      <c r="A45" s="93" t="s">
+      <c r="A45" s="92" t="s">
         <v>686</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="73" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="60">
-      <c r="A46" s="93"/>
-      <c r="B46" s="74" t="s">
+      <c r="A46" s="92"/>
+      <c r="B46" s="73" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="105">
-      <c r="A47" s="74" t="s">
+      <c r="A47" s="73" t="s">
         <v>689</v>
       </c>
-      <c r="B47" s="74" t="s">
+      <c r="B47" s="73" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="120">
-      <c r="A48" s="74" t="s">
+      <c r="A48" s="73" t="s">
         <v>691</v>
       </c>
-      <c r="B48" s="74" t="s">
+      <c r="B48" s="73" t="s">
         <v>692</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A11" display="Topics"/>

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="704">
   <si>
     <t>Main Topic</t>
   </si>
@@ -4767,6 +4767,27 @@
     <t>1. Impement Business logic
 2. Write Aspects for cross cutting concerens using Spring AOP or AspectJ
 3. Using Spring AOP or AspectJ to weave aspects into the application</t>
+  </si>
+  <si>
+    <t>Aspect Equation</t>
+  </si>
+  <si>
+    <t>Aspect = Pointcut + Advice</t>
+  </si>
+  <si>
+    <t>Where the aspect should be applied</t>
+  </si>
+  <si>
+    <t>1. What code should be executed
+2. The actual logic should be applied to the main business logic</t>
+  </si>
+  <si>
+    <t>Aspect Oriented programming involved 3 parts</t>
+  </si>
+  <si>
+    <t>1. What code should be executed
+2. Where this code should be executed
+3. When this code should be executed</t>
   </si>
 </sst>
 </file>
@@ -4980,7 +5001,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5200,6 +5221,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5234,6 +5258,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5244,9 +5271,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5559,7 +5583,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5829,13 +5853,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="78"/>
+      <c r="B4" s="79"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="87" t="s">
         <v>106</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -5843,7 +5867,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="87"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="5" t="s">
         <v>108</v>
       </c>
@@ -5889,7 +5913,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="96" t="s">
         <v>118</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -5897,7 +5921,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="95"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="5" t="s">
         <v>120</v>
       </c>
@@ -5911,7 +5935,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="96" t="s">
         <v>123</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5919,7 +5943,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="95"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="5" t="s">
         <v>125</v>
       </c>
@@ -5971,10 +5995,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="29" t="s">
@@ -5985,10 +6009,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="78"/>
+      <c r="B6" s="79"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="29" t="s">
@@ -6087,7 +6111,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="91" t="s">
         <v>381</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -6095,7 +6119,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="89"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="29" t="s">
         <v>379</v>
       </c>
@@ -6149,7 +6173,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="90" t="s">
         <v>392</v>
       </c>
       <c r="B27" s="29" t="s">
@@ -6157,7 +6181,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="88"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="29" t="s">
         <v>393</v>
       </c>
@@ -6259,7 +6283,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="88" t="s">
+      <c r="A41" s="90" t="s">
         <v>507</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -6267,7 +6291,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="210">
-      <c r="A42" s="88"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="48" t="s">
         <v>506</v>
       </c>
@@ -6289,7 +6313,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="92" t="s">
+      <c r="A45" s="89" t="s">
         <v>512</v>
       </c>
       <c r="B45" s="49" t="s">
@@ -6297,13 +6321,13 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="120">
-      <c r="A46" s="92"/>
+      <c r="A46" s="89"/>
       <c r="B46" s="49" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="92"/>
+      <c r="A47" s="89"/>
       <c r="B47" s="24" t="s">
         <v>514</v>
       </c>
@@ -6317,7 +6341,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45" customHeight="1">
-      <c r="A49" s="92" t="s">
+      <c r="A49" s="89" t="s">
         <v>517</v>
       </c>
       <c r="B49" s="50" t="s">
@@ -6325,7 +6349,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="92"/>
+      <c r="A50" s="89"/>
       <c r="B50" s="50" t="s">
         <v>519</v>
       </c>
@@ -6363,7 +6387,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="92" t="s">
+      <c r="A55" s="89" t="s">
         <v>524</v>
       </c>
       <c r="B55" s="50" t="s">
@@ -6371,7 +6395,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="92"/>
+      <c r="A56" s="89"/>
       <c r="B56" s="50" t="s">
         <v>530</v>
       </c>
@@ -6385,7 +6409,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="91" t="s">
+      <c r="A58" s="93" t="s">
         <v>533</v>
       </c>
       <c r="B58" s="52" t="s">
@@ -6393,7 +6417,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="91"/>
+      <c r="A59" s="93"/>
       <c r="B59" s="51" t="s">
         <v>534</v>
       </c>
@@ -6480,10 +6504,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="20" t="s">
@@ -6494,10 +6518,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="B6" s="78"/>
+      <c r="B6" s="79"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="9" t="s">
@@ -6532,7 +6556,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="89" t="s">
         <v>318</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -6540,7 +6564,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="92"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="26" t="s">
         <v>320</v>
       </c>
@@ -6554,7 +6578,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="91" t="s">
         <v>328</v>
       </c>
       <c r="B14" s="26" t="s">
@@ -6562,13 +6586,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="89"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="26" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="89"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="26" t="s">
         <v>344</v>
       </c>
@@ -6671,10 +6695,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="56" t="s">
@@ -6685,10 +6709,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="78"/>
+      <c r="B7" s="79"/>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="56" t="s">
@@ -6715,7 +6739,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" customHeight="1">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="93" t="s">
         <v>564</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -6723,7 +6747,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="91"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="19" t="s">
         <v>566</v>
       </c>
@@ -6857,16 +6881,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="78"/>
+      <c r="B7" s="79"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="19" t="s">
@@ -6925,7 +6949,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="75">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="97" t="s">
         <v>612</v>
       </c>
       <c r="B15" s="66" t="s">
@@ -6933,7 +6957,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="96"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="66" t="s">
         <v>614</v>
       </c>
@@ -6965,8 +6989,8 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43:B43"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6988,10 +7012,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="19" customFormat="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>486</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19" t="s">
@@ -7003,10 +7027,10 @@
     </row>
     <row r="4" spans="1:3" s="19" customFormat="1"/>
     <row r="5" spans="1:3">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="78" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="78"/>
+      <c r="B5" s="79"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="29" t="s">
@@ -7029,10 +7053,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="80"/>
+      <c r="B9" s="81"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="19" t="s">
@@ -7043,10 +7067,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="78"/>
+      <c r="B12" s="79"/>
     </row>
     <row r="13" spans="1:3" s="19" customFormat="1">
       <c r="A13" s="6" t="s">
@@ -7113,10 +7137,10 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="78" t="s">
         <v>284</v>
       </c>
-      <c r="B22" s="78"/>
+      <c r="B22" s="79"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="19" t="s">
@@ -7162,10 +7186,10 @@
       <c r="B28" s="12"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="78" t="s">
         <v>640</v>
       </c>
-      <c r="B29" s="78"/>
+      <c r="B29" s="79"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="67" t="s">
@@ -7177,10 +7201,10 @@
     </row>
     <row r="31" spans="1:2" s="19" customFormat="1"/>
     <row r="32" spans="1:2">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="78" t="s">
         <v>551</v>
       </c>
-      <c r="B32" s="78"/>
+      <c r="B32" s="79"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -7203,10 +7227,10 @@
       <c r="B35" s="19"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="78"/>
+      <c r="B37" s="79"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="19" t="s">
@@ -7217,10 +7241,10 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="78" t="s">
         <v>587</v>
       </c>
-      <c r="B40" s="78"/>
+      <c r="B40" s="79"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="19" t="s">
@@ -7231,10 +7255,10 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="82"/>
+      <c r="B43" s="83"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="19" t="s">
@@ -7304,10 +7328,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>662</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="81"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="19" t="s">
@@ -7329,10 +7353,10 @@
     <row r="6" spans="1:2" s="19" customFormat="1"/>
     <row r="7" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>663</v>
       </c>
-      <c r="B8" s="80"/>
+      <c r="B8" s="81"/>
     </row>
     <row r="9" spans="1:2" s="19" customFormat="1">
       <c r="A9" s="19" t="s">
@@ -7351,13 +7375,13 @@
     <row r="16" spans="1:2" s="19" customFormat="1"/>
     <row r="17" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="18" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="80"/>
+      <c r="B18" s="81"/>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="87" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -7365,7 +7389,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="87"/>
+      <c r="A20" s="88"/>
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
@@ -7643,7 +7667,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="87" t="s">
+      <c r="A55" s="88" t="s">
         <v>81</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -7651,19 +7675,19 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="87"/>
+      <c r="A56" s="88"/>
       <c r="B56" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="87"/>
+      <c r="A57" s="88"/>
       <c r="B57" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="87" t="s">
+      <c r="A58" s="88" t="s">
         <v>85</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -7671,19 +7695,19 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="87"/>
+      <c r="A59" s="88"/>
       <c r="B59" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="90">
-      <c r="A60" s="87"/>
+      <c r="A60" s="88"/>
       <c r="B60" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="75">
-      <c r="A61" s="87" t="s">
+      <c r="A61" s="88" t="s">
         <v>89</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -7691,7 +7715,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="87"/>
+      <c r="A62" s="88"/>
       <c r="B62" s="5" t="s">
         <v>322</v>
       </c>
@@ -7745,7 +7769,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="85" t="s">
+      <c r="A69" s="86" t="s">
         <v>102</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -7753,13 +7777,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="240">
-      <c r="A70" s="85"/>
+      <c r="A70" s="86"/>
       <c r="B70" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="180">
-      <c r="A71" s="85"/>
+      <c r="A71" s="86"/>
       <c r="B71" s="5" t="s">
         <v>105</v>
       </c>
@@ -7805,7 +7829,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="105">
-      <c r="A77" s="84" t="s">
+      <c r="A77" s="85" t="s">
         <v>465</v>
       </c>
       <c r="B77" s="35" t="s">
@@ -7813,19 +7837,19 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="120">
-      <c r="A78" s="84"/>
+      <c r="A78" s="85"/>
       <c r="B78" s="35" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="75">
-      <c r="A79" s="84"/>
+      <c r="A79" s="85"/>
       <c r="B79" s="35" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="60">
-      <c r="A80" s="84" t="s">
+      <c r="A80" s="85" t="s">
         <v>466</v>
       </c>
       <c r="B80" s="43" t="s">
@@ -7833,7 +7857,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="60">
-      <c r="A81" s="84"/>
+      <c r="A81" s="85"/>
       <c r="B81" s="43" t="s">
         <v>489</v>
       </c>
@@ -7895,7 +7919,7 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="83" t="s">
+      <c r="A89" s="84" t="s">
         <v>491</v>
       </c>
       <c r="B89" s="43" t="s">
@@ -7903,7 +7927,7 @@
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="83"/>
+      <c r="A90" s="84"/>
       <c r="B90" s="43" t="s">
         <v>493</v>
       </c>
@@ -7956,10 +7980,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="78"/>
+      <c r="B4" s="79"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
@@ -8189,10 +8213,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="78"/>
+      <c r="B3" s="79"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
@@ -8216,11 +8240,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8238,10 +8262,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>662</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="76"/>
@@ -8259,10 +8283,10 @@
       <c r="A7" s="76"/>
     </row>
     <row r="8" spans="1:2" s="19" customFormat="1">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="78" t="s">
         <v>668</v>
       </c>
-      <c r="B8" s="78"/>
+      <c r="B8" s="79"/>
     </row>
     <row r="9" spans="1:2" s="19" customFormat="1">
       <c r="A9" s="76"/>
@@ -8289,10 +8313,10 @@
       <c r="A16" s="76"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="78" t="s">
         <v>656</v>
       </c>
-      <c r="B18" s="78"/>
+      <c r="B18" s="79"/>
     </row>
     <row r="19" spans="1:2" ht="90">
       <c r="A19" s="75" t="s">
@@ -8463,10 +8487,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="78" t="s">
         <v>657</v>
       </c>
-      <c r="B41" s="78"/>
+      <c r="B41" s="79"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="46" t="s">
@@ -8477,7 +8501,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="89" t="s">
         <v>661</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -8485,7 +8509,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="92"/>
+      <c r="A44" s="89"/>
       <c r="B44" s="19" t="s">
         <v>693</v>
       </c>
@@ -8504,6 +8528,38 @@
       </c>
       <c r="B46" s="76" t="s">
         <v>697</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="19" customFormat="1" ht="45">
+      <c r="A47" s="77" t="s">
+        <v>702</v>
+      </c>
+      <c r="B47" s="77" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="77" t="s">
+        <v>698</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="77" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" s="77" t="s">
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -8549,10 +8605,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>647</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="6" t="s">
@@ -8575,10 +8631,10 @@
       <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2" s="19" customFormat="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>648</v>
       </c>
-      <c r="B7" s="78"/>
+      <c r="B7" s="79"/>
     </row>
     <row r="8" spans="1:2" s="19" customFormat="1">
       <c r="A8" s="6"/>
@@ -8601,10 +8657,10 @@
       <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="78"/>
+      <c r="B13" s="79"/>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" s="33" t="s">
@@ -8615,7 +8671,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="120">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="88" t="s">
         <v>301</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -8623,13 +8679,13 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="87"/>
+      <c r="A16" s="88"/>
       <c r="B16" s="9" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="85" t="s">
         <v>316</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -8637,19 +8693,19 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="120">
-      <c r="A18" s="84"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="68" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="135">
-      <c r="A19" s="84"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="68" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="150">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="91" t="s">
         <v>434</v>
       </c>
       <c r="B20" s="33" t="s">
@@ -8657,13 +8713,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" s="19" customFormat="1" ht="105">
-      <c r="A21" s="89"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="33" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="91" t="s">
         <v>412</v>
       </c>
       <c r="B22" s="33" t="s">
@@ -8671,19 +8727,19 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="89"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="61" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="89"/>
+      <c r="A24" s="91"/>
       <c r="B24" s="33" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="91" t="s">
         <v>416</v>
       </c>
       <c r="B25" s="33" t="s">
@@ -8691,31 +8747,31 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="135">
-      <c r="A26" s="89"/>
+      <c r="A26" s="91"/>
       <c r="B26" s="33" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="89"/>
+      <c r="A27" s="91"/>
       <c r="B27" s="33" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="89"/>
+      <c r="A28" s="91"/>
       <c r="B28" s="33" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="89"/>
+      <c r="A29" s="91"/>
       <c r="B29" s="33" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="90" t="s">
         <v>422</v>
       </c>
       <c r="B30" s="33" t="s">
@@ -8723,31 +8779,31 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="88"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="33" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="88"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="33" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="88"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="33" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="88"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="33" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="91" t="s">
         <v>428</v>
       </c>
       <c r="B35" s="33" t="s">
@@ -8755,13 +8811,13 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="165">
-      <c r="A36" s="89"/>
+      <c r="A36" s="91"/>
       <c r="B36" s="33" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="89"/>
+      <c r="A37" s="91"/>
       <c r="B37" s="33" t="s">
         <v>431</v>
       </c>
@@ -8799,7 +8855,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="89" t="s">
+      <c r="A42" s="91" t="s">
         <v>442</v>
       </c>
       <c r="B42" s="33" t="s">
@@ -8807,7 +8863,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="89"/>
+      <c r="A43" s="91"/>
       <c r="B43" s="33" t="s">
         <v>444</v>
       </c>
@@ -8821,7 +8877,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="89" t="s">
+      <c r="A45" s="91" t="s">
         <v>447</v>
       </c>
       <c r="B45" s="33" t="s">
@@ -8829,7 +8885,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="89"/>
+      <c r="A46" s="91"/>
       <c r="B46" s="33" t="s">
         <v>449</v>
       </c>
@@ -8843,7 +8899,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="91" t="s">
         <v>447</v>
       </c>
       <c r="B48" s="33" t="s">
@@ -8851,13 +8907,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="60">
-      <c r="A49" s="89"/>
+      <c r="A49" s="91"/>
       <c r="B49" s="33" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="88" t="s">
+      <c r="A50" s="90" t="s">
         <v>589</v>
       </c>
       <c r="B50" s="62" t="s">
@@ -8865,7 +8921,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="60">
-      <c r="A51" s="88"/>
+      <c r="A51" s="90"/>
       <c r="B51" s="62" t="s">
         <v>591</v>
       </c>
@@ -8920,10 +8976,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="78"/>
+      <c r="B3" s="79"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="6" t="s">
@@ -8974,7 +9030,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="88" t="s">
         <v>242</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -8982,25 +9038,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="87"/>
+      <c r="A11" s="88"/>
       <c r="B11" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="87"/>
+      <c r="A12" s="88"/>
       <c r="B12" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="92" t="s">
         <v>246</v>
       </c>
-      <c r="B13" s="90"/>
+      <c r="B13" s="92"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="88" t="s">
         <v>247</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -9008,13 +9064,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="87"/>
+      <c r="A15" s="88"/>
       <c r="B15" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="87"/>
+      <c r="A16" s="88"/>
       <c r="B16" s="5" t="s">
         <v>250</v>
       </c>
@@ -9044,7 +9100,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="88" t="s">
         <v>257</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -9052,7 +9108,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="87"/>
+      <c r="A21" s="88"/>
       <c r="B21" s="5" t="s">
         <v>259</v>
       </c>
@@ -9130,7 +9186,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="88" t="s">
         <v>278</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -9138,13 +9194,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="87"/>
+      <c r="A32" s="88"/>
       <c r="B32" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="87"/>
+      <c r="A33" s="88"/>
       <c r="B33" s="5" t="s">
         <v>281</v>
       </c>
@@ -9198,10 +9254,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>647</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="5" spans="1:2">
@@ -9218,13 +9274,13 @@
       <c r="A9" s="69"/>
     </row>
     <row r="10" spans="1:2" s="19" customFormat="1">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="78" t="s">
         <v>651</v>
       </c>
-      <c r="B10" s="78"/>
+      <c r="B10" s="79"/>
     </row>
     <row r="11" spans="1:2" s="19" customFormat="1">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="95" t="s">
         <v>655</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -9232,13 +9288,13 @@
       </c>
     </row>
     <row r="12" spans="1:2" s="19" customFormat="1">
-      <c r="A12" s="91"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="12" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="19" customFormat="1">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="93" t="s">
         <v>654</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -9246,7 +9302,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" s="19" customFormat="1">
-      <c r="A14" s="91"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="12" t="s">
         <v>646</v>
       </c>
@@ -9273,10 +9329,10 @@
       <c r="A21" s="69"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="78"/>
+      <c r="B22" s="79"/>
     </row>
     <row r="23" spans="1:2" s="19" customFormat="1">
       <c r="A23" s="69" t="s">
@@ -9327,7 +9383,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="60">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="90" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="68" t="s">
@@ -9335,13 +9391,13 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="165">
-      <c r="A30" s="88"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="68" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="93" t="s">
+      <c r="A31" s="94" t="s">
         <v>628</v>
       </c>
       <c r="B31" s="68" t="s">
@@ -9349,7 +9405,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
-      <c r="A32" s="93"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="68" t="s">
         <v>630</v>
       </c>
@@ -9403,7 +9459,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="90">
-      <c r="A39" s="91" t="s">
+      <c r="A39" s="93" t="s">
         <v>676</v>
       </c>
       <c r="B39" s="73" t="s">
@@ -9411,13 +9467,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="120">
-      <c r="A40" s="91"/>
+      <c r="A40" s="93"/>
       <c r="B40" s="73" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="19" customFormat="1" ht="60">
-      <c r="A41" s="92" t="s">
+      <c r="A41" s="89" t="s">
         <v>680</v>
       </c>
       <c r="B41" s="73" t="s">
@@ -9425,13 +9481,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" s="19" customFormat="1" ht="105">
-      <c r="A42" s="92"/>
+      <c r="A42" s="89"/>
       <c r="B42" s="73" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="89" t="s">
         <v>677</v>
       </c>
       <c r="B43" s="73" t="s">
@@ -9439,13 +9495,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="92"/>
+      <c r="A44" s="89"/>
       <c r="B44" s="73" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="75">
-      <c r="A45" s="92" t="s">
+      <c r="A45" s="89" t="s">
         <v>686</v>
       </c>
       <c r="B45" s="73" t="s">
@@ -9453,7 +9509,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="60">
-      <c r="A46" s="92"/>
+      <c r="A46" s="89"/>
       <c r="B46" s="73" t="s">
         <v>688</v>
       </c>

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="722">
   <si>
     <t>Main Topic</t>
   </si>
@@ -4788,6 +4788,64 @@
     <t>1. What code should be executed
 2. Where this code should be executed
 3. When this code should be executed</t>
+  </si>
+  <si>
+    <t>org.aspectj.lang.annotation.Before("execution(void method1())")</t>
+  </si>
+  <si>
+    <t>Execute before method with name method1() and return type void</t>
+  </si>
+  <si>
+    <t>org.aspectj.lang.annotation.Before("execution(* *(..))")</t>
+  </si>
+  <si>
+    <t>Execute before any method with any arguments with any return type that means to all methods</t>
+  </si>
+  <si>
+    <t>Using JoinPoint class we can inspect for which method aspect is getting executed</t>
+  </si>
+  <si>
+    <t>org.aspectj.lang.JoinPoint</t>
+  </si>
+  <si>
+    <t>Types of Advices</t>
+  </si>
+  <si>
+    <t>1. Before
+2. After
+3. After Throwing
+4. After Returning
+5. Around</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>Execute this advice before method</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>Execute this advice after method</t>
+  </si>
+  <si>
+    <t>After Throwing</t>
+  </si>
+  <si>
+    <t>Execute if method throws an exception</t>
+  </si>
+  <si>
+    <t>After Returning</t>
+  </si>
+  <si>
+    <t>Execute after method executed successfully</t>
+  </si>
+  <si>
+    <t>Around</t>
+  </si>
+  <si>
+    <t>Wraps the original method and allows us to do anything we like. So we can do stuff before method call, after method call, and even we can avoid original method being called</t>
   </si>
 </sst>
 </file>
@@ -5001,7 +5059,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5224,6 +5282,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5261,21 +5322,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5853,13 +5914,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="79"/>
+      <c r="B4" s="80"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="88" t="s">
         <v>106</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -5867,7 +5928,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="88"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="5" t="s">
         <v>108</v>
       </c>
@@ -5913,7 +5974,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="97" t="s">
         <v>118</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -5921,7 +5982,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="96"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="5" t="s">
         <v>120</v>
       </c>
@@ -5935,7 +5996,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="97" t="s">
         <v>123</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5943,7 +6004,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="96"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="5" t="s">
         <v>125</v>
       </c>
@@ -5995,10 +6056,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="29" t="s">
@@ -6009,10 +6070,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="80"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="29" t="s">
@@ -6173,7 +6234,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="92" t="s">
         <v>392</v>
       </c>
       <c r="B27" s="29" t="s">
@@ -6181,7 +6242,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="90"/>
+      <c r="A28" s="92"/>
       <c r="B28" s="29" t="s">
         <v>393</v>
       </c>
@@ -6283,7 +6344,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="90" t="s">
+      <c r="A41" s="92" t="s">
         <v>507</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -6291,7 +6352,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="210">
-      <c r="A42" s="90"/>
+      <c r="A42" s="92"/>
       <c r="B42" s="48" t="s">
         <v>506</v>
       </c>
@@ -6313,7 +6374,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="89" t="s">
+      <c r="A45" s="90" t="s">
         <v>512</v>
       </c>
       <c r="B45" s="49" t="s">
@@ -6321,13 +6382,13 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="120">
-      <c r="A46" s="89"/>
+      <c r="A46" s="90"/>
       <c r="B46" s="49" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="89"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="24" t="s">
         <v>514</v>
       </c>
@@ -6341,7 +6402,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45" customHeight="1">
-      <c r="A49" s="89" t="s">
+      <c r="A49" s="90" t="s">
         <v>517</v>
       </c>
       <c r="B49" s="50" t="s">
@@ -6349,7 +6410,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="89"/>
+      <c r="A50" s="90"/>
       <c r="B50" s="50" t="s">
         <v>519</v>
       </c>
@@ -6387,7 +6448,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="89" t="s">
+      <c r="A55" s="90" t="s">
         <v>524</v>
       </c>
       <c r="B55" s="50" t="s">
@@ -6395,7 +6456,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="89"/>
+      <c r="A56" s="90"/>
       <c r="B56" s="50" t="s">
         <v>530</v>
       </c>
@@ -6409,7 +6470,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="93" t="s">
+      <c r="A58" s="96" t="s">
         <v>533</v>
       </c>
       <c r="B58" s="52" t="s">
@@ -6417,7 +6478,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="93"/>
+      <c r="A59" s="96"/>
       <c r="B59" s="51" t="s">
         <v>534</v>
       </c>
@@ -6504,10 +6565,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="20" t="s">
@@ -6518,10 +6579,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>308</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="80"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="9" t="s">
@@ -6556,7 +6617,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="90" t="s">
         <v>318</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -6564,7 +6625,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="89"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="26" t="s">
         <v>320</v>
       </c>
@@ -6695,10 +6756,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="56" t="s">
@@ -6709,10 +6770,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="79"/>
+      <c r="B7" s="80"/>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="56" t="s">
@@ -6739,7 +6800,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" customHeight="1">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="96" t="s">
         <v>564</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -6747,7 +6808,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="93"/>
+      <c r="A12" s="96"/>
       <c r="B12" s="19" t="s">
         <v>566</v>
       </c>
@@ -6881,16 +6942,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="79"/>
+      <c r="B7" s="80"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="19" t="s">
@@ -6949,7 +7010,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="75">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="98" t="s">
         <v>612</v>
       </c>
       <c r="B15" s="66" t="s">
@@ -6957,7 +7018,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="97"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="66" t="s">
         <v>614</v>
       </c>
@@ -7012,10 +7073,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="19" customFormat="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>486</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19" t="s">
@@ -7027,10 +7088,10 @@
     </row>
     <row r="4" spans="1:3" s="19" customFormat="1"/>
     <row r="5" spans="1:3">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="79"/>
+      <c r="B5" s="80"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="29" t="s">
@@ -7053,10 +7114,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="81"/>
+      <c r="B9" s="82"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="19" t="s">
@@ -7067,10 +7128,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="79"/>
+      <c r="B12" s="80"/>
     </row>
     <row r="13" spans="1:3" s="19" customFormat="1">
       <c r="A13" s="6" t="s">
@@ -7137,10 +7198,10 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="79" t="s">
         <v>284</v>
       </c>
-      <c r="B22" s="79"/>
+      <c r="B22" s="80"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="19" t="s">
@@ -7186,10 +7247,10 @@
       <c r="B28" s="12"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="79" t="s">
         <v>640</v>
       </c>
-      <c r="B29" s="79"/>
+      <c r="B29" s="80"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="67" t="s">
@@ -7201,10 +7262,10 @@
     </row>
     <row r="31" spans="1:2" s="19" customFormat="1"/>
     <row r="32" spans="1:2">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="79" t="s">
         <v>551</v>
       </c>
-      <c r="B32" s="79"/>
+      <c r="B32" s="80"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -7227,10 +7288,10 @@
       <c r="B35" s="19"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="79"/>
+      <c r="B37" s="80"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="19" t="s">
@@ -7241,10 +7302,10 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="78" t="s">
+      <c r="A40" s="79" t="s">
         <v>587</v>
       </c>
-      <c r="B40" s="79"/>
+      <c r="B40" s="80"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="19" t="s">
@@ -7255,10 +7316,10 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="83"/>
+      <c r="B43" s="84"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="19" t="s">
@@ -7328,10 +7389,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>662</v>
       </c>
-      <c r="B2" s="81"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="19" t="s">
@@ -7353,10 +7414,10 @@
     <row r="6" spans="1:2" s="19" customFormat="1"/>
     <row r="7" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>663</v>
       </c>
-      <c r="B8" s="81"/>
+      <c r="B8" s="82"/>
     </row>
     <row r="9" spans="1:2" s="19" customFormat="1">
       <c r="A9" s="19" t="s">
@@ -7375,13 +7436,13 @@
     <row r="16" spans="1:2" s="19" customFormat="1"/>
     <row r="17" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="18" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="81"/>
+      <c r="B18" s="82"/>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="88" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -7389,7 +7450,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="88"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
@@ -7667,7 +7728,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="88" t="s">
+      <c r="A55" s="89" t="s">
         <v>81</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -7675,19 +7736,19 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="88"/>
+      <c r="A56" s="89"/>
       <c r="B56" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="88"/>
+      <c r="A57" s="89"/>
       <c r="B57" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="88" t="s">
+      <c r="A58" s="89" t="s">
         <v>85</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -7695,19 +7756,19 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="88"/>
+      <c r="A59" s="89"/>
       <c r="B59" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="90">
-      <c r="A60" s="88"/>
+      <c r="A60" s="89"/>
       <c r="B60" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="75">
-      <c r="A61" s="88" t="s">
+      <c r="A61" s="89" t="s">
         <v>89</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -7715,7 +7776,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="88"/>
+      <c r="A62" s="89"/>
       <c r="B62" s="5" t="s">
         <v>322</v>
       </c>
@@ -7769,7 +7830,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="86" t="s">
+      <c r="A69" s="87" t="s">
         <v>102</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -7777,13 +7838,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="240">
-      <c r="A70" s="86"/>
+      <c r="A70" s="87"/>
       <c r="B70" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="180">
-      <c r="A71" s="86"/>
+      <c r="A71" s="87"/>
       <c r="B71" s="5" t="s">
         <v>105</v>
       </c>
@@ -7829,7 +7890,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="105">
-      <c r="A77" s="85" t="s">
+      <c r="A77" s="86" t="s">
         <v>465</v>
       </c>
       <c r="B77" s="35" t="s">
@@ -7837,19 +7898,19 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="120">
-      <c r="A78" s="85"/>
+      <c r="A78" s="86"/>
       <c r="B78" s="35" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="75">
-      <c r="A79" s="85"/>
+      <c r="A79" s="86"/>
       <c r="B79" s="35" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="60">
-      <c r="A80" s="85" t="s">
+      <c r="A80" s="86" t="s">
         <v>466</v>
       </c>
       <c r="B80" s="43" t="s">
@@ -7857,7 +7918,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="60">
-      <c r="A81" s="85"/>
+      <c r="A81" s="86"/>
       <c r="B81" s="43" t="s">
         <v>489</v>
       </c>
@@ -7919,7 +7980,7 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="84" t="s">
+      <c r="A89" s="85" t="s">
         <v>491</v>
       </c>
       <c r="B89" s="43" t="s">
@@ -7927,7 +7988,7 @@
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="84"/>
+      <c r="A90" s="85"/>
       <c r="B90" s="43" t="s">
         <v>493</v>
       </c>
@@ -7980,10 +8041,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="79"/>
+      <c r="B4" s="80"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
@@ -8213,10 +8274,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="79"/>
+      <c r="B3" s="80"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
@@ -8240,11 +8301,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8262,10 +8323,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>662</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="76"/>
@@ -8283,10 +8344,10 @@
       <c r="A7" s="76"/>
     </row>
     <row r="8" spans="1:2" s="19" customFormat="1">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>668</v>
       </c>
-      <c r="B8" s="79"/>
+      <c r="B8" s="80"/>
     </row>
     <row r="9" spans="1:2" s="19" customFormat="1">
       <c r="A9" s="76"/>
@@ -8313,10 +8374,10 @@
       <c r="A16" s="76"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="79" t="s">
         <v>656</v>
       </c>
-      <c r="B18" s="79"/>
+      <c r="B18" s="80"/>
     </row>
     <row r="19" spans="1:2" ht="90">
       <c r="A19" s="75" t="s">
@@ -8487,10 +8548,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="78" t="s">
+      <c r="A41" s="79" t="s">
         <v>657</v>
       </c>
-      <c r="B41" s="79"/>
+      <c r="B41" s="80"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="46" t="s">
@@ -8501,7 +8562,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="89" t="s">
+      <c r="A43" s="90" t="s">
         <v>661</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -8509,7 +8570,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="89"/>
+      <c r="A44" s="90"/>
       <c r="B44" s="19" t="s">
         <v>693</v>
       </c>
@@ -8560,6 +8621,78 @@
       </c>
       <c r="B50" s="77" t="s">
         <v>701</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30">
+      <c r="A51" s="78" t="s">
+        <v>704</v>
+      </c>
+      <c r="B51" s="78" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="78" t="s">
+        <v>706</v>
+      </c>
+      <c r="B52" s="78" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="78" t="s">
+        <v>709</v>
+      </c>
+      <c r="B53" s="78" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="75">
+      <c r="A54" s="78" t="s">
+        <v>710</v>
+      </c>
+      <c r="B54" s="78" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="78" t="s">
+        <v>712</v>
+      </c>
+      <c r="B55" s="78" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="78" t="s">
+        <v>714</v>
+      </c>
+      <c r="B56" s="78" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="78" t="s">
+        <v>716</v>
+      </c>
+      <c r="B57" s="78" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="78" t="s">
+        <v>718</v>
+      </c>
+      <c r="B58" s="78" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30">
+      <c r="A59" s="78" t="s">
+        <v>720</v>
+      </c>
+      <c r="B59" s="78" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -8605,10 +8738,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>647</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="6" t="s">
@@ -8631,10 +8764,10 @@
       <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2" s="19" customFormat="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>648</v>
       </c>
-      <c r="B7" s="79"/>
+      <c r="B7" s="80"/>
     </row>
     <row r="8" spans="1:2" s="19" customFormat="1">
       <c r="A8" s="6"/>
@@ -8657,10 +8790,10 @@
       <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="79" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="79"/>
+      <c r="B13" s="80"/>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" s="33" t="s">
@@ -8671,7 +8804,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="120">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="89" t="s">
         <v>301</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -8679,13 +8812,13 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="88"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="9" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="86" t="s">
         <v>316</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -8693,13 +8826,13 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="120">
-      <c r="A18" s="85"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="68" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="135">
-      <c r="A19" s="85"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="68" t="s">
         <v>638</v>
       </c>
@@ -8771,7 +8904,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="90" t="s">
+      <c r="A30" s="92" t="s">
         <v>422</v>
       </c>
       <c r="B30" s="33" t="s">
@@ -8779,25 +8912,25 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="90"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="33" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="90"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="33" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="90"/>
+      <c r="A33" s="92"/>
       <c r="B33" s="33" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="90"/>
+      <c r="A34" s="92"/>
       <c r="B34" s="33" t="s">
         <v>427</v>
       </c>
@@ -8913,7 +9046,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="90" t="s">
+      <c r="A50" s="92" t="s">
         <v>589</v>
       </c>
       <c r="B50" s="62" t="s">
@@ -8921,19 +9054,13 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="60">
-      <c r="A51" s="90"/>
+      <c r="A51" s="92"/>
       <c r="B51" s="62" t="s">
         <v>591</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A20:A21"/>
@@ -8942,6 +9069,12 @@
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
@@ -8976,10 +9109,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="79"/>
+      <c r="B3" s="80"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="6" t="s">
@@ -9030,7 +9163,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="89" t="s">
         <v>242</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -9038,25 +9171,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="88"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="88"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="93" t="s">
         <v>246</v>
       </c>
-      <c r="B13" s="92"/>
+      <c r="B13" s="93"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="89" t="s">
         <v>247</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -9064,13 +9197,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="88"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="88"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="5" t="s">
         <v>250</v>
       </c>
@@ -9100,7 +9233,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="89" t="s">
         <v>257</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -9108,7 +9241,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="88"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="5" t="s">
         <v>259</v>
       </c>
@@ -9186,7 +9319,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="89" t="s">
         <v>278</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -9194,13 +9327,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="88"/>
+      <c r="A32" s="89"/>
       <c r="B32" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="88"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="5" t="s">
         <v>281</v>
       </c>
@@ -9254,10 +9387,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>647</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="5" spans="1:2">
@@ -9274,10 +9407,10 @@
       <c r="A9" s="69"/>
     </row>
     <row r="10" spans="1:2" s="19" customFormat="1">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>651</v>
       </c>
-      <c r="B10" s="79"/>
+      <c r="B10" s="80"/>
     </row>
     <row r="11" spans="1:2" s="19" customFormat="1">
       <c r="A11" s="95" t="s">
@@ -9288,13 +9421,13 @@
       </c>
     </row>
     <row r="12" spans="1:2" s="19" customFormat="1">
-      <c r="A12" s="93"/>
+      <c r="A12" s="96"/>
       <c r="B12" s="12" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="19" customFormat="1">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="96" t="s">
         <v>654</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -9302,7 +9435,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" s="19" customFormat="1">
-      <c r="A14" s="93"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="12" t="s">
         <v>646</v>
       </c>
@@ -9329,10 +9462,10 @@
       <c r="A21" s="69"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="79" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="79"/>
+      <c r="B22" s="80"/>
     </row>
     <row r="23" spans="1:2" s="19" customFormat="1">
       <c r="A23" s="69" t="s">
@@ -9383,7 +9516,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="60">
-      <c r="A29" s="90" t="s">
+      <c r="A29" s="92" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="68" t="s">
@@ -9391,7 +9524,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="165">
-      <c r="A30" s="90"/>
+      <c r="A30" s="92"/>
       <c r="B30" s="68" t="s">
         <v>627</v>
       </c>
@@ -9459,7 +9592,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="90">
-      <c r="A39" s="93" t="s">
+      <c r="A39" s="96" t="s">
         <v>676</v>
       </c>
       <c r="B39" s="73" t="s">
@@ -9467,13 +9600,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="120">
-      <c r="A40" s="93"/>
+      <c r="A40" s="96"/>
       <c r="B40" s="73" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="19" customFormat="1" ht="60">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="90" t="s">
         <v>680</v>
       </c>
       <c r="B41" s="73" t="s">
@@ -9481,13 +9614,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" s="19" customFormat="1" ht="105">
-      <c r="A42" s="89"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="73" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="89" t="s">
+      <c r="A43" s="90" t="s">
         <v>677</v>
       </c>
       <c r="B43" s="73" t="s">
@@ -9495,13 +9628,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="89"/>
+      <c r="A44" s="90"/>
       <c r="B44" s="73" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="75">
-      <c r="A45" s="89" t="s">
+      <c r="A45" s="90" t="s">
         <v>686</v>
       </c>
       <c r="B45" s="73" t="s">
@@ -9509,7 +9642,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="60">
-      <c r="A46" s="89"/>
+      <c r="A46" s="90"/>
       <c r="B46" s="73" t="s">
         <v>688</v>
       </c>
@@ -9532,17 +9665,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A11" display="Topics"/>

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="805">
   <si>
     <t>Main Topic</t>
   </si>
@@ -4846,6 +4846,398 @@
   </si>
   <si>
     <t>Wraps the original method and allows us to do anything we like. So we can do stuff before method call, after method call, and even we can avoid original method being called</t>
+  </si>
+  <si>
+    <t>Execute this aspect before method with
+name: method1
+return type: void
+arguments: zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @org.aspectj.lang.annotation.Before("execution(void method1())")
+    public void beforeMethod() {
+    System.out.println("LoggingBeforeAspect -&gt; beforeMethod()");
+    }</t>
+  </si>
+  <si>
+    <t>Execute this aspect to any method with any arguments with any return type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Before("execution(* *(..))")
+    public void beforeAnyMethod() {
+    System.out.println("LoggingBeforeAspect -&gt; beforeAnyMethod() ");
+    }</t>
+  </si>
+  <si>
+    <t>1. Execute this aspect to any method with any arguments with any return type
+2. With JoinPoint we can get information before which method this aspect is getting executed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Before("execution(* *(..))")
+    public void beforeAnyMethodWithJoinPoint(JoinPoint joinPoint) {
+    System.out.println("LoggingBeforeAspect -&gt; beforeAnyMethodWithJoinPoint() -&gt; " + joinPoint.getStaticPart().getSignature().toString());
+    }</t>
+  </si>
+  <si>
+    <t>Execute this aspect before method with
+      name: method1()
+      return type: void
+      arguments: String argument1
+      get arguments from JoinPoint</t>
+  </si>
+  <si>
+    <t>import org.aspectj.lang.JoinPoint;
+import org.aspectj.lang.JoinPoint.StaticPart;
+import org.aspectj.lang.Signature;
+import org.aspectj.lang.annotation.Aspect;
+import org.aspectj.lang.annotation.Before;
+import org.springframework.stereotype.Component;
+public void beforeAdviceMethod2(JoinPoint joinPoint) {
+ StaticPart staticPart = joinPoint.getStaticPart();
+ Signature signature = staticPart.getSignature();
+ System.out.println("LoggingBeforeAspect -&gt; beforeAdviceMethod2() -&gt; " + signature.toLongString());
+ Object[] arguments = joinPoint.getArgs();
+ for (Object argument : arguments) {
+     System.out.println("argument: " + argument);
+ }
+    }</t>
+  </si>
+  <si>
+    <t>Execute this aspect after method1</t>
+  </si>
+  <si>
+    <t>import org.aspectj.lang.annotation.After;
+import org.aspectj.lang.annotation.Aspect;
+import org.springframework.stereotype.Component;
+@After("execution(void method1())")
+    public void afterMethod1() {
+ System.out.println("LoggingAfterAspect -&gt; afterMethod1()");
+    }</t>
+  </si>
+  <si>
+    <t>Execute after advice after any method, any return type, any arguments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @After("execution(* *(..))")
+     public void afterAnyMethod() {
+    System.out.println("LoggingAfterAspect -&gt; afterAnyMethod()");
+     }</t>
+  </si>
+  <si>
+    <t>import org.aspectj.lang.JoinPoint;
+import org.aspectj.lang.annotation.After;
+import org.aspectj.lang.annotation.Aspect;
+import org.springframework.stereotype.Component;
+@After("execution(void method1())")
+    public void afterMethodWithJoinPoint(JoinPoint joinPoint) {
+ System.out.println("LoggingAfterAspect -&gt; afterMethodWithJoinPoint(), " + joinPoint.getStaticPart().getSignature().toLongString());
+    }</t>
+  </si>
+  <si>
+    <t>Execute this advice after the method with
+      method name: method1
+      return type: void
+      arguments: 0
+      @param joinPoint</t>
+  </si>
+  <si>
+    <t>Execute this advice if method throws an exception</t>
+  </si>
+  <si>
+    <t>import org.aspectj.lang.JoinPoint;
+import org.aspectj.lang.annotation.AfterThrowing;
+import org.aspectj.lang.annotation.Aspect;
+import org.springframework.stereotype.Component;
+@AfterThrowing(pointcut = "execution(void method3(boolean))")
+    public void method3(JoinPoint joinPoint) {
+ System.out.println("LoggingAfterThrowingAspect -&gt; " + joinPoint.getStaticPart().getSignature().toLongString());
+    }</t>
+  </si>
+  <si>
+    <t>In above example: method implementation is</t>
+  </si>
+  <si>
+    <t>Advice : What code to execute</t>
+  </si>
+  <si>
+    <t>In above example: "execution(void method1())"</t>
+  </si>
+  <si>
+    <t>Pointcut: Where to execute the code</t>
+  </si>
+  <si>
+    <t>In above example: org.aspectj.lang.annotation.Before</t>
+  </si>
+  <si>
+    <t>When to execute</t>
+  </si>
+  <si>
+    <t>Catching the exception in advice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @AfterThrowing(pointcut = "execution(void method4(boolean))", throwing = "ex")
+    public void catchTheException(RuntimeException ex) {
+ System.out.println("LoggingAfterThrowingAspect -&gt; " + ex.getMessage());
+    }</t>
+  </si>
+  <si>
+    <t>HelloWorldService -&gt; method4(false)
+HelloWorldService -&gt; method4(true)
+LoggingAfterThrowingAspect -&gt; Exception from HelloWorldService -&gt; method4(true)
+Exception thrown: Exception from HelloWorldService -&gt; method4(true)</t>
+  </si>
+  <si>
+    <t>HelloWorldService -&gt; method3(false)
+HelloWorldService -&gt; method3(true)
+LoggingAfterThrowingAspect -&gt; public void spring.aop.service.HelloWorldService.method3(boolean)
+Exception thrown: Exception from HelloWorldService -&gt; method3(true)</t>
+  </si>
+  <si>
+    <t>Around Advice</t>
+  </si>
+  <si>
+    <t>1. Wraps around the method (means before and after method)
+2. Using this advice we can prevent the orginal method from being called
+3. Only advice that can catch exception. We can catch an exception and it wont be propagated to caller
+4. Only advice that allow us to modify the return value
+5. Current method call is passed to advice using ProceedingJoinPoint.
+6. ProceedingJoinPoint allows you to proceed with the method call. Thats why it is called ProceedingJoinPoint. We need to call proceed method to call original method
+7. if we dont cal proceed method on ProceedingJoinPoint the original method wont be executed</t>
+  </si>
+  <si>
+    <t>execution(void method1())</t>
+  </si>
+  <si>
+    <t>execution</t>
+  </si>
+  <si>
+    <t>method execution we are interested in</t>
+  </si>
+  <si>
+    <t>Execute this advice for below:
+1. method1
+2. void return type
+3. no parameters</t>
+  </si>
+  <si>
+    <t>execution(* *(..) )</t>
+  </si>
+  <si>
+    <t>execution(* hello() )</t>
+  </si>
+  <si>
+    <t>1. hello
+2. any return type
+3. no parameters</t>
+  </si>
+  <si>
+    <t>execution(* hello(int, int) )</t>
+  </si>
+  <si>
+    <t>1. hello
+2. any return type
+3. two int parameters</t>
+  </si>
+  <si>
+    <t>execution(* hello(*) )</t>
+  </si>
+  <si>
+    <t>Execution of method hello, one parameter of any type, any return type</t>
+  </si>
+  <si>
+    <t>1. any method
+2. any return type
+3. any type of parameters
+4. any number of parameters</t>
+  </si>
+  <si>
+    <t>execution(int spring.aop.Service.hello(int) )</t>
+  </si>
+  <si>
+    <t>Execution of method hello
+in class Service
+in package spring.aop
+one int as parameter
+one int as return type</t>
+  </si>
+  <si>
+    <t>execution(* spring.aop..*Service.*(..) )</t>
+  </si>
+  <si>
+    <t>Execution of any method
+class name ends with Service
+in package spring.aop or sub packages ( 2 dots denote any sub package)
+any type of parameters
+any no.of parameters</t>
+  </si>
+  <si>
+    <t>execution(* *.*(..) )</t>
+  </si>
+  <si>
+    <t>Execution of any method
+any type of parameters
+any no.of parameters
+any class
+default package</t>
+  </si>
+  <si>
+    <t>execution(* *..*.*(..) )</t>
+  </si>
+  <si>
+    <t>Execution of any method
+any type of parameters
+any no.of parameters
+any class
+any package
+any sub packages</t>
+  </si>
+  <si>
+    <t>execution(@com.spring.aop.Annotation * *(..) )</t>
+  </si>
+  <si>
+    <t>Method must be annotated with com.spring.aop.Annotation (we need to use fully qualified annotation name with package)</t>
+  </si>
+  <si>
+    <t>execution(* (@com.spring.aop.Annotation *).*(..))</t>
+  </si>
+  <si>
+    <t>Class must be annotated</t>
+  </si>
+  <si>
+    <t>bean(*Service)</t>
+  </si>
+  <si>
+    <t>any method in spring bean
+bean name ends with Service</t>
+  </si>
+  <si>
+    <t>execution(* service.*.*(..) || * repository.*.*(..) )</t>
+  </si>
+  <si>
+    <t>service package, any class, any method and any type and no.of parameters (or)
+repository package, any class, any method and any type and no.of parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Pointcut</t>
+  </si>
+  <si>
+    <t>If we want to reuse point cut expression then we need to declare class like thid:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">package my.point.cuts
+public class MyPointCuts{
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Pointcut("execution(@com.spring.aop.MyAnnotation * *(..) )")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  public void tracing(){
+  }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Using above declared pointcut:
+@Around("my.point.cuts.MyPointCuts.tracing()")
+public void trace(ProceedingJoinPoint proceedingJoinPoint){
+    // advice logic
+}</t>
+  </si>
+  <si>
+    <t>&lt;context:component-scan base-package="com.test" 
+use-default-filter="false"&gt;</t>
+  </si>
+  <si>
+    <t>If we give use-default-filter=false then @Service, @Repository, @Component etc annotations wont work</t>
+  </si>
+  <si>
+    <t>How Aspects are added to objects</t>
+  </si>
+  <si>
+    <t>1. Spring will create a proxy around original object. This will be injected as spring bean if we use Spring AOP
+2. Proxies can be generated in 2 ways. One with Dynamic Proxies, another with CGLIB generated classes</t>
+  </si>
+  <si>
+    <t>Problem with AOP</t>
+  </si>
+  <si>
+    <t>1. Aspect will be executed only on method is being called on proxy object created
+2. if method1 is calling method2 then aspect wont be called on method2</t>
+  </si>
+  <si>
+    <t>Example:
+public class MyService{
+public void method1(){ --- }
+@Transactional
+public void method2() { method1(); }
+}</t>
+  </si>
+  <si>
+    <t>Since Transactional is implemented using AOP, advice will be executed only for method2()  but will not execute for method1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @EnableAspectJAutoProxy(proxyTargetClass=true)</t>
+  </si>
+  <si>
+    <t>Using CGLIB to create proxies</t>
+  </si>
+  <si>
+    <t>Why AspectJ is better than Spring AOP</t>
+  </si>
+  <si>
+    <t>What is weaving</t>
+  </si>
+  <si>
+    <t>AspectJ takes classes, aspects and mixes them together. This mixing is called weaving</t>
+  </si>
+  <si>
+    <t>ASpectJ uses byte code weaving that is classes and aspects are woven together
+AspectJ will take classes and aspects and mixes them together and put it back into byte code</t>
+  </si>
+  <si>
+    <t>When weaving can be done</t>
+  </si>
+  <si>
+    <t>1. When class is loaded
+2. when code is compiled</t>
+  </si>
+  <si>
+    <t>Load time weaving</t>
+  </si>
+  <si>
+    <t>If weaving done at class load time</t>
+  </si>
+  <si>
+    <t>Compile time weaving</t>
+  </si>
+  <si>
+    <t>If weaving done at compile time</t>
+  </si>
+  <si>
+    <t>Where weaving will be configured</t>
+  </si>
+  <si>
+    <t>META-INF/aop.xml</t>
+  </si>
+  <si>
+    <t>aop.xml</t>
   </si>
 </sst>
 </file>
@@ -5059,7 +5451,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5285,6 +5677,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5322,21 +5720,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5914,13 +6312,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="82"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="90" t="s">
         <v>106</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -5928,7 +6326,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="89"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="5" t="s">
         <v>108</v>
       </c>
@@ -5974,7 +6372,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="99" t="s">
         <v>118</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -5982,7 +6380,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="97"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="5" t="s">
         <v>120</v>
       </c>
@@ -5996,7 +6394,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="99" t="s">
         <v>123</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -6004,7 +6402,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="97"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="5" t="s">
         <v>125</v>
       </c>
@@ -6056,10 +6454,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="29" t="s">
@@ -6070,10 +6468,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="81" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="82"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="29" t="s">
@@ -6172,7 +6570,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="94" t="s">
         <v>381</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -6180,7 +6578,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="91"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="29" t="s">
         <v>379</v>
       </c>
@@ -6234,7 +6632,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="93" t="s">
         <v>392</v>
       </c>
       <c r="B27" s="29" t="s">
@@ -6242,7 +6640,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="92"/>
+      <c r="A28" s="93"/>
       <c r="B28" s="29" t="s">
         <v>393</v>
       </c>
@@ -6344,7 +6742,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="92" t="s">
+      <c r="A41" s="93" t="s">
         <v>507</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -6352,7 +6750,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="210">
-      <c r="A42" s="92"/>
+      <c r="A42" s="93"/>
       <c r="B42" s="48" t="s">
         <v>506</v>
       </c>
@@ -6374,7 +6772,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="90" t="s">
+      <c r="A45" s="92" t="s">
         <v>512</v>
       </c>
       <c r="B45" s="49" t="s">
@@ -6382,13 +6780,13 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="120">
-      <c r="A46" s="90"/>
+      <c r="A46" s="92"/>
       <c r="B46" s="49" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="90"/>
+      <c r="A47" s="92"/>
       <c r="B47" s="24" t="s">
         <v>514</v>
       </c>
@@ -6402,7 +6800,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45" customHeight="1">
-      <c r="A49" s="90" t="s">
+      <c r="A49" s="92" t="s">
         <v>517</v>
       </c>
       <c r="B49" s="50" t="s">
@@ -6410,7 +6808,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="90"/>
+      <c r="A50" s="92"/>
       <c r="B50" s="50" t="s">
         <v>519</v>
       </c>
@@ -6448,7 +6846,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="90" t="s">
+      <c r="A55" s="92" t="s">
         <v>524</v>
       </c>
       <c r="B55" s="50" t="s">
@@ -6456,7 +6854,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="90"/>
+      <c r="A56" s="92"/>
       <c r="B56" s="50" t="s">
         <v>530</v>
       </c>
@@ -6565,10 +6963,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="20" t="s">
@@ -6579,10 +6977,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="81" t="s">
         <v>308</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="82"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="9" t="s">
@@ -6617,7 +7015,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="92" t="s">
         <v>318</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -6625,7 +7023,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="90"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="26" t="s">
         <v>320</v>
       </c>
@@ -6639,7 +7037,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="94" t="s">
         <v>328</v>
       </c>
       <c r="B14" s="26" t="s">
@@ -6647,13 +7045,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="91"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="26" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="91"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="26" t="s">
         <v>344</v>
       </c>
@@ -6756,10 +7154,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="56" t="s">
@@ -6770,10 +7168,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="81" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="80"/>
+      <c r="B7" s="82"/>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="56" t="s">
@@ -6942,16 +7340,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="81" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="80"/>
+      <c r="B7" s="82"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="19" t="s">
@@ -7010,7 +7408,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="75">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="100" t="s">
         <v>612</v>
       </c>
       <c r="B15" s="66" t="s">
@@ -7018,7 +7416,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="98"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="66" t="s">
         <v>614</v>
       </c>
@@ -7073,10 +7471,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="19" customFormat="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>486</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19" t="s">
@@ -7088,10 +7486,10 @@
     </row>
     <row r="4" spans="1:3" s="19" customFormat="1"/>
     <row r="5" spans="1:3">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="81" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="80"/>
+      <c r="B5" s="82"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="29" t="s">
@@ -7114,10 +7512,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="82"/>
+      <c r="B9" s="84"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="19" t="s">
@@ -7128,10 +7526,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="80"/>
+      <c r="B12" s="82"/>
     </row>
     <row r="13" spans="1:3" s="19" customFormat="1">
       <c r="A13" s="6" t="s">
@@ -7198,10 +7596,10 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="81" t="s">
         <v>284</v>
       </c>
-      <c r="B22" s="80"/>
+      <c r="B22" s="82"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="19" t="s">
@@ -7247,10 +7645,10 @@
       <c r="B28" s="12"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="79" t="s">
+      <c r="A29" s="81" t="s">
         <v>640</v>
       </c>
-      <c r="B29" s="80"/>
+      <c r="B29" s="82"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="67" t="s">
@@ -7262,10 +7660,10 @@
     </row>
     <row r="31" spans="1:2" s="19" customFormat="1"/>
     <row r="32" spans="1:2">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="81" t="s">
         <v>551</v>
       </c>
-      <c r="B32" s="80"/>
+      <c r="B32" s="82"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -7288,10 +7686,10 @@
       <c r="B35" s="19"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="79" t="s">
+      <c r="A37" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="80"/>
+      <c r="B37" s="82"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="19" t="s">
@@ -7302,10 +7700,10 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="79" t="s">
+      <c r="A40" s="81" t="s">
         <v>587</v>
       </c>
-      <c r="B40" s="80"/>
+      <c r="B40" s="82"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="19" t="s">
@@ -7316,10 +7714,10 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="83" t="s">
+      <c r="A43" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="84"/>
+      <c r="B43" s="86"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="19" t="s">
@@ -7367,11 +7765,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81:A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7389,10 +7787,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="83" t="s">
         <v>662</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="84"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="19" t="s">
@@ -7414,10 +7812,10 @@
     <row r="6" spans="1:2" s="19" customFormat="1"/>
     <row r="7" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="83" t="s">
         <v>663</v>
       </c>
-      <c r="B8" s="82"/>
+      <c r="B8" s="84"/>
     </row>
     <row r="9" spans="1:2" s="19" customFormat="1">
       <c r="A9" s="19" t="s">
@@ -7436,13 +7834,13 @@
     <row r="16" spans="1:2" s="19" customFormat="1"/>
     <row r="17" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="18" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="82"/>
+      <c r="B18" s="84"/>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="90" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -7450,7 +7848,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="89"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
@@ -7728,7 +8126,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="89" t="s">
+      <c r="A55" s="91" t="s">
         <v>81</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -7736,19 +8134,19 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="89"/>
+      <c r="A56" s="91"/>
       <c r="B56" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="89"/>
+      <c r="A57" s="91"/>
       <c r="B57" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="89" t="s">
+      <c r="A58" s="91" t="s">
         <v>85</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -7756,19 +8154,19 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="89"/>
+      <c r="A59" s="91"/>
       <c r="B59" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="90">
-      <c r="A60" s="89"/>
+      <c r="A60" s="91"/>
       <c r="B60" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="75">
-      <c r="A61" s="89" t="s">
+      <c r="A61" s="91" t="s">
         <v>89</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -7776,7 +8174,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="89"/>
+      <c r="A62" s="91"/>
       <c r="B62" s="5" t="s">
         <v>322</v>
       </c>
@@ -7830,7 +8228,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="87" t="s">
+      <c r="A69" s="89" t="s">
         <v>102</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -7838,13 +8236,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="240">
-      <c r="A70" s="87"/>
+      <c r="A70" s="89"/>
       <c r="B70" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="180">
-      <c r="A71" s="87"/>
+      <c r="A71" s="89"/>
       <c r="B71" s="5" t="s">
         <v>105</v>
       </c>
@@ -7889,115 +8287,123 @@
         <v>460</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="105">
-      <c r="A77" s="86" t="s">
+    <row r="77" spans="1:2" s="19" customFormat="1" ht="30">
+      <c r="A77" s="79" t="s">
+        <v>782</v>
+      </c>
+      <c r="B77" s="80" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="105">
+      <c r="A78" s="88" t="s">
         <v>465</v>
       </c>
-      <c r="B77" s="35" t="s">
+      <c r="B78" s="35" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="120">
-      <c r="A78" s="86"/>
-      <c r="B78" s="35" t="s">
+    <row r="79" spans="1:2" ht="120">
+      <c r="A79" s="88"/>
+      <c r="B79" s="35" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="75">
-      <c r="A79" s="86"/>
-      <c r="B79" s="35" t="s">
+    <row r="80" spans="1:2" ht="75">
+      <c r="A80" s="88"/>
+      <c r="B80" s="35" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="60">
-      <c r="A80" s="86" t="s">
+    <row r="81" spans="1:2" ht="60">
+      <c r="A81" s="88" t="s">
         <v>466</v>
       </c>
-      <c r="B80" s="43" t="s">
+      <c r="B81" s="43" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="60">
-      <c r="A81" s="86"/>
-      <c r="B81" s="43" t="s">
+    <row r="82" spans="1:2" ht="60">
+      <c r="A82" s="88"/>
+      <c r="B82" s="43" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="30">
-      <c r="A82" s="37" t="s">
+    <row r="83" spans="1:2" ht="30">
+      <c r="A83" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="B82" s="38" t="s">
+      <c r="B83" s="38" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="60">
-      <c r="A83" s="37" t="s">
+    <row r="84" spans="1:2" ht="60">
+      <c r="A84" s="37" t="s">
         <v>472</v>
       </c>
-      <c r="B83" s="38" t="s">
+      <c r="B84" s="38" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="45">
-      <c r="A84" s="37" t="s">
+    <row r="85" spans="1:2" ht="45">
+      <c r="A85" s="37" t="s">
         <v>474</v>
       </c>
-      <c r="B84" s="38" t="s">
+      <c r="B85" s="38" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="72" t="s">
+    <row r="86" spans="1:2" ht="30">
+      <c r="A86" s="72" t="s">
         <v>669</v>
       </c>
-      <c r="B85" s="38" t="s">
+      <c r="B86" s="38" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="75">
-      <c r="A86" s="41" t="s">
+    <row r="87" spans="1:2" ht="75">
+      <c r="A87" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="B86" s="38" t="s">
+      <c r="B87" s="38" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="39" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="B87" s="40" t="s">
+      <c r="B88" s="40" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="45">
-      <c r="A88" s="39" t="s">
+    <row r="89" spans="1:2" ht="45">
+      <c r="A89" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="B88" s="40" t="s">
+      <c r="B89" s="40" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="85" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" s="87" t="s">
         <v>491</v>
       </c>
-      <c r="B89" s="43" t="s">
+      <c r="B90" s="43" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="85"/>
-      <c r="B90" s="43" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="87"/>
+      <c r="B91" s="43" t="s">
         <v>493</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A81:A82"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="A18:B18"/>
@@ -8041,10 +8447,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="82"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
@@ -8274,10 +8680,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="80"/>
+      <c r="B3" s="82"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
@@ -8301,11 +8707,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8323,10 +8729,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>662</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="76"/>
@@ -8344,10 +8750,10 @@
       <c r="A7" s="76"/>
     </row>
     <row r="8" spans="1:2" s="19" customFormat="1">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="81" t="s">
         <v>668</v>
       </c>
-      <c r="B8" s="80"/>
+      <c r="B8" s="82"/>
     </row>
     <row r="9" spans="1:2" s="19" customFormat="1">
       <c r="A9" s="76"/>
@@ -8374,10 +8780,10 @@
       <c r="A16" s="76"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="81" t="s">
         <v>656</v>
       </c>
-      <c r="B18" s="80"/>
+      <c r="B18" s="82"/>
     </row>
     <row r="19" spans="1:2" ht="90">
       <c r="A19" s="75" t="s">
@@ -8548,10 +8954,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="79" t="s">
+      <c r="A41" s="81" t="s">
         <v>657</v>
       </c>
-      <c r="B41" s="80"/>
+      <c r="B41" s="82"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="46" t="s">
@@ -8562,7 +8968,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="90" t="s">
+      <c r="A43" s="92" t="s">
         <v>661</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -8570,7 +8976,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="90"/>
+      <c r="A44" s="92"/>
       <c r="B44" s="19" t="s">
         <v>693</v>
       </c>
@@ -8695,8 +9101,344 @@
         <v>721</v>
       </c>
     </row>
+    <row r="60" spans="1:2" ht="60">
+      <c r="A60" s="80" t="s">
+        <v>722</v>
+      </c>
+      <c r="B60" s="80" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="19" customFormat="1">
+      <c r="A61" s="80" t="s">
+        <v>738</v>
+      </c>
+      <c r="B61" s="80" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="19" customFormat="1">
+      <c r="A62" s="80" t="s">
+        <v>740</v>
+      </c>
+      <c r="B62" s="80" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="19" customFormat="1">
+      <c r="A63" s="80" t="s">
+        <v>742</v>
+      </c>
+      <c r="B63" s="80" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="60">
+      <c r="A64" s="80" t="s">
+        <v>724</v>
+      </c>
+      <c r="B64" s="80" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="60">
+      <c r="A65" s="80" t="s">
+        <v>726</v>
+      </c>
+      <c r="B65" s="80" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="240">
+      <c r="A66" s="80" t="s">
+        <v>728</v>
+      </c>
+      <c r="B66" s="80" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="105">
+      <c r="A67" s="80" t="s">
+        <v>730</v>
+      </c>
+      <c r="B67" s="80" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="60">
+      <c r="A68" s="80" t="s">
+        <v>732</v>
+      </c>
+      <c r="B68" s="80" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="120">
+      <c r="A69" s="80" t="s">
+        <v>735</v>
+      </c>
+      <c r="B69" s="80" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="120">
+      <c r="A70" s="92" t="s">
+        <v>736</v>
+      </c>
+      <c r="B70" s="80" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="19" customFormat="1" ht="60">
+      <c r="A71" s="92"/>
+      <c r="B71" s="80" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="60">
+      <c r="A72" s="92" t="s">
+        <v>744</v>
+      </c>
+      <c r="B72" s="80" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="60">
+      <c r="A73" s="92"/>
+      <c r="B73" s="80" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="120">
+      <c r="A74" s="80" t="s">
+        <v>748</v>
+      </c>
+      <c r="B74" s="80" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="60">
+      <c r="A75" s="80" t="s">
+        <v>750</v>
+      </c>
+      <c r="B75" s="80" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="80" t="s">
+        <v>751</v>
+      </c>
+      <c r="B76" s="80" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="60">
+      <c r="A77" s="80" t="s">
+        <v>754</v>
+      </c>
+      <c r="B77" s="80" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="45">
+      <c r="A78" s="80" t="s">
+        <v>755</v>
+      </c>
+      <c r="B78" s="80" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="45">
+      <c r="A79" s="80" t="s">
+        <v>757</v>
+      </c>
+      <c r="B79" s="80" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="80" t="s">
+        <v>759</v>
+      </c>
+      <c r="B80" s="80" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="75">
+      <c r="A81" s="80" t="s">
+        <v>762</v>
+      </c>
+      <c r="B81" s="80" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="75">
+      <c r="A82" s="80" t="s">
+        <v>764</v>
+      </c>
+      <c r="B82" s="80" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="75">
+      <c r="A83" s="80" t="s">
+        <v>766</v>
+      </c>
+      <c r="B83" s="80" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="90">
+      <c r="A84" s="80" t="s">
+        <v>768</v>
+      </c>
+      <c r="B84" s="80" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="80" t="s">
+        <v>770</v>
+      </c>
+      <c r="B85" s="80" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="80" t="s">
+        <v>772</v>
+      </c>
+      <c r="B86" s="80" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30">
+      <c r="A87" s="80" t="s">
+        <v>774</v>
+      </c>
+      <c r="B87" s="80" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="30">
+      <c r="A88" s="80" t="s">
+        <v>776</v>
+      </c>
+      <c r="B88" s="80" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="92" t="s">
+        <v>778</v>
+      </c>
+      <c r="B89" s="80" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="90">
+      <c r="A90" s="92"/>
+      <c r="B90" s="80" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="75">
+      <c r="A91" s="92"/>
+      <c r="B91" s="80" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="30">
+      <c r="A92" s="80" t="s">
+        <v>784</v>
+      </c>
+      <c r="B92" s="80" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="30">
+      <c r="A93" s="80" t="s">
+        <v>786</v>
+      </c>
+      <c r="B93" s="80" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="120">
+      <c r="A94" s="80" t="s">
+        <v>789</v>
+      </c>
+      <c r="B94" s="80" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="80" t="s">
+        <v>790</v>
+      </c>
+      <c r="B95" s="80" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="30">
+      <c r="A96" s="80" t="s">
+        <v>792</v>
+      </c>
+      <c r="B96" s="80" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="80" t="s">
+        <v>793</v>
+      </c>
+      <c r="B97" s="80" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="30">
+      <c r="A98" s="80" t="s">
+        <v>796</v>
+      </c>
+      <c r="B98" s="80" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="80" t="s">
+        <v>798</v>
+      </c>
+      <c r="B99" s="80" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="80" t="s">
+        <v>800</v>
+      </c>
+      <c r="B100" s="80" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="80" t="s">
+        <v>802</v>
+      </c>
+      <c r="B101" s="80" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="80" t="s">
+        <v>804</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A89:A91"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A41:B41"/>
@@ -8710,6 +9452,7 @@
     <hyperlink ref="B42" r:id="rId2" location="aop"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8718,7 +9461,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -8738,10 +9481,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>647</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="6" t="s">
@@ -8764,10 +9507,10 @@
       <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2" s="19" customFormat="1">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="81" t="s">
         <v>648</v>
       </c>
-      <c r="B7" s="80"/>
+      <c r="B7" s="82"/>
     </row>
     <row r="8" spans="1:2" s="19" customFormat="1">
       <c r="A8" s="6"/>
@@ -8790,10 +9533,10 @@
       <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="81" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="80"/>
+      <c r="B13" s="82"/>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" s="33" t="s">
@@ -8804,7 +9547,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="120">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="91" t="s">
         <v>301</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -8812,13 +9555,13 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="89"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="9" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="88" t="s">
         <v>316</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -8826,19 +9569,19 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="120">
-      <c r="A18" s="86"/>
+      <c r="A18" s="88"/>
       <c r="B18" s="68" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="135">
-      <c r="A19" s="86"/>
+      <c r="A19" s="88"/>
       <c r="B19" s="68" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="150">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="94" t="s">
         <v>434</v>
       </c>
       <c r="B20" s="33" t="s">
@@ -8846,13 +9589,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" s="19" customFormat="1" ht="105">
-      <c r="A21" s="91"/>
+      <c r="A21" s="94"/>
       <c r="B21" s="33" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="94" t="s">
         <v>412</v>
       </c>
       <c r="B22" s="33" t="s">
@@ -8860,19 +9603,19 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="91"/>
+      <c r="A23" s="94"/>
       <c r="B23" s="61" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="91"/>
+      <c r="A24" s="94"/>
       <c r="B24" s="33" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="91" t="s">
+      <c r="A25" s="94" t="s">
         <v>416</v>
       </c>
       <c r="B25" s="33" t="s">
@@ -8880,31 +9623,31 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="135">
-      <c r="A26" s="91"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="33" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="91"/>
+      <c r="A27" s="94"/>
       <c r="B27" s="33" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="91"/>
+      <c r="A28" s="94"/>
       <c r="B28" s="33" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="91"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="33" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="93" t="s">
         <v>422</v>
       </c>
       <c r="B30" s="33" t="s">
@@ -8912,31 +9655,31 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="92"/>
+      <c r="A31" s="93"/>
       <c r="B31" s="33" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="92"/>
+      <c r="A32" s="93"/>
       <c r="B32" s="33" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="92"/>
+      <c r="A33" s="93"/>
       <c r="B33" s="33" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="92"/>
+      <c r="A34" s="93"/>
       <c r="B34" s="33" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="94" t="s">
         <v>428</v>
       </c>
       <c r="B35" s="33" t="s">
@@ -8944,13 +9687,13 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="165">
-      <c r="A36" s="91"/>
+      <c r="A36" s="94"/>
       <c r="B36" s="33" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="91"/>
+      <c r="A37" s="94"/>
       <c r="B37" s="33" t="s">
         <v>431</v>
       </c>
@@ -8988,7 +9731,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="91" t="s">
+      <c r="A42" s="94" t="s">
         <v>442</v>
       </c>
       <c r="B42" s="33" t="s">
@@ -8996,7 +9739,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="91"/>
+      <c r="A43" s="94"/>
       <c r="B43" s="33" t="s">
         <v>444</v>
       </c>
@@ -9010,7 +9753,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="91" t="s">
+      <c r="A45" s="94" t="s">
         <v>447</v>
       </c>
       <c r="B45" s="33" t="s">
@@ -9018,7 +9761,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="91"/>
+      <c r="A46" s="94"/>
       <c r="B46" s="33" t="s">
         <v>449</v>
       </c>
@@ -9032,7 +9775,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="91" t="s">
+      <c r="A48" s="94" t="s">
         <v>447</v>
       </c>
       <c r="B48" s="33" t="s">
@@ -9040,13 +9783,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="60">
-      <c r="A49" s="91"/>
+      <c r="A49" s="94"/>
       <c r="B49" s="33" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="92" t="s">
+      <c r="A50" s="93" t="s">
         <v>589</v>
       </c>
       <c r="B50" s="62" t="s">
@@ -9054,13 +9797,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="60">
-      <c r="A51" s="92"/>
+      <c r="A51" s="93"/>
       <c r="B51" s="62" t="s">
         <v>591</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A20:A21"/>
@@ -9069,12 +9818,6 @@
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
@@ -9109,10 +9852,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="80"/>
+      <c r="B3" s="82"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="6" t="s">
@@ -9163,7 +9906,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="91" t="s">
         <v>242</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -9171,25 +9914,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="89"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="89"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="B13" s="93"/>
+      <c r="B13" s="95"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="91" t="s">
         <v>247</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -9197,13 +9940,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="89"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="89"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="5" t="s">
         <v>250</v>
       </c>
@@ -9233,7 +9976,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="91" t="s">
         <v>257</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -9241,7 +9984,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="89"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="5" t="s">
         <v>259</v>
       </c>
@@ -9319,7 +10062,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="91" t="s">
         <v>278</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -9327,13 +10070,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="89"/>
+      <c r="A32" s="91"/>
       <c r="B32" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="89"/>
+      <c r="A33" s="91"/>
       <c r="B33" s="5" t="s">
         <v>281</v>
       </c>
@@ -9387,10 +10130,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>647</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="5" spans="1:2">
@@ -9407,13 +10150,13 @@
       <c r="A9" s="69"/>
     </row>
     <row r="10" spans="1:2" s="19" customFormat="1">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="81" t="s">
         <v>651</v>
       </c>
-      <c r="B10" s="80"/>
+      <c r="B10" s="82"/>
     </row>
     <row r="11" spans="1:2" s="19" customFormat="1">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="98" t="s">
         <v>655</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -9462,10 +10205,10 @@
       <c r="A21" s="69"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="81" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="80"/>
+      <c r="B22" s="82"/>
     </row>
     <row r="23" spans="1:2" s="19" customFormat="1">
       <c r="A23" s="69" t="s">
@@ -9516,7 +10259,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="60">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="93" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="68" t="s">
@@ -9524,13 +10267,13 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="165">
-      <c r="A30" s="92"/>
+      <c r="A30" s="93"/>
       <c r="B30" s="68" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="97" t="s">
         <v>628</v>
       </c>
       <c r="B31" s="68" t="s">
@@ -9538,7 +10281,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
-      <c r="A32" s="94"/>
+      <c r="A32" s="97"/>
       <c r="B32" s="68" t="s">
         <v>630</v>
       </c>
@@ -9606,7 +10349,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" s="19" customFormat="1" ht="60">
-      <c r="A41" s="90" t="s">
+      <c r="A41" s="92" t="s">
         <v>680</v>
       </c>
       <c r="B41" s="73" t="s">
@@ -9614,13 +10357,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" s="19" customFormat="1" ht="105">
-      <c r="A42" s="90"/>
+      <c r="A42" s="92"/>
       <c r="B42" s="73" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="90" t="s">
+      <c r="A43" s="92" t="s">
         <v>677</v>
       </c>
       <c r="B43" s="73" t="s">
@@ -9628,13 +10371,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="90"/>
+      <c r="A44" s="92"/>
       <c r="B44" s="73" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="75">
-      <c r="A45" s="90" t="s">
+      <c r="A45" s="92" t="s">
         <v>686</v>
       </c>
       <c r="B45" s="73" t="s">
@@ -9642,7 +10385,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="60">
-      <c r="A46" s="90"/>
+      <c r="A46" s="92"/>
       <c r="B46" s="73" t="s">
         <v>688</v>
       </c>
@@ -9665,17 +10408,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A11" display="Topics"/>

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="837">
   <si>
     <t>Main Topic</t>
   </si>
@@ -4996,15 +4996,6 @@
     <t>Around Advice</t>
   </si>
   <si>
-    <t>1. Wraps around the method (means before and after method)
-2. Using this advice we can prevent the orginal method from being called
-3. Only advice that can catch exception. We can catch an exception and it wont be propagated to caller
-4. Only advice that allow us to modify the return value
-5. Current method call is passed to advice using ProceedingJoinPoint.
-6. ProceedingJoinPoint allows you to proceed with the method call. Thats why it is called ProceedingJoinPoint. We need to call proceed method to call original method
-7. if we dont cal proceed method on ProceedingJoinPoint the original method wont be executed</t>
-  </si>
-  <si>
     <t>execution(void method1())</t>
   </si>
   <si>
@@ -5121,9 +5112,6 @@
     <t xml:space="preserve"> @Pointcut</t>
   </si>
   <si>
-    <t>If we want to reuse point cut expression then we need to declare class like thid:</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">package my.point.cuts
 public class MyPointCuts{
@@ -5208,10 +5196,6 @@
     <t>AspectJ takes classes, aspects and mixes them together. This mixing is called weaving</t>
   </si>
   <si>
-    <t>ASpectJ uses byte code weaving that is classes and aspects are woven together
-AspectJ will take classes and aspects and mixes them together and put it back into byte code</t>
-  </si>
-  <si>
     <t>When weaving can be done</t>
   </si>
   <si>
@@ -5222,22 +5206,219 @@
     <t>Load time weaving</t>
   </si>
   <si>
-    <t>If weaving done at class load time</t>
-  </si>
-  <si>
     <t>Compile time weaving</t>
   </si>
   <si>
-    <t>If weaving done at compile time</t>
-  </si>
-  <si>
     <t>Where weaving will be configured</t>
   </si>
   <si>
     <t>META-INF/aop.xml</t>
   </si>
   <si>
-    <t>aop.xml</t>
+    <t>AspectJ uses byte code weaving that is classes and aspects are woven together
+AspectJ will take classes and aspects and mixes them together and put it back into byte code</t>
+  </si>
+  <si>
+    <t>&lt;aspectj&gt;
+ &lt;weaver&gt;
+   &lt;include within="com.spring.aop..*" /&gt;
+ &lt;/weaver&gt;
+ &lt;aspects&gt;
+   &lt;aspect name="com.spring.aop.MyAspect" /&gt;
+ &lt;/aspects&gt;
+&lt;/aspectj&gt;</t>
+  </si>
+  <si>
+    <t>sample aop.xml</t>
+  </si>
+  <si>
+    <t>Configuring load time weaving in Eclipse</t>
+  </si>
+  <si>
+    <t>Right click on the project -&gt; Run Configuration -&gt; Arguments -&gt; VM arguments -&gt; -javaagent:&lt;path-to-aspectjweaver-jarfile&gt;/aspectjweaver-x.x.jar</t>
+  </si>
+  <si>
+    <t>Enable load time weaving using: &lt;context:load-time-weaver /&gt;
+Ex: 
+&lt;beans&gt;
+  &lt;context:component-scan base-package="com.spring.aop" /&gt;
+  &lt;context:load-time-weaver /&gt;
+&lt;/beans&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@org.springframework.context.annotation.EnableLoadTimeWeaving</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation to configuration java class.
+Ex:
+@Configuration
+@ComponentScan(basePackages={"com.spring.aop"})
+@EnableLoadTimeWeaving
+public class MyConfiguration { --- }</t>
+    </r>
+  </si>
+  <si>
+    <t>Add load time weaving support to spring configuration - using xml
+Note: We need aop.xml even though spring is configured</t>
+  </si>
+  <si>
+    <t>Add load time weaving support to spring configuration - using java config
+Note: We need aop.xml even though spring is configured</t>
+  </si>
+  <si>
+    <t>1. Replace Java compiler with AspectJ compiler
+2. AspectJ compiler weaves aspects into byte code
+3. We need to modify pom.xml to enable compile time weaving
+We are done, no modifications are needed at run time</t>
+  </si>
+  <si>
+    <t>How to use AspectJ compiler in pom.xml?</t>
+  </si>
+  <si>
+    <t>Errors and warnings</t>
+  </si>
+  <si>
+    <t>Using AspectJ we can add compile errors and warnings</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Aspect
+public class ErrorAspect{
+    @DeclareError("(call (* java.sql..*.*(..)) || call (* javax.sql..*.*(..))) &amp;&amp; !within(com.spring..repository..*) ")
+    public static final String jdbcOnlyInRepository = "JDBC must be used only in repository";
+}</t>
+  </si>
+  <si>
+    <t>To convert error in above example to warning</t>
+  </si>
+  <si>
+    <t>Change @DeclareError to @DeclareWarning</t>
+  </si>
+  <si>
+    <t>If weaving done at class load time
+need aop.xml file</t>
+  </si>
+  <si>
+    <t>If weaving done at compile time
+no need of aop.xml</t>
+  </si>
+  <si>
+    <t>AspectJ vs Spring AOP</t>
+  </si>
+  <si>
+    <t>Pros of AspectJ:
+1. Performance much better
+2. clear mode and also indirect calls can be adviced (like internal method calls)
+3. can also advice constructor, field access, protected methods</t>
+  </si>
+  <si>
+    <t>Cons of AspectJ:
+1. Spring AOP performance is usually efficient
+2. Need to use different compiler and modify execution environment. In spring we don’t need to change anything.
+3. Spring AOP is built on top of Spring, so once we use Sprind and we use transactions</t>
+  </si>
+  <si>
+    <t>Spring's Aspect for tracing/logging</t>
+  </si>
+  <si>
+    <t>Using DebugInteceptor</t>
+  </si>
+  <si>
+    <t>&lt;beans&gt;
+ &lt;context:component-scan base-packages="com.spring.aop"/&gt;
+ &lt;bean id="debugInterceptor" class="org.springframework.aop.interceptor.DebugInterceptor" /&gt;
+ &lt;aop:config&gt;
+  &lt;aop:advisor advice-ref="debugInterceptor" pointcut="MyArchitecture.service() || MyArchitecture.repository()" /&gt;
+ &lt;/aop:config&gt;
+&lt;/beans&gt;</t>
+  </si>
+  <si>
+    <t>org.springframework.aop.interceptor.DebugInterceptor
+DebugInterceptor give default logging messages.
+If we want to give out messages to be logged then we need to use CustomizableTraceInterceptor</t>
+  </si>
+  <si>
+    <t>1. org.springframework.aop.interceptor.DebugInterceptor
+2. org.springframework.aop.interceptor.CustomizableTraceInterceptor
+3. org.springframework.aop.interceptor.SimpleTraceInterceptor
+4. org.springframework.aop.interceptor.PerformanceMonitorInterceptor</t>
+  </si>
+  <si>
+    <t>Spring's Aspect library - Tracing Aspect</t>
+  </si>
+  <si>
+    <t>Spring's Aspect library - Other Aspect</t>
+  </si>
+  <si>
+    <t>1. AsyncExecutionInterceptor - allows to process method calls asynchronously
+2. ConcurrencyThrottleInterceptor - To limit the no.of threads in an object. Using this we can configure how many threads can be executed in parallel
+3. CacheInterceptor - to cache results of method calls</t>
+  </si>
+  <si>
+    <t>Transaction using Spring</t>
+  </si>
+  <si>
+    <t>simply use @Transaction annotation.
+If we use this annotation, spring will take care of
+1. Start transaction at the beginning of method call
+2. commit transaction at the end of method call
+3. rollback if any exception occurs</t>
+  </si>
+  <si>
+    <t>&lt;beans&gt;
+ &lt;context:component-scan bace-package="com.spring.aop" /&gt;
+ &lt;tx:advice id="txAdvice" transaction-manager="transactionManager"&gt;
+  &lt;tx:attributes&gt;
+    &lt;tx:method name="find*" read-only="true" /&gt;
+    &lt;tx:method name="*" /&gt;
+  &lt;/tx:attributes&gt;
+ &lt;/tx:advice&gt;
+ &lt;aop:config&gt;
+   &lt;aop:advisor advice-ref="txAdvice" pointcut="MyArchitecure.service() || MyArchitecure.repository()" /&gt;
+ &lt;/aop:config&gt;
+&lt;/beans&gt;</t>
+  </si>
+  <si>
+    <t>our own transaction advice using xml</t>
+  </si>
+  <si>
+    <t>Declaring prototype using spring java config</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Scope("prototype")</t>
+  </si>
+  <si>
+    <t>1. Wraps around the method (means before and after method)
+2. Using this advice we can prevent the orginal method from being called
+3. Only advice that can catch exception. We can catch an exception and it wont be propagated to caller
+4. Only advice that allow us to modify the return value
+5. Current method call output is passed to advice using ProceedingJoinPoint.
+6. ProceedingJoinPoint allows you to proceed with the method call. Thats why it is called ProceedingJoinPoint. We need to call proceed method to call original method
+7. if we dont call proceed method on ProceedingJoinPoint the original method wont be executed</t>
+  </si>
+  <si>
+    <t>If we want to reuse point cut expression then we need to declare class like this:</t>
   </si>
 </sst>
 </file>
@@ -5451,7 +5632,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5678,6 +5859,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6290,11 +6480,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6312,13 +6502,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="82"/>
+      <c r="B4" s="85"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="93" t="s">
         <v>106</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -6326,7 +6516,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="91"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="5" t="s">
         <v>108</v>
       </c>
@@ -6372,7 +6562,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="102" t="s">
         <v>118</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -6380,7 +6570,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="99"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="5" t="s">
         <v>120</v>
       </c>
@@ -6394,7 +6584,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="102" t="s">
         <v>123</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -6402,7 +6592,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="99"/>
+      <c r="A16" s="102"/>
       <c r="B16" s="5" t="s">
         <v>125</v>
       </c>
@@ -6413,6 +6603,14 @@
       </c>
       <c r="B17" s="5" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="82" t="s">
+        <v>833</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -6454,10 +6652,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="84" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="29" t="s">
@@ -6468,10 +6666,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="84" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="82"/>
+      <c r="B6" s="85"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="29" t="s">
@@ -6570,7 +6768,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="97" t="s">
         <v>381</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -6578,7 +6776,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="94"/>
+      <c r="A20" s="97"/>
       <c r="B20" s="29" t="s">
         <v>379</v>
       </c>
@@ -6632,7 +6830,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="96" t="s">
         <v>392</v>
       </c>
       <c r="B27" s="29" t="s">
@@ -6640,7 +6838,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="93"/>
+      <c r="A28" s="96"/>
       <c r="B28" s="29" t="s">
         <v>393</v>
       </c>
@@ -6742,7 +6940,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="93" t="s">
+      <c r="A41" s="96" t="s">
         <v>507</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -6750,7 +6948,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="210">
-      <c r="A42" s="93"/>
+      <c r="A42" s="96"/>
       <c r="B42" s="48" t="s">
         <v>506</v>
       </c>
@@ -6772,7 +6970,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="92" t="s">
+      <c r="A45" s="95" t="s">
         <v>512</v>
       </c>
       <c r="B45" s="49" t="s">
@@ -6780,13 +6978,13 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="120">
-      <c r="A46" s="92"/>
+      <c r="A46" s="95"/>
       <c r="B46" s="49" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="92"/>
+      <c r="A47" s="95"/>
       <c r="B47" s="24" t="s">
         <v>514</v>
       </c>
@@ -6800,7 +6998,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45" customHeight="1">
-      <c r="A49" s="92" t="s">
+      <c r="A49" s="95" t="s">
         <v>517</v>
       </c>
       <c r="B49" s="50" t="s">
@@ -6808,7 +7006,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="92"/>
+      <c r="A50" s="95"/>
       <c r="B50" s="50" t="s">
         <v>519</v>
       </c>
@@ -6846,7 +7044,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="92" t="s">
+      <c r="A55" s="95" t="s">
         <v>524</v>
       </c>
       <c r="B55" s="50" t="s">
@@ -6854,7 +7052,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="92"/>
+      <c r="A56" s="95"/>
       <c r="B56" s="50" t="s">
         <v>530</v>
       </c>
@@ -6868,7 +7066,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="96" t="s">
+      <c r="A58" s="99" t="s">
         <v>533</v>
       </c>
       <c r="B58" s="52" t="s">
@@ -6876,7 +7074,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="96"/>
+      <c r="A59" s="99"/>
       <c r="B59" s="51" t="s">
         <v>534</v>
       </c>
@@ -6963,10 +7161,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="84" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="20" t="s">
@@ -6977,10 +7175,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="84" t="s">
         <v>308</v>
       </c>
-      <c r="B6" s="82"/>
+      <c r="B6" s="85"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="9" t="s">
@@ -7015,7 +7213,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="95" t="s">
         <v>318</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -7023,7 +7221,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="92"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="26" t="s">
         <v>320</v>
       </c>
@@ -7037,7 +7235,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="97" t="s">
         <v>328</v>
       </c>
       <c r="B14" s="26" t="s">
@@ -7045,13 +7243,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="94"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="26" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="94"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="26" t="s">
         <v>344</v>
       </c>
@@ -7154,10 +7352,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="84" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="56" t="s">
@@ -7168,10 +7366,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="84" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="82"/>
+      <c r="B7" s="85"/>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="56" t="s">
@@ -7198,7 +7396,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" customHeight="1">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="99" t="s">
         <v>564</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -7206,7 +7404,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="96"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="19" t="s">
         <v>566</v>
       </c>
@@ -7340,16 +7538,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="84" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="85"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="84" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="82"/>
+      <c r="B7" s="85"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="19" t="s">
@@ -7408,7 +7606,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="75">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="103" t="s">
         <v>612</v>
       </c>
       <c r="B15" s="66" t="s">
@@ -7416,7 +7614,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="100"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="66" t="s">
         <v>614</v>
       </c>
@@ -7471,10 +7669,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="19" customFormat="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="84" t="s">
         <v>486</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19" t="s">
@@ -7486,10 +7684,10 @@
     </row>
     <row r="4" spans="1:3" s="19" customFormat="1"/>
     <row r="5" spans="1:3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="84" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="82"/>
+      <c r="B5" s="85"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="29" t="s">
@@ -7512,10 +7710,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="84"/>
+      <c r="B9" s="87"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="19" t="s">
@@ -7526,10 +7724,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="82"/>
+      <c r="B12" s="85"/>
     </row>
     <row r="13" spans="1:3" s="19" customFormat="1">
       <c r="A13" s="6" t="s">
@@ -7596,10 +7794,10 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="84" t="s">
         <v>284</v>
       </c>
-      <c r="B22" s="82"/>
+      <c r="B22" s="85"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="19" t="s">
@@ -7645,10 +7843,10 @@
       <c r="B28" s="12"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="84" t="s">
         <v>640</v>
       </c>
-      <c r="B29" s="82"/>
+      <c r="B29" s="85"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="67" t="s">
@@ -7660,10 +7858,10 @@
     </row>
     <row r="31" spans="1:2" s="19" customFormat="1"/>
     <row r="32" spans="1:2">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="84" t="s">
         <v>551</v>
       </c>
-      <c r="B32" s="82"/>
+      <c r="B32" s="85"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -7686,10 +7884,10 @@
       <c r="B35" s="19"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="82"/>
+      <c r="B37" s="85"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="19" t="s">
@@ -7700,10 +7898,10 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="84" t="s">
         <v>587</v>
       </c>
-      <c r="B40" s="82"/>
+      <c r="B40" s="85"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="19" t="s">
@@ -7714,10 +7912,10 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="85" t="s">
+      <c r="A43" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="86"/>
+      <c r="B43" s="89"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="19" t="s">
@@ -7787,10 +7985,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="86" t="s">
         <v>662</v>
       </c>
-      <c r="B2" s="84"/>
+      <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="19" t="s">
@@ -7812,10 +8010,10 @@
     <row r="6" spans="1:2" s="19" customFormat="1"/>
     <row r="7" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="86" t="s">
         <v>663</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="87"/>
     </row>
     <row r="9" spans="1:2" s="19" customFormat="1">
       <c r="A9" s="19" t="s">
@@ -7834,13 +8032,13 @@
     <row r="16" spans="1:2" s="19" customFormat="1"/>
     <row r="17" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="18" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="84"/>
+      <c r="B18" s="87"/>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="93" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -7848,7 +8046,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="91"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
@@ -8126,7 +8324,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="91" t="s">
+      <c r="A55" s="94" t="s">
         <v>81</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -8134,19 +8332,19 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="91"/>
+      <c r="A56" s="94"/>
       <c r="B56" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="91"/>
+      <c r="A57" s="94"/>
       <c r="B57" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="91" t="s">
+      <c r="A58" s="94" t="s">
         <v>85</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -8154,19 +8352,19 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="91"/>
+      <c r="A59" s="94"/>
       <c r="B59" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="90">
-      <c r="A60" s="91"/>
+      <c r="A60" s="94"/>
       <c r="B60" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="75">
-      <c r="A61" s="91" t="s">
+      <c r="A61" s="94" t="s">
         <v>89</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -8174,7 +8372,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="91"/>
+      <c r="A62" s="94"/>
       <c r="B62" s="5" t="s">
         <v>322</v>
       </c>
@@ -8228,7 +8426,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="89" t="s">
+      <c r="A69" s="92" t="s">
         <v>102</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -8236,13 +8434,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="240">
-      <c r="A70" s="89"/>
+      <c r="A70" s="92"/>
       <c r="B70" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="180">
-      <c r="A71" s="89"/>
+      <c r="A71" s="92"/>
       <c r="B71" s="5" t="s">
         <v>105</v>
       </c>
@@ -8289,14 +8487,14 @@
     </row>
     <row r="77" spans="1:2" s="19" customFormat="1" ht="30">
       <c r="A77" s="79" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B77" s="80" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="105">
-      <c r="A78" s="88" t="s">
+      <c r="A78" s="91" t="s">
         <v>465</v>
       </c>
       <c r="B78" s="35" t="s">
@@ -8304,19 +8502,19 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="120">
-      <c r="A79" s="88"/>
+      <c r="A79" s="91"/>
       <c r="B79" s="35" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="75">
-      <c r="A80" s="88"/>
+      <c r="A80" s="91"/>
       <c r="B80" s="35" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="60">
-      <c r="A81" s="88" t="s">
+      <c r="A81" s="91" t="s">
         <v>466</v>
       </c>
       <c r="B81" s="43" t="s">
@@ -8324,7 +8522,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" ht="60">
-      <c r="A82" s="88"/>
+      <c r="A82" s="91"/>
       <c r="B82" s="43" t="s">
         <v>489</v>
       </c>
@@ -8386,7 +8584,7 @@
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="87" t="s">
+      <c r="A90" s="90" t="s">
         <v>491</v>
       </c>
       <c r="B90" s="43" t="s">
@@ -8394,7 +8592,7 @@
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="87"/>
+      <c r="A91" s="90"/>
       <c r="B91" s="43" t="s">
         <v>493</v>
       </c>
@@ -8447,10 +8645,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="82"/>
+      <c r="B4" s="85"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
@@ -8680,10 +8878,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="82"/>
+      <c r="B3" s="85"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
@@ -8707,11 +8905,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8729,10 +8927,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="84" t="s">
         <v>662</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="76"/>
@@ -8750,10 +8948,10 @@
       <c r="A7" s="76"/>
     </row>
     <row r="8" spans="1:2" s="19" customFormat="1">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="84" t="s">
         <v>668</v>
       </c>
-      <c r="B8" s="82"/>
+      <c r="B8" s="85"/>
     </row>
     <row r="9" spans="1:2" s="19" customFormat="1">
       <c r="A9" s="76"/>
@@ -8780,10 +8978,10 @@
       <c r="A16" s="76"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="84" t="s">
         <v>656</v>
       </c>
-      <c r="B18" s="82"/>
+      <c r="B18" s="85"/>
     </row>
     <row r="19" spans="1:2" ht="90">
       <c r="A19" s="75" t="s">
@@ -8954,10 +9152,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="84" t="s">
         <v>657</v>
       </c>
-      <c r="B41" s="82"/>
+      <c r="B41" s="85"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="46" t="s">
@@ -8968,7 +9166,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="95" t="s">
         <v>661</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -8976,7 +9174,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="92"/>
+      <c r="A44" s="95"/>
       <c r="B44" s="19" t="s">
         <v>693</v>
       </c>
@@ -9182,7 +9380,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="120">
-      <c r="A70" s="92" t="s">
+      <c r="A70" s="95" t="s">
         <v>736</v>
       </c>
       <c r="B70" s="80" t="s">
@@ -9190,13 +9388,13 @@
       </c>
     </row>
     <row r="71" spans="1:2" s="19" customFormat="1" ht="60">
-      <c r="A71" s="92"/>
+      <c r="A71" s="95"/>
       <c r="B71" s="80" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="60">
-      <c r="A72" s="92" t="s">
+      <c r="A72" s="95" t="s">
         <v>744</v>
       </c>
       <c r="B72" s="80" t="s">
@@ -9204,7 +9402,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="60">
-      <c r="A73" s="92"/>
+      <c r="A73" s="95"/>
       <c r="B73" s="80" t="s">
         <v>746</v>
       </c>
@@ -9213,237 +9411,364 @@
       <c r="A74" s="80" t="s">
         <v>748</v>
       </c>
-      <c r="B74" s="80" t="s">
-        <v>749</v>
+      <c r="B74" s="83" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="60">
       <c r="A75" s="80" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B75" s="80" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="80" t="s">
+        <v>750</v>
+      </c>
+      <c r="B76" s="80" t="s">
         <v>751</v>
-      </c>
-      <c r="B76" s="80" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="60">
       <c r="A77" s="80" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B77" s="80" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="45">
       <c r="A78" s="80" t="s">
+        <v>754</v>
+      </c>
+      <c r="B78" s="80" t="s">
         <v>755</v>
-      </c>
-      <c r="B78" s="80" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="45">
       <c r="A79" s="80" t="s">
+        <v>756</v>
+      </c>
+      <c r="B79" s="80" t="s">
         <v>757</v>
-      </c>
-      <c r="B79" s="80" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="80" t="s">
+        <v>758</v>
+      </c>
+      <c r="B80" s="80" t="s">
         <v>759</v>
-      </c>
-      <c r="B80" s="80" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="75">
       <c r="A81" s="80" t="s">
+        <v>761</v>
+      </c>
+      <c r="B81" s="80" t="s">
         <v>762</v>
-      </c>
-      <c r="B81" s="80" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="75">
       <c r="A82" s="80" t="s">
+        <v>763</v>
+      </c>
+      <c r="B82" s="80" t="s">
         <v>764</v>
-      </c>
-      <c r="B82" s="80" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="75">
       <c r="A83" s="80" t="s">
+        <v>765</v>
+      </c>
+      <c r="B83" s="80" t="s">
         <v>766</v>
-      </c>
-      <c r="B83" s="80" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="90">
       <c r="A84" s="80" t="s">
+        <v>767</v>
+      </c>
+      <c r="B84" s="80" t="s">
         <v>768</v>
-      </c>
-      <c r="B84" s="80" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="80" t="s">
+        <v>769</v>
+      </c>
+      <c r="B85" s="80" t="s">
         <v>770</v>
-      </c>
-      <c r="B85" s="80" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="80" t="s">
+        <v>771</v>
+      </c>
+      <c r="B86" s="80" t="s">
         <v>772</v>
-      </c>
-      <c r="B86" s="80" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="30">
       <c r="A87" s="80" t="s">
+        <v>773</v>
+      </c>
+      <c r="B87" s="80" t="s">
         <v>774</v>
-      </c>
-      <c r="B87" s="80" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
       <c r="A88" s="80" t="s">
+        <v>775</v>
+      </c>
+      <c r="B88" s="80" t="s">
         <v>776</v>
       </c>
-      <c r="B88" s="80" t="s">
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="95" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="92" t="s">
+      <c r="B89" s="83" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="90">
+      <c r="A90" s="95"/>
+      <c r="B90" s="80" t="s">
         <v>778</v>
       </c>
-      <c r="B89" s="80" t="s">
+    </row>
+    <row r="91" spans="1:2" ht="75">
+      <c r="A91" s="95"/>
+      <c r="B91" s="80" t="s">
         <v>779</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="90">
-      <c r="A90" s="92"/>
-      <c r="B90" s="80" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="75">
-      <c r="A91" s="92"/>
-      <c r="B91" s="80" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="30">
       <c r="A92" s="80" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B92" s="80" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="30">
       <c r="A93" s="80" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B93" s="80" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="120">
       <c r="A94" s="80" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B94" s="80" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="80" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B95" s="80" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="30">
       <c r="A96" s="80" t="s">
-        <v>792</v>
-      </c>
-      <c r="B96" s="80" t="s">
-        <v>795</v>
+        <v>790</v>
+      </c>
+      <c r="B96" s="81" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="80" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B97" s="80" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="30">
       <c r="A98" s="80" t="s">
+        <v>793</v>
+      </c>
+      <c r="B98" s="80" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="30">
+      <c r="A99" s="80" t="s">
+        <v>795</v>
+      </c>
+      <c r="B99" s="81" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="30">
+      <c r="A100" s="80" t="s">
         <v>796</v>
       </c>
-      <c r="B98" s="80" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="80" t="s">
-        <v>798</v>
-      </c>
-      <c r="B99" s="80" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="80" t="s">
-        <v>800</v>
-      </c>
-      <c r="B100" s="80" t="s">
-        <v>801</v>
+      <c r="B100" s="81" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="80" t="s">
+        <v>797</v>
+      </c>
+      <c r="B101" s="80" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="120">
+      <c r="A102" s="81" t="s">
+        <v>801</v>
+      </c>
+      <c r="B102" s="81" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="30">
+      <c r="A103" s="81" t="s">
         <v>802</v>
       </c>
-      <c r="B101" s="80" t="s">
+      <c r="B103" s="81" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="80" t="s">
+    <row r="104" spans="1:2" ht="90">
+      <c r="A104" s="81" t="s">
+        <v>806</v>
+      </c>
+      <c r="B104" s="81" t="s">
         <v>804</v>
       </c>
     </row>
+    <row r="105" spans="1:2" ht="90">
+      <c r="A105" s="81" t="s">
+        <v>807</v>
+      </c>
+      <c r="B105" s="81" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="60">
+      <c r="A106" s="81" t="s">
+        <v>796</v>
+      </c>
+      <c r="B106" s="81" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="81" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="81" t="s">
+        <v>810</v>
+      </c>
+      <c r="B108" s="81" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="75">
+      <c r="A109" s="81" t="s">
+        <v>812</v>
+      </c>
+      <c r="B109" s="81" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="81" t="s">
+        <v>814</v>
+      </c>
+      <c r="B110" s="81" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="60">
+      <c r="A111" s="95" t="s">
+        <v>818</v>
+      </c>
+      <c r="B111" s="81" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="60">
+      <c r="A112" s="95"/>
+      <c r="B112" s="81" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="60">
+      <c r="A113" s="81" t="s">
+        <v>826</v>
+      </c>
+      <c r="B113" s="81" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" s="19" customFormat="1" ht="60">
+      <c r="A114" s="81" t="s">
+        <v>827</v>
+      </c>
+      <c r="B114" s="81" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="45">
+      <c r="A115" s="81" t="s">
+        <v>821</v>
+      </c>
+      <c r="B115" s="81" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="120">
+      <c r="A116" s="81" t="s">
+        <v>822</v>
+      </c>
+      <c r="B116" s="81" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="75">
+      <c r="A117" s="81" t="s">
+        <v>829</v>
+      </c>
+      <c r="B117" s="81" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="225">
+      <c r="A118" s="81" t="s">
+        <v>832</v>
+      </c>
+      <c r="B118" s="81" t="s">
+        <v>831</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A111:A112"/>
     <mergeCell ref="A72:A73"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="A89:A91"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
@@ -9481,10 +9806,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="84" t="s">
         <v>647</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="6" t="s">
@@ -9507,10 +9832,10 @@
       <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2" s="19" customFormat="1">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="84" t="s">
         <v>648</v>
       </c>
-      <c r="B7" s="82"/>
+      <c r="B7" s="85"/>
     </row>
     <row r="8" spans="1:2" s="19" customFormat="1">
       <c r="A8" s="6"/>
@@ -9533,10 +9858,10 @@
       <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="84" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="82"/>
+      <c r="B13" s="85"/>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" s="33" t="s">
@@ -9547,7 +9872,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="120">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="94" t="s">
         <v>301</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -9555,13 +9880,13 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="91"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="9" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="91" t="s">
         <v>316</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -9569,19 +9894,19 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="120">
-      <c r="A18" s="88"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="68" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="135">
-      <c r="A19" s="88"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="68" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="150">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="97" t="s">
         <v>434</v>
       </c>
       <c r="B20" s="33" t="s">
@@ -9589,13 +9914,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" s="19" customFormat="1" ht="105">
-      <c r="A21" s="94"/>
+      <c r="A21" s="97"/>
       <c r="B21" s="33" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="97" t="s">
         <v>412</v>
       </c>
       <c r="B22" s="33" t="s">
@@ -9603,19 +9928,19 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="94"/>
+      <c r="A23" s="97"/>
       <c r="B23" s="61" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="94"/>
+      <c r="A24" s="97"/>
       <c r="B24" s="33" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="97" t="s">
         <v>416</v>
       </c>
       <c r="B25" s="33" t="s">
@@ -9623,31 +9948,31 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="135">
-      <c r="A26" s="94"/>
+      <c r="A26" s="97"/>
       <c r="B26" s="33" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="94"/>
+      <c r="A27" s="97"/>
       <c r="B27" s="33" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="94"/>
+      <c r="A28" s="97"/>
       <c r="B28" s="33" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="94"/>
+      <c r="A29" s="97"/>
       <c r="B29" s="33" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="93" t="s">
+      <c r="A30" s="96" t="s">
         <v>422</v>
       </c>
       <c r="B30" s="33" t="s">
@@ -9655,31 +9980,31 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="93"/>
+      <c r="A31" s="96"/>
       <c r="B31" s="33" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="93"/>
+      <c r="A32" s="96"/>
       <c r="B32" s="33" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="93"/>
+      <c r="A33" s="96"/>
       <c r="B33" s="33" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="93"/>
+      <c r="A34" s="96"/>
       <c r="B34" s="33" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="97" t="s">
         <v>428</v>
       </c>
       <c r="B35" s="33" t="s">
@@ -9687,13 +10012,13 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="165">
-      <c r="A36" s="94"/>
+      <c r="A36" s="97"/>
       <c r="B36" s="33" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="94"/>
+      <c r="A37" s="97"/>
       <c r="B37" s="33" t="s">
         <v>431</v>
       </c>
@@ -9731,7 +10056,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="94" t="s">
+      <c r="A42" s="97" t="s">
         <v>442</v>
       </c>
       <c r="B42" s="33" t="s">
@@ -9739,7 +10064,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="94"/>
+      <c r="A43" s="97"/>
       <c r="B43" s="33" t="s">
         <v>444</v>
       </c>
@@ -9753,7 +10078,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="94" t="s">
+      <c r="A45" s="97" t="s">
         <v>447</v>
       </c>
       <c r="B45" s="33" t="s">
@@ -9761,7 +10086,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="94"/>
+      <c r="A46" s="97"/>
       <c r="B46" s="33" t="s">
         <v>449</v>
       </c>
@@ -9775,7 +10100,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="94" t="s">
+      <c r="A48" s="97" t="s">
         <v>447</v>
       </c>
       <c r="B48" s="33" t="s">
@@ -9783,13 +10108,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="60">
-      <c r="A49" s="94"/>
+      <c r="A49" s="97"/>
       <c r="B49" s="33" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="93" t="s">
+      <c r="A50" s="96" t="s">
         <v>589</v>
       </c>
       <c r="B50" s="62" t="s">
@@ -9797,7 +10122,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="60">
-      <c r="A51" s="93"/>
+      <c r="A51" s="96"/>
       <c r="B51" s="62" t="s">
         <v>591</v>
       </c>
@@ -9852,10 +10177,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="82"/>
+      <c r="B3" s="85"/>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" s="6" t="s">
@@ -9906,7 +10231,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="94" t="s">
         <v>242</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -9914,25 +10239,25 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="91"/>
+      <c r="A11" s="94"/>
       <c r="B11" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="91"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="98" t="s">
         <v>246</v>
       </c>
-      <c r="B13" s="95"/>
+      <c r="B13" s="98"/>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="94" t="s">
         <v>247</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -9940,13 +10265,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="91"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="91"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="5" t="s">
         <v>250</v>
       </c>
@@ -9976,7 +10301,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="94" t="s">
         <v>257</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -9984,7 +10309,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="91"/>
+      <c r="A21" s="94"/>
       <c r="B21" s="5" t="s">
         <v>259</v>
       </c>
@@ -10062,7 +10387,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="94" t="s">
         <v>278</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -10070,13 +10395,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="91"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="91"/>
+      <c r="A33" s="94"/>
       <c r="B33" s="5" t="s">
         <v>281</v>
       </c>
@@ -10130,10 +10455,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="84" t="s">
         <v>647</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="5" spans="1:2">
@@ -10150,13 +10475,13 @@
       <c r="A9" s="69"/>
     </row>
     <row r="10" spans="1:2" s="19" customFormat="1">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="84" t="s">
         <v>651</v>
       </c>
-      <c r="B10" s="82"/>
+      <c r="B10" s="85"/>
     </row>
     <row r="11" spans="1:2" s="19" customFormat="1">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="101" t="s">
         <v>655</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -10164,13 +10489,13 @@
       </c>
     </row>
     <row r="12" spans="1:2" s="19" customFormat="1">
-      <c r="A12" s="96"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="12" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="19" customFormat="1">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="99" t="s">
         <v>654</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -10178,7 +10503,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" s="19" customFormat="1">
-      <c r="A14" s="96"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="12" t="s">
         <v>646</v>
       </c>
@@ -10205,10 +10530,10 @@
       <c r="A21" s="69"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="84" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="82"/>
+      <c r="B22" s="85"/>
     </row>
     <row r="23" spans="1:2" s="19" customFormat="1">
       <c r="A23" s="69" t="s">
@@ -10259,7 +10584,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="60">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="96" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="68" t="s">
@@ -10267,13 +10592,13 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="165">
-      <c r="A30" s="93"/>
+      <c r="A30" s="96"/>
       <c r="B30" s="68" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="100" t="s">
         <v>628</v>
       </c>
       <c r="B31" s="68" t="s">
@@ -10281,7 +10606,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
-      <c r="A32" s="97"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="68" t="s">
         <v>630</v>
       </c>
@@ -10335,7 +10660,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="90">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="99" t="s">
         <v>676</v>
       </c>
       <c r="B39" s="73" t="s">
@@ -10343,13 +10668,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="120">
-      <c r="A40" s="96"/>
+      <c r="A40" s="99"/>
       <c r="B40" s="73" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="19" customFormat="1" ht="60">
-      <c r="A41" s="92" t="s">
+      <c r="A41" s="95" t="s">
         <v>680</v>
       </c>
       <c r="B41" s="73" t="s">
@@ -10357,13 +10682,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" s="19" customFormat="1" ht="105">
-      <c r="A42" s="92"/>
+      <c r="A42" s="95"/>
       <c r="B42" s="73" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="95" t="s">
         <v>677</v>
       </c>
       <c r="B43" s="73" t="s">
@@ -10371,13 +10696,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="92"/>
+      <c r="A44" s="95"/>
       <c r="B44" s="73" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="75">
-      <c r="A45" s="92" t="s">
+      <c r="A45" s="95" t="s">
         <v>686</v>
       </c>
       <c r="B45" s="73" t="s">
@@ -10385,7 +10710,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="60">
-      <c r="A46" s="92"/>
+      <c r="A46" s="95"/>
       <c r="B46" s="73" t="s">
         <v>688</v>
       </c>

--- a/Definitions/6_Definitions_Spring.xlsx
+++ b/Definitions/6_Definitions_Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="967" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="850">
   <si>
     <t>Main Topic</t>
   </si>
@@ -5419,6 +5419,54 @@
   </si>
   <si>
     <t>If we want to reuse point cut expression then we need to declare class like this:</t>
+  </si>
+  <si>
+    <t>Pluralsight - Definitions</t>
+  </si>
+  <si>
+    <t>If we are using maven - for spring MVC - we need 3 dependencies. Rest all dependencies will come as transitive dependencies</t>
+  </si>
+  <si>
+    <t>1. spring-webmvc
+2. servlet-api - (javax.servlet, servlet-api, 2.5)
+3. jstl - (javax.servlet, jstl, 1.2)</t>
+  </si>
+  <si>
+    <t>tlds in spring mvc</t>
+  </si>
+  <si>
+    <t>1. spring.tld
+2. spring-form.tld</t>
+  </si>
+  <si>
+    <t>url tag</t>
+  </si>
+  <si>
+    <t>1. used to build url in the application
+2. escapes special characters
+3. if the url contains special characters then request will break</t>
+  </si>
+  <si>
+    <t>There are 2 ways for doing validation in spring mvc</t>
+  </si>
+  <si>
+    <t>1. Using Validator interface and ValidationUtils helper class (This is older way. Will not work with Annotations). We have to implement Validator interface and implement our validation logic. This will return results using BindingResult class
+2. JSR-303 validation</t>
+  </si>
+  <si>
+    <t>JSR-303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSR is a specification that has been established to do validation. This is java standard, not a spring standard or spring API. This is annotation based, we can extend this with our own custom validations. </t>
+  </si>
+  <si>
+    <t>ContentNegotiatingViewResolver</t>
+  </si>
+  <si>
+    <t>1. the content negotiating view resolver is what makes it possible to return various content types from our appliction based off of the request.
+2. content negotiating view resolver uses "Accepts" header that is sent using http headers to determine the content to be returned
+3. This can be combined with other view resolvers, they just need to have an order associated with them
+4. we need to add some more dependencies to application to work with content negotiating view resolver</t>
   </si>
 </sst>
 </file>
@@ -5632,7 +5680,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5869,6 +5917,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6502,13 +6556,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="85"/>
+      <c r="B4" s="87"/>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>106</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -6516,7 +6570,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="120">
-      <c r="A6" s="94"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="5" t="s">
         <v>108</v>
       </c>
@@ -6562,7 +6616,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="104" t="s">
         <v>118</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -6570,7 +6624,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="102"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="5" t="s">
         <v>120</v>
       </c>
@@ -6584,7 +6638,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="104" t="s">
         <v>123</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -6592,7 +6646,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="285">
-      <c r="A16" s="102"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="5" t="s">
         <v>125</v>
       </c>
@@ -6652,10 +6706,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="85"/>
+      <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="29" t="s">
@@ -6666,10 +6720,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="85"/>
+      <c r="B6" s="87"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="29" t="s">
@@ -6768,7 +6822,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="99" t="s">
         <v>381</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -6776,7 +6830,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="97"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="29" t="s">
         <v>379</v>
       </c>
@@ -6830,7 +6884,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="96" t="s">
+      <c r="A27" s="98" t="s">
         <v>392</v>
       </c>
       <c r="B27" s="29" t="s">
@@ -6838,7 +6892,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="96"/>
+      <c r="A28" s="98"/>
       <c r="B28" s="29" t="s">
         <v>393</v>
       </c>
@@ -6940,7 +6994,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="96" t="s">
+      <c r="A41" s="98" t="s">
         <v>507</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -6948,7 +7002,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="210">
-      <c r="A42" s="96"/>
+      <c r="A42" s="98"/>
       <c r="B42" s="48" t="s">
         <v>506</v>
       </c>
@@ -6970,7 +7024,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="95" t="s">
+      <c r="A45" s="97" t="s">
         <v>512</v>
       </c>
       <c r="B45" s="49" t="s">
@@ -6978,13 +7032,13 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="120">
-      <c r="A46" s="95"/>
+      <c r="A46" s="97"/>
       <c r="B46" s="49" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="95"/>
+      <c r="A47" s="97"/>
       <c r="B47" s="24" t="s">
         <v>514</v>
       </c>
@@ -6998,7 +7052,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45" customHeight="1">
-      <c r="A49" s="95" t="s">
+      <c r="A49" s="97" t="s">
         <v>517</v>
       </c>
       <c r="B49" s="50" t="s">
@@ -7006,7 +7060,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="95"/>
+      <c r="A50" s="97"/>
       <c r="B50" s="50" t="s">
         <v>519</v>
       </c>
@@ -7044,7 +7098,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="95" t="s">
+      <c r="A55" s="97" t="s">
         <v>524</v>
       </c>
       <c r="B55" s="50" t="s">
@@ -7052,7 +7106,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="95"/>
+      <c r="A56" s="97"/>
       <c r="B56" s="50" t="s">
         <v>530</v>
       </c>
@@ -7066,7 +7120,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="99" t="s">
+      <c r="A58" s="101" t="s">
         <v>533</v>
       </c>
       <c r="B58" s="52" t="s">
@@ -7074,7 +7128,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="99"/>
+      <c r="A59" s="101"/>
       <c r="B59" s="51" t="s">
         <v>534</v>
       </c>
@@ -7161,10 +7215,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="85"/>
+      <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="20" t="s">
@@ -7175,10 +7229,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="86" t="s">
         <v>308</v>
       </c>
-      <c r="B6" s="85"/>
+      <c r="B6" s="87"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="9" t="s">
@@ -7213,7 +7267,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="97" t="s">
         <v>318</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -7221,7 +7275,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="95"/>
+      <c r="A12" s="97"/>
       <c r="B12" s="26" t="s">
         <v>320</v>
       </c>
@@ -7235,7 +7289,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="180">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="99" t="s">
         <v>328</v>
       </c>
       <c r="B14" s="26" t="s">
@@ -7243,13 +7297,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="97"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="26" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="97"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="26" t="s">
         <v>344</v>
       </c>
@@ -7352,10 +7406,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="85"/>
+      <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="56" t="s">
@@ -7366,10 +7420,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="86" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="85"/>
+      <c r="B7" s="87"/>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="56" t="s">
@@ -7396,7 +7450,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" customHeight="1">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="101" t="s">
         <v>564</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -7404,7 +7458,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="99"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="19" t="s">
         <v>566</v>
       </c>
@@ -7538,16 +7592,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="85"/>
+      <c r="B2" s="87"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="86" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="85"/>
+      <c r="B7" s="87"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="19" t="s">
@@ -7606,7 +7660,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="75">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="105" t="s">
         <v>612</v>
       </c>
       <c r="B15" s="66" t="s">
@@ -7614,7 +7668,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="103"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="66" t="s">
         <v>614</v>
       </c>
@@ -7669,10 +7723,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="19" customFormat="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>486</v>
       </c>
-      <c r="B2" s="85"/>
+      <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19" t="s">
@@ -7684,10 +7738,10 @@
     </row>
     <row r="4" spans="1:3" s="19" customFormat="1"/>
     <row r="5" spans="1:3">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="86" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="85"/>
+      <c r="B5" s="87"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="29" t="s">
@@ -7710,10 +7764,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="87"/>
+      <c r="B9" s="89"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="19" t="s">
@@ -7724,10 +7778,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="85"/>
+      <c r="B12" s="87"/>
     </row>
     <row r="13" spans="1:3" s="19" customFormat="1">
       <c r="A13" s="6" t="s">
@@ -7794,10 +7848,10 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="86" t="s">
         <v>284</v>
       </c>
-      <c r="B22" s="85"/>
+      <c r="B22" s="87"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="19" t="s">
@@ -7843,10 +7897,10 @@
       <c r="B28" s="12"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="86" t="s">
         <v>640</v>
       </c>
-      <c r="B29" s="85"/>
+      <c r="B29" s="87"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="67" t="s">
@@ -7858,10 +7912,10 @@
     </row>
     <row r="31" spans="1:2" s="19" customFormat="1"/>
     <row r="32" spans="1:2">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="86" t="s">
         <v>551</v>
       </c>
-      <c r="B32" s="85"/>
+      <c r="B32" s="87"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -7884,10 +7938,10 @@
       <c r="B35" s="19"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="85"/>
+      <c r="B37" s="87"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="19" t="s">
@@ -7898,10 +7952,10 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="86" t="s">
         <v>587</v>
       </c>
-      <c r="B40" s="85"/>
+      <c r="B40" s="87"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="19" t="s">
@@ -7912,10 +7966,10 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="88" t="s">
+      <c r="A43" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="89"/>
+      <c r="B43" s="91"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="19" t="s">
@@ -7966,8 +8020,8 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81:A82"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7985,10 +8039,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>662</v>
       </c>
-      <c r="B2" s="87"/>
+      <c r="B2" s="89"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="19" t="s">
@@ -8010,10 +8064,10 @@
     <row r="6" spans="1:2" s="19" customFormat="1"/>
     <row r="7" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="88" t="s">
         <v>663</v>
       </c>
-      <c r="B8" s="87"/>
+      <c r="B8" s="89"/>
     </row>
     <row r="9" spans="1:2" s="19" customFormat="1">
       <c r="A9" s="19" t="s">
@@ -8032,13 +8086,13 @@
     <row r="16" spans="1:2" s="19" customFormat="1"/>
     <row r="17" spans="1:2" s="19" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="18" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="87"/>
+      <c r="B18" s="89"/>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="95" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -8046,7 +8100,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="94"/>
+      <c r="A20" s="96"/>
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
@@ -8324,7 +8378,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="94" t="s">
+      <c r="A55" s="96" t="s">
         <v>81</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -8332,19 +8386,19 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="94"/>
+      <c r="A56" s="96"/>
       <c r="B56" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="94"/>
+      <c r="A57" s="96"/>
       <c r="B57" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="94" t="s">
+      <c r="A58" s="96" t="s">
         <v>85</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -8352,19 +8406,19 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="94"/>
+      <c r="A59" s="96"/>
       <c r="B59" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="90">
-      <c r="A60" s="94"/>
+      <c r="A60" s="96"/>
       <c r="B60" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="75">
-      <c r="A61" s="94" t="s">
+      <c r="A61" s="96" t="s">
         <v>89</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -8372,7 +8426,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="94"/>
+      <c r="A62" s="96"/>
       <c r="B62" s="5" t="s">
         <v>322</v>
       </c>
@@ -8426,7 +8480,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="92" t="s">
+      <c r="A69" s="94" t="s">
         <v>102</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -8434,13 +8488,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="240">
-      <c r="A70" s="92"/>
+      <c r="A70" s="94"/>
       <c r="B70" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="180">
-      <c r="A71" s="92"/>
+      <c r="A71" s="94"/>
       <c r="B71" s="5" t="s">
         <v>105</v>
       </c>
@@ -8494,7 +8548,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="105">
-      <c r="A78" s="91" t="s">
+      <c r="A78" s="93" t="s">
         <v>465</v>
       </c>
       <c r="B78" s="35" t="s">
@@ -8502,19 +8556,19 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="120">
-      <c r="A79" s="91"/>
+      <c r="A79" s="93"/>
       <c r="B79" s="35" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="75">
-      <c r="A80" s="91"/>
+      <c r="A80" s="93"/>
       <c r="B80" s="35" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="60">
-      <c r="A81" s="91" t="s">
+      <c r="A81" s="93" t="s">
         <v>466</v>
       </c>
       <c r="B81" s="43" t="s">
@@ -8522,7 +8576,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" ht="60">
-      <c r="A82" s="91"/>
+      <c r="A82" s="93"/>
       <c r="B82" s="43" t="s">
         <v>489</v>
       </c>
@@ -8584,7 +8638,7 @@
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="90" t="s">
+      <c r="A90" s="92" t="s">
         <v>491</v>
       </c>
       <c r="B90" s="43" t="s">
@@ -8592,7 +8646,7 @@
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="90"/>
+      <c r="A91" s="92"/>
       <c r="B91" s="43" t="s">
         <v>493</v>
       </c>
@@ -8645,10 +8699,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="85"/>
+      <c r="B4" s="87"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
@@ -8878,10 +8932,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="85"/>
+      <c r="B3" s="87"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
@@ -8907,7 +8961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
@@ -8927,10 +8981,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>662</v>
       </c>
-      <c r="B2" s="85"/>
+      <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="76"/>
@@ -8948,10 +9002,10 @@
       <c r="A7" s="76"/>
     </row>
     <row r="8" spans="1:2" s="19" customFormat="1">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="86" t="s">
         <v>668</v>
       </c>
-      <c r="B8" s="85"/>
+      <c r="B8" s="87"/>
     </row>
     <row r="9" spans="1:2" s="19" customFormat="1">
       <c r="A9" s="76"/>
@@ -8978,10 +9032,10 @@
       <c r="A16" s="76"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="86" t="s">
         <v>656</v>
       </c>
-      <c r="B18" s="85"/>
+      <c r="B18" s="87"/>
     </row>
     <row r="19" spans="1:2" ht="90">
       <c r="A19" s="75" t="s">
@@ -9152,10 +9206,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="84" t="s">
+      <c r="A41" s="86" t="s">
         <v>657</v>
       </c>
-      <c r="B41" s="85"/>
+      <c r="B41" s="87"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="46" t="s">
@@ -9166,7 +9220,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="95" t="s">
+      <c r="A43" s="97" t="s">
         <v>661</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -9174,7 +9228,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="95"/>
+      <c r="A44" s="97"/>
       <c r="B44" s="19" t="s">
         <v>693</v>
       </c>
@@ -9380,7 +9434,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="120">
-      <c r="A70" s="95" t="s">
+      <c r="A70" s="97" t="s">
         <v>736</v>
       </c>
       <c r="B70" s="80" t="s">
@@ -9388,13 +9442,13 @@
       </c>
     </row>
     <row r="71" spans="1:2" s="19" customFormat="1" ht="60">
-      <c r="A71" s="95"/>
+      <c r="A71" s="97"/>
       <c r="B71" s="80" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="60">
-      <c r="A72" s="95" t="s">
+      <c r="A72" s="97" t="s">
         <v>744</v>
       </c>
       <c r="B72" s="80" t="s">
@@ -9402,7 +9456,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="60">
-      <c r="A73" s="95"/>
+      <c r="A73" s="97"/>
       <c r="B73" s="80" t="s">
         <v>746</v>
       </c>
@@ -9528,7 +9582,7 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="95" t="s">
+      <c r="A89" s="97" t="s">
         <v>777</v>
       </c>
       <c r="B89" s="83" t="s">
@@ -9536,13 +9590,13 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="90">
-      <c r="A90" s="95"/>
+      <c r="A90" s="97"/>
       <c r="B90" s="80" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="75">
-      <c r="A91" s="95"/>
+      <c r="A91" s="97"/>
       <c r="B91" s="80" t="s">
         <v>779</v>
       </c>
@@ -9697,7 +9751,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="60">
-      <c r="A111" s="95" t="s">
+      <c r="A111" s="97" t="s">
         <v>818</v>
       </c>
       <c r="B111" s="81" t="s">
@@ -9705,7 +9759,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="60">
-      <c r="A112" s="95"/>
+      <c r="A112" s="97"/>
       <c r="B112" s="81" t="s">
         <v>820</v>
       </c>
@@ -9783,11 +9837,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9806,10 +9860,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>647</v>
       </c>
-      <c r="B2" s="85"/>
+      <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="6" t="s">
@@ -9832,10 +9886,10 @@
       <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2" s="19" customFormat="1">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="86" t="s">
         <v>648</v>
       </c>
-      <c r="B7" s="85"/>
+      <c r="B7" s="87"/>
     </row>
     <row r="8" spans="1:2" s="19" customFormat="1">
       <c r="A8" s="6"/>
@@ -9858,10 +9912,10 @@
       <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="86" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="85"/>
+      <c r="B13" s="87"/>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" s="33" t="s">
@@ -9872,7 +9926,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="120">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="96" t="s">
         <v>301</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -9880,13 +9934,13 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="94"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="9" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="93" t="s">
         <v>316</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -9894,19 +9948,19 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="120">
-      <c r="A18" s="91"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="68" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="135">
-      <c r="A19" s="91"/>
-      <c r="B19" s="68" t="s">
+      <c r="A19" s="93"/>
+      <c r="B19" s="84" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="150">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="99" t="s">
         <v>434</v>
       </c>
       <c r="B20" s="33" t="s">
@@ -9914,13 +9968,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" s="19" customFormat="1" ht="105">
-      <c r="A21" s="97"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="33" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="99" t="s">
         <v>412</v>
       </c>
       <c r="B22" s="33" t="s">
@@ -9928,19 +9982,19 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="97"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="61" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="97"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="33" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="97" t="s">
+      <c r="A25" s="99" t="s">
         <v>416</v>
       </c>
       <c r="B25" s="33" t="s">
@@ -9948,31 +10002,31 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="135">
-      <c r="A26" s="97"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="33" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="97"/>
+      <c r="A27" s